--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -2043,7 +2043,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J5:N9"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3843,7 +3843,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5:N9"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5642,7 +5642,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5:N9"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="589">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -42,19 +42,19 @@
     <t xml:space="preserve">1.</t>
   </si>
   <si>
+    <t xml:space="preserve">Trimp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:00.601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Casu</t>
   </si>
   <si>
-    <t xml:space="preserve">4:00.975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trimp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:01.570</t>
+    <t xml:space="preserve">4:00.788</t>
   </si>
   <si>
     <t xml:space="preserve">Average</t>
@@ -96,24 +96,24 @@
     <t xml:space="preserve">6.</t>
   </si>
   <si>
+    <t xml:space="preserve">Crbknight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:02.891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„?” - there is a vidego proof, but end screen is not shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.</t>
+  </si>
+  <si>
     <t xml:space="preserve">flippeh</t>
   </si>
   <si>
     <t xml:space="preserve">4:03.151</t>
   </si>
   <si>
-    <t xml:space="preserve">„?” - there is a vidego proof, but end screen is not shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crbknight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:03.287</t>
-  </si>
-  <si>
     <t xml:space="preserve">Green Color – smallest number of jumps</t>
   </si>
   <si>
@@ -258,13 +258,22 @@
     <t xml:space="preserve">23.</t>
   </si>
   <si>
+    <t xml:space="preserve">Bonzai917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:17.091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.</t>
+  </si>
+  <si>
     <t xml:space="preserve">AS13B</t>
   </si>
   <si>
     <t xml:space="preserve">4:17.193</t>
   </si>
   <si>
-    <t xml:space="preserve">24.</t>
+    <t xml:space="preserve">25.</t>
   </si>
   <si>
     <t xml:space="preserve">primax</t>
@@ -273,7 +282,7 @@
     <t xml:space="preserve">4:17.278</t>
   </si>
   <si>
-    <t xml:space="preserve">25.</t>
+    <t xml:space="preserve">26.</t>
   </si>
   <si>
     <t xml:space="preserve">SirNewt</t>
@@ -282,7 +291,7 @@
     <t xml:space="preserve">4:17.329</t>
   </si>
   <si>
-    <t xml:space="preserve">26.</t>
+    <t xml:space="preserve">27.</t>
   </si>
   <si>
     <t xml:space="preserve">KurierDPD</t>
@@ -291,7 +300,7 @@
     <t xml:space="preserve">4:17.346</t>
   </si>
   <si>
-    <t xml:space="preserve">27.</t>
+    <t xml:space="preserve">28.</t>
   </si>
   <si>
     <t xml:space="preserve">eyetooth96</t>
@@ -300,7 +309,7 @@
     <t xml:space="preserve">4:17.448</t>
   </si>
   <si>
-    <t xml:space="preserve">28.</t>
+    <t xml:space="preserve">29.</t>
   </si>
   <si>
     <t xml:space="preserve">Taken</t>
@@ -309,7 +318,7 @@
     <t xml:space="preserve">4:17.754</t>
   </si>
   <si>
-    <t xml:space="preserve">29.</t>
+    <t xml:space="preserve">30.</t>
   </si>
   <si>
     <t xml:space="preserve">Yoyogi_yoshi_Vtuber</t>
@@ -318,7 +327,7 @@
     <t xml:space="preserve">4:18.009</t>
   </si>
   <si>
-    <t xml:space="preserve">30.</t>
+    <t xml:space="preserve">31.</t>
   </si>
   <si>
     <t xml:space="preserve">ExiledMonk</t>
@@ -327,7 +336,7 @@
     <t xml:space="preserve">4:18.468</t>
   </si>
   <si>
-    <t xml:space="preserve">31.</t>
+    <t xml:space="preserve">32.</t>
   </si>
   <si>
     <t xml:space="preserve">Dadi_chen</t>
@@ -336,7 +345,7 @@
     <t xml:space="preserve">4:18.502</t>
   </si>
   <si>
-    <t xml:space="preserve">32.</t>
+    <t xml:space="preserve">33.</t>
   </si>
   <si>
     <t xml:space="preserve">Ridgy</t>
@@ -345,7 +354,7 @@
     <t xml:space="preserve">4:18.672</t>
   </si>
   <si>
-    <t xml:space="preserve">33.</t>
+    <t xml:space="preserve">34.</t>
   </si>
   <si>
     <t xml:space="preserve">CookieCrisp</t>
@@ -354,7 +363,7 @@
     <t xml:space="preserve">4:18.910</t>
   </si>
   <si>
-    <t xml:space="preserve">34.</t>
+    <t xml:space="preserve">35.</t>
   </si>
   <si>
     <t xml:space="preserve">Mpuddi</t>
@@ -363,7 +372,7 @@
     <t xml:space="preserve">4:18.978</t>
   </si>
   <si>
-    <t xml:space="preserve">35.</t>
+    <t xml:space="preserve">36.</t>
   </si>
   <si>
     <t xml:space="preserve">Lodinggggg</t>
@@ -372,7 +381,7 @@
     <t xml:space="preserve">4:19.318</t>
   </si>
   <si>
-    <t xml:space="preserve">36.</t>
+    <t xml:space="preserve">37.</t>
   </si>
   <si>
     <t xml:space="preserve">KosiechecK</t>
@@ -381,7 +390,7 @@
     <t xml:space="preserve">4:19.539</t>
   </si>
   <si>
-    <t xml:space="preserve">37.</t>
+    <t xml:space="preserve">38.</t>
   </si>
   <si>
     <t xml:space="preserve">Ny</t>
@@ -390,7 +399,7 @@
     <t xml:space="preserve">4:19.794</t>
   </si>
   <si>
-    <t xml:space="preserve">38.</t>
+    <t xml:space="preserve">39.</t>
   </si>
   <si>
     <t xml:space="preserve">joeknit</t>
@@ -399,7 +408,7 @@
     <t xml:space="preserve">4:20.406</t>
   </si>
   <si>
-    <t xml:space="preserve">39.</t>
+    <t xml:space="preserve">40.</t>
   </si>
   <si>
     <t xml:space="preserve">OwOs</t>
@@ -408,7 +417,7 @@
     <t xml:space="preserve">4:20.797</t>
   </si>
   <si>
-    <t xml:space="preserve">40.</t>
+    <t xml:space="preserve">41.</t>
   </si>
   <si>
     <t xml:space="preserve">eskine</t>
@@ -417,7 +426,7 @@
     <t xml:space="preserve">4:21.103</t>
   </si>
   <si>
-    <t xml:space="preserve">41.</t>
+    <t xml:space="preserve">42.</t>
   </si>
   <si>
     <t xml:space="preserve">Poppo_</t>
@@ -426,7 +435,7 @@
     <t xml:space="preserve">4:21.409</t>
   </si>
   <si>
-    <t xml:space="preserve">42.</t>
+    <t xml:space="preserve">43.</t>
   </si>
   <si>
     <t xml:space="preserve">mican8s</t>
@@ -435,7 +444,7 @@
     <t xml:space="preserve">4:21.647</t>
   </si>
   <si>
-    <t xml:space="preserve">43.</t>
+    <t xml:space="preserve">44.</t>
   </si>
   <si>
     <t xml:space="preserve">ChroNickPain</t>
@@ -444,7 +453,7 @@
     <t xml:space="preserve">4:21.800</t>
   </si>
   <si>
-    <t xml:space="preserve">44.</t>
+    <t xml:space="preserve">45.</t>
   </si>
   <si>
     <t xml:space="preserve">kedako</t>
@@ -453,7 +462,7 @@
     <t xml:space="preserve">4:22.021</t>
   </si>
   <si>
-    <t xml:space="preserve">45.</t>
+    <t xml:space="preserve">46.</t>
   </si>
   <si>
     <t xml:space="preserve">Rifre</t>
@@ -462,7 +471,7 @@
     <t xml:space="preserve">4:22.055</t>
   </si>
   <si>
-    <t xml:space="preserve">46.</t>
+    <t xml:space="preserve">47.</t>
   </si>
   <si>
     <t xml:space="preserve">Aytk100</t>
@@ -471,7 +480,7 @@
     <t xml:space="preserve">4:22.293</t>
   </si>
   <si>
-    <t xml:space="preserve">47.</t>
+    <t xml:space="preserve">48.</t>
   </si>
   <si>
     <t xml:space="preserve">ike</t>
@@ -480,7 +489,7 @@
     <t xml:space="preserve">4:22.905</t>
   </si>
   <si>
-    <t xml:space="preserve">48.</t>
+    <t xml:space="preserve">49.</t>
   </si>
   <si>
     <t xml:space="preserve">Kojooo</t>
@@ -489,7 +498,7 @@
     <t xml:space="preserve">4:22.956</t>
   </si>
   <si>
-    <t xml:space="preserve">49.</t>
+    <t xml:space="preserve">50.</t>
   </si>
   <si>
     <t xml:space="preserve">eniplex</t>
@@ -498,7 +507,7 @@
     <t xml:space="preserve">4:23.126</t>
   </si>
   <si>
-    <t xml:space="preserve">50.</t>
+    <t xml:space="preserve">51.</t>
   </si>
   <si>
     <t xml:space="preserve">CrazyNeighbour714</t>
@@ -507,7 +516,7 @@
     <t xml:space="preserve">4:23.143</t>
   </si>
   <si>
-    <t xml:space="preserve">51.</t>
+    <t xml:space="preserve">52.</t>
   </si>
   <si>
     <t xml:space="preserve">texhnolyzem</t>
@@ -516,7 +525,7 @@
     <t xml:space="preserve">4:23.823</t>
   </si>
   <si>
-    <t xml:space="preserve">52.</t>
+    <t xml:space="preserve">53.</t>
   </si>
   <si>
     <t xml:space="preserve">Alanukan</t>
@@ -525,7 +534,7 @@
     <t xml:space="preserve">4:24.299</t>
   </si>
   <si>
-    <t xml:space="preserve">53.</t>
+    <t xml:space="preserve">54.</t>
   </si>
   <si>
     <t xml:space="preserve">Skromnique</t>
@@ -534,7 +543,7 @@
     <t xml:space="preserve">4:24.469</t>
   </si>
   <si>
-    <t xml:space="preserve">54.</t>
+    <t xml:space="preserve">55.</t>
   </si>
   <si>
     <t xml:space="preserve">20centt</t>
@@ -543,7 +552,7 @@
     <t xml:space="preserve">4:24.588</t>
   </si>
   <si>
-    <t xml:space="preserve">55.</t>
+    <t xml:space="preserve">56.</t>
   </si>
   <si>
     <t xml:space="preserve">henthans</t>
@@ -552,7 +561,7 @@
     <t xml:space="preserve">4:24.690</t>
   </si>
   <si>
-    <t xml:space="preserve">56.</t>
+    <t xml:space="preserve">57.</t>
   </si>
   <si>
     <t xml:space="preserve">sggu</t>
@@ -561,7 +570,7 @@
     <t xml:space="preserve">4:25.064</t>
   </si>
   <si>
-    <t xml:space="preserve">57.</t>
+    <t xml:space="preserve">58.</t>
   </si>
   <si>
     <t xml:space="preserve">samsamspada</t>
@@ -570,7 +579,7 @@
     <t xml:space="preserve">4:25.421</t>
   </si>
   <si>
-    <t xml:space="preserve">58.</t>
+    <t xml:space="preserve">59.</t>
   </si>
   <si>
     <t xml:space="preserve">Kenchan</t>
@@ -579,7 +588,7 @@
     <t xml:space="preserve">4:25.642</t>
   </si>
   <si>
-    <t xml:space="preserve">59.</t>
+    <t xml:space="preserve">60.</t>
   </si>
   <si>
     <t xml:space="preserve">mountains</t>
@@ -588,7 +597,7 @@
     <t xml:space="preserve">4:25.931</t>
   </si>
   <si>
-    <t xml:space="preserve">60.</t>
+    <t xml:space="preserve">61.</t>
   </si>
   <si>
     <t xml:space="preserve">zyx098</t>
@@ -597,7 +606,7 @@
     <t xml:space="preserve">4:27.257</t>
   </si>
   <si>
-    <t xml:space="preserve">61.</t>
+    <t xml:space="preserve">62.</t>
   </si>
   <si>
     <t xml:space="preserve">Em_ily</t>
@@ -606,7 +615,7 @@
     <t xml:space="preserve">4:28.073</t>
   </si>
   <si>
-    <t xml:space="preserve">62.</t>
+    <t xml:space="preserve">63.</t>
   </si>
   <si>
     <t xml:space="preserve">tetoloid</t>
@@ -615,7 +624,7 @@
     <t xml:space="preserve">4:28.345</t>
   </si>
   <si>
-    <t xml:space="preserve">63.</t>
+    <t xml:space="preserve">64.</t>
   </si>
   <si>
     <t xml:space="preserve">honzr</t>
@@ -624,7 +633,7 @@
     <t xml:space="preserve">4:32.918</t>
   </si>
   <si>
-    <t xml:space="preserve">64.</t>
+    <t xml:space="preserve">65.</t>
   </si>
   <si>
     <t xml:space="preserve">Crep</t>
@@ -633,7 +642,7 @@
     <t xml:space="preserve">4:33.513</t>
   </si>
   <si>
-    <t xml:space="preserve">65.</t>
+    <t xml:space="preserve">66.</t>
   </si>
   <si>
     <t xml:space="preserve">oHypix</t>
@@ -642,7 +651,7 @@
     <t xml:space="preserve">4:33.904</t>
   </si>
   <si>
-    <t xml:space="preserve">66.</t>
+    <t xml:space="preserve">67.</t>
   </si>
   <si>
     <t xml:space="preserve">sisiza1771</t>
@@ -651,7 +660,7 @@
     <t xml:space="preserve">4:35.094</t>
   </si>
   <si>
-    <t xml:space="preserve">67.</t>
+    <t xml:space="preserve">68.</t>
   </si>
   <si>
     <t xml:space="preserve">HotLencia69</t>
@@ -660,7 +669,7 @@
     <t xml:space="preserve">4:35.332</t>
   </si>
   <si>
-    <t xml:space="preserve">68.</t>
+    <t xml:space="preserve">69.</t>
   </si>
   <si>
     <t xml:space="preserve">BsCloudy</t>
@@ -669,7 +678,7 @@
     <t xml:space="preserve">4:35.468</t>
   </si>
   <si>
-    <t xml:space="preserve">69.</t>
+    <t xml:space="preserve">70.</t>
   </si>
   <si>
     <t xml:space="preserve">SR_mochi</t>
@@ -678,7 +687,7 @@
     <t xml:space="preserve">4:35.723</t>
   </si>
   <si>
-    <t xml:space="preserve">70.</t>
+    <t xml:space="preserve">71.</t>
   </si>
   <si>
     <t xml:space="preserve">twitchpop</t>
@@ -687,7 +696,7 @@
     <t xml:space="preserve">4:35.791</t>
   </si>
   <si>
-    <t xml:space="preserve">71.</t>
+    <t xml:space="preserve">72.</t>
   </si>
   <si>
     <t xml:space="preserve">Pirce59</t>
@@ -696,7 +705,7 @@
     <t xml:space="preserve">4:36.012</t>
   </si>
   <si>
-    <t xml:space="preserve">72.</t>
+    <t xml:space="preserve">73.</t>
   </si>
   <si>
     <t xml:space="preserve">Magiczny_00</t>
@@ -705,7 +714,7 @@
     <t xml:space="preserve">4:36.250</t>
   </si>
   <si>
-    <t xml:space="preserve">73.</t>
+    <t xml:space="preserve">74.</t>
   </si>
   <si>
     <t xml:space="preserve">M8N</t>
@@ -714,7 +723,7 @@
     <t xml:space="preserve">4:36.335</t>
   </si>
   <si>
-    <t xml:space="preserve">74.</t>
+    <t xml:space="preserve">75.</t>
   </si>
   <si>
     <t xml:space="preserve">Rauligvg</t>
@@ -723,7 +732,7 @@
     <t xml:space="preserve">4:36.505</t>
   </si>
   <si>
-    <t xml:space="preserve">75.</t>
+    <t xml:space="preserve">76.</t>
   </si>
   <si>
     <t xml:space="preserve">oShorty</t>
@@ -732,7 +741,7 @@
     <t xml:space="preserve">4:36.590</t>
   </si>
   <si>
-    <t xml:space="preserve">76.</t>
+    <t xml:space="preserve">77.</t>
   </si>
   <si>
     <t xml:space="preserve">GlowdFire</t>
@@ -741,7 +750,7 @@
     <t xml:space="preserve">4:36.828</t>
   </si>
   <si>
-    <t xml:space="preserve">77.</t>
+    <t xml:space="preserve">78.</t>
   </si>
   <si>
     <t xml:space="preserve">Wisteer_</t>
@@ -750,15 +759,6 @@
     <t xml:space="preserve">4:37.253</t>
   </si>
   <si>
-    <t xml:space="preserve">78.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonzai917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.287</t>
-  </si>
-  <si>
     <t xml:space="preserve">79.</t>
   </si>
   <si>
@@ -1434,7 +1434,7 @@
     <t xml:space="preserve">5:25.958</t>
   </si>
   <si>
-    <t xml:space="preserve">5:34.101</t>
+    <t xml:space="preserve">5:32.962</t>
   </si>
   <si>
     <t xml:space="preserve">5:34.577</t>
@@ -1611,6 +1611,12 @@
     <t xml:space="preserve">7:33.135</t>
   </si>
   <si>
+    <t xml:space="preserve">control_speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:37.895</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manoloutti</t>
   </si>
   <si>
@@ -1783,9 +1789,6 @@
   </si>
   <si>
     <t xml:space="preserve">9:57.499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:19.497</t>
   </si>
 </sst>
 </file>
@@ -2043,7 +2046,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2080,7 +2083,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>0</v>
@@ -2104,7 +2107,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0</v>
@@ -2114,7 +2117,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.68</v>
+        <v>229.57</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -2195,7 +2198,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>0</v>
@@ -2219,7 +2222,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>0</v>
@@ -2503,7 +2506,7 @@
         <v>79</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
@@ -2520,7 +2523,7 @@
         <v>82</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
@@ -2537,7 +2540,7 @@
         <v>85</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
@@ -2554,7 +2557,7 @@
         <v>88</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>0</v>
@@ -2571,7 +2574,7 @@
         <v>91</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>0</v>
@@ -2588,7 +2591,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>0</v>
@@ -2605,7 +2608,7 @@
         <v>97</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>0</v>
@@ -2622,7 +2625,7 @@
         <v>100</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>0</v>
@@ -2639,7 +2642,7 @@
         <v>103</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>0</v>
@@ -2656,7 +2659,7 @@
         <v>106</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>0</v>
@@ -2673,7 +2676,7 @@
         <v>109</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>0</v>
@@ -2690,7 +2693,7 @@
         <v>112</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>0</v>
@@ -2707,7 +2710,7 @@
         <v>115</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>0</v>
@@ -2724,7 +2727,7 @@
         <v>118</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>0</v>
@@ -2740,8 +2743,8 @@
       <c r="C38" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="8" t="n">
-        <v>215</v>
+      <c r="D38" s="4" t="n">
+        <v>229</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>0</v>
@@ -2757,8 +2760,8 @@
       <c r="C39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="4" t="n">
-        <v>226</v>
+      <c r="D39" s="8" t="n">
+        <v>215</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>0</v>
@@ -2774,8 +2777,8 @@
       <c r="C40" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="9" t="n">
-        <v>247</v>
+      <c r="D40" s="4" t="n">
+        <v>226</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>0</v>
@@ -2791,8 +2794,8 @@
       <c r="C41" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="4" t="n">
-        <v>238</v>
+      <c r="D41" s="9" t="n">
+        <v>247</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>0</v>
@@ -2809,7 +2812,7 @@
         <v>133</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>0</v>
@@ -2826,7 +2829,7 @@
         <v>136</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>0</v>
@@ -2843,7 +2846,7 @@
         <v>139</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>0</v>
@@ -2860,7 +2863,7 @@
         <v>142</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>0</v>
@@ -2877,7 +2880,7 @@
         <v>145</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>0</v>
@@ -2894,7 +2897,7 @@
         <v>148</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>0</v>
@@ -2911,7 +2914,7 @@
         <v>151</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>0</v>
@@ -2928,7 +2931,7 @@
         <v>154</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>0</v>
@@ -2945,7 +2948,7 @@
         <v>157</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>0</v>
@@ -2962,7 +2965,7 @@
         <v>160</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>0</v>
@@ -2979,7 +2982,7 @@
         <v>163</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>0</v>
@@ -2996,7 +2999,7 @@
         <v>166</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>0</v>
@@ -3013,7 +3016,7 @@
         <v>169</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>0</v>
@@ -3030,7 +3033,7 @@
         <v>172</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>0</v>
@@ -3047,7 +3050,7 @@
         <v>175</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>0</v>
@@ -3064,7 +3067,7 @@
         <v>178</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
@@ -3081,7 +3084,7 @@
         <v>181</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
@@ -3098,7 +3101,7 @@
         <v>184</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
@@ -3115,7 +3118,7 @@
         <v>187</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
@@ -3132,7 +3135,7 @@
         <v>190</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>0</v>
@@ -3149,10 +3152,10 @@
         <v>193</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,10 +3169,10 @@
         <v>196</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,7 +3203,7 @@
         <v>202</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
@@ -3217,10 +3220,10 @@
         <v>205</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,10 +3237,10 @@
         <v>208</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3251,10 +3254,10 @@
         <v>211</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,7 +3271,7 @@
         <v>214</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E69" s="4" t="n">
         <v>1</v>
@@ -3285,10 +3288,10 @@
         <v>217</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,10 +3305,10 @@
         <v>220</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,7 +3322,7 @@
         <v>223</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E72" s="4" t="n">
         <v>1</v>
@@ -3336,10 +3339,10 @@
         <v>226</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,7 +3356,7 @@
         <v>229</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
@@ -3370,7 +3373,7 @@
         <v>232</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>0</v>
@@ -3387,7 +3390,7 @@
         <v>235</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
@@ -3421,7 +3424,7 @@
         <v>241</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E78" s="4" t="n">
         <v>0</v>
@@ -3438,7 +3441,7 @@
         <v>244</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>0</v>
@@ -3843,7 +3846,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3897,7 +3900,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>308</v>
@@ -4012,7 +4015,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>313</v>
@@ -4035,7 +4038,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>314</v>
@@ -4058,7 +4061,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>315</v>
@@ -4126,7 +4129,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>319</v>
@@ -4143,7 +4146,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>320</v>
@@ -4160,7 +4163,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>321</v>
@@ -4177,7 +4180,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>322</v>
@@ -4194,7 +4197,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>323</v>
@@ -4211,7 +4214,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>324</v>
@@ -4262,7 +4265,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>327</v>
@@ -4313,7 +4316,7 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>332</v>
@@ -4347,7 +4350,7 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>334</v>
@@ -4381,7 +4384,7 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>337</v>
@@ -4415,7 +4418,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>340</v>
@@ -4449,7 +4452,7 @@
         <v>104</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>343</v>
@@ -4483,7 +4486,7 @@
         <v>110</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>345</v>
@@ -4500,7 +4503,7 @@
         <v>113</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>346</v>
@@ -4585,7 +4588,7 @@
         <v>128</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>355</v>
@@ -4602,7 +4605,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>356</v>
@@ -4721,7 +4724,7 @@
         <v>152</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>368</v>
@@ -4738,7 +4741,7 @@
         <v>155</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>369</v>
@@ -4789,7 +4792,7 @@
         <v>164</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>374</v>
@@ -4976,7 +4979,7 @@
         <v>197</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>393</v>
@@ -5231,7 +5234,7 @@
         <v>242</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>421</v>
@@ -5384,7 +5387,7 @@
         <v>267</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>439</v>
@@ -5418,7 +5421,7 @@
         <v>273</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>442</v>
@@ -5452,7 +5455,7 @@
         <v>277</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>446</v>
@@ -5486,7 +5489,7 @@
         <v>283</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>449</v>
@@ -5642,7 +5645,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5696,7 +5699,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>465</v>
@@ -5712,11 +5715,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>317.47</v>
+        <v>317.25</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>4.42</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5817,7 +5820,7 @@
         <v>470</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>3</v>
@@ -5874,7 +5877,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>473</v>
@@ -5908,7 +5911,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>474</v>
@@ -5925,7 +5928,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>475</v>
@@ -5942,7 +5945,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>476</v>
@@ -5976,7 +5979,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>478</v>
@@ -5993,7 +5996,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>479</v>
@@ -6061,7 +6064,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>483</v>
@@ -6078,7 +6081,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>484</v>
@@ -6095,7 +6098,7 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>485</v>
@@ -6112,7 +6115,7 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>486</v>
@@ -6129,7 +6132,7 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>487</v>
@@ -6146,7 +6149,7 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>488</v>
@@ -6180,7 +6183,7 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>490</v>
@@ -6231,7 +6234,7 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>493</v>
@@ -6265,7 +6268,7 @@
         <v>107</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>495</v>
@@ -6299,7 +6302,7 @@
         <v>113</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>498</v>
@@ -6316,7 +6319,7 @@
         <v>116</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>499</v>
@@ -6418,7 +6421,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>506</v>
@@ -6486,7 +6489,7 @@
         <v>146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>510</v>
@@ -6503,7 +6506,7 @@
         <v>149</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>511</v>
@@ -6622,7 +6625,7 @@
         <v>170</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>518</v>
@@ -6741,7 +6744,7 @@
         <v>191</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>528</v>
@@ -6764,10 +6767,10 @@
         <v>530</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6775,16 +6778,16 @@
         <v>197</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>398</v>
+        <v>531</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6792,16 +6795,16 @@
         <v>200</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>532</v>
+        <v>398</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>533</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6815,10 +6818,10 @@
         <v>535</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6826,16 +6829,16 @@
         <v>206</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>132</v>
+        <v>536</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6843,7 +6846,7 @@
         <v>209</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>537</v>
+        <v>135</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>538</v>
@@ -6852,7 +6855,7 @@
         <v>329</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6860,16 +6863,16 @@
         <v>212</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>361</v>
+        <v>539</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6877,16 +6880,16 @@
         <v>215</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6894,16 +6897,16 @@
         <v>218</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>265</v>
+        <v>372</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6911,16 +6914,16 @@
         <v>221</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>458</v>
+        <v>265</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>354</v>
+        <v>543</v>
+      </c>
+      <c r="D72" s="4" t="n">
+        <v>326</v>
+      </c>
+      <c r="E72" s="4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6928,16 +6931,16 @@
         <v>224</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>543</v>
+        <v>458</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="D73" s="4" t="n">
-        <v>343</v>
-      </c>
-      <c r="E73" s="4" t="n">
-        <v>4</v>
+      <c r="D73" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6951,10 +6954,10 @@
         <v>546</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6968,10 +6971,10 @@
         <v>548</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>394</v>
+        <v>298</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6985,10 +6988,10 @@
         <v>550</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7002,10 +7005,10 @@
         <v>552</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7013,13 +7016,13 @@
         <v>239</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>406</v>
+        <v>553</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E78" s="4" t="n">
         <v>3</v>
@@ -7030,16 +7033,16 @@
         <v>242</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7047,16 +7050,16 @@
         <v>245</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>555</v>
+        <v>417</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>556</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7070,10 +7073,10 @@
         <v>558</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7081,16 +7084,16 @@
         <v>251</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>386</v>
+        <v>559</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7098,16 +7101,16 @@
         <v>254</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>560</v>
+        <v>386</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>561</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7115,16 +7118,16 @@
         <v>430</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>123</v>
+        <v>562</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,16 +7135,16 @@
         <v>258</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>437</v>
+        <v>126</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7149,16 +7152,16 @@
         <v>261</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>225</v>
+        <v>437</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>339</v>
+        <v>464</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7166,16 +7169,16 @@
         <v>264</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7183,16 +7186,16 @@
         <v>267</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>440</v>
+        <v>240</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7200,16 +7203,16 @@
         <v>270</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>567</v>
+        <v>440</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>568</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7223,10 +7226,10 @@
         <v>570</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7239,11 +7242,11 @@
       <c r="C91" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="D91" s="9" t="n">
-        <v>617</v>
+      <c r="D91" s="4" t="n">
+        <v>400</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7254,13 +7257,13 @@
         <v>573</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D92" s="4" t="n">
-        <v>382</v>
+        <v>574</v>
+      </c>
+      <c r="D92" s="9" t="n">
+        <v>617</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7268,16 +7271,16 @@
         <v>280</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>575</v>
+        <v>442</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7291,10 +7294,10 @@
         <v>577</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7302,16 +7305,16 @@
         <v>286</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>28</v>
+        <v>578</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>371</v>
+        <v>498</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7319,16 +7322,16 @@
         <v>289</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>579</v>
+        <v>24</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>580</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7341,11 +7344,11 @@
       <c r="C97" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>354</v>
+      <c r="D97" s="4" t="n">
+        <v>444</v>
+      </c>
+      <c r="E97" s="4" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7353,16 +7356,16 @@
         <v>295</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>117</v>
+        <v>583</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D98" s="4" t="n">
-        <v>391</v>
-      </c>
-      <c r="E98" s="4" t="n">
-        <v>7</v>
+        <v>584</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7370,16 +7373,16 @@
         <v>298</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>412</v>
+        <v>120</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7387,16 +7390,16 @@
         <v>301</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>585</v>
+        <v>412</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>586</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7404,16 +7407,16 @@
         <v>304</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>222</v>
+        <v>587</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>354</v>
+        <v>588</v>
+      </c>
+      <c r="D101" s="4" t="n">
+        <v>402</v>
+      </c>
+      <c r="E101" s="4" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="588">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Trimp</t>
   </si>
   <si>
-    <t xml:space="preserve">4:00.601</t>
+    <t xml:space="preserve">4:00.006</t>
   </si>
   <si>
     <t xml:space="preserve">2.</t>
@@ -177,13 +177,22 @@
     <t xml:space="preserve">14.</t>
   </si>
   <si>
+    <t xml:space="preserve">m_yoyoyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:15.731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.</t>
+  </si>
+  <si>
     <t xml:space="preserve">laayuman</t>
   </si>
   <si>
     <t xml:space="preserve">4:16.020</t>
   </si>
   <si>
-    <t xml:space="preserve">15.</t>
+    <t xml:space="preserve">16.</t>
   </si>
   <si>
     <t xml:space="preserve">Kamacz</t>
@@ -192,7 +201,7 @@
     <t xml:space="preserve">4:16.037</t>
   </si>
   <si>
-    <t xml:space="preserve">16.</t>
+    <t xml:space="preserve">17.</t>
   </si>
   <si>
     <t xml:space="preserve">Rustamaniacc_</t>
@@ -201,7 +210,7 @@
     <t xml:space="preserve">4:16.139</t>
   </si>
   <si>
-    <t xml:space="preserve">17.</t>
+    <t xml:space="preserve">18.</t>
   </si>
   <si>
     <t xml:space="preserve">Brungo</t>
@@ -210,15 +219,6 @@
     <t xml:space="preserve">4:16.173</t>
   </si>
   <si>
-    <t xml:space="preserve">18.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_yoyoyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:16.275</t>
-  </si>
-  <si>
     <t xml:space="preserve">19.</t>
   </si>
   <si>
@@ -240,13 +240,22 @@
     <t xml:space="preserve">21.</t>
   </si>
   <si>
+    <t xml:space="preserve">Bonzai917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:16.615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flan</t>
   </si>
   <si>
     <t xml:space="preserve">4:16.887</t>
   </si>
   <si>
-    <t xml:space="preserve">22.</t>
+    <t xml:space="preserve">23.</t>
   </si>
   <si>
     <t xml:space="preserve">Fasu</t>
@@ -255,15 +264,6 @@
     <t xml:space="preserve">4:16.989</t>
   </si>
   <si>
-    <t xml:space="preserve">23.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonzai917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:17.091</t>
-  </si>
-  <si>
     <t xml:space="preserve">24.</t>
   </si>
   <si>
@@ -420,13 +420,22 @@
     <t xml:space="preserve">41.</t>
   </si>
   <si>
+    <t xml:space="preserve">oHypix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:20.814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.</t>
+  </si>
+  <si>
     <t xml:space="preserve">eskine</t>
   </si>
   <si>
     <t xml:space="preserve">4:21.103</t>
   </si>
   <si>
-    <t xml:space="preserve">42.</t>
+    <t xml:space="preserve">43.</t>
   </si>
   <si>
     <t xml:space="preserve">Poppo_</t>
@@ -435,7 +444,7 @@
     <t xml:space="preserve">4:21.409</t>
   </si>
   <si>
-    <t xml:space="preserve">43.</t>
+    <t xml:space="preserve">44.</t>
   </si>
   <si>
     <t xml:space="preserve">mican8s</t>
@@ -444,7 +453,7 @@
     <t xml:space="preserve">4:21.647</t>
   </si>
   <si>
-    <t xml:space="preserve">44.</t>
+    <t xml:space="preserve">45.</t>
   </si>
   <si>
     <t xml:space="preserve">ChroNickPain</t>
@@ -453,7 +462,7 @@
     <t xml:space="preserve">4:21.800</t>
   </si>
   <si>
-    <t xml:space="preserve">45.</t>
+    <t xml:space="preserve">46.</t>
   </si>
   <si>
     <t xml:space="preserve">kedako</t>
@@ -462,7 +471,7 @@
     <t xml:space="preserve">4:22.021</t>
   </si>
   <si>
-    <t xml:space="preserve">46.</t>
+    <t xml:space="preserve">47.</t>
   </si>
   <si>
     <t xml:space="preserve">Rifre</t>
@@ -471,7 +480,7 @@
     <t xml:space="preserve">4:22.055</t>
   </si>
   <si>
-    <t xml:space="preserve">47.</t>
+    <t xml:space="preserve">48.</t>
   </si>
   <si>
     <t xml:space="preserve">Aytk100</t>
@@ -480,7 +489,7 @@
     <t xml:space="preserve">4:22.293</t>
   </si>
   <si>
-    <t xml:space="preserve">48.</t>
+    <t xml:space="preserve">49.</t>
   </si>
   <si>
     <t xml:space="preserve">ike</t>
@@ -489,7 +498,7 @@
     <t xml:space="preserve">4:22.905</t>
   </si>
   <si>
-    <t xml:space="preserve">49.</t>
+    <t xml:space="preserve">50.</t>
   </si>
   <si>
     <t xml:space="preserve">Kojooo</t>
@@ -498,7 +507,7 @@
     <t xml:space="preserve">4:22.956</t>
   </si>
   <si>
-    <t xml:space="preserve">50.</t>
+    <t xml:space="preserve">51.</t>
   </si>
   <si>
     <t xml:space="preserve">eniplex</t>
@@ -507,7 +516,7 @@
     <t xml:space="preserve">4:23.126</t>
   </si>
   <si>
-    <t xml:space="preserve">51.</t>
+    <t xml:space="preserve">52.</t>
   </si>
   <si>
     <t xml:space="preserve">CrazyNeighbour714</t>
@@ -516,7 +525,7 @@
     <t xml:space="preserve">4:23.143</t>
   </si>
   <si>
-    <t xml:space="preserve">52.</t>
+    <t xml:space="preserve">53.</t>
   </si>
   <si>
     <t xml:space="preserve">texhnolyzem</t>
@@ -525,7 +534,7 @@
     <t xml:space="preserve">4:23.823</t>
   </si>
   <si>
-    <t xml:space="preserve">53.</t>
+    <t xml:space="preserve">54.</t>
   </si>
   <si>
     <t xml:space="preserve">Alanukan</t>
@@ -534,7 +543,7 @@
     <t xml:space="preserve">4:24.299</t>
   </si>
   <si>
-    <t xml:space="preserve">54.</t>
+    <t xml:space="preserve">55.</t>
   </si>
   <si>
     <t xml:space="preserve">Skromnique</t>
@@ -543,7 +552,7 @@
     <t xml:space="preserve">4:24.469</t>
   </si>
   <si>
-    <t xml:space="preserve">55.</t>
+    <t xml:space="preserve">56.</t>
   </si>
   <si>
     <t xml:space="preserve">20centt</t>
@@ -552,7 +561,7 @@
     <t xml:space="preserve">4:24.588</t>
   </si>
   <si>
-    <t xml:space="preserve">56.</t>
+    <t xml:space="preserve">57.</t>
   </si>
   <si>
     <t xml:space="preserve">henthans</t>
@@ -561,7 +570,7 @@
     <t xml:space="preserve">4:24.690</t>
   </si>
   <si>
-    <t xml:space="preserve">57.</t>
+    <t xml:space="preserve">58.</t>
   </si>
   <si>
     <t xml:space="preserve">sggu</t>
@@ -570,7 +579,7 @@
     <t xml:space="preserve">4:25.064</t>
   </si>
   <si>
-    <t xml:space="preserve">58.</t>
+    <t xml:space="preserve">59.</t>
   </si>
   <si>
     <t xml:space="preserve">samsamspada</t>
@@ -579,7 +588,7 @@
     <t xml:space="preserve">4:25.421</t>
   </si>
   <si>
-    <t xml:space="preserve">59.</t>
+    <t xml:space="preserve">60.</t>
   </si>
   <si>
     <t xml:space="preserve">Kenchan</t>
@@ -588,7 +597,7 @@
     <t xml:space="preserve">4:25.642</t>
   </si>
   <si>
-    <t xml:space="preserve">60.</t>
+    <t xml:space="preserve">61.</t>
   </si>
   <si>
     <t xml:space="preserve">mountains</t>
@@ -597,7 +606,7 @@
     <t xml:space="preserve">4:25.931</t>
   </si>
   <si>
-    <t xml:space="preserve">61.</t>
+    <t xml:space="preserve">62.</t>
   </si>
   <si>
     <t xml:space="preserve">zyx098</t>
@@ -606,7 +615,7 @@
     <t xml:space="preserve">4:27.257</t>
   </si>
   <si>
-    <t xml:space="preserve">62.</t>
+    <t xml:space="preserve">63.</t>
   </si>
   <si>
     <t xml:space="preserve">Em_ily</t>
@@ -615,7 +624,7 @@
     <t xml:space="preserve">4:28.073</t>
   </si>
   <si>
-    <t xml:space="preserve">63.</t>
+    <t xml:space="preserve">64.</t>
   </si>
   <si>
     <t xml:space="preserve">tetoloid</t>
@@ -624,7 +633,7 @@
     <t xml:space="preserve">4:28.345</t>
   </si>
   <si>
-    <t xml:space="preserve">64.</t>
+    <t xml:space="preserve">65.</t>
   </si>
   <si>
     <t xml:space="preserve">honzr</t>
@@ -633,7 +642,7 @@
     <t xml:space="preserve">4:32.918</t>
   </si>
   <si>
-    <t xml:space="preserve">65.</t>
+    <t xml:space="preserve">66.</t>
   </si>
   <si>
     <t xml:space="preserve">Crep</t>
@@ -642,15 +651,6 @@
     <t xml:space="preserve">4:33.513</t>
   </si>
   <si>
-    <t xml:space="preserve">66.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oHypix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:33.904</t>
-  </si>
-  <si>
     <t xml:space="preserve">67.</t>
   </si>
   <si>
@@ -1191,6 +1191,12 @@
     <t xml:space="preserve">7:55.405</t>
   </si>
   <si>
+    <t xml:space="preserve">control_speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:59.944</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kelthaz</t>
   </si>
   <si>
@@ -1308,15 +1314,15 @@
     <t xml:space="preserve">9:02.028</t>
   </si>
   <si>
+    <t xml:space="preserve">83.</t>
+  </si>
+  <si>
     <t xml:space="preserve">k3ruba</t>
   </si>
   <si>
     <t xml:space="preserve">9:05.122</t>
   </si>
   <si>
-    <t xml:space="preserve">83.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thinklater</t>
   </si>
   <si>
@@ -1350,12 +1356,12 @@
     <t xml:space="preserve">9:23.533</t>
   </si>
   <si>
+    <t xml:space="preserve">90.</t>
+  </si>
+  <si>
     <t xml:space="preserve">9:26.542</t>
   </si>
   <si>
-    <t xml:space="preserve">90.</t>
-  </si>
-  <si>
     <t xml:space="preserve">DDDoctor</t>
   </si>
   <si>
@@ -1410,12 +1416,6 @@
     <t xml:space="preserve">10:24.733</t>
   </si>
   <si>
-    <t xml:space="preserve">Kkanashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:29.306</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:16.370</t>
   </si>
   <si>
@@ -1434,7 +1434,7 @@
     <t xml:space="preserve">5:25.958</t>
   </si>
   <si>
-    <t xml:space="preserve">5:32.962</t>
+    <t xml:space="preserve">5:26.672</t>
   </si>
   <si>
     <t xml:space="preserve">5:34.577</t>
@@ -1609,9 +1609,6 @@
   </si>
   <si>
     <t xml:space="preserve">7:33.135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control_speed</t>
   </si>
   <si>
     <t xml:space="preserve">7:37.895</t>
@@ -2045,8 +2042,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2083,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>0</v>
@@ -2117,11 +2114,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.57</v>
+        <v>229.53</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,7 +2350,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>0</v>
@@ -2370,7 +2367,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>0</v>
@@ -2387,7 +2384,7 @@
         <v>58</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>0</v>
@@ -2404,7 +2401,7 @@
         <v>61</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>0</v>
@@ -2472,7 +2469,7 @@
         <v>73</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
@@ -2489,7 +2486,7 @@
         <v>76</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
@@ -2506,7 +2503,7 @@
         <v>79</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
@@ -2812,7 +2809,7 @@
         <v>133</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>0</v>
@@ -2829,7 +2826,7 @@
         <v>136</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>0</v>
@@ -2846,7 +2843,7 @@
         <v>139</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>0</v>
@@ -2863,7 +2860,7 @@
         <v>142</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>0</v>
@@ -2880,7 +2877,7 @@
         <v>145</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>0</v>
@@ -2897,7 +2894,7 @@
         <v>148</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>0</v>
@@ -2914,7 +2911,7 @@
         <v>151</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>0</v>
@@ -2931,7 +2928,7 @@
         <v>154</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>0</v>
@@ -2948,7 +2945,7 @@
         <v>157</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>0</v>
@@ -2965,7 +2962,7 @@
         <v>160</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>0</v>
@@ -2982,7 +2979,7 @@
         <v>163</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>0</v>
@@ -2999,7 +2996,7 @@
         <v>166</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>0</v>
@@ -3016,7 +3013,7 @@
         <v>169</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>0</v>
@@ -3033,7 +3030,7 @@
         <v>172</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>0</v>
@@ -3050,7 +3047,7 @@
         <v>175</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>0</v>
@@ -3067,7 +3064,7 @@
         <v>178</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
@@ -3084,7 +3081,7 @@
         <v>181</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
@@ -3101,7 +3098,7 @@
         <v>184</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
@@ -3118,7 +3115,7 @@
         <v>187</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
@@ -3135,7 +3132,7 @@
         <v>190</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>0</v>
@@ -3152,7 +3149,7 @@
         <v>193</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E62" s="4" t="n">
         <v>0</v>
@@ -3169,10 +3166,10 @@
         <v>196</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,10 +3183,10 @@
         <v>199</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3220,7 +3217,7 @@
         <v>205</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
@@ -3237,10 +3234,10 @@
         <v>208</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,8 +3842,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3916,11 +3913,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>299.95</v>
+        <v>299.48</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.88</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,7 +4109,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>318</v>
@@ -4129,7 +4126,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>319</v>
@@ -4163,7 +4160,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>321</v>
@@ -4180,7 +4177,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>322</v>
@@ -4248,7 +4245,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>326</v>
@@ -4265,7 +4262,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>327</v>
@@ -4350,7 +4347,7 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>334</v>
@@ -4452,7 +4449,7 @@
         <v>104</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>343</v>
@@ -4486,7 +4483,7 @@
         <v>110</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>345</v>
@@ -4588,7 +4585,7 @@
         <v>128</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>355</v>
@@ -4605,7 +4602,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>356</v>
@@ -4724,7 +4721,7 @@
         <v>152</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>368</v>
@@ -4951,10 +4948,10 @@
         <v>390</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,7 +4965,7 @@
         <v>392</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>0</v>
@@ -4979,16 +4976,16 @@
         <v>197</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>225</v>
+        <v>393</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,16 +4993,16 @@
         <v>200</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>394</v>
+        <v>225</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>395</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,10 +5016,10 @@
         <v>397</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5036,10 +5033,10 @@
         <v>399</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5053,7 +5050,7 @@
         <v>401</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
@@ -5070,10 +5067,10 @@
         <v>403</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5087,10 +5084,10 @@
         <v>405</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,11 +5100,11 @@
       <c r="C71" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>354</v>
+      <c r="D71" s="4" t="n">
+        <v>317</v>
+      </c>
+      <c r="E71" s="4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5137,11 +5134,11 @@
       <c r="C73" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D73" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E73" s="4" t="n">
-        <v>6</v>
+      <c r="D73" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5155,7 +5152,7 @@
         <v>413</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>6</v>
@@ -5166,16 +5163,16 @@
         <v>230</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>265</v>
+        <v>414</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5183,16 +5180,16 @@
         <v>233</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>415</v>
+        <v>265</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>416</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5206,7 +5203,7 @@
         <v>418</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E77" s="4" t="n">
         <v>4</v>
@@ -5223,10 +5220,10 @@
         <v>420</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5234,16 +5231,16 @@
         <v>242</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>207</v>
+        <v>421</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,16 +5248,16 @@
         <v>245</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>422</v>
+        <v>132</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>423</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5274,10 +5271,10 @@
         <v>425</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5294,7 +5291,7 @@
         <v>334</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5308,10 +5305,10 @@
         <v>429</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5325,10 +5322,10 @@
         <v>432</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5342,10 +5339,10 @@
         <v>434</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,10 +5356,10 @@
         <v>436</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5376,10 +5373,10 @@
         <v>438</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5387,16 +5384,16 @@
         <v>267</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>96</v>
+        <v>439</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5404,16 +5401,16 @@
         <v>270</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>440</v>
+        <v>96</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>441</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,33 +5418,33 @@
         <v>273</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>126</v>
+        <v>442</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>444</v>
+        <v>126</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>445</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,16 +5452,16 @@
         <v>277</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>216</v>
+        <v>446</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,16 +5469,16 @@
         <v>280</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>447</v>
+        <v>216</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="D93" s="9" t="n">
-        <v>412</v>
+      <c r="D93" s="4" t="n">
+        <v>398</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5489,16 +5486,16 @@
         <v>283</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>240</v>
+        <v>449</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D94" s="4" t="n">
-        <v>381</v>
+        <v>450</v>
+      </c>
+      <c r="D94" s="9" t="n">
+        <v>412</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5506,16 +5503,16 @@
         <v>286</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>451</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5529,10 +5526,10 @@
         <v>453</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5546,10 +5543,10 @@
         <v>455</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5563,10 +5560,10 @@
         <v>457</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5579,11 +5576,11 @@
       <c r="C99" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>354</v>
+      <c r="D99" s="4" t="n">
+        <v>342</v>
+      </c>
+      <c r="E99" s="4" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5596,11 +5593,11 @@
       <c r="C100" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D100" s="4" t="n">
-        <v>307</v>
-      </c>
-      <c r="E100" s="4" t="n">
-        <v>4</v>
+      <c r="D100" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5614,10 +5611,10 @@
         <v>463</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5645,7 +5642,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5715,11 +5712,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>317.25</v>
+        <v>317.29</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5820,10 +5817,10 @@
         <v>470</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>30</v>
@@ -5837,7 +5834,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>471</v>
@@ -5928,7 +5925,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>475</v>
@@ -5945,7 +5942,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>476</v>
@@ -5962,7 +5959,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>477</v>
@@ -6081,7 +6078,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>484</v>
@@ -6098,7 +6095,7 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>485</v>
@@ -6115,7 +6112,7 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>486</v>
@@ -6132,7 +6129,7 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>487</v>
@@ -6149,7 +6146,7 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>488</v>
@@ -6166,7 +6163,7 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>489</v>
@@ -6183,7 +6180,7 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>490</v>
@@ -6421,7 +6418,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>506</v>
@@ -6489,7 +6486,7 @@
         <v>146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>510</v>
@@ -6625,7 +6622,7 @@
         <v>170</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>518</v>
@@ -6676,7 +6673,7 @@
         <v>179</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>523</v>
@@ -6761,10 +6758,10 @@
         <v>194</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>305</v>
@@ -6778,10 +6775,10 @@
         <v>197</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>316</v>
@@ -6795,10 +6792,10 @@
         <v>200</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>308</v>
@@ -6812,10 +6809,10 @@
         <v>203</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>535</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>389</v>
@@ -6829,10 +6826,10 @@
         <v>206</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>343</v>
@@ -6846,10 +6843,10 @@
         <v>209</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>329</v>
@@ -6863,10 +6860,10 @@
         <v>212</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>540</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>329</v>
@@ -6883,7 +6880,7 @@
         <v>361</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>347</v>
@@ -6900,7 +6897,7 @@
         <v>372</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>310</v>
@@ -6917,7 +6914,7 @@
         <v>265</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>326</v>
@@ -6931,10 +6928,10 @@
         <v>224</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>354</v>
@@ -6948,10 +6945,10 @@
         <v>227</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>546</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>343</v>
@@ -6965,10 +6962,10 @@
         <v>230</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>548</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>298</v>
@@ -6982,10 +6979,10 @@
         <v>233</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>549</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>550</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>394</v>
@@ -6999,10 +6996,10 @@
         <v>236</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>325</v>
@@ -7016,10 +7013,10 @@
         <v>239</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>355</v>
@@ -7033,10 +7030,10 @@
         <v>242</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>334</v>
@@ -7050,10 +7047,10 @@
         <v>245</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>323</v>
@@ -7067,10 +7064,10 @@
         <v>248</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>558</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>309</v>
@@ -7084,10 +7081,10 @@
         <v>251</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>560</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>333</v>
@@ -7104,7 +7101,7 @@
         <v>386</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>359</v>
@@ -7118,10 +7115,10 @@
         <v>430</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>563</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>381</v>
@@ -7138,7 +7135,7 @@
         <v>126</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>349</v>
@@ -7152,10 +7149,10 @@
         <v>261</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>464</v>
@@ -7172,7 +7169,7 @@
         <v>228</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>339</v>
@@ -7189,7 +7186,7 @@
         <v>240</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>379</v>
@@ -7203,10 +7200,10 @@
         <v>270</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>403</v>
@@ -7220,10 +7217,10 @@
         <v>273</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>570</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>447</v>
@@ -7234,13 +7231,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>572</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>400</v>
@@ -7254,10 +7251,10 @@
         <v>277</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="D92" s="9" t="n">
         <v>617</v>
@@ -7271,10 +7268,10 @@
         <v>280</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>382</v>
@@ -7288,10 +7285,10 @@
         <v>283</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>363</v>
@@ -7305,10 +7302,10 @@
         <v>286</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>579</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>498</v>
@@ -7325,7 +7322,7 @@
         <v>24</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>371</v>
@@ -7339,10 +7336,10 @@
         <v>292</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>444</v>
@@ -7356,10 +7353,10 @@
         <v>295</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>584</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>354</v>
@@ -7376,7 +7373,7 @@
         <v>120</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>391</v>
@@ -7390,10 +7387,10 @@
         <v>301</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>421</v>
@@ -7407,10 +7404,10 @@
         <v>304</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>402</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Main Babe" sheetId="1" state="visible" r:id="rId2"/>
@@ -699,13 +699,22 @@
     <t xml:space="preserve">72.</t>
   </si>
   <si>
+    <t xml:space="preserve">BlackIron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:35.825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pirce59</t>
   </si>
   <si>
     <t xml:space="preserve">4:36.012</t>
   </si>
   <si>
-    <t xml:space="preserve">73.</t>
+    <t xml:space="preserve">74.</t>
   </si>
   <si>
     <t xml:space="preserve">Magiczny_00</t>
@@ -714,7 +723,7 @@
     <t xml:space="preserve">4:36.250</t>
   </si>
   <si>
-    <t xml:space="preserve">74.</t>
+    <t xml:space="preserve">75.</t>
   </si>
   <si>
     <t xml:space="preserve">M8N</t>
@@ -723,7 +732,7 @@
     <t xml:space="preserve">4:36.335</t>
   </si>
   <si>
-    <t xml:space="preserve">75.</t>
+    <t xml:space="preserve">76.</t>
   </si>
   <si>
     <t xml:space="preserve">Rauligvg</t>
@@ -732,7 +741,7 @@
     <t xml:space="preserve">4:36.505</t>
   </si>
   <si>
-    <t xml:space="preserve">76.</t>
+    <t xml:space="preserve">77.</t>
   </si>
   <si>
     <t xml:space="preserve">oShorty</t>
@@ -741,7 +750,7 @@
     <t xml:space="preserve">4:36.590</t>
   </si>
   <si>
-    <t xml:space="preserve">77.</t>
+    <t xml:space="preserve">78.</t>
   </si>
   <si>
     <t xml:space="preserve">GlowdFire</t>
@@ -750,7 +759,7 @@
     <t xml:space="preserve">4:36.828</t>
   </si>
   <si>
-    <t xml:space="preserve">78.</t>
+    <t xml:space="preserve">79.</t>
   </si>
   <si>
     <t xml:space="preserve">Wisteer_</t>
@@ -759,7 +768,7 @@
     <t xml:space="preserve">4:37.253</t>
   </si>
   <si>
-    <t xml:space="preserve">79.</t>
+    <t xml:space="preserve">80.</t>
   </si>
   <si>
     <t xml:space="preserve">yuyumon_nick</t>
@@ -768,7 +777,7 @@
     <t xml:space="preserve">4:37.559</t>
   </si>
   <si>
-    <t xml:space="preserve">80.</t>
+    <t xml:space="preserve">81.</t>
   </si>
   <si>
     <t xml:space="preserve">DJJake7</t>
@@ -777,7 +786,7 @@
     <t xml:space="preserve">4:37.610</t>
   </si>
   <si>
-    <t xml:space="preserve">81.</t>
+    <t xml:space="preserve">82.</t>
   </si>
   <si>
     <t xml:space="preserve">BotRaj</t>
@@ -786,19 +795,19 @@
     <t xml:space="preserve">4:37.729</t>
   </si>
   <si>
-    <t xml:space="preserve">82.</t>
-  </si>
-  <si>
     <t xml:space="preserve">retsu_teno</t>
   </si>
   <si>
     <t xml:space="preserve">4:37.797</t>
   </si>
   <si>
+    <t xml:space="preserve">84.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chariot_Rider</t>
   </si>
   <si>
-    <t xml:space="preserve">84.</t>
+    <t xml:space="preserve">85.</t>
   </si>
   <si>
     <t xml:space="preserve">laza2115</t>
@@ -807,7 +816,7 @@
     <t xml:space="preserve">4:37.882</t>
   </si>
   <si>
-    <t xml:space="preserve">85.</t>
+    <t xml:space="preserve">86.</t>
   </si>
   <si>
     <t xml:space="preserve">DolpIn_62</t>
@@ -816,7 +825,7 @@
     <t xml:space="preserve">4:38.392</t>
   </si>
   <si>
-    <t xml:space="preserve">86.</t>
+    <t xml:space="preserve">87.</t>
   </si>
   <si>
     <t xml:space="preserve">Okita_110</t>
@@ -825,7 +834,7 @@
     <t xml:space="preserve">4:38.596</t>
   </si>
   <si>
-    <t xml:space="preserve">87.</t>
+    <t xml:space="preserve">88.</t>
   </si>
   <si>
     <t xml:space="preserve">Siuuunic</t>
@@ -834,7 +843,7 @@
     <t xml:space="preserve">4:38.613</t>
   </si>
   <si>
-    <t xml:space="preserve">88.</t>
+    <t xml:space="preserve">89.</t>
   </si>
   <si>
     <t xml:space="preserve">BlueStormDragon</t>
@@ -843,19 +852,19 @@
     <t xml:space="preserve">4:38.698</t>
   </si>
   <si>
-    <t xml:space="preserve">89.</t>
-  </si>
-  <si>
     <t xml:space="preserve">You_too</t>
   </si>
   <si>
     <t xml:space="preserve">4:38.868</t>
   </si>
   <si>
+    <t xml:space="preserve">91.</t>
+  </si>
+  <si>
     <t xml:space="preserve">tsiiga</t>
   </si>
   <si>
-    <t xml:space="preserve">91.</t>
+    <t xml:space="preserve">92.</t>
   </si>
   <si>
     <t xml:space="preserve">Entorihi</t>
@@ -864,7 +873,7 @@
     <t xml:space="preserve">4:39.038</t>
   </si>
   <si>
-    <t xml:space="preserve">92.</t>
+    <t xml:space="preserve">93.</t>
   </si>
   <si>
     <t xml:space="preserve">2D_PPT</t>
@@ -873,7 +882,7 @@
     <t xml:space="preserve">4:39.446</t>
   </si>
   <si>
-    <t xml:space="preserve">93.</t>
+    <t xml:space="preserve">94.</t>
   </si>
   <si>
     <t xml:space="preserve">SenseiDaichi</t>
@@ -882,7 +891,7 @@
     <t xml:space="preserve">4:40.024</t>
   </si>
   <si>
-    <t xml:space="preserve">94.</t>
+    <t xml:space="preserve">95.</t>
   </si>
   <si>
     <t xml:space="preserve">iLFantasmaDelleNevi</t>
@@ -891,7 +900,7 @@
     <t xml:space="preserve">4:40.568</t>
   </si>
   <si>
-    <t xml:space="preserve">95.</t>
+    <t xml:space="preserve">96.</t>
   </si>
   <si>
     <t xml:space="preserve">rta228</t>
@@ -900,7 +909,7 @@
     <t xml:space="preserve">4:40.636</t>
   </si>
   <si>
-    <t xml:space="preserve">96.</t>
+    <t xml:space="preserve">97.</t>
   </si>
   <si>
     <t xml:space="preserve">Im_Okay</t>
@@ -909,7 +918,7 @@
     <t xml:space="preserve">4:40.653</t>
   </si>
   <si>
-    <t xml:space="preserve">97.</t>
+    <t xml:space="preserve">98.</t>
   </si>
   <si>
     <t xml:space="preserve">yorimitijido</t>
@@ -918,7 +927,7 @@
     <t xml:space="preserve">4:40.775</t>
   </si>
   <si>
-    <t xml:space="preserve">98.</t>
+    <t xml:space="preserve">99.</t>
   </si>
   <si>
     <t xml:space="preserve">skyguy</t>
@@ -927,22 +936,13 @@
     <t xml:space="preserve">4:41.180</t>
   </si>
   <si>
-    <t xml:space="preserve">99.</t>
+    <t xml:space="preserve">100.</t>
   </si>
   <si>
     <t xml:space="preserve">Tomp</t>
   </si>
   <si>
     <t xml:space="preserve">4:41.401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LorD13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:41.418</t>
   </si>
   <si>
     <t xml:space="preserve">5:38.538</t>
@@ -2042,8 +2042,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.53</v>
+        <v>229.72</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -3336,10 +3336,10 @@
         <v>226</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,10 +3353,10 @@
         <v>229</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,7 +3370,7 @@
         <v>232</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>235</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>238</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E77" s="4" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>244</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>247</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>236</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,10 +3489,10 @@
         <v>253</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3506,7 +3506,7 @@
         <v>256</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>257</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
@@ -3531,16 +3531,16 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="D85" s="4" t="n">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E85" s="4" t="n">
         <v>0</v>
@@ -3550,14 +3550,14 @@
       <c r="A86" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="10" t="s">
         <v>262</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>263</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E86" s="4" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>266</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E87" s="4" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>269</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E88" s="4" t="n">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>272</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E89" s="4" t="n">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>275</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="E90" s="4" t="n">
         <v>0</v>
@@ -3639,10 +3639,10 @@
         <v>276</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E91" s="4" t="n">
         <v>0</v>
@@ -3650,16 +3650,16 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="D92" s="4" t="n">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="E92" s="4" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>282</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="E93" s="4" t="n">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>285</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E94" s="4" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>288</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E95" s="4" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>291</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E96" s="4" t="n">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>294</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E97" s="4" t="n">
         <v>0</v>
@@ -3761,10 +3761,10 @@
         <v>297</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3778,10 +3778,10 @@
         <v>300</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,7 +3812,7 @@
         <v>306</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="E101" s="4" t="n">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>333</v>
@@ -4517,7 +4517,7 @@
         <v>116</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>347</v>
@@ -4551,7 +4551,7 @@
         <v>122</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>350</v>
@@ -4687,7 +4687,7 @@
         <v>146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>365</v>
@@ -4738,7 +4738,7 @@
         <v>155</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>369</v>
@@ -4789,7 +4789,7 @@
         <v>164</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>374</v>
@@ -4806,7 +4806,7 @@
         <v>167</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>375</v>
@@ -4925,7 +4925,7 @@
         <v>188</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>388</v>
@@ -4993,7 +4993,7 @@
         <v>200</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>395</v>
@@ -5180,7 +5180,7 @@
         <v>233</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>416</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>433</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>446</v>
@@ -5503,7 +5503,7 @@
         <v>286</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>451</v>
@@ -5641,7 +5641,7 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -6214,7 +6214,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>492</v>
@@ -6299,7 +6299,7 @@
         <v>113</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>498</v>
@@ -6333,7 +6333,7 @@
         <v>119</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>500</v>
@@ -6367,7 +6367,7 @@
         <v>125</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>502</v>
@@ -6435,7 +6435,7 @@
         <v>137</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>507</v>
@@ -6503,7 +6503,7 @@
         <v>149</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>511</v>
@@ -6537,7 +6537,7 @@
         <v>155</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>512</v>
@@ -6588,7 +6588,7 @@
         <v>164</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>516</v>
@@ -6605,7 +6605,7 @@
         <v>167</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>517</v>
@@ -6911,7 +6911,7 @@
         <v>221</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>542</v>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>126</v>
@@ -7166,7 +7166,7 @@
         <v>264</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>565</v>
@@ -7183,7 +7183,7 @@
         <v>267</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>566</v>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>572</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -2043,7 +2043,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
+      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Babe" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="587">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -120,16 +120,25 @@
     <t xml:space="preserve">8.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kuroguro2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:03.219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Color – biggest number of jumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heppy</t>
   </si>
   <si>
     <t xml:space="preserve">4:03.695</t>
   </si>
   <si>
-    <t xml:space="preserve">Red Color – biggest number of jumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.</t>
+    <t xml:space="preserve">10.</t>
   </si>
   <si>
     <t xml:space="preserve">Hybriiid</t>
@@ -138,15 +147,6 @@
     <t xml:space="preserve">4:03.899</t>
   </si>
   <si>
-    <t xml:space="preserve">10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuroguro2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:04.273</t>
-  </si>
-  <si>
     <t xml:space="preserve">11.</t>
   </si>
   <si>
@@ -168,13 +168,22 @@
     <t xml:space="preserve">13.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamacz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:07.333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lehvel</t>
   </si>
   <si>
     <t xml:space="preserve">4:09.713</t>
   </si>
   <si>
-    <t xml:space="preserve">14.</t>
+    <t xml:space="preserve">15.</t>
   </si>
   <si>
     <t xml:space="preserve">m_yoyoyo</t>
@@ -183,7 +192,7 @@
     <t xml:space="preserve">4:15.731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.</t>
+    <t xml:space="preserve">16.</t>
   </si>
   <si>
     <t xml:space="preserve">laayuman</t>
@@ -192,15 +201,6 @@
     <t xml:space="preserve">4:16.020</t>
   </si>
   <si>
-    <t xml:space="preserve">16.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamacz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:16.037</t>
-  </si>
-  <si>
     <t xml:space="preserve">17.</t>
   </si>
   <si>
@@ -357,13 +357,22 @@
     <t xml:space="preserve">34.</t>
   </si>
   <si>
+    <t xml:space="preserve">ike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:18.723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.</t>
+  </si>
+  <si>
     <t xml:space="preserve">CookieCrisp</t>
   </si>
   <si>
     <t xml:space="preserve">4:18.910</t>
   </si>
   <si>
-    <t xml:space="preserve">35.</t>
+    <t xml:space="preserve">36.</t>
   </si>
   <si>
     <t xml:space="preserve">Mpuddi</t>
@@ -372,7 +381,7 @@
     <t xml:space="preserve">4:18.978</t>
   </si>
   <si>
-    <t xml:space="preserve">36.</t>
+    <t xml:space="preserve">37.</t>
   </si>
   <si>
     <t xml:space="preserve">Lodinggggg</t>
@@ -381,7 +390,7 @@
     <t xml:space="preserve">4:19.318</t>
   </si>
   <si>
-    <t xml:space="preserve">37.</t>
+    <t xml:space="preserve">38.</t>
   </si>
   <si>
     <t xml:space="preserve">KosiechecK</t>
@@ -390,7 +399,7 @@
     <t xml:space="preserve">4:19.539</t>
   </si>
   <si>
-    <t xml:space="preserve">38.</t>
+    <t xml:space="preserve">39.</t>
   </si>
   <si>
     <t xml:space="preserve">Ny</t>
@@ -399,7 +408,7 @@
     <t xml:space="preserve">4:19.794</t>
   </si>
   <si>
-    <t xml:space="preserve">39.</t>
+    <t xml:space="preserve">40.</t>
   </si>
   <si>
     <t xml:space="preserve">joeknit</t>
@@ -408,7 +417,7 @@
     <t xml:space="preserve">4:20.406</t>
   </si>
   <si>
-    <t xml:space="preserve">40.</t>
+    <t xml:space="preserve">41.</t>
   </si>
   <si>
     <t xml:space="preserve">OwOs</t>
@@ -417,7 +426,7 @@
     <t xml:space="preserve">4:20.797</t>
   </si>
   <si>
-    <t xml:space="preserve">41.</t>
+    <t xml:space="preserve">42.</t>
   </si>
   <si>
     <t xml:space="preserve">oHypix</t>
@@ -426,7 +435,7 @@
     <t xml:space="preserve">4:20.814</t>
   </si>
   <si>
-    <t xml:space="preserve">42.</t>
+    <t xml:space="preserve">43.</t>
   </si>
   <si>
     <t xml:space="preserve">eskine</t>
@@ -435,7 +444,7 @@
     <t xml:space="preserve">4:21.103</t>
   </si>
   <si>
-    <t xml:space="preserve">43.</t>
+    <t xml:space="preserve">44.</t>
   </si>
   <si>
     <t xml:space="preserve">Poppo_</t>
@@ -444,7 +453,7 @@
     <t xml:space="preserve">4:21.409</t>
   </si>
   <si>
-    <t xml:space="preserve">44.</t>
+    <t xml:space="preserve">45.</t>
   </si>
   <si>
     <t xml:space="preserve">mican8s</t>
@@ -453,7 +462,7 @@
     <t xml:space="preserve">4:21.647</t>
   </si>
   <si>
-    <t xml:space="preserve">45.</t>
+    <t xml:space="preserve">46.</t>
   </si>
   <si>
     <t xml:space="preserve">ChroNickPain</t>
@@ -462,7 +471,7 @@
     <t xml:space="preserve">4:21.800</t>
   </si>
   <si>
-    <t xml:space="preserve">46.</t>
+    <t xml:space="preserve">47.</t>
   </si>
   <si>
     <t xml:space="preserve">kedako</t>
@@ -471,7 +480,7 @@
     <t xml:space="preserve">4:22.021</t>
   </si>
   <si>
-    <t xml:space="preserve">47.</t>
+    <t xml:space="preserve">48.</t>
   </si>
   <si>
     <t xml:space="preserve">Rifre</t>
@@ -480,7 +489,7 @@
     <t xml:space="preserve">4:22.055</t>
   </si>
   <si>
-    <t xml:space="preserve">48.</t>
+    <t xml:space="preserve">49.</t>
   </si>
   <si>
     <t xml:space="preserve">Aytk100</t>
@@ -489,15 +498,6 @@
     <t xml:space="preserve">4:22.293</t>
   </si>
   <si>
-    <t xml:space="preserve">49.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:22.905</t>
-  </si>
-  <si>
     <t xml:space="preserve">50.</t>
   </si>
   <si>
@@ -1038,6 +1038,9 @@
     <t xml:space="preserve">6:39.993</t>
   </si>
   <si>
+    <t xml:space="preserve">6:46.946</t>
+  </si>
+  <si>
     <t xml:space="preserve">Joebannks</t>
   </si>
   <si>
@@ -1293,9 +1296,6 @@
     <t xml:space="preserve">8:51.114</t>
   </si>
   <si>
-    <t xml:space="preserve">8:51.930</t>
-  </si>
-  <si>
     <t xml:space="preserve">n_lizard</t>
   </si>
   <si>
@@ -1605,6 +1605,9 @@
     <t xml:space="preserve">7:25.094</t>
   </si>
   <si>
+    <t xml:space="preserve">7:27.576</t>
+  </si>
+  <si>
     <t xml:space="preserve">7:28.494</t>
   </si>
   <si>
@@ -1780,12 +1783,6 @@
   </si>
   <si>
     <t xml:space="preserve">9:56.632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wagyuptt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:57.499</t>
   </si>
 </sst>
 </file>
@@ -2042,8 +2039,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2114,7 +2111,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.72</v>
+        <v>229.81</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -2242,7 +2239,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>0</v>
@@ -2265,7 +2262,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>0</v>
@@ -2282,7 +2279,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>0</v>
@@ -2333,7 +2330,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>0</v>
@@ -2350,7 +2347,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>0</v>
@@ -2367,7 +2364,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>0</v>
@@ -2384,7 +2381,7 @@
         <v>58</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>0</v>
@@ -2690,7 +2687,7 @@
         <v>112</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>0</v>
@@ -2707,7 +2704,7 @@
         <v>115</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>0</v>
@@ -2724,7 +2721,7 @@
         <v>118</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>0</v>
@@ -2741,7 +2738,7 @@
         <v>121</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>0</v>
@@ -2757,8 +2754,8 @@
       <c r="C39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="8" t="n">
-        <v>215</v>
+      <c r="D39" s="4" t="n">
+        <v>229</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>0</v>
@@ -2774,8 +2771,8 @@
       <c r="C40" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="4" t="n">
-        <v>226</v>
+      <c r="D40" s="8" t="n">
+        <v>215</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>0</v>
@@ -2791,8 +2788,8 @@
       <c r="C41" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="9" t="n">
-        <v>247</v>
+      <c r="D41" s="4" t="n">
+        <v>226</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>0</v>
@@ -2808,8 +2805,8 @@
       <c r="C42" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="4" t="n">
-        <v>228</v>
+      <c r="D42" s="9" t="n">
+        <v>247</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>0</v>
@@ -2826,7 +2823,7 @@
         <v>136</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>0</v>
@@ -2843,7 +2840,7 @@
         <v>139</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>0</v>
@@ -2860,7 +2857,7 @@
         <v>142</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>0</v>
@@ -2877,7 +2874,7 @@
         <v>145</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>0</v>
@@ -2894,7 +2891,7 @@
         <v>148</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>0</v>
@@ -2911,7 +2908,7 @@
         <v>151</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>0</v>
@@ -2928,7 +2925,7 @@
         <v>154</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>0</v>
@@ -2945,7 +2942,7 @@
         <v>157</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>0</v>
@@ -3842,8 +3839,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="A103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3874,7 +3871,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>307</v>
@@ -3913,11 +3910,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>299.48</v>
+        <v>299.01</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.81</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>309</v>
@@ -3988,7 +3985,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>312</v>
@@ -4092,7 +4089,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>317</v>
@@ -4109,7 +4106,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>318</v>
@@ -4126,7 +4123,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>319</v>
@@ -4160,7 +4157,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>321</v>
@@ -4211,7 +4208,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>324</v>
@@ -4245,7 +4242,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>326</v>
@@ -4262,7 +4259,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>327</v>
@@ -4347,7 +4344,7 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>334</v>
@@ -4398,13 +4395,13 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="D30" s="4" t="n">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>1</v>
@@ -4415,13 +4412,13 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>210</v>
+        <v>339</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>340</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>1</v>
@@ -4432,13 +4429,13 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="D32" s="4" t="n">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>1</v>
@@ -4449,16 +4446,16 @@
         <v>104</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>201</v>
+        <v>342</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>343</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4466,16 +4463,16 @@
         <v>107</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>344</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,16 +4480,16 @@
         <v>110</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>345</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,13 +4497,13 @@
         <v>113</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>346</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>1</v>
@@ -4517,16 +4514,16 @@
         <v>116</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>257</v>
+        <v>114</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>347</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,13 +4531,13 @@
         <v>119</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="D38" s="4" t="n">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>2</v>
@@ -4551,16 +4548,16 @@
         <v>122</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>351</v>
+      <c r="D39" s="4" t="n">
+        <v>295</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4568,16 +4565,16 @@
         <v>125</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>354</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4585,16 +4582,16 @@
         <v>128</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>207</v>
+        <v>353</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D41" s="4" t="n">
-        <v>289</v>
-      </c>
-      <c r="E41" s="4" t="n">
-        <v>1</v>
+      <c r="E41" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4602,13 +4599,13 @@
         <v>131</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>356</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
@@ -4619,16 +4616,16 @@
         <v>134</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>358</v>
-      </c>
       <c r="D43" s="4" t="n">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4636,16 +4633,16 @@
         <v>137</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>360</v>
-      </c>
       <c r="D44" s="4" t="n">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4653,16 +4650,16 @@
         <v>140</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>362</v>
-      </c>
       <c r="D45" s="4" t="n">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,13 +4667,13 @@
         <v>143</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="D46" s="4" t="n">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>2</v>
@@ -4687,16 +4684,16 @@
         <v>146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>365</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,16 +4701,16 @@
         <v>149</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>367</v>
-      </c>
       <c r="D48" s="4" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,16 +4718,16 @@
         <v>152</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>162</v>
+        <v>367</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>368</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,16 +4735,16 @@
         <v>155</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>369</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4755,16 +4752,16 @@
         <v>158</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="D51" s="4" t="n">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4772,16 +4769,16 @@
         <v>161</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="D52" s="4" t="n">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4789,16 +4786,16 @@
         <v>164</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>234</v>
+        <v>373</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4806,16 +4803,16 @@
         <v>167</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>375</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4823,16 +4820,16 @@
         <v>170</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="D55" s="4" t="n">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4840,16 +4837,16 @@
         <v>173</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>354</v>
+      <c r="D56" s="4" t="n">
+        <v>288</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4857,16 +4854,16 @@
         <v>176</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="D57" s="4" t="n">
-        <v>298</v>
-      </c>
-      <c r="E57" s="4" t="n">
-        <v>3</v>
+      <c r="D57" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4874,16 +4871,16 @@
         <v>179</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="D58" s="4" t="n">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4891,13 +4888,13 @@
         <v>182</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="D59" s="4" t="n">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
@@ -4908,16 +4905,16 @@
         <v>185</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="D60" s="4" t="n">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4925,16 +4922,16 @@
         <v>188</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>276</v>
+        <v>387</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>388</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4942,16 +4939,16 @@
         <v>191</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="D62" s="4" t="n">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4959,16 +4956,16 @@
         <v>194</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>392</v>
-      </c>
       <c r="D63" s="4" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4976,13 +4973,13 @@
         <v>197</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>394</v>
-      </c>
       <c r="D64" s="4" t="n">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="E64" s="4" t="n">
         <v>0</v>
@@ -4993,16 +4990,16 @@
         <v>200</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>395</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,16 +5007,16 @@
         <v>203</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="D66" s="4" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5027,16 +5024,16 @@
         <v>206</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="D67" s="4" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5044,16 +5041,16 @@
         <v>209</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="D68" s="4" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5061,13 +5058,13 @@
         <v>212</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>403</v>
-      </c>
       <c r="D69" s="4" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E69" s="4" t="n">
         <v>0</v>
@@ -5078,16 +5075,16 @@
         <v>215</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>405</v>
-      </c>
       <c r="D70" s="4" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,16 +5092,16 @@
         <v>218</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>407</v>
-      </c>
       <c r="D71" s="4" t="n">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,16 +5109,16 @@
         <v>221</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>354</v>
+      <c r="D72" s="4" t="n">
+        <v>317</v>
+      </c>
+      <c r="E72" s="4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5129,16 +5126,16 @@
         <v>224</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>411</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,16 +5143,16 @@
         <v>227</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D74" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E74" s="4" t="n">
-        <v>6</v>
+      <c r="D74" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5163,13 +5160,13 @@
         <v>230</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>415</v>
-      </c>
       <c r="D75" s="4" t="n">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>6</v>
@@ -5180,16 +5177,16 @@
         <v>233</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>268</v>
+        <v>415</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>416</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,16 +5194,16 @@
         <v>236</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="D77" s="4" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5214,13 +5211,13 @@
         <v>239</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>420</v>
-      </c>
       <c r="D78" s="4" t="n">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E78" s="4" t="n">
         <v>4</v>
@@ -5231,16 +5228,16 @@
         <v>242</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="D79" s="4" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5248,16 +5245,16 @@
         <v>245</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>132</v>
+        <v>422</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>423</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,7 +5432,7 @@
         <v>444</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>445</v>
@@ -5594,10 +5591,10 @@
         <v>461</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5641,8 +5638,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5673,7 +5670,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>464</v>
@@ -5712,11 +5709,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>317.29</v>
+        <v>316.1</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5724,7 +5721,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>466</v>
@@ -5787,7 +5784,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>469</v>
@@ -5891,7 +5888,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>309</v>
@@ -5942,7 +5939,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>476</v>
@@ -5959,7 +5956,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>477</v>
@@ -6078,7 +6075,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>484</v>
@@ -6095,7 +6092,7 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>485</v>
@@ -6146,7 +6143,7 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>488</v>
@@ -6163,7 +6160,7 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>489</v>
@@ -6197,7 +6194,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>491</v>
@@ -6231,7 +6228,7 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>493</v>
@@ -6248,7 +6245,7 @@
         <v>104</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>494</v>
@@ -6316,7 +6313,7 @@
         <v>116</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>499</v>
@@ -6350,7 +6347,7 @@
         <v>122</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>501</v>
@@ -6401,7 +6398,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>505</v>
@@ -6418,7 +6415,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>506</v>
@@ -6452,7 +6449,7 @@
         <v>140</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>508</v>
@@ -6469,16 +6466,16 @@
         <v>143</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>509</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6520,7 +6517,7 @@
         <v>152</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>512</v>
@@ -6571,7 +6568,7 @@
         <v>161</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>515</v>
@@ -6690,16 +6687,16 @@
         <v>182</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>524</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6724,16 +6721,16 @@
         <v>188</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>527</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6741,16 +6738,16 @@
         <v>191</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>216</v>
+        <v>385</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>528</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6758,13 +6755,13 @@
         <v>194</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>389</v>
+        <v>216</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>529</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>6</v>
@@ -6775,16 +6772,16 @@
         <v>197</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>531</v>
-      </c>
       <c r="D64" s="4" t="n">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6792,16 +6789,16 @@
         <v>200</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>400</v>
+        <v>531</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>532</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6809,16 +6806,16 @@
         <v>203</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>534</v>
-      </c>
       <c r="D66" s="4" t="n">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6826,16 +6823,16 @@
         <v>206</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>536</v>
-      </c>
       <c r="D67" s="4" t="n">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6843,16 +6840,16 @@
         <v>209</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>138</v>
+        <v>536</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>537</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6860,16 +6857,16 @@
         <v>212</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>539</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>329</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6877,16 +6874,16 @@
         <v>215</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>361</v>
+        <v>539</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>540</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6894,16 +6891,16 @@
         <v>218</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>541</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6911,16 +6908,16 @@
         <v>221</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>268</v>
+        <v>373</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>542</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6928,16 +6925,16 @@
         <v>224</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>460</v>
+        <v>268</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>354</v>
+      <c r="D73" s="4" t="n">
+        <v>326</v>
+      </c>
+      <c r="E73" s="4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6945,16 +6942,16 @@
         <v>227</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D74" s="4" t="n">
-        <v>343</v>
-      </c>
-      <c r="E74" s="4" t="n">
-        <v>4</v>
+      <c r="D74" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6962,16 +6959,16 @@
         <v>230</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>547</v>
-      </c>
       <c r="D75" s="4" t="n">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6979,16 +6976,16 @@
         <v>233</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>549</v>
-      </c>
       <c r="D76" s="4" t="n">
-        <v>394</v>
+        <v>298</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6996,16 +6993,16 @@
         <v>236</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>551</v>
-      </c>
       <c r="D77" s="4" t="n">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7013,16 +7010,16 @@
         <v>239</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>553</v>
-      </c>
       <c r="D78" s="4" t="n">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7030,13 +7027,13 @@
         <v>242</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>408</v>
+        <v>553</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>554</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>3</v>
@@ -7047,16 +7044,16 @@
         <v>245</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>555</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7064,16 +7061,16 @@
         <v>248</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>557</v>
-      </c>
       <c r="D81" s="4" t="n">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7081,16 +7078,16 @@
         <v>251</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>559</v>
-      </c>
       <c r="D82" s="4" t="n">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7098,16 +7095,16 @@
         <v>254</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>386</v>
+        <v>559</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>560</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7115,16 +7112,16 @@
         <v>430</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>562</v>
-      </c>
       <c r="D84" s="4" t="n">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,16 +7129,16 @@
         <v>259</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>126</v>
+        <v>562</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>563</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7149,16 +7146,16 @@
         <v>261</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>439</v>
+        <v>129</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>564</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7166,16 +7163,16 @@
         <v>264</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>565</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>339</v>
+        <v>464</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7183,16 +7180,16 @@
         <v>267</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>566</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7200,16 +7197,16 @@
         <v>270</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>442</v>
+        <v>243</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>567</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7217,16 +7214,16 @@
         <v>273</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>569</v>
-      </c>
       <c r="D90" s="4" t="n">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7234,16 +7231,16 @@
         <v>444</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>571</v>
-      </c>
       <c r="D91" s="4" t="n">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7251,16 +7248,16 @@
         <v>278</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="D92" s="9" t="n">
-        <v>617</v>
+      <c r="D92" s="4" t="n">
+        <v>400</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7268,16 +7265,16 @@
         <v>280</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D93" s="4" t="n">
-        <v>382</v>
+      <c r="D93" s="9" t="n">
+        <v>617</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7288,13 +7285,13 @@
         <v>575</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>576</v>
+        <v>445</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7302,16 +7299,16 @@
         <v>286</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>578</v>
-      </c>
       <c r="D95" s="4" t="n">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7319,16 +7316,16 @@
         <v>289</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>24</v>
+        <v>578</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>579</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>371</v>
+        <v>498</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7336,16 +7333,16 @@
         <v>292</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>581</v>
-      </c>
       <c r="D97" s="4" t="n">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7353,16 +7350,16 @@
         <v>295</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>354</v>
+      <c r="D98" s="4" t="n">
+        <v>444</v>
+      </c>
+      <c r="E98" s="4" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7370,16 +7367,16 @@
         <v>298</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>120</v>
+        <v>583</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D99" s="4" t="n">
-        <v>391</v>
-      </c>
-      <c r="E99" s="4" t="n">
-        <v>7</v>
+      <c r="D99" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7387,16 +7384,16 @@
         <v>301</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>414</v>
+        <v>123</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7404,16 +7401,16 @@
         <v>304</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>587</v>
-      </c>
       <c r="D101" s="4" t="n">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Trimp</t>
   </si>
   <si>
-    <t xml:space="preserve">4:00.006</t>
+    <t xml:space="preserve">3:59.989</t>
   </si>
   <si>
     <t xml:space="preserve">2.</t>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">Casu</t>
   </si>
   <si>
-    <t xml:space="preserve">4:00.788</t>
+    <t xml:space="preserve">4:00.363</t>
   </si>
   <si>
     <t xml:space="preserve">Average</t>
@@ -150,13 +150,22 @@
     <t xml:space="preserve">11.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamacz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:04.919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.</t>
+  </si>
+  <si>
     <t xml:space="preserve">hty_ra_t</t>
   </si>
   <si>
     <t xml:space="preserve">4:05.174</t>
   </si>
   <si>
-    <t xml:space="preserve">12.</t>
+    <t xml:space="preserve">13.</t>
   </si>
   <si>
     <t xml:space="preserve">H_ebi</t>
@@ -165,15 +174,6 @@
     <t xml:space="preserve">4:06.007</t>
   </si>
   <si>
-    <t xml:space="preserve">13.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamacz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:07.333</t>
-  </si>
-  <si>
     <t xml:space="preserve">14.</t>
   </si>
   <si>
@@ -186,13 +186,22 @@
     <t xml:space="preserve">15.</t>
   </si>
   <si>
+    <t xml:space="preserve">ExiledMonk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:11.447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.</t>
+  </si>
+  <si>
     <t xml:space="preserve">m_yoyoyo</t>
   </si>
   <si>
     <t xml:space="preserve">4:15.731</t>
   </si>
   <si>
-    <t xml:space="preserve">16.</t>
+    <t xml:space="preserve">17.</t>
   </si>
   <si>
     <t xml:space="preserve">laayuman</t>
@@ -201,7 +210,7 @@
     <t xml:space="preserve">4:16.020</t>
   </si>
   <si>
-    <t xml:space="preserve">17.</t>
+    <t xml:space="preserve">18.</t>
   </si>
   <si>
     <t xml:space="preserve">Rustamaniacc_</t>
@@ -210,7 +219,7 @@
     <t xml:space="preserve">4:16.139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.</t>
+    <t xml:space="preserve">19.</t>
   </si>
   <si>
     <t xml:space="preserve">Brungo</t>
@@ -219,7 +228,7 @@
     <t xml:space="preserve">4:16.173</t>
   </si>
   <si>
-    <t xml:space="preserve">19.</t>
+    <t xml:space="preserve">20.</t>
   </si>
   <si>
     <t xml:space="preserve">Cartewns</t>
@@ -228,7 +237,7 @@
     <t xml:space="preserve">4:16.428</t>
   </si>
   <si>
-    <t xml:space="preserve">20.</t>
+    <t xml:space="preserve">21.</t>
   </si>
   <si>
     <t xml:space="preserve">Valmerix</t>
@@ -237,7 +246,7 @@
     <t xml:space="preserve">4:16.564</t>
   </si>
   <si>
-    <t xml:space="preserve">21.</t>
+    <t xml:space="preserve">22.</t>
   </si>
   <si>
     <t xml:space="preserve">Bonzai917</t>
@@ -246,7 +255,7 @@
     <t xml:space="preserve">4:16.615</t>
   </si>
   <si>
-    <t xml:space="preserve">22.</t>
+    <t xml:space="preserve">23.</t>
   </si>
   <si>
     <t xml:space="preserve">Flan</t>
@@ -255,7 +264,7 @@
     <t xml:space="preserve">4:16.887</t>
   </si>
   <si>
-    <t xml:space="preserve">23.</t>
+    <t xml:space="preserve">24.</t>
   </si>
   <si>
     <t xml:space="preserve">Fasu</t>
@@ -264,7 +273,25 @@
     <t xml:space="preserve">4:16.989</t>
   </si>
   <si>
-    <t xml:space="preserve">24.</t>
+    <t xml:space="preserve">25.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:17.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ridgy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:17.142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.</t>
   </si>
   <si>
     <t xml:space="preserve">AS13B</t>
@@ -273,7 +300,7 @@
     <t xml:space="preserve">4:17.193</t>
   </si>
   <si>
-    <t xml:space="preserve">25.</t>
+    <t xml:space="preserve">28.</t>
   </si>
   <si>
     <t xml:space="preserve">primax</t>
@@ -282,7 +309,7 @@
     <t xml:space="preserve">4:17.278</t>
   </si>
   <si>
-    <t xml:space="preserve">26.</t>
+    <t xml:space="preserve">29.</t>
   </si>
   <si>
     <t xml:space="preserve">SirNewt</t>
@@ -291,7 +318,7 @@
     <t xml:space="preserve">4:17.329</t>
   </si>
   <si>
-    <t xml:space="preserve">27.</t>
+    <t xml:space="preserve">30.</t>
   </si>
   <si>
     <t xml:space="preserve">KurierDPD</t>
@@ -300,7 +327,7 @@
     <t xml:space="preserve">4:17.346</t>
   </si>
   <si>
-    <t xml:space="preserve">28.</t>
+    <t xml:space="preserve">31.</t>
   </si>
   <si>
     <t xml:space="preserve">eyetooth96</t>
@@ -309,7 +336,7 @@
     <t xml:space="preserve">4:17.448</t>
   </si>
   <si>
-    <t xml:space="preserve">29.</t>
+    <t xml:space="preserve">32.</t>
   </si>
   <si>
     <t xml:space="preserve">Taken</t>
@@ -318,7 +345,7 @@
     <t xml:space="preserve">4:17.754</t>
   </si>
   <si>
-    <t xml:space="preserve">30.</t>
+    <t xml:space="preserve">33.</t>
   </si>
   <si>
     <t xml:space="preserve">Yoyogi_yoshi_Vtuber</t>
@@ -327,16 +354,7 @@
     <t xml:space="preserve">4:18.009</t>
   </si>
   <si>
-    <t xml:space="preserve">31.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExiledMonk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:18.468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.</t>
+    <t xml:space="preserve">34.</t>
   </si>
   <si>
     <t xml:space="preserve">Dadi_chen</t>
@@ -345,16 +363,7 @@
     <t xml:space="preserve">4:18.502</t>
   </si>
   <si>
-    <t xml:space="preserve">33.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ridgy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:18.672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.</t>
+    <t xml:space="preserve">35.</t>
   </si>
   <si>
     <t xml:space="preserve">ike</t>
@@ -363,7 +372,7 @@
     <t xml:space="preserve">4:18.723</t>
   </si>
   <si>
-    <t xml:space="preserve">35.</t>
+    <t xml:space="preserve">36.</t>
   </si>
   <si>
     <t xml:space="preserve">CookieCrisp</t>
@@ -372,7 +381,7 @@
     <t xml:space="preserve">4:18.910</t>
   </si>
   <si>
-    <t xml:space="preserve">36.</t>
+    <t xml:space="preserve">37.</t>
   </si>
   <si>
     <t xml:space="preserve">Mpuddi</t>
@@ -381,7 +390,7 @@
     <t xml:space="preserve">4:18.978</t>
   </si>
   <si>
-    <t xml:space="preserve">37.</t>
+    <t xml:space="preserve">38.</t>
   </si>
   <si>
     <t xml:space="preserve">Lodinggggg</t>
@@ -390,7 +399,7 @@
     <t xml:space="preserve">4:19.318</t>
   </si>
   <si>
-    <t xml:space="preserve">38.</t>
+    <t xml:space="preserve">39.</t>
   </si>
   <si>
     <t xml:space="preserve">KosiechecK</t>
@@ -399,7 +408,7 @@
     <t xml:space="preserve">4:19.539</t>
   </si>
   <si>
-    <t xml:space="preserve">39.</t>
+    <t xml:space="preserve">40.</t>
   </si>
   <si>
     <t xml:space="preserve">Ny</t>
@@ -408,7 +417,7 @@
     <t xml:space="preserve">4:19.794</t>
   </si>
   <si>
-    <t xml:space="preserve">40.</t>
+    <t xml:space="preserve">41.</t>
   </si>
   <si>
     <t xml:space="preserve">joeknit</t>
@@ -417,15 +426,6 @@
     <t xml:space="preserve">4:20.406</t>
   </si>
   <si>
-    <t xml:space="preserve">41.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OwOs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:20.797</t>
-  </si>
-  <si>
     <t xml:space="preserve">42.</t>
   </si>
   <si>
@@ -636,13 +636,22 @@
     <t xml:space="preserve">65.</t>
   </si>
   <si>
+    <t xml:space="preserve">Rauligvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:30.980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.</t>
+  </si>
+  <si>
     <t xml:space="preserve">honzr</t>
   </si>
   <si>
     <t xml:space="preserve">4:32.918</t>
   </si>
   <si>
-    <t xml:space="preserve">66.</t>
+    <t xml:space="preserve">67.</t>
   </si>
   <si>
     <t xml:space="preserve">Crep</t>
@@ -651,7 +660,7 @@
     <t xml:space="preserve">4:33.513</t>
   </si>
   <si>
-    <t xml:space="preserve">67.</t>
+    <t xml:space="preserve">68.</t>
   </si>
   <si>
     <t xml:space="preserve">sisiza1771</t>
@@ -660,7 +669,7 @@
     <t xml:space="preserve">4:35.094</t>
   </si>
   <si>
-    <t xml:space="preserve">68.</t>
+    <t xml:space="preserve">69.</t>
   </si>
   <si>
     <t xml:space="preserve">HotLencia69</t>
@@ -669,7 +678,7 @@
     <t xml:space="preserve">4:35.332</t>
   </si>
   <si>
-    <t xml:space="preserve">69.</t>
+    <t xml:space="preserve">70.</t>
   </si>
   <si>
     <t xml:space="preserve">BsCloudy</t>
@@ -678,7 +687,7 @@
     <t xml:space="preserve">4:35.468</t>
   </si>
   <si>
-    <t xml:space="preserve">70.</t>
+    <t xml:space="preserve">71.</t>
   </si>
   <si>
     <t xml:space="preserve">SR_mochi</t>
@@ -687,7 +696,7 @@
     <t xml:space="preserve">4:35.723</t>
   </si>
   <si>
-    <t xml:space="preserve">71.</t>
+    <t xml:space="preserve">72.</t>
   </si>
   <si>
     <t xml:space="preserve">twitchpop</t>
@@ -696,7 +705,7 @@
     <t xml:space="preserve">4:35.791</t>
   </si>
   <si>
-    <t xml:space="preserve">72.</t>
+    <t xml:space="preserve">73.</t>
   </si>
   <si>
     <t xml:space="preserve">BlackIron</t>
@@ -705,7 +714,7 @@
     <t xml:space="preserve">4:35.825</t>
   </si>
   <si>
-    <t xml:space="preserve">73.</t>
+    <t xml:space="preserve">74.</t>
   </si>
   <si>
     <t xml:space="preserve">Pirce59</t>
@@ -714,7 +723,7 @@
     <t xml:space="preserve">4:36.012</t>
   </si>
   <si>
-    <t xml:space="preserve">74.</t>
+    <t xml:space="preserve">75.</t>
   </si>
   <si>
     <t xml:space="preserve">Magiczny_00</t>
@@ -723,7 +732,7 @@
     <t xml:space="preserve">4:36.250</t>
   </si>
   <si>
-    <t xml:space="preserve">75.</t>
+    <t xml:space="preserve">76.</t>
   </si>
   <si>
     <t xml:space="preserve">M8N</t>
@@ -732,15 +741,6 @@
     <t xml:space="preserve">4:36.335</t>
   </si>
   <si>
-    <t xml:space="preserve">76.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rauligvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:36.505</t>
-  </si>
-  <si>
     <t xml:space="preserve">77.</t>
   </si>
   <si>
@@ -762,13 +762,22 @@
     <t xml:space="preserve">79.</t>
   </si>
   <si>
+    <t xml:space="preserve">control_speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wisteer_</t>
   </si>
   <si>
     <t xml:space="preserve">4:37.253</t>
   </si>
   <si>
-    <t xml:space="preserve">80.</t>
+    <t xml:space="preserve">81.</t>
   </si>
   <si>
     <t xml:space="preserve">yuyumon_nick</t>
@@ -777,7 +786,7 @@
     <t xml:space="preserve">4:37.559</t>
   </si>
   <si>
-    <t xml:space="preserve">81.</t>
+    <t xml:space="preserve">82.</t>
   </si>
   <si>
     <t xml:space="preserve">DJJake7</t>
@@ -786,28 +795,28 @@
     <t xml:space="preserve">4:37.610</t>
   </si>
   <si>
-    <t xml:space="preserve">82.</t>
-  </si>
-  <si>
     <t xml:space="preserve">BotRaj</t>
   </si>
   <si>
     <t xml:space="preserve">4:37.729</t>
   </si>
   <si>
+    <t xml:space="preserve">84.</t>
+  </si>
+  <si>
     <t xml:space="preserve">retsu_teno</t>
   </si>
   <si>
     <t xml:space="preserve">4:37.797</t>
   </si>
   <si>
-    <t xml:space="preserve">84.</t>
+    <t xml:space="preserve">85.</t>
   </si>
   <si>
     <t xml:space="preserve">Chariot_Rider</t>
   </si>
   <si>
-    <t xml:space="preserve">85.</t>
+    <t xml:space="preserve">86.</t>
   </si>
   <si>
     <t xml:space="preserve">laza2115</t>
@@ -816,7 +825,7 @@
     <t xml:space="preserve">4:37.882</t>
   </si>
   <si>
-    <t xml:space="preserve">86.</t>
+    <t xml:space="preserve">87.</t>
   </si>
   <si>
     <t xml:space="preserve">DolpIn_62</t>
@@ -825,7 +834,7 @@
     <t xml:space="preserve">4:38.392</t>
   </si>
   <si>
-    <t xml:space="preserve">87.</t>
+    <t xml:space="preserve">88.</t>
   </si>
   <si>
     <t xml:space="preserve">Okita_110</t>
@@ -834,7 +843,7 @@
     <t xml:space="preserve">4:38.596</t>
   </si>
   <si>
-    <t xml:space="preserve">88.</t>
+    <t xml:space="preserve">89.</t>
   </si>
   <si>
     <t xml:space="preserve">Siuuunic</t>
@@ -843,28 +852,28 @@
     <t xml:space="preserve">4:38.613</t>
   </si>
   <si>
-    <t xml:space="preserve">89.</t>
-  </si>
-  <si>
     <t xml:space="preserve">BlueStormDragon</t>
   </si>
   <si>
     <t xml:space="preserve">4:38.698</t>
   </si>
   <si>
+    <t xml:space="preserve">91.</t>
+  </si>
+  <si>
     <t xml:space="preserve">You_too</t>
   </si>
   <si>
     <t xml:space="preserve">4:38.868</t>
   </si>
   <si>
-    <t xml:space="preserve">91.</t>
+    <t xml:space="preserve">92.</t>
   </si>
   <si>
     <t xml:space="preserve">tsiiga</t>
   </si>
   <si>
-    <t xml:space="preserve">92.</t>
+    <t xml:space="preserve">93.</t>
   </si>
   <si>
     <t xml:space="preserve">Entorihi</t>
@@ -873,7 +882,7 @@
     <t xml:space="preserve">4:39.038</t>
   </si>
   <si>
-    <t xml:space="preserve">93.</t>
+    <t xml:space="preserve">94.</t>
   </si>
   <si>
     <t xml:space="preserve">2D_PPT</t>
@@ -882,7 +891,7 @@
     <t xml:space="preserve">4:39.446</t>
   </si>
   <si>
-    <t xml:space="preserve">94.</t>
+    <t xml:space="preserve">95.</t>
   </si>
   <si>
     <t xml:space="preserve">SenseiDaichi</t>
@@ -891,7 +900,7 @@
     <t xml:space="preserve">4:40.024</t>
   </si>
   <si>
-    <t xml:space="preserve">95.</t>
+    <t xml:space="preserve">96.</t>
   </si>
   <si>
     <t xml:space="preserve">iLFantasmaDelleNevi</t>
@@ -900,7 +909,7 @@
     <t xml:space="preserve">4:40.568</t>
   </si>
   <si>
-    <t xml:space="preserve">96.</t>
+    <t xml:space="preserve">97.</t>
   </si>
   <si>
     <t xml:space="preserve">rta228</t>
@@ -909,7 +918,7 @@
     <t xml:space="preserve">4:40.636</t>
   </si>
   <si>
-    <t xml:space="preserve">97.</t>
+    <t xml:space="preserve">98.</t>
   </si>
   <si>
     <t xml:space="preserve">Im_Okay</t>
@@ -918,7 +927,7 @@
     <t xml:space="preserve">4:40.653</t>
   </si>
   <si>
-    <t xml:space="preserve">98.</t>
+    <t xml:space="preserve">99.</t>
   </si>
   <si>
     <t xml:space="preserve">yorimitijido</t>
@@ -927,7 +936,7 @@
     <t xml:space="preserve">4:40.775</t>
   </si>
   <si>
-    <t xml:space="preserve">99.</t>
+    <t xml:space="preserve">100.</t>
   </si>
   <si>
     <t xml:space="preserve">skyguy</t>
@@ -936,514 +945,505 @@
     <t xml:space="preserve">4:41.180</t>
   </si>
   <si>
-    <t xml:space="preserve">100.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:41.401</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:38.538</t>
   </si>
   <si>
     <t xml:space="preserve">5:38.657</t>
   </si>
   <si>
+    <t xml:space="preserve">5:38.878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:43.910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:44.335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:47.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:52.699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:56.745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:57.153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:58.819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:59.550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:04.803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:05.483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:07.608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:10.073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:12.895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:12.946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:19.797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:20.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:20.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:22.806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miyagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:25.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cjm8026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:26.699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:30.184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:32.649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:33.635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drgrrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:36.083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:39.993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:46.946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joebannks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toskania_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:51.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:58.166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:04.252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:06.564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:11.341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sukezamon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:23.836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:24.737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gr3mXR3apa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:26.930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:28.266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:29.667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aotogarashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:32.506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:32.591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skatman117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:34.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackANTIvenom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:34.172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:35.311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resolver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:35.383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:35.872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:37.147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dennydon2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:39.051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1ink01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:44.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:44.355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:48.333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitas2222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:49.523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personakun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:51.189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be5moti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:52.090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:52.974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JackJJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:53.739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solwf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:53.909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:55.405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:59.944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelthaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:59.961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocofondue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:02.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:04.619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doctorRick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:06.914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3BLANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:12.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali.Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:13.391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario568151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:15.805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shwift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:26.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caseyreese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:27.501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenrok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:31.496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfhsfh100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:33.910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denryu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:35.933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agreergaTW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:37.701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:48.275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sajrra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:49.839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MysticSooosu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:50.604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:51.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_lizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:58.220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheMikuDrip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:59.648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aydelotte8950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:02.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k3ruba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:05.122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thinklater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:05.513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pahapatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:05.547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazkade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:19.487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BakedSpaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:20.915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:22.054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GingerGiant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:23.533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:26.542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDDoctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:27.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:28.990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waitingcoronet5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:30.401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:30.622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teruko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:43.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaitorWUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:51.889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DukeDukeDura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:55.289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YomenadiKumiko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:12.272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheSpeed100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:14.350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fablesop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:24.733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:16.370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:18.886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:22.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:24.156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:24.411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:25.958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:26.672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:34.577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:35.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:37.671</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:40.663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:43.910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:44.335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:47.140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:52.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:56.745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:57.153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:59.550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:00.808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:04.803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:05.483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:07.608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:10.073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:12.895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:12.946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:19.797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:20.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:20.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:22.806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miyagi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:25.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cjm8026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:26.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:30.184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:32.649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:33.635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drgrrr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:36.083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:39.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:46.946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joebannks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toskania_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:51.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:58.166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:04.252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:06.564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:11.341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sukezamon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:23.836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:24.737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gr3mXR3apa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:26.930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:28.266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:29.667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aotogarashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:32.506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bogman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:32.591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skatman117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:34.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackANTIvenom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:34.172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:35.311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resolver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:35.383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:35.872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:37.147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dennydon2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:39.051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1ink01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:44.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:44.355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:48.333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitas2222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:49.523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personakun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:51.189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be5moti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:52.090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:52.974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JackJJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:53.739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solwf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:53.909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:55.405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control_speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:59.944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelthaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:59.961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chocofondue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:02.375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:04.619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doctorRick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:06.914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3BLANC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:12.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ali.Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:13.391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mario568151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:15.805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shwift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:26.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caseyreese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:27.501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenrok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:31.496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfhsfh100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:33.910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denryu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:35.933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agreergaTW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:37.701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:48.275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sajrra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:49.839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MysticSooosu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:50.604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:51.114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_lizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:58.220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TheMikuDrip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:59.648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aydelotte8950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:02.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k3ruba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:05.122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thinklater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:05.513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pahapatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:05.547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazkade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:19.487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BakedSpaghetti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:20.915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:22.054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GingerGiant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:23.533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:26.542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDDoctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:27.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:28.990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waitingcoronet5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:30.401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:30.622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teruko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:43.015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaitorWUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:51.889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DukeDukeDura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:55.289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YomenadiKumiko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:12.272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TheSpeed100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:14.350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fablesop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:24.733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:16.370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:18.886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:22.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:24.156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:24.411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:25.958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:26.672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:34.577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:35.036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:37.671</t>
   </si>
   <si>
     <t xml:space="preserve">5:40.969</t>
@@ -1911,7 +1911,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1954,6 +1954,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2039,8 +2043,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2077,7 +2081,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>0</v>
@@ -2101,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0</v>
@@ -2111,7 +2115,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.81</v>
+        <v>229.61</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -2296,7 +2300,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>0</v>
@@ -2313,7 +2317,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>0</v>
@@ -2364,7 +2368,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>0</v>
@@ -2381,7 +2385,7 @@
         <v>58</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>0</v>
@@ -2398,7 +2402,7 @@
         <v>61</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>0</v>
@@ -2415,7 +2419,7 @@
         <v>64</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>0</v>
@@ -2432,7 +2436,7 @@
         <v>67</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>0</v>
@@ -2449,7 +2453,7 @@
         <v>70</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
@@ -2466,7 +2470,7 @@
         <v>73</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
@@ -2483,7 +2487,7 @@
         <v>76</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
@@ -2500,7 +2504,7 @@
         <v>79</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
@@ -2517,7 +2521,7 @@
         <v>82</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
@@ -2534,7 +2538,7 @@
         <v>85</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
@@ -2568,7 +2572,7 @@
         <v>91</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>0</v>
@@ -2585,7 +2589,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>0</v>
@@ -2602,7 +2606,7 @@
         <v>97</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>0</v>
@@ -2619,7 +2623,7 @@
         <v>100</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>0</v>
@@ -2636,7 +2640,7 @@
         <v>103</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>0</v>
@@ -2653,7 +2657,7 @@
         <v>106</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>0</v>
@@ -2670,7 +2674,7 @@
         <v>109</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>0</v>
@@ -2687,7 +2691,7 @@
         <v>112</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>0</v>
@@ -2704,7 +2708,7 @@
         <v>115</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>0</v>
@@ -2721,7 +2725,7 @@
         <v>118</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>0</v>
@@ -2738,7 +2742,7 @@
         <v>121</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>0</v>
@@ -2755,7 +2759,7 @@
         <v>124</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>0</v>
@@ -2771,8 +2775,8 @@
       <c r="C40" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="8" t="n">
-        <v>215</v>
+      <c r="D40" s="4" t="n">
+        <v>229</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>0</v>
@@ -2788,8 +2792,8 @@
       <c r="C41" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="4" t="n">
-        <v>226</v>
+      <c r="D41" s="8" t="n">
+        <v>215</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>0</v>
@@ -2805,8 +2809,8 @@
       <c r="C42" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="9" t="n">
-        <v>247</v>
+      <c r="D42" s="4" t="n">
+        <v>226</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>0</v>
@@ -3214,7 +3218,7 @@
         <v>205</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
@@ -3231,7 +3235,7 @@
         <v>208</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>0</v>
@@ -3248,7 +3252,7 @@
         <v>211</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
@@ -3265,10 +3269,10 @@
         <v>214</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,7 +3286,7 @@
         <v>217</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E70" s="4" t="n">
         <v>1</v>
@@ -3299,10 +3303,10 @@
         <v>220</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3316,10 +3320,10 @@
         <v>223</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,10 +3337,10 @@
         <v>226</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,11 +3353,11 @@
       <c r="C74" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D74" s="4" t="n">
-        <v>227</v>
+      <c r="D74" s="9" t="n">
+        <v>245</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,10 +3371,10 @@
         <v>232</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,7 +3388,7 @@
         <v>235</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
@@ -3401,7 +3405,7 @@
         <v>238</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E77" s="4" t="n">
         <v>0</v>
@@ -3452,7 +3456,7 @@
         <v>247</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>0</v>
@@ -3469,7 +3473,7 @@
         <v>250</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>0</v>
@@ -3489,7 +3493,7 @@
         <v>236</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3503,10 +3507,10 @@
         <v>256</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,7 +3524,7 @@
         <v>258</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
@@ -3534,10 +3538,10 @@
         <v>260</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E85" s="4" t="n">
         <v>0</v>
@@ -3545,16 +3549,16 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="D86" s="4" t="n">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E86" s="4" t="n">
         <v>0</v>
@@ -3564,14 +3568,14 @@
       <c r="A87" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="10" t="s">
         <v>265</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E87" s="4" t="n">
         <v>0</v>
@@ -3588,7 +3592,7 @@
         <v>269</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E88" s="4" t="n">
         <v>0</v>
@@ -3605,7 +3609,7 @@
         <v>272</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E89" s="4" t="n">
         <v>0</v>
@@ -3622,7 +3626,7 @@
         <v>275</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E90" s="4" t="n">
         <v>0</v>
@@ -3639,7 +3643,7 @@
         <v>277</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="E91" s="4" t="n">
         <v>0</v>
@@ -3653,10 +3657,10 @@
         <v>279</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D92" s="4" t="n">
-        <v>227</v>
+        <v>280</v>
+      </c>
+      <c r="D92" s="11" t="n">
+        <v>245</v>
       </c>
       <c r="E92" s="4" t="n">
         <v>0</v>
@@ -3664,16 +3668,16 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="D93" s="4" t="n">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="E93" s="4" t="n">
         <v>0</v>
@@ -3689,8 +3693,8 @@
       <c r="C94" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D94" s="4" t="n">
-        <v>229</v>
+      <c r="D94" s="9" t="n">
+        <v>245</v>
       </c>
       <c r="E94" s="4" t="n">
         <v>0</v>
@@ -3707,7 +3711,7 @@
         <v>288</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E95" s="4" t="n">
         <v>0</v>
@@ -3724,7 +3728,7 @@
         <v>291</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E96" s="4" t="n">
         <v>0</v>
@@ -3741,7 +3745,7 @@
         <v>294</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E97" s="4" t="n">
         <v>0</v>
@@ -3758,7 +3762,7 @@
         <v>297</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E98" s="4" t="n">
         <v>0</v>
@@ -3775,10 +3779,10 @@
         <v>300</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3792,10 +3796,10 @@
         <v>303</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,8 +3843,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D94" activeCellId="0" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3910,11 +3914,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>299.01</v>
+        <v>299.1</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,7 +3932,7 @@
         <v>309</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>0</v>
@@ -3962,7 +3966,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>311</v>
@@ -4009,7 +4013,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>313</v>
@@ -4032,7 +4036,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>314</v>
@@ -4055,7 +4059,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>315</v>
@@ -4072,16 +4076,16 @@
         <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>316</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4089,13 +4093,13 @@
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>317</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>0</v>
@@ -4106,7 +4110,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>318</v>
@@ -4140,7 +4144,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>320</v>
@@ -4179,7 +4183,7 @@
       <c r="C17" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="12" t="n">
         <v>249</v>
       </c>
       <c r="E17" s="4" t="n">
@@ -4191,7 +4195,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>323</v>
@@ -4208,7 +4212,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>324</v>
@@ -4225,7 +4229,7 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>325</v>
@@ -4242,7 +4246,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>326</v>
@@ -4259,7 +4263,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>327</v>
@@ -4310,7 +4314,7 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>332</v>
@@ -4327,7 +4331,7 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>333</v>
@@ -4429,7 +4433,7 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>341</v>
@@ -4480,7 +4484,7 @@
         <v>110</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>345</v>
@@ -4514,7 +4518,7 @@
         <v>116</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>347</v>
@@ -4531,7 +4535,7 @@
         <v>119</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>348</v>
@@ -4565,7 +4569,7 @@
         <v>125</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>351</v>
@@ -4599,7 +4603,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>356</v>
@@ -4701,7 +4705,7 @@
         <v>149</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>366</v>
@@ -4752,7 +4756,7 @@
         <v>158</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>370</v>
@@ -4803,7 +4807,7 @@
         <v>167</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>375</v>
@@ -4820,7 +4824,7 @@
         <v>170</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>376</v>
@@ -4939,7 +4943,7 @@
         <v>191</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>389</v>
@@ -4956,10 +4960,10 @@
         <v>194</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>294</v>
@@ -4973,10 +4977,10 @@
         <v>197</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>303</v>
@@ -4990,10 +4994,10 @@
         <v>200</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>323</v>
@@ -5007,10 +5011,10 @@
         <v>203</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>295</v>
@@ -5024,10 +5028,10 @@
         <v>206</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>304</v>
@@ -5041,10 +5045,10 @@
         <v>209</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>292</v>
@@ -5058,10 +5062,10 @@
         <v>212</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>402</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>284</v>
@@ -5075,10 +5079,10 @@
         <v>215</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>286</v>
@@ -5092,10 +5096,10 @@
         <v>218</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>291</v>
@@ -5109,10 +5113,10 @@
         <v>221</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>317</v>
@@ -5126,10 +5130,10 @@
         <v>224</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>355</v>
@@ -5143,10 +5147,10 @@
         <v>227</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>412</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>355</v>
@@ -5160,10 +5164,10 @@
         <v>230</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>294</v>
@@ -5177,10 +5181,10 @@
         <v>233</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>416</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>307</v>
@@ -5194,10 +5198,10 @@
         <v>236</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>305</v>
@@ -5211,10 +5215,10 @@
         <v>239</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>295</v>
@@ -5228,10 +5232,10 @@
         <v>242</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>307</v>
@@ -5245,10 +5249,10 @@
         <v>245</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>303</v>
@@ -5262,10 +5266,10 @@
         <v>248</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>355</v>
@@ -5279,10 +5283,10 @@
         <v>251</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>334</v>
@@ -5296,10 +5300,10 @@
         <v>254</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>334</v>
@@ -5310,13 +5314,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>432</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>356</v>
@@ -5330,10 +5334,10 @@
         <v>259</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>309</v>
@@ -5344,13 +5348,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>319</v>
@@ -5364,10 +5368,10 @@
         <v>264</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>366</v>
@@ -5381,10 +5385,10 @@
         <v>267</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>303</v>
@@ -5398,10 +5402,10 @@
         <v>270</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>399</v>
@@ -5415,10 +5419,10 @@
         <v>273</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>305</v>
@@ -5429,13 +5433,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>368</v>
@@ -5449,10 +5453,10 @@
         <v>278</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>316</v>
@@ -5463,13 +5467,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>398</v>
@@ -5483,10 +5487,10 @@
         <v>283</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="D94" s="9" t="n">
         <v>412</v>
@@ -5503,7 +5507,7 @@
         <v>243</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>381</v>
@@ -5517,10 +5521,10 @@
         <v>289</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>297</v>
@@ -5534,10 +5538,10 @@
         <v>292</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>361</v>
@@ -5551,10 +5555,10 @@
         <v>295</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>457</v>
       </c>
       <c r="D98" s="4" t="n">
         <v>347</v>
@@ -5568,10 +5572,10 @@
         <v>298</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>342</v>
@@ -5585,10 +5589,10 @@
         <v>301</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>355</v>
@@ -5602,10 +5606,10 @@
         <v>304</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>307</v>
@@ -5638,7 +5642,7 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
     </sheetView>
   </sheetViews>
@@ -5673,9 +5677,9 @@
         <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D2" s="11" t="n">
+        <v>463</v>
+      </c>
+      <c r="D2" s="12" t="n">
         <v>251</v>
       </c>
       <c r="E2" s="4" t="n">
@@ -5696,7 +5700,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>259</v>
@@ -5724,7 +5728,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>261</v>
@@ -5741,7 +5745,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>256</v>
@@ -5761,10 +5765,10 @@
         <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>255</v>
@@ -5787,7 +5791,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>255</v>
@@ -5811,7 +5815,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>272</v>
@@ -5831,10 +5835,10 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>267</v>
@@ -5857,7 +5861,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>270</v>
@@ -5871,10 +5875,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>252</v>
@@ -5891,7 +5895,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>309</v>
+        <v>473</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>268</v>
@@ -5905,7 +5909,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>474</v>
@@ -5956,7 +5960,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>477</v>
@@ -5973,7 +5977,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>478</v>
@@ -5990,7 +5994,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>479</v>
@@ -6007,7 +6011,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>480</v>
@@ -6041,7 +6045,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>482</v>
@@ -6058,7 +6062,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>483</v>
@@ -6092,7 +6096,7 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>485</v>
@@ -6160,7 +6164,7 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>489</v>
@@ -6211,7 +6215,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>492</v>
@@ -6228,7 +6232,7 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>493</v>
@@ -6262,7 +6266,7 @@
         <v>107</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>495</v>
@@ -6296,7 +6300,7 @@
         <v>113</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>498</v>
@@ -6313,7 +6317,7 @@
         <v>116</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>499</v>
@@ -6330,7 +6334,7 @@
         <v>119</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>500</v>
@@ -6364,7 +6368,7 @@
         <v>125</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>502</v>
@@ -6432,7 +6436,7 @@
         <v>137</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>507</v>
@@ -6534,7 +6538,7 @@
         <v>155</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>512</v>
@@ -6585,7 +6589,7 @@
         <v>164</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>516</v>
@@ -6602,7 +6606,7 @@
         <v>167</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>517</v>
@@ -6670,7 +6674,7 @@
         <v>179</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>523</v>
@@ -6755,7 +6759,7 @@
         <v>194</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>529</v>
@@ -6772,7 +6776,7 @@
         <v>197</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>390</v>
+        <v>246</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>530</v>
@@ -6806,7 +6810,7 @@
         <v>203</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>533</v>
@@ -6925,7 +6929,7 @@
         <v>224</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>543</v>
@@ -6942,7 +6946,7 @@
         <v>227</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>544</v>
@@ -7044,7 +7048,7 @@
         <v>245</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>555</v>
@@ -7061,7 +7065,7 @@
         <v>248</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>556</v>
@@ -7109,7 +7113,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>387</v>
@@ -7143,10 +7147,10 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>564</v>
@@ -7163,7 +7167,7 @@
         <v>264</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>565</v>
@@ -7180,7 +7184,7 @@
         <v>267</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>566</v>
@@ -7214,7 +7218,7 @@
         <v>273</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>568</v>
@@ -7228,7 +7232,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>569</v>
@@ -7262,7 +7266,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>573</v>
@@ -7285,7 +7289,7 @@
         <v>575</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>382</v>
@@ -7384,7 +7388,7 @@
         <v>301</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>585</v>
@@ -7401,7 +7405,7 @@
         <v>304</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>586</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Babe" sheetId="1" state="visible" r:id="rId2"/>
@@ -963,6 +963,9 @@
     <t xml:space="preserve">5:47.140</t>
   </si>
   <si>
+    <t xml:space="preserve">5:48.228</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:52.699</t>
   </si>
   <si>
@@ -970,9 +973,6 @@
   </si>
   <si>
     <t xml:space="preserve">5:57.153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:58.819</t>
   </si>
   <si>
     <t xml:space="preserve">5:59.550</t>
@@ -3843,8 +3843,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D94" activeCellId="0" sqref="D94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3914,11 +3914,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>299.1</v>
+        <v>299.01</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,13 +4013,13 @@
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>313</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>314</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>0</v>
@@ -4059,13 +4059,13 @@
         <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>315</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>0</v>
@@ -4076,16 +4076,16 @@
         <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>316</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,7 +5642,7 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
     </sheetView>
   </sheetViews>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Babe" sheetId="1" state="visible" r:id="rId2"/>
@@ -393,13 +393,22 @@
     <t xml:space="preserve">38.</t>
   </si>
   <si>
+    <t xml:space="preserve">Stego20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:19.267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lodinggggg</t>
   </si>
   <si>
     <t xml:space="preserve">4:19.318</t>
   </si>
   <si>
-    <t xml:space="preserve">39.</t>
+    <t xml:space="preserve">40.</t>
   </si>
   <si>
     <t xml:space="preserve">KosiechecK</t>
@@ -408,7 +417,7 @@
     <t xml:space="preserve">4:19.539</t>
   </si>
   <si>
-    <t xml:space="preserve">40.</t>
+    <t xml:space="preserve">41.</t>
   </si>
   <si>
     <t xml:space="preserve">Ny</t>
@@ -417,7 +426,7 @@
     <t xml:space="preserve">4:19.794</t>
   </si>
   <si>
-    <t xml:space="preserve">41.</t>
+    <t xml:space="preserve">42.</t>
   </si>
   <si>
     <t xml:space="preserve">joeknit</t>
@@ -426,7 +435,7 @@
     <t xml:space="preserve">4:20.406</t>
   </si>
   <si>
-    <t xml:space="preserve">42.</t>
+    <t xml:space="preserve">43.</t>
   </si>
   <si>
     <t xml:space="preserve">oHypix</t>
@@ -435,7 +444,16 @@
     <t xml:space="preserve">4:20.814</t>
   </si>
   <si>
-    <t xml:space="preserve">43.</t>
+    <t xml:space="preserve">44.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im_Okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:20.831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.</t>
   </si>
   <si>
     <t xml:space="preserve">eskine</t>
@@ -444,7 +462,7 @@
     <t xml:space="preserve">4:21.103</t>
   </si>
   <si>
-    <t xml:space="preserve">44.</t>
+    <t xml:space="preserve">46.</t>
   </si>
   <si>
     <t xml:space="preserve">Poppo_</t>
@@ -453,7 +471,7 @@
     <t xml:space="preserve">4:21.409</t>
   </si>
   <si>
-    <t xml:space="preserve">45.</t>
+    <t xml:space="preserve">47.</t>
   </si>
   <si>
     <t xml:space="preserve">mican8s</t>
@@ -462,7 +480,7 @@
     <t xml:space="preserve">4:21.647</t>
   </si>
   <si>
-    <t xml:space="preserve">46.</t>
+    <t xml:space="preserve">48.</t>
   </si>
   <si>
     <t xml:space="preserve">ChroNickPain</t>
@@ -471,7 +489,7 @@
     <t xml:space="preserve">4:21.800</t>
   </si>
   <si>
-    <t xml:space="preserve">47.</t>
+    <t xml:space="preserve">49.</t>
   </si>
   <si>
     <t xml:space="preserve">kedako</t>
@@ -480,7 +498,7 @@
     <t xml:space="preserve">4:22.021</t>
   </si>
   <si>
-    <t xml:space="preserve">48.</t>
+    <t xml:space="preserve">50.</t>
   </si>
   <si>
     <t xml:space="preserve">Rifre</t>
@@ -489,7 +507,7 @@
     <t xml:space="preserve">4:22.055</t>
   </si>
   <si>
-    <t xml:space="preserve">49.</t>
+    <t xml:space="preserve">51.</t>
   </si>
   <si>
     <t xml:space="preserve">Aytk100</t>
@@ -498,7 +516,16 @@
     <t xml:space="preserve">4:22.293</t>
   </si>
   <si>
-    <t xml:space="preserve">50.</t>
+    <t xml:space="preserve">52.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rauligvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:22.939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.</t>
   </si>
   <si>
     <t xml:space="preserve">Kojooo</t>
@@ -507,7 +534,7 @@
     <t xml:space="preserve">4:22.956</t>
   </si>
   <si>
-    <t xml:space="preserve">51.</t>
+    <t xml:space="preserve">54.</t>
   </si>
   <si>
     <t xml:space="preserve">eniplex</t>
@@ -516,7 +543,7 @@
     <t xml:space="preserve">4:23.126</t>
   </si>
   <si>
-    <t xml:space="preserve">52.</t>
+    <t xml:space="preserve">55.</t>
   </si>
   <si>
     <t xml:space="preserve">CrazyNeighbour714</t>
@@ -525,7 +552,7 @@
     <t xml:space="preserve">4:23.143</t>
   </si>
   <si>
-    <t xml:space="preserve">53.</t>
+    <t xml:space="preserve">56.</t>
   </si>
   <si>
     <t xml:space="preserve">texhnolyzem</t>
@@ -534,7 +561,7 @@
     <t xml:space="preserve">4:23.823</t>
   </si>
   <si>
-    <t xml:space="preserve">54.</t>
+    <t xml:space="preserve">57.</t>
   </si>
   <si>
     <t xml:space="preserve">Alanukan</t>
@@ -543,7 +570,7 @@
     <t xml:space="preserve">4:24.299</t>
   </si>
   <si>
-    <t xml:space="preserve">55.</t>
+    <t xml:space="preserve">58.</t>
   </si>
   <si>
     <t xml:space="preserve">Skromnique</t>
@@ -552,7 +579,7 @@
     <t xml:space="preserve">4:24.469</t>
   </si>
   <si>
-    <t xml:space="preserve">56.</t>
+    <t xml:space="preserve">59.</t>
   </si>
   <si>
     <t xml:space="preserve">20centt</t>
@@ -561,7 +588,7 @@
     <t xml:space="preserve">4:24.588</t>
   </si>
   <si>
-    <t xml:space="preserve">57.</t>
+    <t xml:space="preserve">60.</t>
   </si>
   <si>
     <t xml:space="preserve">henthans</t>
@@ -570,7 +597,7 @@
     <t xml:space="preserve">4:24.690</t>
   </si>
   <si>
-    <t xml:space="preserve">58.</t>
+    <t xml:space="preserve">61.</t>
   </si>
   <si>
     <t xml:space="preserve">sggu</t>
@@ -579,7 +606,7 @@
     <t xml:space="preserve">4:25.064</t>
   </si>
   <si>
-    <t xml:space="preserve">59.</t>
+    <t xml:space="preserve">62.</t>
   </si>
   <si>
     <t xml:space="preserve">samsamspada</t>
@@ -588,7 +615,7 @@
     <t xml:space="preserve">4:25.421</t>
   </si>
   <si>
-    <t xml:space="preserve">60.</t>
+    <t xml:space="preserve">63.</t>
   </si>
   <si>
     <t xml:space="preserve">Kenchan</t>
@@ -597,7 +624,7 @@
     <t xml:space="preserve">4:25.642</t>
   </si>
   <si>
-    <t xml:space="preserve">61.</t>
+    <t xml:space="preserve">64.</t>
   </si>
   <si>
     <t xml:space="preserve">mountains</t>
@@ -606,7 +633,7 @@
     <t xml:space="preserve">4:25.931</t>
   </si>
   <si>
-    <t xml:space="preserve">62.</t>
+    <t xml:space="preserve">65.</t>
   </si>
   <si>
     <t xml:space="preserve">zyx098</t>
@@ -615,7 +642,7 @@
     <t xml:space="preserve">4:27.257</t>
   </si>
   <si>
-    <t xml:space="preserve">63.</t>
+    <t xml:space="preserve">66.</t>
   </si>
   <si>
     <t xml:space="preserve">Em_ily</t>
@@ -624,7 +651,7 @@
     <t xml:space="preserve">4:28.073</t>
   </si>
   <si>
-    <t xml:space="preserve">64.</t>
+    <t xml:space="preserve">67.</t>
   </si>
   <si>
     <t xml:space="preserve">tetoloid</t>
@@ -633,16 +660,7 @@
     <t xml:space="preserve">4:28.345</t>
   </si>
   <si>
-    <t xml:space="preserve">65.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rauligvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:30.980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.</t>
+    <t xml:space="preserve">68.</t>
   </si>
   <si>
     <t xml:space="preserve">honzr</t>
@@ -651,7 +669,7 @@
     <t xml:space="preserve">4:32.918</t>
   </si>
   <si>
-    <t xml:space="preserve">67.</t>
+    <t xml:space="preserve">69.</t>
   </si>
   <si>
     <t xml:space="preserve">Crep</t>
@@ -660,7 +678,7 @@
     <t xml:space="preserve">4:33.513</t>
   </si>
   <si>
-    <t xml:space="preserve">68.</t>
+    <t xml:space="preserve">70.</t>
   </si>
   <si>
     <t xml:space="preserve">sisiza1771</t>
@@ -669,7 +687,7 @@
     <t xml:space="preserve">4:35.094</t>
   </si>
   <si>
-    <t xml:space="preserve">69.</t>
+    <t xml:space="preserve">71.</t>
   </si>
   <si>
     <t xml:space="preserve">HotLencia69</t>
@@ -678,7 +696,7 @@
     <t xml:space="preserve">4:35.332</t>
   </si>
   <si>
-    <t xml:space="preserve">70.</t>
+    <t xml:space="preserve">72.</t>
   </si>
   <si>
     <t xml:space="preserve">BsCloudy</t>
@@ -687,7 +705,7 @@
     <t xml:space="preserve">4:35.468</t>
   </si>
   <si>
-    <t xml:space="preserve">71.</t>
+    <t xml:space="preserve">73.</t>
   </si>
   <si>
     <t xml:space="preserve">SR_mochi</t>
@@ -696,7 +714,7 @@
     <t xml:space="preserve">4:35.723</t>
   </si>
   <si>
-    <t xml:space="preserve">72.</t>
+    <t xml:space="preserve">74.</t>
   </si>
   <si>
     <t xml:space="preserve">twitchpop</t>
@@ -705,7 +723,7 @@
     <t xml:space="preserve">4:35.791</t>
   </si>
   <si>
-    <t xml:space="preserve">73.</t>
+    <t xml:space="preserve">75.</t>
   </si>
   <si>
     <t xml:space="preserve">BlackIron</t>
@@ -714,7 +732,7 @@
     <t xml:space="preserve">4:35.825</t>
   </si>
   <si>
-    <t xml:space="preserve">74.</t>
+    <t xml:space="preserve">76.</t>
   </si>
   <si>
     <t xml:space="preserve">Pirce59</t>
@@ -723,7 +741,7 @@
     <t xml:space="preserve">4:36.012</t>
   </si>
   <si>
-    <t xml:space="preserve">75.</t>
+    <t xml:space="preserve">77.</t>
   </si>
   <si>
     <t xml:space="preserve">Magiczny_00</t>
@@ -732,7 +750,7 @@
     <t xml:space="preserve">4:36.250</t>
   </si>
   <si>
-    <t xml:space="preserve">76.</t>
+    <t xml:space="preserve">78.</t>
   </si>
   <si>
     <t xml:space="preserve">M8N</t>
@@ -741,7 +759,7 @@
     <t xml:space="preserve">4:36.335</t>
   </si>
   <si>
-    <t xml:space="preserve">77.</t>
+    <t xml:space="preserve">79.</t>
   </si>
   <si>
     <t xml:space="preserve">oShorty</t>
@@ -750,7 +768,7 @@
     <t xml:space="preserve">4:36.590</t>
   </si>
   <si>
-    <t xml:space="preserve">78.</t>
+    <t xml:space="preserve">80.</t>
   </si>
   <si>
     <t xml:space="preserve">GlowdFire</t>
@@ -759,7 +777,7 @@
     <t xml:space="preserve">4:36.828</t>
   </si>
   <si>
-    <t xml:space="preserve">79.</t>
+    <t xml:space="preserve">81.</t>
   </si>
   <si>
     <t xml:space="preserve">control_speed</t>
@@ -768,7 +786,7 @@
     <t xml:space="preserve">4:37.202</t>
   </si>
   <si>
-    <t xml:space="preserve">80.</t>
+    <t xml:space="preserve">82.</t>
   </si>
   <si>
     <t xml:space="preserve">Wisteer_</t>
@@ -777,16 +795,13 @@
     <t xml:space="preserve">4:37.253</t>
   </si>
   <si>
-    <t xml:space="preserve">81.</t>
-  </si>
-  <si>
     <t xml:space="preserve">yuyumon_nick</t>
   </si>
   <si>
     <t xml:space="preserve">4:37.559</t>
   </si>
   <si>
-    <t xml:space="preserve">82.</t>
+    <t xml:space="preserve">84.</t>
   </si>
   <si>
     <t xml:space="preserve">DJJake7</t>
@@ -795,13 +810,16 @@
     <t xml:space="preserve">4:37.610</t>
   </si>
   <si>
+    <t xml:space="preserve">85.</t>
+  </si>
+  <si>
     <t xml:space="preserve">BotRaj</t>
   </si>
   <si>
     <t xml:space="preserve">4:37.729</t>
   </si>
   <si>
-    <t xml:space="preserve">84.</t>
+    <t xml:space="preserve">86.</t>
   </si>
   <si>
     <t xml:space="preserve">retsu_teno</t>
@@ -810,13 +828,13 @@
     <t xml:space="preserve">4:37.797</t>
   </si>
   <si>
-    <t xml:space="preserve">85.</t>
+    <t xml:space="preserve">87.</t>
   </si>
   <si>
     <t xml:space="preserve">Chariot_Rider</t>
   </si>
   <si>
-    <t xml:space="preserve">86.</t>
+    <t xml:space="preserve">88.</t>
   </si>
   <si>
     <t xml:space="preserve">laza2115</t>
@@ -825,7 +843,7 @@
     <t xml:space="preserve">4:37.882</t>
   </si>
   <si>
-    <t xml:space="preserve">87.</t>
+    <t xml:space="preserve">89.</t>
   </si>
   <si>
     <t xml:space="preserve">DolpIn_62</t>
@@ -834,16 +852,13 @@
     <t xml:space="preserve">4:38.392</t>
   </si>
   <si>
-    <t xml:space="preserve">88.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okita_110</t>
   </si>
   <si>
     <t xml:space="preserve">4:38.596</t>
   </si>
   <si>
-    <t xml:space="preserve">89.</t>
+    <t xml:space="preserve">91.</t>
   </si>
   <si>
     <t xml:space="preserve">Siuuunic</t>
@@ -852,13 +867,16 @@
     <t xml:space="preserve">4:38.613</t>
   </si>
   <si>
+    <t xml:space="preserve">92.</t>
+  </si>
+  <si>
     <t xml:space="preserve">BlueStormDragon</t>
   </si>
   <si>
     <t xml:space="preserve">4:38.698</t>
   </si>
   <si>
-    <t xml:space="preserve">91.</t>
+    <t xml:space="preserve">93.</t>
   </si>
   <si>
     <t xml:space="preserve">You_too</t>
@@ -867,13 +885,13 @@
     <t xml:space="preserve">4:38.868</t>
   </si>
   <si>
-    <t xml:space="preserve">92.</t>
+    <t xml:space="preserve">94.</t>
   </si>
   <si>
     <t xml:space="preserve">tsiiga</t>
   </si>
   <si>
-    <t xml:space="preserve">93.</t>
+    <t xml:space="preserve">95.</t>
   </si>
   <si>
     <t xml:space="preserve">Entorihi</t>
@@ -882,7 +900,7 @@
     <t xml:space="preserve">4:39.038</t>
   </si>
   <si>
-    <t xml:space="preserve">94.</t>
+    <t xml:space="preserve">96.</t>
   </si>
   <si>
     <t xml:space="preserve">2D_PPT</t>
@@ -891,7 +909,7 @@
     <t xml:space="preserve">4:39.446</t>
   </si>
   <si>
-    <t xml:space="preserve">95.</t>
+    <t xml:space="preserve">97.</t>
   </si>
   <si>
     <t xml:space="preserve">SenseiDaichi</t>
@@ -900,7 +918,7 @@
     <t xml:space="preserve">4:40.024</t>
   </si>
   <si>
-    <t xml:space="preserve">96.</t>
+    <t xml:space="preserve">98.</t>
   </si>
   <si>
     <t xml:space="preserve">iLFantasmaDelleNevi</t>
@@ -909,7 +927,7 @@
     <t xml:space="preserve">4:40.568</t>
   </si>
   <si>
-    <t xml:space="preserve">97.</t>
+    <t xml:space="preserve">99.</t>
   </si>
   <si>
     <t xml:space="preserve">rta228</t>
@@ -918,16 +936,7 @@
     <t xml:space="preserve">4:40.636</t>
   </si>
   <si>
-    <t xml:space="preserve">98.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Im_Okay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:40.653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.</t>
+    <t xml:space="preserve">100.</t>
   </si>
   <si>
     <t xml:space="preserve">yorimitijido</t>
@@ -936,13 +945,7 @@
     <t xml:space="preserve">4:40.775</t>
   </si>
   <si>
-    <t xml:space="preserve">100.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skyguy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:41.180</t>
+    <t xml:space="preserve">5:37.399</t>
   </si>
   <si>
     <t xml:space="preserve">5:38.538</t>
@@ -951,9 +954,6 @@
     <t xml:space="preserve">5:38.657</t>
   </si>
   <si>
-    <t xml:space="preserve">5:38.878</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:43.910</t>
   </si>
   <si>
@@ -1497,6 +1497,9 @@
     <t xml:space="preserve">6:16.023</t>
   </si>
   <si>
+    <t xml:space="preserve">6:20.851</t>
+  </si>
+  <si>
     <t xml:space="preserve">6:23.775</t>
   </si>
   <si>
@@ -1612,9 +1615,6 @@
   </si>
   <si>
     <t xml:space="preserve">7:33.135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:37.895</t>
   </si>
   <si>
     <t xml:space="preserve">Manoloutti</t>
@@ -2043,8 +2043,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.61</v>
+        <v>229.32</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -2759,7 +2759,7 @@
         <v>124</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>127</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>0</v>
@@ -2792,8 +2792,8 @@
       <c r="C41" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="8" t="n">
-        <v>215</v>
+      <c r="D41" s="4" t="n">
+        <v>229</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>0</v>
@@ -2809,8 +2809,8 @@
       <c r="C42" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="4" t="n">
-        <v>226</v>
+      <c r="D42" s="8" t="n">
+        <v>215</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>136</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>139</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>142</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>145</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>148</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>151</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>154</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>0</v>
@@ -2946,7 +2946,7 @@
         <v>157</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>160</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>163</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>166</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>169</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>172</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>175</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>178</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>181</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>184</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>187</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>190</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>193</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E62" s="4" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>196</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>199</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,7 +3201,7 @@
         <v>202</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>205</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>208</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3252,7 +3252,7 @@
         <v>211</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>214</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E69" s="4" t="n">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>217</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,10 +3303,10 @@
         <v>220</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,10 +3320,10 @@
         <v>223</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,7 +3337,7 @@
         <v>226</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>1</v>
@@ -3353,8 +3353,8 @@
       <c r="C74" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D74" s="9" t="n">
-        <v>245</v>
+      <c r="D74" s="4" t="n">
+        <v>235</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>232</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>1</v>
@@ -3387,8 +3387,8 @@
       <c r="C76" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D76" s="4" t="n">
-        <v>224</v>
+      <c r="D76" s="9" t="n">
+        <v>245</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>238</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,7 +3422,7 @@
         <v>241</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E78" s="4" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>244</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>247</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>250</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>253</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
@@ -3507,10 +3507,10 @@
         <v>256</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,7 +3524,7 @@
         <v>258</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
@@ -3541,10 +3541,10 @@
         <v>261</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,10 +3555,10 @@
         <v>263</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E86" s="4" t="n">
         <v>0</v>
@@ -3566,16 +3566,16 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B87" s="10" t="s">
         <v>265</v>
       </c>
+      <c r="B87" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="C87" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E87" s="4" t="n">
         <v>0</v>
@@ -3583,16 +3583,16 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="D88" s="4" t="n">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E88" s="4" t="n">
         <v>0</v>
@@ -3602,14 +3602,14 @@
       <c r="A89" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="10" t="s">
         <v>271</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>272</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E89" s="4" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>275</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E90" s="4" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>277</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E91" s="4" t="n">
         <v>0</v>
@@ -3659,8 +3659,8 @@
       <c r="C92" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D92" s="11" t="n">
-        <v>245</v>
+      <c r="D92" s="4" t="n">
+        <v>223</v>
       </c>
       <c r="E92" s="4" t="n">
         <v>0</v>
@@ -3674,10 +3674,10 @@
         <v>282</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E93" s="4" t="n">
         <v>0</v>
@@ -3685,15 +3685,15 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D94" s="9" t="n">
+        <v>286</v>
+      </c>
+      <c r="D94" s="11" t="n">
         <v>245</v>
       </c>
       <c r="E94" s="4" t="n">
@@ -3702,16 +3702,16 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="D95" s="4" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E95" s="4" t="n">
         <v>0</v>
@@ -3727,8 +3727,8 @@
       <c r="C96" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D96" s="4" t="n">
-        <v>219</v>
+      <c r="D96" s="9" t="n">
+        <v>245</v>
       </c>
       <c r="E96" s="4" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>294</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E97" s="4" t="n">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>297</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E98" s="4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>300</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E99" s="4" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>303</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,10 +3813,10 @@
         <v>306</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3843,8 +3843,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3875,13 +3875,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>307</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>0</v>
@@ -3898,13 +3898,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>308</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0</v>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>299.01</v>
+        <v>299.06</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -3926,13 +3926,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>0</v>
@@ -4127,7 +4127,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>319</v>
@@ -4161,7 +4161,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>321</v>
@@ -4178,7 +4178,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>322</v>
@@ -4212,7 +4212,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>324</v>
@@ -4331,7 +4331,7 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>333</v>
@@ -4348,7 +4348,7 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>334</v>
@@ -4399,7 +4399,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>338</v>
@@ -4433,7 +4433,7 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>341</v>
@@ -4467,7 +4467,7 @@
         <v>107</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>344</v>
@@ -4501,7 +4501,7 @@
         <v>113</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>346</v>
@@ -4535,7 +4535,7 @@
         <v>119</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>348</v>
@@ -4569,7 +4569,7 @@
         <v>125</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>351</v>
@@ -4603,7 +4603,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>356</v>
@@ -4620,7 +4620,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>357</v>
@@ -4705,7 +4705,7 @@
         <v>149</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>366</v>
@@ -4739,7 +4739,7 @@
         <v>155</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>369</v>
@@ -4756,7 +4756,7 @@
         <v>158</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>370</v>
@@ -4807,7 +4807,7 @@
         <v>167</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>375</v>
@@ -4824,7 +4824,7 @@
         <v>170</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>376</v>
@@ -4943,7 +4943,7 @@
         <v>191</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>389</v>
@@ -4960,7 +4960,7 @@
         <v>194</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>390</v>
@@ -5011,7 +5011,7 @@
         <v>203</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>395</v>
@@ -5198,7 +5198,7 @@
         <v>236</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>416</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>436</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>438</v>
@@ -5436,7 +5436,7 @@
         <v>443</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>444</v>
@@ -5470,7 +5470,7 @@
         <v>281</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>447</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>448</v>
@@ -5501,10 +5501,10 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>450</v>
@@ -5642,8 +5642,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5713,11 +5713,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>316.1</v>
+        <v>315.78</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>4.32</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5926,7 +5926,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>475</v>
@@ -5943,7 +5943,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>476</v>
@@ -6079,7 +6079,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>484</v>
@@ -6113,7 +6113,7 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>486</v>
@@ -6130,7 +6130,7 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>487</v>
@@ -6147,7 +6147,7 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>488</v>
@@ -6181,7 +6181,7 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>490</v>
@@ -6198,16 +6198,16 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>371</v>
+        <v>252</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>491</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6215,16 +6215,16 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>492</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6232,16 +6232,16 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>117</v>
+        <v>305</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>493</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6249,7 +6249,7 @@
         <v>104</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>383</v>
+        <v>117</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>494</v>
@@ -6258,7 +6258,7 @@
         <v>281</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6266,16 +6266,16 @@
         <v>107</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>213</v>
+        <v>383</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>495</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6283,13 +6283,13 @@
         <v>110</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>497</v>
-      </c>
       <c r="D35" s="4" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>3</v>
@@ -6300,16 +6300,16 @@
         <v>113</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>237</v>
+        <v>497</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>498</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6317,16 +6317,16 @@
         <v>116</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>499</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6334,16 +6334,16 @@
         <v>119</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>500</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6351,16 +6351,16 @@
         <v>122</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>358</v>
+        <v>274</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>501</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6368,16 +6368,16 @@
         <v>125</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>287</v>
+        <v>358</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>502</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6385,16 +6385,16 @@
         <v>128</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>504</v>
-      </c>
       <c r="D41" s="4" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6402,16 +6402,16 @@
         <v>131</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>377</v>
+        <v>504</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>505</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6419,16 +6419,16 @@
         <v>134</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>135</v>
+        <v>377</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>506</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6436,16 +6436,16 @@
         <v>137</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>507</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6453,16 +6453,16 @@
         <v>140</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>349</v>
+        <v>257</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>508</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6470,16 +6470,16 @@
         <v>143</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>355</v>
+      <c r="D46" s="4" t="n">
+        <v>323</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6487,16 +6487,16 @@
         <v>146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>195</v>
+        <v>379</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="D47" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E47" s="4" t="n">
-        <v>5</v>
+      <c r="D47" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,16 +6504,16 @@
         <v>149</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>511</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6521,13 +6521,13 @@
         <v>152</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>381</v>
+        <v>246</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>512</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>4</v>
@@ -6538,16 +6538,16 @@
         <v>155</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6555,16 +6555,16 @@
         <v>158</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>514</v>
-      </c>
       <c r="D51" s="4" t="n">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6572,16 +6572,16 @@
         <v>161</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>367</v>
+        <v>514</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>515</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6589,16 +6589,16 @@
         <v>164</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>274</v>
+        <v>367</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6606,16 +6606,16 @@
         <v>167</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>517</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,16 +6623,16 @@
         <v>170</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>518</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6640,16 +6640,16 @@
         <v>173</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>304</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6657,16 +6657,16 @@
         <v>176</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>522</v>
-      </c>
       <c r="D57" s="4" t="n">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6674,16 +6674,16 @@
         <v>179</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>436</v>
+        <v>522</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>523</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6691,16 +6691,16 @@
         <v>182</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>353</v>
+        <v>436</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>355</v>
+      <c r="D59" s="4" t="n">
+        <v>301</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6708,16 +6708,16 @@
         <v>185</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="D60" s="4" t="n">
-        <v>311</v>
-      </c>
-      <c r="E60" s="4" t="n">
-        <v>8</v>
+      <c r="D60" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,16 +6725,16 @@
         <v>188</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>364</v>
+        <v>526</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>527</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6742,16 +6742,16 @@
         <v>191</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>528</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6759,16 +6759,16 @@
         <v>194</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>219</v>
+        <v>385</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>529</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6776,13 +6776,13 @@
         <v>197</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>530</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="E64" s="4" t="n">
         <v>6</v>
@@ -6861,7 +6861,7 @@
         <v>212</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>538</v>
@@ -6929,7 +6929,7 @@
         <v>224</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>543</v>
@@ -7150,7 +7150,7 @@
         <v>262</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>564</v>
@@ -7164,7 +7164,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>438</v>
@@ -7181,10 +7181,10 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>566</v>
@@ -7201,7 +7201,7 @@
         <v>270</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>567</v>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>575</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>576</v>
@@ -7388,7 +7388,7 @@
         <v>301</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>585</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="584">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -336,942 +336,942 @@
     <t xml:space="preserve">4:17.448</t>
   </si>
   <si>
+    <t xml:space="preserve">Stego20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:17.754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoyogi_yoshi_Vtuber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:18.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dadi_chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:18.502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:18.723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CookieCrisp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:18.910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mpuddi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:18.978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lodinggggg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:19.318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KosiechecK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:19.539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:19.794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joeknit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:20.406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oHypix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:20.814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im_Okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:20.831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eskine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:21.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poppo_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:21.409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mican8s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:21.647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChroNickPain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:21.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kedako</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:22.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:22.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aytk100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:22.293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rauligvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:22.939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kojooo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:22.956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eniplex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:23.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CrazyNeighbour714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:23.143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">texhnolyzem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:23.823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alanukan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:24.299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skromnique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:24.469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20centt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:24.588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">henthans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:24.690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sggu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:25.064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsamspada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:25.421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenchan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:25.642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mountains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:25.931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zyx098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:27.257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em_ily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:28.073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tetoloid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:28.345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">honzr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:32.918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:33.513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sisiza1771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:35.094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HotLencia69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:35.332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BsCloudy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:35.468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR_mochi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:35.723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twitchpop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:35.791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackIron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:35.825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirce59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:36.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doctorRick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magiczny_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:36.250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M8N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:36.335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oShorty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:36.590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlowdFire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:36.828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control_speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisteer_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuyumon_nick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJJake7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BotRaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retsu_teno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chariot_Rider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laza2115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DolpIn_62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:38.392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okita_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:38.596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siuuunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:38.613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlueStormDragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:38.698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You_too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:38.868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsiiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entorihi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:39.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D_PPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:39.446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SenseiDaichi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:40.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iLFantasmaDelleNevi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:40.568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rta228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:40.636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:37.399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:38.538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:38.657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:43.910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:44.335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:47.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:48.228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:52.699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:56.745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:57.153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:59.550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:04.803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:05.483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:07.608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:10.073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:12.895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:12.946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:19.797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:20.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:20.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:22.806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:24.064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miyagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:25.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cjm8026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:26.699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:30.184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:32.649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:33.635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drgrrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:36.083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:39.993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:46.946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joebannks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.071</t>
+  </si>
+  <si>
     <t xml:space="preserve">32.</t>
   </si>
   <si>
-    <t xml:space="preserve">Taken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:17.754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoyogi_yoshi_Vtuber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:18.009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dadi_chen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:18.502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:18.723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CookieCrisp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:18.910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mpuddi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:18.978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stego20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:19.267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lodinggggg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:19.318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KosiechecK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:19.539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:19.794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joeknit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:20.406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oHypix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:20.814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Im_Okay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:20.831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eskine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:21.103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poppo_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:21.409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mican8s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:21.647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChroNickPain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:21.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kedako</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:22.021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rifre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:22.055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aytk100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:22.293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rauligvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:22.939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kojooo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:22.956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eniplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:23.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CrazyNeighbour714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:23.143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">texhnolyzem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:23.823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alanukan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:24.299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skromnique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:24.469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20centt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:24.588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">henthans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:24.690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sggu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:25.064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samsamspada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:25.421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenchan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:25.642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mountains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:25.931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zyx098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:27.257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em_ily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:28.073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tetoloid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:28.345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">honzr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:32.918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:33.513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sisiza1771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:35.094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HotLencia69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:35.332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BsCloudy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:35.468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR_mochi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:35.723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twitchpop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:35.791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackIron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:35.825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pirce59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:36.012</t>
+    <t xml:space="preserve">6:49.360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toskania_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:51.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:58.166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:04.252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:06.564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:11.341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sukezamon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:23.836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yorimitijido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:24.737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gr3mXR3apa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:26.930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:28.266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:29.667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aotogarashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:32.506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:32.591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skatman117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:34.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackANTIvenom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:34.172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:35.311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resolver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:35.383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:35.872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dennydon2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:39.051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1ink01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:44.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:44.355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:48.333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitas2222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:49.523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personakun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:51.189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be5moti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:52.090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:52.974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JackJJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:53.739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solwf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:53.909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:55.405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:59.944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelthaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:59.961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocofondue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:02.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:04.619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:06.914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3BLANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:12.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali.Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:13.391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario568151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:15.805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shwift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:26.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caseyreese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:27.501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenrok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:31.496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfhsfh100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:33.910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denryu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:35.933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agreergaTW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:37.701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrincessRosca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:48.122</t>
   </si>
   <si>
     <t xml:space="preserve">77.</t>
   </si>
   <si>
-    <t xml:space="preserve">Magiczny_00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:36.250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M8N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:36.335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oShorty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:36.590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlowdFire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:36.828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control_speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisteer_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yuyumon_nick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJJake7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotRaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retsu_teno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chariot_Rider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laza2115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DolpIn_62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:38.392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okita_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:38.596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siuuunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:38.613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlueStormDragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:38.698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You_too</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:38.868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsiiga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entorihi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:39.038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2D_PPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:39.446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SenseiDaichi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:40.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iLFantasmaDelleNevi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:40.568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rta228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:40.636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yorimitijido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:40.775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:37.399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:38.538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:38.657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:43.910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:44.335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:47.140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:48.228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:52.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:56.745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:57.153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:59.550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:04.803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:05.483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:07.608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:10.073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:12.895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:12.946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:19.797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:20.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:20.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:22.806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miyagi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:25.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cjm8026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:26.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:30.184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:32.649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:33.635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drgrrr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:36.083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:39.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:46.946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joebannks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toskania_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:51.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:58.166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:04.252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:06.564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:11.341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sukezamon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:23.836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:24.737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gr3mXR3apa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:26.930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:28.266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:29.667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aotogarashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:32.506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bogman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:32.591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skatman117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:34.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackANTIvenom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:34.172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:35.311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resolver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:35.383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:35.872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:37.147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dennydon2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:39.051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1ink01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:44.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:44.355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:48.333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitas2222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:49.523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personakun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:51.189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be5moti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:52.090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:52.974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JackJJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:53.739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solwf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:53.909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:55.405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:59.944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelthaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:59.961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chocofondue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:02.375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:04.619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doctorRick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:06.914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3BLANC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:12.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ali.Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:13.391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mario568151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:15.805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shwift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:26.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caseyreese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:27.501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenrok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:31.496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfhsfh100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:33.910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denryu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:35.933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agreergaTW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:37.701</t>
-  </si>
-  <si>
     <t xml:space="preserve">8:48.275</t>
   </si>
   <si>
@@ -1305,15 +1305,15 @@
     <t xml:space="preserve">8:59.648</t>
   </si>
   <si>
+    <t xml:space="preserve">83.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aydelotte8950</t>
   </si>
   <si>
     <t xml:space="preserve">9:02.028</t>
   </si>
   <si>
-    <t xml:space="preserve">83.</t>
-  </si>
-  <si>
     <t xml:space="preserve">k3ruba</t>
   </si>
   <si>
@@ -1347,15 +1347,15 @@
     <t xml:space="preserve">9:22.054</t>
   </si>
   <si>
+    <t xml:space="preserve">90.</t>
+  </si>
+  <si>
     <t xml:space="preserve">GingerGiant</t>
   </si>
   <si>
     <t xml:space="preserve">9:23.533</t>
   </si>
   <si>
-    <t xml:space="preserve">90.</t>
-  </si>
-  <si>
     <t xml:space="preserve">9:26.542</t>
   </si>
   <si>
@@ -1407,12 +1407,6 @@
     <t xml:space="preserve">10:14.350</t>
   </si>
   <si>
-    <t xml:space="preserve">fablesop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:24.733</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:16.370</t>
   </si>
   <si>
@@ -1528,9 +1522,6 @@
   </si>
   <si>
     <t xml:space="preserve">6:39.364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:41.081</t>
   </si>
   <si>
     <t xml:space="preserve">6:41.774</t>
@@ -2043,8 +2034,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2115,11 +2106,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.32</v>
+        <v>229.35</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,16 +2639,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C33" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>0</v>
@@ -2665,16 +2656,16 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D34" s="4" t="n">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>0</v>
@@ -2682,16 +2673,16 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="D35" s="4" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>0</v>
@@ -2699,16 +2690,16 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D36" s="4" t="n">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>0</v>
@@ -2716,16 +2707,16 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D37" s="4" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>0</v>
@@ -2733,16 +2724,16 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="D38" s="4" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>0</v>
@@ -2750,16 +2741,16 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D39" s="4" t="n">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>0</v>
@@ -2767,13 +2758,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>227</v>
@@ -2784,13 +2775,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>229</v>
@@ -2801,13 +2792,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D42" s="8" t="n">
         <v>215</v>
@@ -2818,13 +2809,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>226</v>
@@ -2835,13 +2826,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>228</v>
@@ -2852,13 +2843,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>229</v>
@@ -2869,13 +2860,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>238</v>
@@ -2886,13 +2877,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>223</v>
@@ -2903,13 +2894,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>233</v>
@@ -2920,13 +2911,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>237</v>
@@ -2937,13 +2928,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>219</v>
@@ -2954,13 +2945,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>222</v>
@@ -2971,13 +2962,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>234</v>
@@ -2988,13 +2979,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>227</v>
@@ -3005,13 +2996,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>226</v>
@@ -3022,13 +3013,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>225</v>
@@ -3039,13 +3030,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>221</v>
@@ -3056,13 +3047,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>224</v>
@@ -3073,13 +3064,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>233</v>
@@ -3090,13 +3081,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>226</v>
@@ -3107,13 +3098,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>223</v>
@@ -3124,13 +3115,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>224</v>
@@ -3141,13 +3132,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>222</v>
@@ -3158,13 +3149,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>237</v>
@@ -3175,13 +3166,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>228</v>
@@ -3192,13 +3183,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>219</v>
@@ -3209,13 +3200,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>227</v>
@@ -3226,13 +3217,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>229</v>
@@ -3243,13 +3234,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>236</v>
@@ -3260,13 +3251,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>236</v>
@@ -3277,13 +3268,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>228</v>
@@ -3294,13 +3285,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>231</v>
@@ -3311,13 +3302,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>233</v>
@@ -3328,13 +3319,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>244</v>
@@ -3345,13 +3336,13 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>235</v>
@@ -3362,13 +3353,13 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>229</v>
@@ -3379,13 +3370,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="D76" s="9" t="n">
         <v>245</v>
@@ -3396,13 +3387,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>227</v>
@@ -3413,16 +3404,16 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E78" s="4" t="n">
         <v>0</v>
@@ -3430,16 +3421,16 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>0</v>
@@ -3447,16 +3438,16 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>0</v>
@@ -3464,13 +3455,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>235</v>
@@ -3481,16 +3472,16 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
@@ -3498,16 +3489,16 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
@@ -3515,16 +3506,16 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="D84" s="4" t="n">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
@@ -3532,50 +3523,50 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>236</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E87" s="4" t="n">
         <v>0</v>
@@ -3583,16 +3574,16 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E88" s="4" t="n">
         <v>0</v>
@@ -3600,16 +3591,16 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E89" s="4" t="n">
         <v>0</v>
@@ -3617,16 +3608,16 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E90" s="4" t="n">
         <v>0</v>
@@ -3634,16 +3625,16 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="D91" s="4" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E91" s="4" t="n">
         <v>0</v>
@@ -3651,16 +3642,16 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E92" s="4" t="n">
         <v>0</v>
@@ -3668,16 +3659,16 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E93" s="4" t="n">
         <v>0</v>
@@ -3685,16 +3676,16 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D94" s="11" t="n">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="E94" s="4" t="n">
         <v>0</v>
@@ -3702,16 +3693,16 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E95" s="4" t="n">
         <v>0</v>
@@ -3719,16 +3710,16 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D96" s="9" t="n">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="E96" s="4" t="n">
         <v>0</v>
@@ -3736,16 +3727,16 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="E97" s="4" t="n">
         <v>0</v>
@@ -3753,16 +3744,16 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E98" s="4" t="n">
         <v>0</v>
@@ -3770,16 +3761,16 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E99" s="4" t="n">
         <v>0</v>
@@ -3787,16 +3778,16 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E100" s="4" t="n">
         <v>0</v>
@@ -3804,19 +3795,19 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3843,8 +3834,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E78" activeCellId="0" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3878,7 +3869,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>304</v>
@@ -3901,7 +3892,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>263</v>
@@ -3914,11 +3905,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>299.06</v>
+        <v>299.12</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3929,7 +3920,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>276</v>
@@ -3946,7 +3937,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>263</v>
@@ -3969,7 +3960,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>255</v>
@@ -3992,7 +3983,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>278</v>
@@ -4016,7 +4007,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>268</v>
@@ -4039,7 +4030,7 @@
         <v>96</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>264</v>
@@ -4062,7 +4053,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>262</v>
@@ -4079,7 +4070,7 @@
         <v>87</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>269</v>
@@ -4096,7 +4087,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>294</v>
@@ -4113,7 +4104,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>269</v>
@@ -4127,10 +4118,10 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>265</v>
@@ -4147,7 +4138,7 @@
         <v>102</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>265</v>
@@ -4161,10 +4152,10 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>261</v>
@@ -4178,10 +4169,10 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D17" s="12" t="n">
         <v>249</v>
@@ -4195,10 +4186,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>306</v>
@@ -4212,10 +4203,10 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>252</v>
@@ -4232,7 +4223,7 @@
         <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>264</v>
@@ -4249,7 +4240,7 @@
         <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>291</v>
@@ -4263,10 +4254,10 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>267</v>
@@ -4280,16 +4271,16 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>328</v>
+        <v>163</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,13 +4288,13 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
@@ -4314,16 +4305,16 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>99</v>
+        <v>327</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,16 +4322,16 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4348,16 +4339,16 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,16 +4356,16 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4382,16 +4373,16 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>28</v>
+        <v>332</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,16 +4390,16 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,13 +4407,13 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>339</v>
+        <v>136</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>1</v>
@@ -4433,13 +4424,13 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>219</v>
+        <v>336</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>1</v>
@@ -4447,16 +4438,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>104</v>
+        <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>342</v>
+        <v>217</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>1</v>
@@ -4464,67 +4455,67 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>1</v>
@@ -4532,33 +4523,33 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>266</v>
+        <v>118</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>2</v>
@@ -4566,67 +4557,67 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>295</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>216</v>
+        <v>352</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>289</v>
-      </c>
-      <c r="E42" s="4" t="n">
-        <v>1</v>
+        <v>353</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
@@ -4634,67 +4625,67 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>358</v>
+        <v>181</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>2</v>
@@ -4702,81 +4693,81 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>293</v>
+        <v>363</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>367</v>
+        <v>292</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>171</v>
+        <v>366</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>277</v>
@@ -4787,13 +4778,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>338</v>
@@ -4804,13 +4795,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>294</v>
@@ -4821,13 +4812,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>317</v>
@@ -4838,13 +4829,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>288</v>
@@ -4855,30 +4846,30 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>298</v>
@@ -4889,13 +4880,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>316</v>
@@ -4906,13 +4897,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>293</v>
@@ -4923,13 +4914,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>306</v>
@@ -4940,13 +4931,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>326</v>
@@ -4957,13 +4948,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>294</v>
@@ -4974,13 +4965,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>303</v>
@@ -4991,13 +4982,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>323</v>
@@ -5008,13 +4999,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>295</v>
@@ -5025,13 +5016,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>396</v>
+        <v>237</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>304</v>
@@ -5042,13 +5033,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>292</v>
@@ -5059,13 +5050,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>284</v>
@@ -5076,13 +5067,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>286</v>
@@ -5093,13 +5084,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>291</v>
@@ -5110,13 +5101,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>317</v>
@@ -5127,47 +5118,47 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>294</v>
@@ -5178,13 +5169,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>307</v>
@@ -5195,50 +5186,50 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>276</v>
+        <v>413</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>239</v>
+        <v>415</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>417</v>
+        <v>275</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>4</v>
@@ -5246,376 +5237,376 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>334</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>431</v>
-      </c>
       <c r="D84" s="4" t="n">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>105</v>
+        <v>438</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>441</v>
+        <v>106</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>444</v>
-      </c>
       <c r="D91" s="4" t="n">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>445</v>
+        <v>133</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>225</v>
+        <v>445</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>448</v>
+        <v>223</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D94" s="9" t="n">
-        <v>412</v>
+        <v>447</v>
+      </c>
+      <c r="D94" s="4" t="n">
+        <v>398</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>249</v>
+        <v>448</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D95" s="4" t="n">
-        <v>381</v>
+        <v>449</v>
+      </c>
+      <c r="D95" s="9" t="n">
+        <v>412</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>451</v>
+        <v>248</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>355</v>
+        <v>458</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <v>342</v>
+      </c>
+      <c r="E100" s="4" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="D101" s="4" t="n">
-        <v>307</v>
-      </c>
-      <c r="E101" s="4" t="n">
-        <v>4</v>
+        <v>460</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5642,8 +5633,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5677,7 +5668,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D2" s="12" t="n">
         <v>251</v>
@@ -5700,7 +5691,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>259</v>
@@ -5713,11 +5704,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>315.78</v>
+        <v>315.74</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,7 +5719,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>261</v>
@@ -5745,7 +5736,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>256</v>
@@ -5768,7 +5759,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>255</v>
@@ -5791,7 +5782,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>255</v>
@@ -5815,7 +5806,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>272</v>
@@ -5838,7 +5829,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>267</v>
@@ -5861,7 +5852,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>270</v>
@@ -5878,7 +5869,7 @@
         <v>102</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>252</v>
@@ -5895,7 +5886,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>268</v>
@@ -5912,7 +5903,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>265</v>
@@ -5926,10 +5917,10 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>260</v>
@@ -5943,10 +5934,10 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>262</v>
@@ -5963,7 +5954,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>283</v>
@@ -5980,7 +5971,7 @@
         <v>96</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>261</v>
@@ -5994,10 +5985,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>263</v>
@@ -6014,7 +6005,7 @@
         <v>72</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>262</v>
@@ -6028,10 +6019,10 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>267</v>
@@ -6048,7 +6039,7 @@
         <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>268</v>
@@ -6065,7 +6056,7 @@
         <v>99</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>274</v>
@@ -6079,10 +6070,10 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>268</v>
@@ -6096,10 +6087,10 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>283</v>
@@ -6113,10 +6104,10 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>281</v>
@@ -6130,10 +6121,10 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>269</v>
@@ -6147,10 +6138,10 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>279</v>
@@ -6164,10 +6155,10 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>284</v>
@@ -6181,10 +6172,10 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>287</v>
@@ -6198,10 +6189,10 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>274</v>
@@ -6215,10 +6206,10 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>264</v>
@@ -6232,81 +6223,81 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>493</v>
+        <v>324</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>104</v>
+        <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>117</v>
+        <v>349</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>383</v>
+        <v>118</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>281</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>219</v>
+        <v>381</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>497</v>
+        <v>217</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>3</v>
@@ -6314,81 +6305,81 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>243</v>
+        <v>495</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>274</v>
+        <v>130</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>275</v>
@@ -6399,13 +6390,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>276</v>
@@ -6416,13 +6407,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>300</v>
@@ -6433,13 +6424,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>292</v>
@@ -6450,13 +6441,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>305</v>
@@ -6467,13 +6458,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>323</v>
@@ -6484,30 +6475,30 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>294</v>
@@ -6518,13 +6509,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>312</v>
@@ -6535,13 +6526,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>295</v>
@@ -6552,13 +6543,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>305</v>
@@ -6569,13 +6560,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>339</v>
@@ -6586,13 +6577,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>310</v>
@@ -6603,13 +6594,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>288</v>
@@ -6620,13 +6611,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>311</v>
@@ -6637,13 +6628,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>304</v>
@@ -6654,13 +6645,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>304</v>
@@ -6671,13 +6662,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>331</v>
@@ -6688,13 +6679,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>436</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>301</v>
@@ -6705,30 +6696,30 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>311</v>
@@ -6739,13 +6730,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>288</v>
@@ -6756,13 +6747,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>302</v>
@@ -6773,13 +6764,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>328</v>
@@ -6790,13 +6781,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>316</v>
@@ -6807,13 +6798,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>308</v>
@@ -6824,13 +6815,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>389</v>
@@ -6841,13 +6832,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>343</v>
@@ -6858,13 +6849,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>329</v>
@@ -6875,13 +6866,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>329</v>
@@ -6892,13 +6883,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>347</v>
@@ -6909,13 +6900,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>310</v>
@@ -6926,13 +6917,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>326</v>
@@ -6943,30 +6934,30 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>459</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>343</v>
@@ -6977,13 +6968,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>298</v>
@@ -6994,13 +6985,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>394</v>
@@ -7011,13 +7002,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>239</v>
+        <v>415</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>325</v>
@@ -7028,13 +7019,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>355</v>
@@ -7045,13 +7036,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>334</v>
@@ -7062,13 +7053,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>419</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>323</v>
@@ -7079,13 +7070,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>309</v>
@@ -7096,13 +7087,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>333</v>
@@ -7113,13 +7104,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>359</v>
@@ -7130,13 +7121,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>381</v>
@@ -7147,13 +7138,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>349</v>
@@ -7164,13 +7155,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>464</v>
@@ -7181,13 +7172,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>339</v>
@@ -7198,13 +7189,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>379</v>
@@ -7215,13 +7206,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>403</v>
@@ -7232,13 +7223,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>447</v>
@@ -7249,13 +7240,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>400</v>
@@ -7266,13 +7257,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D93" s="9" t="n">
         <v>617</v>
@@ -7283,10 +7274,10 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>444</v>
@@ -7300,13 +7291,13 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>363</v>
@@ -7317,13 +7308,13 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>498</v>
@@ -7334,13 +7325,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>371</v>
@@ -7351,13 +7342,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D98" s="4" t="n">
         <v>444</v>
@@ -7368,30 +7359,30 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>391</v>
@@ -7402,13 +7393,13 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>421</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -1524,6 +1524,9 @@
     <t xml:space="preserve">6:39.364</t>
   </si>
   <si>
+    <t xml:space="preserve">6:40.183</t>
+  </si>
+  <si>
     <t xml:space="preserve">6:41.774</t>
   </si>
   <si>
@@ -1771,9 +1774,6 @@
   </si>
   <si>
     <t xml:space="preserve">9:51.787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:56.632</t>
   </si>
 </sst>
 </file>
@@ -5633,8 +5633,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5704,11 +5704,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>315.74</v>
+        <v>314.4</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6376,16 +6376,16 @@
         <v>126</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>292</v>
+        <v>163</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>500</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6393,16 +6393,16 @@
         <v>129</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>502</v>
-      </c>
       <c r="D42" s="4" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6410,16 +6410,16 @@
         <v>132</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>375</v>
+        <v>502</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>503</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6427,16 +6427,16 @@
         <v>135</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>136</v>
+        <v>375</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>504</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6444,16 +6444,16 @@
         <v>138</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>505</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6461,16 +6461,16 @@
         <v>141</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>347</v>
+        <v>256</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>506</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6478,16 +6478,16 @@
         <v>144</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>354</v>
+      <c r="D47" s="4" t="n">
+        <v>323</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6495,16 +6495,16 @@
         <v>147</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D48" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E48" s="4" t="n">
-        <v>5</v>
+      <c r="D48" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6512,16 +6512,16 @@
         <v>150</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>509</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6529,13 +6529,13 @@
         <v>153</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>379</v>
+        <v>245</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>510</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>4</v>
@@ -6546,16 +6546,16 @@
         <v>156</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>284</v>
+        <v>379</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,16 +6563,16 @@
         <v>159</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>512</v>
-      </c>
       <c r="D52" s="4" t="n">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6580,16 +6580,16 @@
         <v>162</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>366</v>
+        <v>512</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>513</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6597,16 +6597,16 @@
         <v>165</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>514</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6614,16 +6614,16 @@
         <v>168</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>515</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6631,16 +6631,16 @@
         <v>171</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,16 +6648,16 @@
         <v>174</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>518</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>304</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6665,16 +6665,16 @@
         <v>177</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>520</v>
-      </c>
       <c r="D58" s="4" t="n">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6682,16 +6682,16 @@
         <v>180</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>436</v>
+        <v>520</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>521</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6699,16 +6699,16 @@
         <v>183</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>352</v>
+        <v>436</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>354</v>
+      <c r="D60" s="4" t="n">
+        <v>301</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6716,16 +6716,16 @@
         <v>186</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D61" s="4" t="n">
-        <v>311</v>
-      </c>
-      <c r="E61" s="4" t="n">
-        <v>8</v>
+      <c r="D61" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6733,16 +6733,16 @@
         <v>189</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>363</v>
+        <v>524</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>525</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6750,16 +6750,16 @@
         <v>192</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>526</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,16 +6767,16 @@
         <v>195</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>223</v>
+        <v>383</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>527</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6784,16 +6784,16 @@
         <v>198</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>529</v>
-      </c>
       <c r="D65" s="4" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6801,16 +6801,16 @@
         <v>201</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>397</v>
+        <v>529</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>530</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6818,16 +6818,16 @@
         <v>204</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>532</v>
-      </c>
       <c r="D67" s="4" t="n">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6835,16 +6835,16 @@
         <v>207</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>534</v>
-      </c>
       <c r="D68" s="4" t="n">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6852,16 +6852,16 @@
         <v>210</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>145</v>
+        <v>534</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>535</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6869,16 +6869,16 @@
         <v>213</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>329</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6886,16 +6886,16 @@
         <v>216</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>361</v>
+        <v>537</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>538</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6903,16 +6903,16 @@
         <v>219</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>539</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6920,16 +6920,16 @@
         <v>222</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>275</v>
+        <v>371</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>540</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6937,16 +6937,16 @@
         <v>225</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>459</v>
+        <v>275</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>354</v>
+      <c r="D74" s="4" t="n">
+        <v>326</v>
+      </c>
+      <c r="E74" s="4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6954,16 +6954,16 @@
         <v>228</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="D75" s="4" t="n">
-        <v>343</v>
-      </c>
-      <c r="E75" s="4" t="n">
-        <v>4</v>
+      <c r="D75" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6971,16 +6971,16 @@
         <v>231</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>545</v>
-      </c>
       <c r="D76" s="4" t="n">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6988,16 +6988,16 @@
         <v>234</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>547</v>
-      </c>
       <c r="D77" s="4" t="n">
-        <v>394</v>
+        <v>298</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7005,16 +7005,16 @@
         <v>415</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>549</v>
-      </c>
       <c r="D78" s="4" t="n">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7022,16 +7022,16 @@
         <v>238</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>551</v>
-      </c>
       <c r="D79" s="4" t="n">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7039,13 +7039,13 @@
         <v>241</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>405</v>
+        <v>551</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>552</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>3</v>
@@ -7056,16 +7056,16 @@
         <v>244</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>553</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7073,16 +7073,16 @@
         <v>247</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>555</v>
-      </c>
       <c r="D82" s="4" t="n">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7090,16 +7090,16 @@
         <v>250</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>557</v>
-      </c>
       <c r="D83" s="4" t="n">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7107,16 +7107,16 @@
         <v>427</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>385</v>
+        <v>557</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>558</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7124,16 +7124,16 @@
         <v>255</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>560</v>
-      </c>
       <c r="D85" s="4" t="n">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7141,16 +7141,16 @@
         <v>258</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>133</v>
+        <v>560</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>561</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,16 +7158,16 @@
         <v>261</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>438</v>
+        <v>133</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>562</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,16 +7175,16 @@
         <v>264</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>239</v>
+        <v>438</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>563</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>339</v>
+        <v>464</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7192,16 +7192,16 @@
         <v>267</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>564</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7209,16 +7209,16 @@
         <v>269</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>442</v>
+        <v>248</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>565</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7226,16 +7226,16 @@
         <v>441</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>567</v>
-      </c>
       <c r="D91" s="4" t="n">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7243,16 +7243,16 @@
         <v>274</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>569</v>
-      </c>
       <c r="D92" s="4" t="n">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7260,16 +7260,16 @@
         <v>277</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="D93" s="9" t="n">
-        <v>617</v>
+      <c r="D93" s="4" t="n">
+        <v>400</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7277,16 +7277,16 @@
         <v>280</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D94" s="4" t="n">
-        <v>382</v>
+      <c r="D94" s="9" t="n">
+        <v>617</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7297,13 +7297,13 @@
         <v>573</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>574</v>
+        <v>444</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,16 +7311,16 @@
         <v>286</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>576</v>
-      </c>
       <c r="D96" s="4" t="n">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,16 +7328,16 @@
         <v>288</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>24</v>
+        <v>576</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>577</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>371</v>
+        <v>498</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7345,16 +7345,16 @@
         <v>291</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>579</v>
-      </c>
       <c r="D98" s="4" t="n">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7362,16 +7362,16 @@
         <v>294</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>354</v>
+      <c r="D99" s="4" t="n">
+        <v>444</v>
+      </c>
+      <c r="E99" s="4" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,16 +7379,16 @@
         <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>127</v>
+        <v>581</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="D100" s="4" t="n">
-        <v>391</v>
-      </c>
-      <c r="E100" s="4" t="n">
-        <v>7</v>
+      <c r="D100" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7396,16 +7396,16 @@
         <v>300</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>411</v>
+        <v>127</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>583</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="585">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">Casu</t>
   </si>
   <si>
-    <t xml:space="preserve">4:00.363</t>
+    <t xml:space="preserve">4:00.227</t>
   </si>
   <si>
     <t xml:space="preserve">Average</t>
@@ -195,13 +195,22 @@
     <t xml:space="preserve">16.</t>
   </si>
   <si>
+    <t xml:space="preserve">Yoyogi_yoshi_Vtuber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:14.303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.</t>
+  </si>
+  <si>
     <t xml:space="preserve">m_yoyoyo</t>
   </si>
   <si>
     <t xml:space="preserve">4:15.731</t>
   </si>
   <si>
-    <t xml:space="preserve">17.</t>
+    <t xml:space="preserve">18.</t>
   </si>
   <si>
     <t xml:space="preserve">laayuman</t>
@@ -210,7 +219,7 @@
     <t xml:space="preserve">4:16.020</t>
   </si>
   <si>
-    <t xml:space="preserve">18.</t>
+    <t xml:space="preserve">19.</t>
   </si>
   <si>
     <t xml:space="preserve">Rustamaniacc_</t>
@@ -219,7 +228,7 @@
     <t xml:space="preserve">4:16.139</t>
   </si>
   <si>
-    <t xml:space="preserve">19.</t>
+    <t xml:space="preserve">20.</t>
   </si>
   <si>
     <t xml:space="preserve">Brungo</t>
@@ -228,7 +237,7 @@
     <t xml:space="preserve">4:16.173</t>
   </si>
   <si>
-    <t xml:space="preserve">20.</t>
+    <t xml:space="preserve">21.</t>
   </si>
   <si>
     <t xml:space="preserve">Cartewns</t>
@@ -237,7 +246,7 @@
     <t xml:space="preserve">4:16.428</t>
   </si>
   <si>
-    <t xml:space="preserve">21.</t>
+    <t xml:space="preserve">22.</t>
   </si>
   <si>
     <t xml:space="preserve">Valmerix</t>
@@ -246,7 +255,7 @@
     <t xml:space="preserve">4:16.564</t>
   </si>
   <si>
-    <t xml:space="preserve">22.</t>
+    <t xml:space="preserve">23.</t>
   </si>
   <si>
     <t xml:space="preserve">Bonzai917</t>
@@ -255,7 +264,16 @@
     <t xml:space="preserve">4:16.615</t>
   </si>
   <si>
-    <t xml:space="preserve">23.</t>
+    <t xml:space="preserve">24.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stego20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:16.632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.</t>
   </si>
   <si>
     <t xml:space="preserve">Flan</t>
@@ -264,7 +282,7 @@
     <t xml:space="preserve">4:16.887</t>
   </si>
   <si>
-    <t xml:space="preserve">24.</t>
+    <t xml:space="preserve">26.</t>
   </si>
   <si>
     <t xml:space="preserve">Fasu</t>
@@ -273,7 +291,7 @@
     <t xml:space="preserve">4:16.989</t>
   </si>
   <si>
-    <t xml:space="preserve">25.</t>
+    <t xml:space="preserve">27.</t>
   </si>
   <si>
     <t xml:space="preserve">Rips</t>
@@ -282,7 +300,7 @@
     <t xml:space="preserve">4:17.023</t>
   </si>
   <si>
-    <t xml:space="preserve">26.</t>
+    <t xml:space="preserve">28.</t>
   </si>
   <si>
     <t xml:space="preserve">Ridgy</t>
@@ -291,7 +309,7 @@
     <t xml:space="preserve">4:17.142</t>
   </si>
   <si>
-    <t xml:space="preserve">27.</t>
+    <t xml:space="preserve">29.</t>
   </si>
   <si>
     <t xml:space="preserve">AS13B</t>
@@ -300,7 +318,7 @@
     <t xml:space="preserve">4:17.193</t>
   </si>
   <si>
-    <t xml:space="preserve">28.</t>
+    <t xml:space="preserve">30.</t>
   </si>
   <si>
     <t xml:space="preserve">primax</t>
@@ -309,7 +327,7 @@
     <t xml:space="preserve">4:17.278</t>
   </si>
   <si>
-    <t xml:space="preserve">29.</t>
+    <t xml:space="preserve">31.</t>
   </si>
   <si>
     <t xml:space="preserve">SirNewt</t>
@@ -318,16 +336,13 @@
     <t xml:space="preserve">4:17.329</t>
   </si>
   <si>
-    <t xml:space="preserve">30.</t>
-  </si>
-  <si>
     <t xml:space="preserve">KurierDPD</t>
   </si>
   <si>
     <t xml:space="preserve">4:17.346</t>
   </si>
   <si>
-    <t xml:space="preserve">31.</t>
+    <t xml:space="preserve">33.</t>
   </si>
   <si>
     <t xml:space="preserve">eyetooth96</t>
@@ -336,10 +351,7 @@
     <t xml:space="preserve">4:17.448</t>
   </si>
   <si>
-    <t xml:space="preserve">Stego20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.</t>
+    <t xml:space="preserve">34.</t>
   </si>
   <si>
     <t xml:space="preserve">Taken</t>
@@ -348,15 +360,6 @@
     <t xml:space="preserve">4:17.754</t>
   </si>
   <si>
-    <t xml:space="preserve">34.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoyogi_yoshi_Vtuber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:18.009</t>
-  </si>
-  <si>
     <t xml:space="preserve">35.</t>
   </si>
   <si>
@@ -909,13 +912,22 @@
     <t xml:space="preserve">98.</t>
   </si>
   <si>
+    <t xml:space="preserve">whisperysecret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:39.565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.</t>
+  </si>
+  <si>
     <t xml:space="preserve">SenseiDaichi</t>
   </si>
   <si>
     <t xml:space="preserve">4:40.024</t>
   </si>
   <si>
-    <t xml:space="preserve">99.</t>
+    <t xml:space="preserve">100.</t>
   </si>
   <si>
     <t xml:space="preserve">iLFantasmaDelleNevi</t>
@@ -924,15 +936,6 @@
     <t xml:space="preserve">4:40.568</t>
   </si>
   <si>
-    <t xml:space="preserve">100.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rta228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:40.636</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:37.399</t>
   </si>
   <si>
@@ -1485,6 +1488,9 @@
     <t xml:space="preserve">6:13.201</t>
   </si>
   <si>
+    <t xml:space="preserve">6:15.581</t>
+  </si>
+  <si>
     <t xml:space="preserve">6:16.006</t>
   </si>
   <si>
@@ -1522,9 +1528,6 @@
   </si>
   <si>
     <t xml:space="preserve">6:39.364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:40.183</t>
   </si>
   <si>
     <t xml:space="preserve">6:41.774</t>
@@ -1902,7 +1905,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1945,10 +1948,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2034,8 +2033,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E100" activeCellId="0" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2096,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0</v>
@@ -2106,11 +2105,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.35</v>
+        <v>229.29</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,10 +2375,10 @@
         <v>58</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,7 +2392,7 @@
         <v>61</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>0</v>
@@ -2410,7 +2409,7 @@
         <v>64</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>0</v>
@@ -2427,7 +2426,7 @@
         <v>67</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>0</v>
@@ -2444,7 +2443,7 @@
         <v>70</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
@@ -2461,7 +2460,7 @@
         <v>73</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
@@ -2478,7 +2477,7 @@
         <v>76</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
@@ -2495,7 +2494,7 @@
         <v>79</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
@@ -2512,7 +2511,7 @@
         <v>82</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
@@ -2529,7 +2528,7 @@
         <v>85</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
@@ -2546,7 +2545,7 @@
         <v>88</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>0</v>
@@ -2563,7 +2562,7 @@
         <v>91</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>0</v>
@@ -2580,7 +2579,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>0</v>
@@ -2597,7 +2596,7 @@
         <v>97</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>0</v>
@@ -2614,7 +2613,7 @@
         <v>100</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>0</v>
@@ -2631,7 +2630,7 @@
         <v>103</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>0</v>
@@ -2645,10 +2644,10 @@
         <v>104</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>0</v>
@@ -2656,16 +2655,16 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>0</v>
@@ -2673,16 +2672,16 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>0</v>
@@ -2690,13 +2689,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>219</v>
@@ -2707,13 +2706,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>229</v>
@@ -2724,13 +2723,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>226</v>
@@ -2741,13 +2740,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>218</v>
@@ -2758,13 +2757,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>227</v>
@@ -2775,13 +2774,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>229</v>
@@ -2792,13 +2791,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8" t="n">
         <v>215</v>
@@ -2809,13 +2808,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>226</v>
@@ -2826,13 +2825,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>228</v>
@@ -2843,13 +2842,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>229</v>
@@ -2860,13 +2859,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>238</v>
@@ -2877,13 +2876,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>223</v>
@@ -2894,13 +2893,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>233</v>
@@ -2911,13 +2910,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>237</v>
@@ -2928,13 +2927,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>219</v>
@@ -2945,13 +2944,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>222</v>
@@ -2962,13 +2961,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>234</v>
@@ -2979,13 +2978,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>227</v>
@@ -2996,13 +2995,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>226</v>
@@ -3013,13 +3012,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>225</v>
@@ -3030,13 +3029,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>221</v>
@@ -3047,13 +3046,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>224</v>
@@ -3064,13 +3063,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>233</v>
@@ -3081,13 +3080,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>226</v>
@@ -3098,13 +3097,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>223</v>
@@ -3115,13 +3114,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>224</v>
@@ -3132,13 +3131,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>222</v>
@@ -3149,13 +3148,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>237</v>
@@ -3166,13 +3165,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>228</v>
@@ -3183,13 +3182,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>219</v>
@@ -3200,13 +3199,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>227</v>
@@ -3217,13 +3216,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>229</v>
@@ -3234,13 +3233,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>236</v>
@@ -3251,13 +3250,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>236</v>
@@ -3268,13 +3267,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>228</v>
@@ -3285,13 +3284,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>231</v>
@@ -3302,13 +3301,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>233</v>
@@ -3319,13 +3318,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>244</v>
@@ -3336,13 +3335,13 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>235</v>
@@ -3353,13 +3352,13 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>229</v>
@@ -3370,13 +3369,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D76" s="9" t="n">
         <v>245</v>
@@ -3387,13 +3386,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>227</v>
@@ -3404,13 +3403,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>228</v>
@@ -3421,13 +3420,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>224</v>
@@ -3438,13 +3437,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>232</v>
@@ -3455,13 +3454,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>235</v>
@@ -3472,13 +3471,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>235</v>
@@ -3489,13 +3488,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>228</v>
@@ -3506,13 +3505,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>223</v>
@@ -3523,13 +3522,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>236</v>
@@ -3540,13 +3539,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>236</v>
@@ -3557,13 +3556,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>227</v>
@@ -3574,13 +3573,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>228</v>
@@ -3591,13 +3590,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>240</v>
@@ -3608,13 +3607,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>227</v>
@@ -3625,13 +3624,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>228</v>
@@ -3642,13 +3641,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>222</v>
@@ -3659,13 +3658,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>223</v>
@@ -3676,15 +3675,15 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D94" s="11" t="n">
+        <v>283</v>
+      </c>
+      <c r="D94" s="4" t="n">
         <v>218</v>
       </c>
       <c r="E94" s="4" t="n">
@@ -3693,15 +3692,15 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D95" s="4" t="n">
+        <v>286</v>
+      </c>
+      <c r="D95" s="9" t="n">
         <v>245</v>
       </c>
       <c r="E95" s="4" t="n">
@@ -3710,15 +3709,15 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D96" s="9" t="n">
+      <c r="D96" s="4" t="n">
         <v>227</v>
       </c>
       <c r="E96" s="4" t="n">
@@ -3727,15 +3726,15 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D97" s="4" t="n">
+        <v>291</v>
+      </c>
+      <c r="D97" s="9" t="n">
         <v>245</v>
       </c>
       <c r="E97" s="4" t="n">
@@ -3744,13 +3743,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D98" s="4" t="n">
         <v>229</v>
@@ -3761,16 +3760,16 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E99" s="4" t="n">
         <v>0</v>
@@ -3778,16 +3777,16 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E100" s="4" t="n">
         <v>0</v>
@@ -3795,16 +3794,16 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E101" s="4" t="n">
         <v>0</v>
@@ -3834,8 +3833,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E78" activeCellId="0" sqref="E78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C77" activeCellId="0" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3869,7 +3868,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>304</v>
@@ -3892,7 +3891,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>263</v>
@@ -3920,7 +3919,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>276</v>
@@ -3937,7 +3936,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>263</v>
@@ -3960,7 +3959,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>255</v>
@@ -3983,7 +3982,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>278</v>
@@ -4007,7 +4006,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>268</v>
@@ -4027,10 +4026,10 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>264</v>
@@ -4053,7 +4052,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>262</v>
@@ -4067,10 +4066,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>269</v>
@@ -4087,7 +4086,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>294</v>
@@ -4101,10 +4100,10 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>269</v>
@@ -4118,10 +4117,10 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>265</v>
@@ -4135,10 +4134,10 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>265</v>
@@ -4152,10 +4151,10 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>261</v>
@@ -4169,12 +4168,12 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D17" s="12" t="n">
+        <v>319</v>
+      </c>
+      <c r="D17" s="11" t="n">
         <v>249</v>
       </c>
       <c r="E17" s="4" t="n">
@@ -4186,10 +4185,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>306</v>
@@ -4203,10 +4202,10 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>252</v>
@@ -4220,10 +4219,10 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>264</v>
@@ -4237,10 +4236,10 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>291</v>
@@ -4254,10 +4253,10 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>267</v>
@@ -4271,10 +4270,10 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>286</v>
@@ -4288,10 +4287,10 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>260</v>
@@ -4305,10 +4304,10 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>268</v>
@@ -4322,10 +4321,10 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>265</v>
@@ -4339,10 +4338,10 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>275</v>
@@ -4356,10 +4355,10 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>294</v>
@@ -4373,10 +4372,10 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>273</v>
@@ -4393,7 +4392,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>285</v>
@@ -4407,10 +4406,10 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>291</v>
@@ -4424,10 +4423,10 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>280</v>
@@ -4438,13 +4437,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>273</v>
@@ -4455,13 +4454,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>290</v>
@@ -4472,13 +4471,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>281</v>
@@ -4489,13 +4488,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>296</v>
@@ -4506,13 +4505,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>280</v>
@@ -4523,13 +4522,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>270</v>
@@ -4540,13 +4539,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>277</v>
@@ -4557,13 +4556,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>295</v>
@@ -4574,47 +4573,47 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>289</v>
@@ -4625,13 +4624,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>313</v>
@@ -4642,13 +4641,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>295</v>
@@ -4659,13 +4658,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>282</v>
@@ -4676,13 +4675,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>299</v>
@@ -4693,13 +4692,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>273</v>
@@ -4710,13 +4709,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>291</v>
@@ -4727,13 +4726,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>284</v>
@@ -4744,13 +4743,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>278</v>
@@ -4761,13 +4760,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>277</v>
@@ -4778,13 +4777,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>338</v>
@@ -4795,13 +4794,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>294</v>
@@ -4812,13 +4811,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>317</v>
@@ -4829,13 +4828,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>288</v>
@@ -4846,30 +4845,30 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>298</v>
@@ -4880,13 +4879,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>316</v>
@@ -4897,13 +4896,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>293</v>
@@ -4914,13 +4913,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>306</v>
@@ -4931,13 +4930,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>326</v>
@@ -4948,13 +4947,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>294</v>
@@ -4965,13 +4964,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>303</v>
@@ -4982,13 +4981,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>323</v>
@@ -4999,13 +4998,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>295</v>
@@ -5016,13 +5015,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>304</v>
@@ -5033,13 +5032,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>292</v>
@@ -5050,13 +5049,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>284</v>
@@ -5067,13 +5066,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>286</v>
@@ -5084,13 +5083,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>291</v>
@@ -5101,13 +5100,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>317</v>
@@ -5118,47 +5117,47 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>294</v>
@@ -5169,13 +5168,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>307</v>
@@ -5186,13 +5185,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>334</v>
@@ -5203,13 +5202,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>305</v>
@@ -5220,13 +5219,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>295</v>
@@ -5237,13 +5236,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>307</v>
@@ -5254,13 +5253,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>303</v>
@@ -5271,13 +5270,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>355</v>
@@ -5288,13 +5287,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>334</v>
@@ -5305,13 +5304,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>334</v>
@@ -5322,13 +5321,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>356</v>
@@ -5339,13 +5338,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>309</v>
@@ -5356,13 +5355,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>319</v>
@@ -5373,13 +5372,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>366</v>
@@ -5390,13 +5389,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>303</v>
@@ -5407,13 +5406,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>399</v>
@@ -5424,13 +5423,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>305</v>
@@ -5441,13 +5440,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>368</v>
@@ -5458,13 +5457,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>316</v>
@@ -5475,13 +5474,13 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>398</v>
@@ -5492,13 +5491,13 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D95" s="9" t="n">
         <v>412</v>
@@ -5509,13 +5508,13 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>381</v>
@@ -5526,13 +5525,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>297</v>
@@ -5543,13 +5542,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D98" s="4" t="n">
         <v>361</v>
@@ -5560,13 +5559,13 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>347</v>
@@ -5577,13 +5576,13 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>342</v>
@@ -5594,19 +5593,19 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -5633,8 +5632,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5668,9 +5667,9 @@
         <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="D2" s="12" t="n">
+        <v>462</v>
+      </c>
+      <c r="D2" s="11" t="n">
         <v>251</v>
       </c>
       <c r="E2" s="4" t="n">
@@ -5691,7 +5690,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>259</v>
@@ -5704,11 +5703,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>314.4</v>
+        <v>314.3</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5719,7 +5718,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>261</v>
@@ -5736,7 +5735,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>256</v>
@@ -5759,7 +5758,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>255</v>
@@ -5782,7 +5781,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>255</v>
@@ -5806,7 +5805,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>272</v>
@@ -5826,10 +5825,10 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>267</v>
@@ -5852,7 +5851,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>270</v>
@@ -5866,10 +5865,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>252</v>
@@ -5886,7 +5885,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>268</v>
@@ -5900,10 +5899,10 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>265</v>
@@ -5917,10 +5916,10 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>260</v>
@@ -5934,10 +5933,10 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>262</v>
@@ -5951,10 +5950,10 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>283</v>
@@ -5968,10 +5967,10 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>261</v>
@@ -5985,10 +5984,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>263</v>
@@ -6002,10 +6001,10 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>262</v>
@@ -6019,10 +6018,10 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>267</v>
@@ -6039,7 +6038,7 @@
         <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>268</v>
@@ -6053,10 +6052,10 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>274</v>
@@ -6070,10 +6069,10 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>268</v>
@@ -6087,10 +6086,10 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>283</v>
@@ -6104,10 +6103,10 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>281</v>
@@ -6121,10 +6120,10 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>269</v>
@@ -6138,10 +6137,10 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>279</v>
@@ -6155,13 +6154,13 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>391</v>
+        <v>164</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>2</v>
@@ -6172,16 +6171,16 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>196</v>
+        <v>392</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6189,16 +6188,16 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6206,16 +6205,16 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>369</v>
+        <v>252</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6223,13 +6222,13 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>324</v>
+        <v>492</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>3</v>
@@ -6237,84 +6236,84 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>491</v>
+        <v>325</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>118</v>
+        <v>350</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>381</v>
+        <v>119</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>281</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>217</v>
+        <v>382</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>495</v>
+        <v>218</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>496</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>3</v>
@@ -6322,81 +6321,81 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>275</v>
@@ -6407,13 +6406,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>276</v>
@@ -6424,13 +6423,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>300</v>
@@ -6441,13 +6440,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>292</v>
@@ -6458,13 +6457,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>305</v>
@@ -6475,13 +6474,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>323</v>
@@ -6492,30 +6491,30 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>294</v>
@@ -6526,13 +6525,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>312</v>
@@ -6543,13 +6542,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>295</v>
@@ -6560,13 +6559,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>305</v>
@@ -6577,13 +6576,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>339</v>
@@ -6594,13 +6593,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>310</v>
@@ -6611,13 +6610,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>288</v>
@@ -6628,13 +6627,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>311</v>
@@ -6645,13 +6644,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>304</v>
@@ -6662,13 +6661,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>304</v>
@@ -6679,13 +6678,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>331</v>
@@ -6696,13 +6695,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>301</v>
@@ -6713,30 +6712,30 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>311</v>
@@ -6747,13 +6746,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>288</v>
@@ -6764,13 +6763,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>302</v>
@@ -6781,13 +6780,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>328</v>
@@ -6798,13 +6797,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>316</v>
@@ -6815,13 +6814,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>308</v>
@@ -6832,13 +6831,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>389</v>
@@ -6849,13 +6848,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>343</v>
@@ -6866,13 +6865,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>329</v>
@@ -6883,13 +6882,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>329</v>
@@ -6900,13 +6899,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>347</v>
@@ -6917,13 +6916,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>310</v>
@@ -6934,13 +6933,13 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>326</v>
@@ -6951,30 +6950,30 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>343</v>
@@ -6985,13 +6984,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>298</v>
@@ -7002,13 +7001,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>394</v>
@@ -7019,13 +7018,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>325</v>
@@ -7036,13 +7035,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>355</v>
@@ -7053,13 +7052,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>334</v>
@@ -7070,13 +7069,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>323</v>
@@ -7087,13 +7086,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>309</v>
@@ -7104,13 +7103,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>333</v>
@@ -7121,13 +7120,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>359</v>
@@ -7138,13 +7137,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>381</v>
@@ -7155,13 +7154,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>349</v>
@@ -7172,13 +7171,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>464</v>
@@ -7189,13 +7188,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>339</v>
@@ -7206,13 +7205,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>379</v>
@@ -7223,13 +7222,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>403</v>
@@ -7240,13 +7239,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>447</v>
@@ -7257,13 +7256,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>400</v>
@@ -7274,13 +7273,13 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D94" s="9" t="n">
         <v>617</v>
@@ -7291,13 +7290,13 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>382</v>
@@ -7308,13 +7307,13 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>363</v>
@@ -7325,13 +7324,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>498</v>
@@ -7342,13 +7341,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D98" s="4" t="n">
         <v>371</v>
@@ -7359,13 +7358,13 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>444</v>
@@ -7376,30 +7375,30 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>391</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Main Babe" sheetId="1" state="visible" r:id="rId2"/>
@@ -363,7 +363,7 @@
     <t xml:space="preserve">35.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dadi_chen</t>
+    <t xml:space="preserve">Onlyoyo</t>
   </si>
   <si>
     <t xml:space="preserve">4:18.502</t>
@@ -2033,8 +2033,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E100" activeCellId="0" sqref="E100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5632,7 +5632,7 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Babe" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="585">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -966,6 +966,9 @@
     <t xml:space="preserve">5:57.153</t>
   </si>
   <si>
+    <t xml:space="preserve">5:59.499</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:59.550</t>
   </si>
   <si>
@@ -1035,15 +1038,15 @@
     <t xml:space="preserve">6:46.946</t>
   </si>
   <si>
+    <t xml:space="preserve">32.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Joebannks</t>
   </si>
   <si>
     <t xml:space="preserve">6:49.071</t>
   </si>
   <si>
-    <t xml:space="preserve">32.</t>
-  </si>
-  <si>
     <t xml:space="preserve">6:49.360</t>
   </si>
   <si>
@@ -1266,15 +1269,15 @@
     <t xml:space="preserve">8:37.701</t>
   </si>
   <si>
+    <t xml:space="preserve">77.</t>
+  </si>
+  <si>
     <t xml:space="preserve">PrincessRosca</t>
   </si>
   <si>
     <t xml:space="preserve">8:48.122</t>
   </si>
   <si>
-    <t xml:space="preserve">77.</t>
-  </si>
-  <si>
     <t xml:space="preserve">8:48.275</t>
   </si>
   <si>
@@ -1302,15 +1305,15 @@
     <t xml:space="preserve">8:58.220</t>
   </si>
   <si>
+    <t xml:space="preserve">83.</t>
+  </si>
+  <si>
     <t xml:space="preserve">TheMikuDrip</t>
   </si>
   <si>
     <t xml:space="preserve">8:59.648</t>
   </si>
   <si>
-    <t xml:space="preserve">83.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aydelotte8950</t>
   </si>
   <si>
@@ -1347,12 +1350,12 @@
     <t xml:space="preserve">9:20.915</t>
   </si>
   <si>
+    <t xml:space="preserve">90.</t>
+  </si>
+  <si>
     <t xml:space="preserve">9:22.054</t>
   </si>
   <si>
-    <t xml:space="preserve">90.</t>
-  </si>
-  <si>
     <t xml:space="preserve">GingerGiant</t>
   </si>
   <si>
@@ -1404,253 +1407,250 @@
     <t xml:space="preserve">10:12.272</t>
   </si>
   <si>
+    <t xml:space="preserve">5:16.370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:18.886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:22.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:24.156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:24.411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:25.958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:26.672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:34.577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:35.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:37.671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:40.663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:40.969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:42.533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:42.618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:47.973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:49.452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:50.404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:53.243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:54.195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:57.204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:58.683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:59.176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:08.781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:10.634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:12.181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:13.201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:15.581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:16.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:16.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:20.851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:23.775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:24.608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:25.356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:27.651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:30.269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuvuzelaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:30.898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:31.340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:37.324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:39.364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:41.774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ilmzor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:42.084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:44.889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:52.403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:52.454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:52.556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:52.845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:56.602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:57.758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPERHOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:07.193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:07.567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:08.298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:09.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:10.185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SnorlaxDash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:12.752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:15.795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:18.889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:22.782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamamaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:25.094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:27.576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:28.494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:33.135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manoloutti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:38.677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:41.346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difz_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:42.383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specificvux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:49.812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:50.747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KermitSepoku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:52.430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:53.331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:54.521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:56.425</t>
+  </si>
+  <si>
     <t xml:space="preserve">TheSpeed100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:14.350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:16.370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:18.886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:22.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:24.156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:24.411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:25.958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:26.672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:34.577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:35.036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:37.671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:40.663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:40.969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:42.533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:42.618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:47.973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:49.452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:50.404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:53.243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:54.195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:57.204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:58.683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:59.176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:08.781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:10.634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:12.181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:13.201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:15.581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:16.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:16.023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:20.851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:23.775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:24.608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:25.356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:27.651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:30.269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vuvuzelaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:30.898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:31.340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:37.324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:39.364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:41.774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ilmzor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:42.084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:44.889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:52.403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:52.454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:52.556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:52.845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:56.602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:57.758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPERHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:07.193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:07.567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:08.298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:09.029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:10.185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SnorlaxDash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:12.752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:15.795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:18.889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:22.782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yamamaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:25.094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:27.576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:28.494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:33.135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manoloutti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:38.677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:41.346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difz_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:42.383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specificvux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:49.812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:50.747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KermitSepoku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:52.430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:53.331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:54.521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:56.425</t>
   </si>
   <si>
     <t xml:space="preserve">7:56.493</t>
@@ -2033,7 +2033,7 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -3833,8 +3833,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C77" activeCellId="0" sqref="C77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3904,11 +3904,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>299.12</v>
+        <v>298.89</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,16 +4083,16 @@
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>314</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,13 +4100,13 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>315</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>316</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>317</v>
@@ -4143,7 +4143,7 @@
         <v>265</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,13 +4151,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>318</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>1</v>
@@ -4168,16 +4168,16 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D17" s="11" t="n">
-        <v>249</v>
+      <c r="D17" s="4" t="n">
+        <v>261</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4185,13 +4185,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D18" s="4" t="n">
-        <v>306</v>
+      <c r="D18" s="11" t="n">
+        <v>249</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>0</v>
@@ -4202,13 +4202,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>321</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>0</v>
@@ -4219,13 +4219,13 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>322</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>0</v>
@@ -4236,13 +4236,13 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>323</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
@@ -4253,16 +4253,16 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>324</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,16 +4270,16 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>325</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,16 +4287,16 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="D24" s="4" t="n">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4304,13 +4304,13 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>329</v>
-      </c>
       <c r="D25" s="4" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
@@ -4321,16 +4321,16 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4338,16 +4338,16 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>257</v>
+        <v>104</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>331</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4355,16 +4355,16 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>332</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,16 +4372,16 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="D29" s="4" t="n">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4389,16 +4389,16 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>28</v>
+        <v>334</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>335</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,16 +4406,16 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>336</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4423,13 +4423,13 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>338</v>
-      </c>
       <c r="D32" s="4" t="n">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>1</v>
@@ -4437,16 +4437,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>1</v>
@@ -4457,13 +4457,13 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="D34" s="4" t="n">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>1</v>
@@ -4474,16 +4474,16 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>209</v>
+        <v>342</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>343</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,16 +4491,16 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>344</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4508,16 +4508,16 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>345</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4525,13 +4525,13 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>346</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>1</v>
@@ -4542,16 +4542,16 @@
         <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>266</v>
+        <v>119</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>347</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,13 +4559,13 @@
         <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="D40" s="4" t="n">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>2</v>
@@ -4576,16 +4576,16 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>352</v>
+      <c r="D41" s="4" t="n">
+        <v>295</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4593,16 +4593,16 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,16 +4610,16 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>215</v>
+        <v>354</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D43" s="4" t="n">
-        <v>289</v>
-      </c>
-      <c r="E43" s="4" t="n">
-        <v>1</v>
+      <c r="E43" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,13 +4627,13 @@
         <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>357</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>1</v>
@@ -4644,16 +4644,16 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="D45" s="4" t="n">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4661,16 +4661,16 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>361</v>
-      </c>
       <c r="D46" s="4" t="n">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,16 +4678,16 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="D47" s="4" t="n">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4695,13 +4695,13 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="D48" s="4" t="n">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>2</v>
@@ -4712,16 +4712,16 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>293</v>
+        <v>365</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>366</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4729,16 +4729,16 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="D50" s="4" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4746,16 +4746,16 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>170</v>
+        <v>368</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>369</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,16 +4763,16 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="D52" s="4" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4780,16 +4780,16 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="D53" s="4" t="n">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,16 +4797,16 @@
         <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,16 +4814,16 @@
         <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>375</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,16 +4831,16 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="D56" s="4" t="n">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,16 +4848,16 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>355</v>
+      <c r="D57" s="4" t="n">
+        <v>288</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,16 +4865,16 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="D58" s="4" t="n">
-        <v>298</v>
-      </c>
-      <c r="E58" s="4" t="n">
-        <v>3</v>
+      <c r="D58" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4882,16 +4882,16 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="D59" s="4" t="n">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,13 +4899,13 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="D60" s="4" t="n">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
@@ -4916,16 +4916,16 @@
         <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="D61" s="4" t="n">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4933,16 +4933,16 @@
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>388</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4950,16 +4950,16 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>389</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4967,16 +4967,16 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>391</v>
-      </c>
       <c r="D64" s="4" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,13 +4984,13 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>393</v>
-      </c>
       <c r="D65" s="4" t="n">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
@@ -5001,16 +5001,16 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>236</v>
+        <v>393</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>394</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5018,16 +5018,16 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>395</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,16 +5035,16 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="D68" s="4" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,16 +5052,16 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="D69" s="4" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5069,13 +5069,13 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="D70" s="4" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E70" s="4" t="n">
         <v>0</v>
@@ -5086,16 +5086,16 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>403</v>
-      </c>
       <c r="D71" s="4" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,16 +5103,16 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>405</v>
-      </c>
       <c r="D72" s="4" t="n">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,16 +5120,16 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>355</v>
+      <c r="D73" s="4" t="n">
+        <v>317</v>
+      </c>
+      <c r="E73" s="4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5137,16 +5137,16 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>409</v>
-      </c>
       <c r="D74" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5154,16 +5154,16 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="D75" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E75" s="4" t="n">
-        <v>6</v>
+      <c r="D75" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5171,13 +5171,13 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="D76" s="4" t="n">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>6</v>
@@ -5188,33 +5188,33 @@
         <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>415</v>
-      </c>
       <c r="D77" s="4" t="n">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>417</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5222,16 +5222,16 @@
         <v>239</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="D79" s="4" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5239,13 +5239,13 @@
         <v>242</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>421</v>
-      </c>
       <c r="D80" s="4" t="n">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>4</v>
@@ -5256,16 +5256,16 @@
         <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="D81" s="4" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5273,16 +5273,16 @@
         <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>425</v>
-      </c>
       <c r="D82" s="4" t="n">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,33 +5290,33 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>427</v>
-      </c>
       <c r="D83" s="4" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>334</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5324,16 +5324,16 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="D85" s="4" t="n">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5341,16 +5341,16 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>434</v>
-      </c>
       <c r="D86" s="4" t="n">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5358,16 +5358,16 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>436</v>
-      </c>
       <c r="D87" s="4" t="n">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5375,16 +5375,16 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>438</v>
-      </c>
       <c r="D88" s="4" t="n">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,16 +5392,16 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>440</v>
-      </c>
       <c r="D89" s="4" t="n">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5409,16 +5409,16 @@
         <v>270</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>441</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5426,16 +5426,16 @@
         <v>442</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>444</v>
-      </c>
       <c r="D91" s="4" t="n">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,16 +5443,16 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>134</v>
+        <v>444</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>445</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5460,16 +5460,16 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>447</v>
-      </c>
       <c r="D93" s="4" t="n">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5477,16 +5477,16 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>224</v>
+        <v>447</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>448</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5494,16 +5494,16 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D95" s="9" t="n">
-        <v>412</v>
+      <c r="D95" s="4" t="n">
+        <v>398</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,16 +5511,16 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>249</v>
+        <v>450</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D96" s="4" t="n">
-        <v>381</v>
+      <c r="D96" s="9" t="n">
+        <v>412</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5528,16 +5528,16 @@
         <v>289</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>453</v>
-      </c>
       <c r="D97" s="4" t="n">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5545,16 +5545,16 @@
         <v>292</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>455</v>
-      </c>
       <c r="D98" s="4" t="n">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5562,16 +5562,16 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>457</v>
-      </c>
       <c r="D99" s="4" t="n">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5579,16 +5579,16 @@
         <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>459</v>
-      </c>
       <c r="D100" s="4" t="n">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5596,16 +5596,16 @@
         <v>301</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>355</v>
+      <c r="D101" s="4" t="n">
+        <v>342</v>
+      </c>
+      <c r="E101" s="4" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -5667,7 +5667,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D2" s="11" t="n">
         <v>251</v>
@@ -5690,7 +5690,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>259</v>
@@ -5718,7 +5718,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>261</v>
@@ -5735,7 +5735,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>256</v>
@@ -5758,7 +5758,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>255</v>
@@ -5781,7 +5781,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>255</v>
@@ -5805,7 +5805,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>272</v>
@@ -5828,7 +5828,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>267</v>
@@ -5851,7 +5851,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>270</v>
@@ -5868,7 +5868,7 @@
         <v>107</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>252</v>
@@ -5885,7 +5885,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>268</v>
@@ -5902,7 +5902,7 @@
         <v>93</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>265</v>
@@ -5919,7 +5919,7 @@
         <v>173</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>260</v>
@@ -5936,7 +5936,7 @@
         <v>143</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>262</v>
@@ -5953,7 +5953,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>283</v>
@@ -5970,7 +5970,7 @@
         <v>102</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>261</v>
@@ -5987,7 +5987,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>263</v>
@@ -6004,7 +6004,7 @@
         <v>75</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>262</v>
@@ -6018,10 +6018,10 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>267</v>
@@ -6038,7 +6038,7 @@
         <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>268</v>
@@ -6055,7 +6055,7 @@
         <v>104</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>274</v>
@@ -6072,7 +6072,7 @@
         <v>158</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>268</v>
@@ -6089,7 +6089,7 @@
         <v>116</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>283</v>
@@ -6106,7 +6106,7 @@
         <v>209</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>281</v>
@@ -6123,7 +6123,7 @@
         <v>182</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>269</v>
@@ -6140,7 +6140,7 @@
         <v>152</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>279</v>
@@ -6157,7 +6157,7 @@
         <v>164</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>283</v>
@@ -6171,10 +6171,10 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>284</v>
@@ -6191,7 +6191,7 @@
         <v>197</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>287</v>
@@ -6208,7 +6208,7 @@
         <v>252</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>274</v>
@@ -6222,10 +6222,10 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>264</v>
@@ -6236,13 +6236,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>294</v>
@@ -6256,10 +6256,10 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>273</v>
@@ -6276,7 +6276,7 @@
         <v>119</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>281</v>
@@ -6290,10 +6290,10 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>281</v>
@@ -6310,7 +6310,7 @@
         <v>218</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>288</v>
@@ -6324,10 +6324,10 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>498</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>291</v>
@@ -6344,7 +6344,7 @@
         <v>243</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>293</v>
@@ -6361,7 +6361,7 @@
         <v>131</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>280</v>
@@ -6378,7 +6378,7 @@
         <v>273</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>297</v>
@@ -6395,7 +6395,7 @@
         <v>293</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>275</v>
@@ -6409,10 +6409,10 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>504</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>276</v>
@@ -6426,10 +6426,10 @@
         <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>300</v>
@@ -6446,7 +6446,7 @@
         <v>137</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>292</v>
@@ -6463,7 +6463,7 @@
         <v>257</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>305</v>
@@ -6477,10 +6477,10 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>323</v>
@@ -6494,16 +6494,16 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6514,7 +6514,7 @@
         <v>203</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>294</v>
@@ -6531,7 +6531,7 @@
         <v>246</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>312</v>
@@ -6545,10 +6545,10 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>295</v>
@@ -6565,7 +6565,7 @@
         <v>285</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>305</v>
@@ -6579,10 +6579,10 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>514</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>339</v>
@@ -6596,10 +6596,10 @@
         <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>310</v>
@@ -6616,7 +6616,7 @@
         <v>279</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>288</v>
@@ -6633,7 +6633,7 @@
         <v>266</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>311</v>
@@ -6650,7 +6650,7 @@
         <v>170</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>304</v>
@@ -6664,10 +6664,10 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>304</v>
@@ -6681,10 +6681,10 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>331</v>
@@ -6698,10 +6698,10 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>301</v>
@@ -6715,16 +6715,16 @@
         <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6732,10 +6732,10 @@
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>311</v>
@@ -6749,10 +6749,10 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>288</v>
@@ -6766,10 +6766,10 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>302</v>
@@ -6786,7 +6786,7 @@
         <v>224</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>328</v>
@@ -6800,10 +6800,10 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>316</v>
@@ -6817,10 +6817,10 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>308</v>
@@ -6834,10 +6834,10 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>534</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>389</v>
@@ -6851,10 +6851,10 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>536</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>343</v>
@@ -6871,7 +6871,7 @@
         <v>146</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>329</v>
@@ -6885,10 +6885,10 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>539</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>329</v>
@@ -6902,10 +6902,10 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>347</v>
@@ -6919,10 +6919,10 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>310</v>
@@ -6939,7 +6939,7 @@
         <v>276</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>326</v>
@@ -6953,16 +6953,16 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>460</v>
+        <v>542</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>543</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7001,7 +7001,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>548</v>
@@ -7055,7 +7055,7 @@
         <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>554</v>
@@ -7072,7 +7072,7 @@
         <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>555</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>558</v>
@@ -7123,7 +7123,7 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>560</v>
@@ -7174,7 +7174,7 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>564</v>
@@ -7225,7 +7225,7 @@
         <v>442</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>567</v>
@@ -7296,7 +7296,7 @@
         <v>574</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>382</v>
@@ -7384,10 +7384,10 @@
         <v>583</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Main Babe" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="584">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Hanyeah</t>
   </si>
   <si>
-    <t xml:space="preserve">4:01.808</t>
+    <t xml:space="preserve">4:01.315</t>
   </si>
   <si>
     <t xml:space="preserve">4.</t>
@@ -240,13 +240,22 @@
     <t xml:space="preserve">21.</t>
   </si>
   <si>
+    <t xml:space="preserve">KurierDPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:16.275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cartewns</t>
   </si>
   <si>
     <t xml:space="preserve">4:16.428</t>
   </si>
   <si>
-    <t xml:space="preserve">22.</t>
+    <t xml:space="preserve">23.</t>
   </si>
   <si>
     <t xml:space="preserve">Valmerix</t>
@@ -255,7 +264,7 @@
     <t xml:space="preserve">4:16.564</t>
   </si>
   <si>
-    <t xml:space="preserve">23.</t>
+    <t xml:space="preserve">24.</t>
   </si>
   <si>
     <t xml:space="preserve">Bonzai917</t>
@@ -264,7 +273,7 @@
     <t xml:space="preserve">4:16.615</t>
   </si>
   <si>
-    <t xml:space="preserve">24.</t>
+    <t xml:space="preserve">25.</t>
   </si>
   <si>
     <t xml:space="preserve">Stego20</t>
@@ -273,7 +282,7 @@
     <t xml:space="preserve">4:16.632</t>
   </si>
   <si>
-    <t xml:space="preserve">25.</t>
+    <t xml:space="preserve">26.</t>
   </si>
   <si>
     <t xml:space="preserve">Flan</t>
@@ -282,7 +291,7 @@
     <t xml:space="preserve">4:16.887</t>
   </si>
   <si>
-    <t xml:space="preserve">26.</t>
+    <t xml:space="preserve">27.</t>
   </si>
   <si>
     <t xml:space="preserve">Fasu</t>
@@ -291,7 +300,7 @@
     <t xml:space="preserve">4:16.989</t>
   </si>
   <si>
-    <t xml:space="preserve">27.</t>
+    <t xml:space="preserve">28.</t>
   </si>
   <si>
     <t xml:space="preserve">Rips</t>
@@ -300,7 +309,7 @@
     <t xml:space="preserve">4:17.023</t>
   </si>
   <si>
-    <t xml:space="preserve">28.</t>
+    <t xml:space="preserve">29.</t>
   </si>
   <si>
     <t xml:space="preserve">Ridgy</t>
@@ -309,7 +318,7 @@
     <t xml:space="preserve">4:17.142</t>
   </si>
   <si>
-    <t xml:space="preserve">29.</t>
+    <t xml:space="preserve">30.</t>
   </si>
   <si>
     <t xml:space="preserve">AS13B</t>
@@ -318,7 +327,7 @@
     <t xml:space="preserve">4:17.193</t>
   </si>
   <si>
-    <t xml:space="preserve">30.</t>
+    <t xml:space="preserve">31.</t>
   </si>
   <si>
     <t xml:space="preserve">primax</t>
@@ -327,21 +336,12 @@
     <t xml:space="preserve">4:17.278</t>
   </si>
   <si>
-    <t xml:space="preserve">31.</t>
-  </si>
-  <si>
     <t xml:space="preserve">SirNewt</t>
   </si>
   <si>
     <t xml:space="preserve">4:17.329</t>
   </si>
   <si>
-    <t xml:space="preserve">KurierDPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:17.346</t>
-  </si>
-  <si>
     <t xml:space="preserve">33.</t>
   </si>
   <si>
@@ -903,13 +903,22 @@
     <t xml:space="preserve">97.</t>
   </si>
   <si>
+    <t xml:space="preserve">caseyreese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:39.378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.</t>
+  </si>
+  <si>
     <t xml:space="preserve">2D_PPT</t>
   </si>
   <si>
     <t xml:space="preserve">4:39.446</t>
   </si>
   <si>
-    <t xml:space="preserve">98.</t>
+    <t xml:space="preserve">99.</t>
   </si>
   <si>
     <t xml:space="preserve">whisperysecret</t>
@@ -918,7 +927,7 @@
     <t xml:space="preserve">4:39.565</t>
   </si>
   <si>
-    <t xml:space="preserve">99.</t>
+    <t xml:space="preserve">100.</t>
   </si>
   <si>
     <t xml:space="preserve">SenseiDaichi</t>
@@ -927,15 +936,6 @@
     <t xml:space="preserve">4:40.024</t>
   </si>
   <si>
-    <t xml:space="preserve">100.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iLFantasmaDelleNevi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:40.568</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:37.399</t>
   </si>
   <si>
@@ -966,9 +966,6 @@
     <t xml:space="preserve">5:57.153</t>
   </si>
   <si>
-    <t xml:space="preserve">5:59.499</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:59.550</t>
   </si>
   <si>
@@ -1239,9 +1236,6 @@
     <t xml:space="preserve">8:26.133</t>
   </si>
   <si>
-    <t xml:space="preserve">caseyreese</t>
-  </si>
-  <si>
     <t xml:space="preserve">8:27.501</t>
   </si>
   <si>
@@ -1590,6 +1584,12 @@
     <t xml:space="preserve">7:15.795</t>
   </si>
   <si>
+    <t xml:space="preserve">Krack_1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:16.934</t>
+  </si>
+  <si>
     <t xml:space="preserve">7:18.889</t>
   </si>
   <si>
@@ -1774,9 +1774,6 @@
   </si>
   <si>
     <t xml:space="preserve">9:47.231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:51.787</t>
   </si>
 </sst>
 </file>
@@ -2033,8 +2030,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2105,7 +2102,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.29</v>
+        <v>229.28</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -2123,7 +2120,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>0</v>
@@ -2460,7 +2457,7 @@
         <v>73</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
@@ -2477,7 +2474,7 @@
         <v>76</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
@@ -2494,7 +2491,7 @@
         <v>79</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
@@ -2511,7 +2508,7 @@
         <v>82</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
@@ -2528,7 +2525,7 @@
         <v>85</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
@@ -2545,7 +2542,7 @@
         <v>88</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>0</v>
@@ -2562,7 +2559,7 @@
         <v>91</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>0</v>
@@ -2579,7 +2576,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>0</v>
@@ -2596,7 +2593,7 @@
         <v>97</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>0</v>
@@ -2613,7 +2610,7 @@
         <v>100</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>0</v>
@@ -2630,7 +2627,7 @@
         <v>103</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>0</v>
@@ -2647,7 +2644,7 @@
         <v>105</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>0</v>
@@ -3752,7 +3749,7 @@
         <v>294</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E98" s="4" t="n">
         <v>0</v>
@@ -3769,7 +3766,7 @@
         <v>297</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E99" s="4" t="n">
         <v>0</v>
@@ -3786,7 +3783,7 @@
         <v>300</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E100" s="4" t="n">
         <v>0</v>
@@ -3803,7 +3800,7 @@
         <v>303</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E101" s="4" t="n">
         <v>0</v>
@@ -3833,8 +3830,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3904,11 +3901,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>298.89</v>
+        <v>299.12</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4026,17 +4023,11 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>264</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="J9" s="7" t="s">
         <v>34</v>
       </c>
@@ -4049,13 +4040,13 @@
         <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>0</v>
@@ -4066,13 +4057,13 @@
         <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>0</v>
@@ -4083,16 +4074,16 @@
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,7 +4094,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>294</v>
@@ -4120,7 +4111,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>269</v>
@@ -4137,7 +4128,7 @@
         <v>146</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>265</v>
@@ -4154,7 +4145,7 @@
         <v>107</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>265</v>
@@ -4171,7 +4162,7 @@
         <v>158</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>261</v>
@@ -4188,7 +4179,7 @@
         <v>173</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D18" s="11" t="n">
         <v>249</v>
@@ -4205,7 +4196,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>306</v>
@@ -4222,7 +4213,7 @@
         <v>131</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>252</v>
@@ -4236,10 +4227,10 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>264</v>
@@ -4256,7 +4247,7 @@
         <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>291</v>
@@ -4273,7 +4264,7 @@
         <v>116</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>267</v>
@@ -4290,7 +4281,7 @@
         <v>164</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>286</v>
@@ -4304,10 +4295,10 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>260</v>
@@ -4321,10 +4312,10 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>268</v>
@@ -4338,10 +4329,10 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>265</v>
@@ -4358,7 +4349,7 @@
         <v>257</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>275</v>
@@ -4375,7 +4366,7 @@
         <v>152</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>294</v>
@@ -4389,10 +4380,10 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>273</v>
@@ -4409,7 +4400,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>285</v>
@@ -4426,7 +4417,7 @@
         <v>137</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>291</v>
@@ -4437,13 +4428,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>280</v>
@@ -4460,7 +4451,7 @@
         <v>218</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>273</v>
@@ -4474,10 +4465,10 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>290</v>
@@ -4494,7 +4485,7 @@
         <v>209</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>281</v>
@@ -4511,7 +4502,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>296</v>
@@ -4528,7 +4519,7 @@
         <v>203</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>280</v>
@@ -4545,7 +4536,7 @@
         <v>119</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>270</v>
@@ -4562,7 +4553,7 @@
         <v>266</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>277</v>
@@ -4576,10 +4567,10 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>295</v>
@@ -4593,16 +4584,16 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,16 +4601,16 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,7 +4621,7 @@
         <v>215</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>289</v>
@@ -4647,7 +4638,7 @@
         <v>182</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>313</v>
@@ -4661,10 +4652,10 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>295</v>
@@ -4678,10 +4669,10 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>282</v>
@@ -4695,10 +4686,10 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>299</v>
@@ -4712,10 +4703,10 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>273</v>
@@ -4729,10 +4720,10 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>291</v>
@@ -4746,10 +4737,10 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>284</v>
@@ -4766,7 +4757,7 @@
         <v>170</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>278</v>
@@ -4780,10 +4771,10 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>277</v>
@@ -4797,10 +4788,10 @@
         <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>338</v>
@@ -4817,7 +4808,7 @@
         <v>243</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>294</v>
@@ -4834,7 +4825,7 @@
         <v>273</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>317</v>
@@ -4848,10 +4839,10 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>288</v>
@@ -4865,16 +4856,16 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>380</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4882,10 +4873,10 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>298</v>
@@ -4899,10 +4890,10 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>316</v>
@@ -4916,10 +4907,10 @@
         <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>293</v>
@@ -4933,10 +4924,10 @@
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>306</v>
@@ -4953,7 +4944,7 @@
         <v>285</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>326</v>
@@ -4970,7 +4961,7 @@
         <v>252</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>294</v>
@@ -4984,10 +4975,10 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>303</v>
@@ -5001,10 +4992,10 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>394</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>323</v>
@@ -5021,7 +5012,7 @@
         <v>236</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>295</v>
@@ -5038,7 +5029,7 @@
         <v>238</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>304</v>
@@ -5052,10 +5043,10 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>292</v>
@@ -5069,10 +5060,10 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>284</v>
@@ -5086,10 +5077,10 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>402</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>286</v>
@@ -5103,10 +5094,10 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>291</v>
@@ -5120,10 +5111,10 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>405</v>
+        <v>293</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>317</v>
@@ -5137,16 +5128,16 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5154,16 +5145,16 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5171,10 +5162,10 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>294</v>
@@ -5188,10 +5179,10 @@
         <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>307</v>
@@ -5202,13 +5193,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>417</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>334</v>
@@ -5225,7 +5216,7 @@
         <v>276</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>305</v>
@@ -5239,10 +5230,10 @@
         <v>242</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>295</v>
@@ -5256,10 +5247,10 @@
         <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>307</v>
@@ -5273,10 +5264,10 @@
         <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>303</v>
@@ -5290,10 +5281,10 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>355</v>
@@ -5304,13 +5295,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>334</v>
@@ -5324,10 +5315,10 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>334</v>
@@ -5341,10 +5332,10 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>356</v>
@@ -5358,10 +5349,10 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>309</v>
@@ -5375,10 +5366,10 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>319</v>
@@ -5392,10 +5383,10 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>366</v>
@@ -5409,10 +5400,10 @@
         <v>270</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>303</v>
@@ -5423,13 +5414,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>399</v>
@@ -5443,10 +5434,10 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>305</v>
@@ -5463,7 +5454,7 @@
         <v>134</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>368</v>
@@ -5477,10 +5468,10 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>316</v>
@@ -5497,7 +5488,7 @@
         <v>224</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>398</v>
@@ -5511,10 +5502,10 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D96" s="9" t="n">
         <v>412</v>
@@ -5531,7 +5522,7 @@
         <v>249</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>381</v>
@@ -5545,10 +5536,10 @@
         <v>292</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D98" s="4" t="n">
         <v>297</v>
@@ -5562,10 +5553,10 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>361</v>
@@ -5579,10 +5570,10 @@
         <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>347</v>
@@ -5596,10 +5587,10 @@
         <v>301</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>342</v>
@@ -5632,8 +5623,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5667,7 +5658,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D2" s="11" t="n">
         <v>251</v>
@@ -5690,7 +5681,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>259</v>
@@ -5703,11 +5694,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>314.3</v>
+        <v>313.49</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>4.24</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,7 +5709,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>261</v>
@@ -5735,7 +5726,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>256</v>
@@ -5758,7 +5749,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>255</v>
@@ -5781,7 +5772,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>255</v>
@@ -5805,7 +5796,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>272</v>
@@ -5828,7 +5819,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>267</v>
@@ -5851,7 +5842,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>270</v>
@@ -5868,7 +5859,7 @@
         <v>107</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>252</v>
@@ -5885,7 +5876,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>268</v>
@@ -5899,10 +5890,10 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>265</v>
@@ -5919,7 +5910,7 @@
         <v>173</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>260</v>
@@ -5936,7 +5927,7 @@
         <v>143</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>262</v>
@@ -5953,7 +5944,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>283</v>
@@ -5967,10 +5958,10 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>261</v>
@@ -5987,7 +5978,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>263</v>
@@ -6001,10 +5992,10 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>262</v>
@@ -6018,10 +6009,10 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>267</v>
@@ -6038,7 +6029,7 @@
         <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>268</v>
@@ -6052,10 +6043,10 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>274</v>
@@ -6072,7 +6063,7 @@
         <v>158</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>268</v>
@@ -6089,7 +6080,7 @@
         <v>116</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>283</v>
@@ -6106,7 +6097,7 @@
         <v>209</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>281</v>
@@ -6123,7 +6114,7 @@
         <v>182</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>269</v>
@@ -6140,7 +6131,7 @@
         <v>152</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>279</v>
@@ -6157,7 +6148,7 @@
         <v>164</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>283</v>
@@ -6171,10 +6162,10 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>284</v>
@@ -6191,7 +6182,7 @@
         <v>197</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>287</v>
@@ -6208,7 +6199,7 @@
         <v>252</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>274</v>
@@ -6222,10 +6213,10 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>264</v>
@@ -6236,13 +6227,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>294</v>
@@ -6256,10 +6247,10 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>273</v>
@@ -6276,7 +6267,7 @@
         <v>119</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>281</v>
@@ -6290,10 +6281,10 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>281</v>
@@ -6310,7 +6301,7 @@
         <v>218</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>288</v>
@@ -6324,10 +6315,10 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>291</v>
@@ -6344,7 +6335,7 @@
         <v>243</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>293</v>
@@ -6361,7 +6352,7 @@
         <v>131</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>280</v>
@@ -6378,7 +6369,7 @@
         <v>273</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>297</v>
@@ -6392,10 +6383,10 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>275</v>
@@ -6409,10 +6400,10 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>276</v>
@@ -6426,10 +6417,10 @@
         <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>300</v>
@@ -6446,7 +6437,7 @@
         <v>137</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>292</v>
@@ -6463,7 +6454,7 @@
         <v>257</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>305</v>
@@ -6477,10 +6468,10 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>323</v>
@@ -6494,16 +6485,16 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6514,7 +6505,7 @@
         <v>203</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>294</v>
@@ -6531,7 +6522,7 @@
         <v>246</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>312</v>
@@ -6545,10 +6536,10 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>295</v>
@@ -6565,7 +6556,7 @@
         <v>285</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>305</v>
@@ -6579,10 +6570,10 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>339</v>
@@ -6596,10 +6587,10 @@
         <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>310</v>
@@ -6616,7 +6607,7 @@
         <v>279</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>288</v>
@@ -6633,7 +6624,7 @@
         <v>266</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>311</v>
@@ -6650,7 +6641,7 @@
         <v>170</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>304</v>
@@ -6664,10 +6655,10 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>304</v>
@@ -6681,10 +6672,10 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>331</v>
@@ -6698,33 +6689,29 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>438</v>
+        <v>520</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D60" s="4" t="n">
-        <v>301</v>
-      </c>
-      <c r="E60" s="4" t="n">
-        <v>6</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>356</v>
+        <v>522</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>301</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6732,16 +6719,16 @@
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>524</v>
+        <v>353</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="D62" s="4" t="n">
-        <v>311</v>
-      </c>
-      <c r="E62" s="4" t="n">
-        <v>8</v>
+        <v>523</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6749,16 +6736,16 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>365</v>
+        <v>524</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6766,16 +6753,16 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6783,16 +6770,16 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>224</v>
+        <v>384</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6800,16 +6787,16 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>529</v>
+        <v>224</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6817,16 +6804,16 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>399</v>
+        <v>529</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6834,16 +6821,16 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>532</v>
+        <v>398</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6851,16 +6838,16 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6868,16 +6855,16 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>146</v>
+        <v>534</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6885,16 +6872,16 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>537</v>
+        <v>146</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>329</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6902,16 +6889,16 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>363</v>
+        <v>537</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6919,16 +6906,16 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6936,16 +6923,16 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>276</v>
+        <v>372</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6953,16 +6940,16 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>542</v>
+        <v>276</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>356</v>
+        <v>541</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <v>326</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6970,16 +6957,16 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D76" s="4" t="n">
-        <v>343</v>
-      </c>
-      <c r="E76" s="4" t="n">
-        <v>4</v>
+        <v>543</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6987,33 +6974,33 @@
         <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>394</v>
+        <v>298</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7021,16 +7008,16 @@
         <v>239</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7038,16 +7025,16 @@
         <v>242</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,13 +7042,13 @@
         <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>407</v>
+        <v>552</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>3</v>
@@ -7072,16 +7059,16 @@
         <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7089,33 +7076,33 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>556</v>
+        <v>419</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7123,16 +7110,16 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>387</v>
+        <v>558</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7140,16 +7127,16 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>561</v>
+        <v>386</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7157,16 +7144,16 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>134</v>
+        <v>561</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7174,16 +7161,16 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>440</v>
+        <v>134</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7191,16 +7178,16 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>240</v>
+        <v>438</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>339</v>
+        <v>464</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7208,33 +7195,33 @@
         <v>270</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7242,16 +7229,16 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>568</v>
+        <v>442</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,16 +7246,16 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7276,16 +7263,16 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="D94" s="9" t="n">
-        <v>617</v>
+        <v>571</v>
+      </c>
+      <c r="D94" s="4" t="n">
+        <v>400</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7293,16 +7280,16 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D95" s="4" t="n">
-        <v>382</v>
+        <v>573</v>
+      </c>
+      <c r="D95" s="9" t="n">
+        <v>617</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7310,16 +7297,16 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>576</v>
+        <v>444</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7327,16 +7314,16 @@
         <v>289</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,16 +7331,16 @@
         <v>292</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>24</v>
+        <v>577</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>371</v>
+        <v>498</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7361,16 +7348,16 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>580</v>
+        <v>24</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7378,16 +7365,16 @@
         <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>356</v>
+        <v>581</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <v>444</v>
+      </c>
+      <c r="E100" s="4" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7395,16 +7382,16 @@
         <v>301</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>128</v>
+        <v>582</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D101" s="4" t="n">
-        <v>391</v>
-      </c>
-      <c r="E101" s="4" t="n">
-        <v>7</v>
+        <v>583</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="584">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -168,13 +168,22 @@
     <t xml:space="preserve">13.</t>
   </si>
   <si>
+    <t xml:space="preserve">Yoyogi_yoshi_Vtuber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:05.361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.</t>
+  </si>
+  <si>
     <t xml:space="preserve">H_ebi</t>
   </si>
   <si>
     <t xml:space="preserve">4:06.007</t>
   </si>
   <si>
-    <t xml:space="preserve">14.</t>
+    <t xml:space="preserve">15.</t>
   </si>
   <si>
     <t xml:space="preserve">Lehvel</t>
@@ -183,7 +192,7 @@
     <t xml:space="preserve">4:09.713</t>
   </si>
   <si>
-    <t xml:space="preserve">15.</t>
+    <t xml:space="preserve">16.</t>
   </si>
   <si>
     <t xml:space="preserve">ExiledMonk</t>
@@ -192,15 +201,6 @@
     <t xml:space="preserve">4:11.447</t>
   </si>
   <si>
-    <t xml:space="preserve">16.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoyogi_yoshi_Vtuber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:14.303</t>
-  </si>
-  <si>
     <t xml:space="preserve">17.</t>
   </si>
   <si>
@@ -471,13 +471,22 @@
     <t xml:space="preserve">47.</t>
   </si>
   <si>
+    <t xml:space="preserve">20centt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:21.562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.</t>
+  </si>
+  <si>
     <t xml:space="preserve">mican8s</t>
   </si>
   <si>
     <t xml:space="preserve">4:21.647</t>
   </si>
   <si>
-    <t xml:space="preserve">48.</t>
+    <t xml:space="preserve">49.</t>
   </si>
   <si>
     <t xml:space="preserve">ChroNickPain</t>
@@ -486,7 +495,7 @@
     <t xml:space="preserve">4:21.800</t>
   </si>
   <si>
-    <t xml:space="preserve">49.</t>
+    <t xml:space="preserve">50.</t>
   </si>
   <si>
     <t xml:space="preserve">kedako</t>
@@ -495,7 +504,7 @@
     <t xml:space="preserve">4:22.021</t>
   </si>
   <si>
-    <t xml:space="preserve">50.</t>
+    <t xml:space="preserve">51.</t>
   </si>
   <si>
     <t xml:space="preserve">Rifre</t>
@@ -504,7 +513,7 @@
     <t xml:space="preserve">4:22.055</t>
   </si>
   <si>
-    <t xml:space="preserve">51.</t>
+    <t xml:space="preserve">52.</t>
   </si>
   <si>
     <t xml:space="preserve">Aytk100</t>
@@ -513,7 +522,7 @@
     <t xml:space="preserve">4:22.293</t>
   </si>
   <si>
-    <t xml:space="preserve">52.</t>
+    <t xml:space="preserve">53.</t>
   </si>
   <si>
     <t xml:space="preserve">Rauligvg</t>
@@ -522,7 +531,7 @@
     <t xml:space="preserve">4:22.939</t>
   </si>
   <si>
-    <t xml:space="preserve">53.</t>
+    <t xml:space="preserve">54.</t>
   </si>
   <si>
     <t xml:space="preserve">Kojooo</t>
@@ -531,7 +540,7 @@
     <t xml:space="preserve">4:22.956</t>
   </si>
   <si>
-    <t xml:space="preserve">54.</t>
+    <t xml:space="preserve">55.</t>
   </si>
   <si>
     <t xml:space="preserve">eniplex</t>
@@ -540,7 +549,7 @@
     <t xml:space="preserve">4:23.126</t>
   </si>
   <si>
-    <t xml:space="preserve">55.</t>
+    <t xml:space="preserve">56.</t>
   </si>
   <si>
     <t xml:space="preserve">CrazyNeighbour714</t>
@@ -549,7 +558,7 @@
     <t xml:space="preserve">4:23.143</t>
   </si>
   <si>
-    <t xml:space="preserve">56.</t>
+    <t xml:space="preserve">57.</t>
   </si>
   <si>
     <t xml:space="preserve">texhnolyzem</t>
@@ -558,7 +567,7 @@
     <t xml:space="preserve">4:23.823</t>
   </si>
   <si>
-    <t xml:space="preserve">57.</t>
+    <t xml:space="preserve">58.</t>
   </si>
   <si>
     <t xml:space="preserve">Alanukan</t>
@@ -567,7 +576,7 @@
     <t xml:space="preserve">4:24.299</t>
   </si>
   <si>
-    <t xml:space="preserve">58.</t>
+    <t xml:space="preserve">59.</t>
   </si>
   <si>
     <t xml:space="preserve">Skromnique</t>
@@ -576,15 +585,6 @@
     <t xml:space="preserve">4:24.469</t>
   </si>
   <si>
-    <t xml:space="preserve">59.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20centt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:24.588</t>
-  </si>
-  <si>
     <t xml:space="preserve">60.</t>
   </si>
   <si>
@@ -921,21 +921,21 @@
     <t xml:space="preserve">99.</t>
   </si>
   <si>
+    <t xml:space="preserve">Starshooter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:39.463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.</t>
+  </si>
+  <si>
     <t xml:space="preserve">whisperysecret</t>
   </si>
   <si>
     <t xml:space="preserve">4:39.565</t>
   </si>
   <si>
-    <t xml:space="preserve">100.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SenseiDaichi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:40.024</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:37.399</t>
   </si>
   <si>
@@ -957,6 +957,9 @@
     <t xml:space="preserve">5:48.228</t>
   </si>
   <si>
+    <t xml:space="preserve">5:50.931</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:52.699</t>
   </si>
   <si>
@@ -1407,12 +1410,12 @@
     <t xml:space="preserve">5:18.886</t>
   </si>
   <si>
+    <t xml:space="preserve">5:21.623</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:22.133</t>
   </si>
   <si>
-    <t xml:space="preserve">5:24.156</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:24.411</t>
   </si>
   <si>
@@ -1422,6 +1425,9 @@
     <t xml:space="preserve">5:26.672</t>
   </si>
   <si>
+    <t xml:space="preserve">5:33.472</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:34.577</t>
   </si>
   <si>
@@ -1662,6 +1668,12 @@
     <t xml:space="preserve">7:58.108</t>
   </si>
   <si>
+    <t xml:space="preserve">NA6283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:04.874</t>
+  </si>
+  <si>
     <t xml:space="preserve">zeldafan22</t>
   </si>
   <si>
@@ -1762,18 +1774,6 @@
   </si>
   <si>
     <t xml:space="preserve">9:40.533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poloman609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:45.276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:47.231</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1902,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1939,12 +1939,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2030,8 +2034,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G77" activeCellId="0" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2102,11 +2106,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.28</v>
+        <v>229.66</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,7 +2325,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>0</v>
@@ -2338,7 +2342,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>0</v>
@@ -2355,7 +2359,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>0</v>
@@ -2372,10 +2376,10 @@
         <v>58</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2899,7 +2903,7 @@
         <v>150</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>0</v>
@@ -2916,7 +2920,7 @@
         <v>153</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>0</v>
@@ -2933,7 +2937,7 @@
         <v>156</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>0</v>
@@ -2950,7 +2954,7 @@
         <v>159</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>0</v>
@@ -2967,7 +2971,7 @@
         <v>162</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>0</v>
@@ -2984,7 +2988,7 @@
         <v>165</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>0</v>
@@ -3001,7 +3005,7 @@
         <v>168</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>0</v>
@@ -3018,7 +3022,7 @@
         <v>171</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>0</v>
@@ -3035,7 +3039,7 @@
         <v>174</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>0</v>
@@ -3052,7 +3056,7 @@
         <v>177</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
@@ -3069,7 +3073,7 @@
         <v>180</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
@@ -3086,7 +3090,7 @@
         <v>183</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
@@ -3103,7 +3107,7 @@
         <v>186</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
@@ -3697,7 +3701,7 @@
       <c r="C95" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D95" s="9" t="n">
+      <c r="D95" s="4" t="n">
         <v>245</v>
       </c>
       <c r="E95" s="4" t="n">
@@ -3731,7 +3735,7 @@
       <c r="C97" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D97" s="9" t="n">
+      <c r="D97" s="4" t="n">
         <v>245</v>
       </c>
       <c r="E97" s="4" t="n">
@@ -3782,8 +3786,8 @@
       <c r="C100" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D100" s="4" t="n">
-        <v>227</v>
+      <c r="D100" s="11" t="n">
+        <v>252</v>
       </c>
       <c r="E100" s="4" t="n">
         <v>0</v>
@@ -3800,7 +3804,7 @@
         <v>303</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E101" s="4" t="n">
         <v>0</v>
@@ -3830,8 +3834,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3901,11 +3905,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>299.12</v>
+        <v>298.78</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.77</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4000,7 +4004,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>310</v>
@@ -4025,9 +4029,15 @@
       <c r="B9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>267</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="J9" s="7" t="s">
         <v>34</v>
       </c>
@@ -4043,7 +4053,7 @@
         <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>264</v>
@@ -4057,10 +4067,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>262</v>
@@ -4077,7 +4087,7 @@
         <v>96</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>269</v>
@@ -4094,7 +4104,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>294</v>
@@ -4111,7 +4121,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>269</v>
@@ -4128,7 +4138,7 @@
         <v>146</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>265</v>
@@ -4145,7 +4155,7 @@
         <v>107</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>265</v>
@@ -4159,10 +4169,10 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>261</v>
@@ -4176,12 +4186,12 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D18" s="11" t="n">
+        <v>320</v>
+      </c>
+      <c r="D18" s="12" t="n">
         <v>249</v>
       </c>
       <c r="E18" s="4" t="n">
@@ -4193,10 +4203,10 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>306</v>
@@ -4213,7 +4223,7 @@
         <v>131</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>252</v>
@@ -4230,7 +4240,7 @@
         <v>78</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>264</v>
@@ -4247,7 +4257,7 @@
         <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>291</v>
@@ -4264,7 +4274,7 @@
         <v>116</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>267</v>
@@ -4278,10 +4288,10 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>286</v>
@@ -4295,10 +4305,10 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>260</v>
@@ -4312,10 +4322,10 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>268</v>
@@ -4332,7 +4342,7 @@
         <v>72</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>265</v>
@@ -4349,7 +4359,7 @@
         <v>257</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>275</v>
@@ -4363,10 +4373,10 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>294</v>
@@ -4380,10 +4390,10 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>273</v>
@@ -4400,7 +4410,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>285</v>
@@ -4417,7 +4427,7 @@
         <v>137</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>291</v>
@@ -4428,13 +4438,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>280</v>
@@ -4451,7 +4461,7 @@
         <v>218</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>273</v>
@@ -4465,10 +4475,10 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>290</v>
@@ -4485,7 +4495,7 @@
         <v>209</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>281</v>
@@ -4499,10 +4509,10 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>296</v>
@@ -4519,7 +4529,7 @@
         <v>203</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>280</v>
@@ -4536,7 +4546,7 @@
         <v>119</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>270</v>
@@ -4553,7 +4563,7 @@
         <v>266</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>277</v>
@@ -4567,10 +4577,10 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>295</v>
@@ -4584,16 +4594,16 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4601,16 +4611,16 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,7 +4631,7 @@
         <v>215</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>289</v>
@@ -4635,10 +4645,10 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>313</v>
@@ -4652,10 +4662,10 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>295</v>
@@ -4669,10 +4679,10 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>282</v>
@@ -4686,10 +4696,10 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>299</v>
@@ -4703,10 +4713,10 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>273</v>
@@ -4723,7 +4733,7 @@
         <v>296</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>291</v>
@@ -4737,10 +4747,10 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>284</v>
@@ -4754,10 +4764,10 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>278</v>
@@ -4771,10 +4781,10 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>277</v>
@@ -4788,10 +4798,10 @@
         <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>338</v>
@@ -4808,7 +4818,7 @@
         <v>243</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>294</v>
@@ -4825,7 +4835,7 @@
         <v>273</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>317</v>
@@ -4839,10 +4849,10 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>288</v>
@@ -4856,16 +4866,16 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4873,10 +4883,10 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>298</v>
@@ -4890,10 +4900,10 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>316</v>
@@ -4907,10 +4917,10 @@
         <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>293</v>
@@ -4924,10 +4934,10 @@
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>306</v>
@@ -4944,7 +4954,7 @@
         <v>285</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>326</v>
@@ -4961,7 +4971,7 @@
         <v>252</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>294</v>
@@ -4975,10 +4985,10 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>303</v>
@@ -4992,10 +5002,10 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>323</v>
@@ -5012,7 +5022,7 @@
         <v>236</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>295</v>
@@ -5029,7 +5039,7 @@
         <v>238</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>304</v>
@@ -5043,10 +5053,10 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>292</v>
@@ -5060,10 +5070,10 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>284</v>
@@ -5077,10 +5087,10 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>286</v>
@@ -5094,10 +5104,10 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>291</v>
@@ -5114,7 +5124,7 @@
         <v>293</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>317</v>
@@ -5128,16 +5138,16 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5145,16 +5155,16 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,10 +5172,10 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>294</v>
@@ -5179,10 +5189,10 @@
         <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>307</v>
@@ -5193,13 +5203,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>334</v>
@@ -5216,7 +5226,7 @@
         <v>276</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>305</v>
@@ -5230,10 +5240,10 @@
         <v>242</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>295</v>
@@ -5247,10 +5257,10 @@
         <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>307</v>
@@ -5264,10 +5274,10 @@
         <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>303</v>
@@ -5281,10 +5291,10 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>355</v>
@@ -5295,13 +5305,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>334</v>
@@ -5315,10 +5325,10 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>334</v>
@@ -5332,10 +5342,10 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>356</v>
@@ -5349,10 +5359,10 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>309</v>
@@ -5366,10 +5376,10 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>319</v>
@@ -5383,10 +5393,10 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>366</v>
@@ -5400,10 +5410,10 @@
         <v>270</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>303</v>
@@ -5414,13 +5424,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>399</v>
@@ -5434,10 +5444,10 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>305</v>
@@ -5454,7 +5464,7 @@
         <v>134</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>368</v>
@@ -5468,10 +5478,10 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>316</v>
@@ -5488,7 +5498,7 @@
         <v>224</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>398</v>
@@ -5502,12 +5512,12 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D96" s="9" t="n">
+        <v>450</v>
+      </c>
+      <c r="D96" s="11" t="n">
         <v>412</v>
       </c>
       <c r="E96" s="4" t="n">
@@ -5522,7 +5532,7 @@
         <v>249</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>381</v>
@@ -5536,10 +5546,10 @@
         <v>292</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D98" s="4" t="n">
         <v>297</v>
@@ -5553,10 +5563,10 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>361</v>
@@ -5570,10 +5580,10 @@
         <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>347</v>
@@ -5587,10 +5597,10 @@
         <v>301</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>342</v>
@@ -5623,8 +5633,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E80" activeCellId="0" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5658,9 +5668,9 @@
         <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D2" s="11" t="n">
+        <v>460</v>
+      </c>
+      <c r="D2" s="12" t="n">
         <v>251</v>
       </c>
       <c r="E2" s="4" t="n">
@@ -5681,7 +5691,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>259</v>
@@ -5694,11 +5704,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>313.49</v>
+        <v>311.71</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>4.21</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5706,13 +5716,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>2</v>
@@ -5723,13 +5733,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>2</v>
@@ -5749,7 +5759,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>255</v>
@@ -5772,7 +5782,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>255</v>
@@ -5796,7 +5806,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>272</v>
@@ -5816,13 +5826,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>2</v>
@@ -5839,16 +5849,16 @@
         <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5856,16 +5866,16 @@
         <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5873,13 +5883,13 @@
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>2</v>
@@ -5890,13 +5900,13 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>2</v>
@@ -5907,13 +5917,13 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>2</v>
@@ -5924,13 +5934,13 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>2</v>
@@ -5941,13 +5951,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>2</v>
@@ -5958,13 +5968,13 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>2</v>
@@ -5975,13 +5985,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>2</v>
@@ -5992,13 +6002,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>2</v>
@@ -6009,16 +6019,16 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6026,16 +6036,16 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>329</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6043,16 +6053,16 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6060,13 +6070,13 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>3</v>
@@ -6077,16 +6087,16 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6094,13 +6104,13 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>4</v>
@@ -6111,16 +6121,16 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6128,16 +6138,16 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6145,16 +6155,16 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6162,13 +6172,13 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>392</v>
+        <v>167</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>2</v>
@@ -6179,16 +6189,16 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6196,16 +6206,16 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6213,30 +6223,30 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>370</v>
+        <v>252</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>325</v>
+        <v>491</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>3</v>
@@ -6247,16 +6257,16 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>490</v>
+        <v>326</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6264,16 +6274,16 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>119</v>
+        <v>351</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6281,16 +6291,16 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>382</v>
+        <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>281</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6298,16 +6308,16 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>218</v>
+        <v>383</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6315,13 +6325,13 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>494</v>
+        <v>218</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>495</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>3</v>
@@ -6332,16 +6342,16 @@
         <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>243</v>
+        <v>496</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6349,16 +6359,16 @@
         <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6366,16 +6376,16 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6383,13 +6393,13 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>3</v>
@@ -6400,16 +6410,16 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>500</v>
+        <v>296</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>501</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6417,16 +6427,16 @@
         <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6434,16 +6444,16 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>137</v>
+        <v>377</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6451,16 +6461,16 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6468,16 +6478,16 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>348</v>
+        <v>257</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6485,16 +6495,16 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>355</v>
+        <v>507</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>323</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6502,16 +6512,16 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>203</v>
+        <v>379</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E49" s="4" t="n">
-        <v>5</v>
+        <v>508</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6519,16 +6529,16 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6536,13 +6546,13 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>380</v>
+        <v>246</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>4</v>
@@ -6553,16 +6563,16 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6570,16 +6580,16 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>510</v>
+        <v>285</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>511</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6587,16 +6597,16 @@
         <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>367</v>
+        <v>512</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6604,16 +6614,16 @@
         <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6621,16 +6631,16 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6638,16 +6648,16 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,7 +6665,7 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>516</v>
+        <v>173</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>517</v>
@@ -6664,7 +6674,7 @@
         <v>304</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6678,10 +6688,10 @@
         <v>519</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6694,41 +6704,41 @@
       <c r="C60" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="D60" s="4" t="n">
+        <v>331</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>436</v>
+        <v>522</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D61" s="4" t="n">
-        <v>301</v>
-      </c>
-      <c r="E61" s="4" t="n">
-        <v>6</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>353</v>
+        <v>437</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>355</v>
+        <v>524</v>
+      </c>
+      <c r="D62" s="4" t="n">
+        <v>301</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6736,16 +6746,16 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>524</v>
+        <v>354</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D63" s="4" t="n">
-        <v>311</v>
-      </c>
-      <c r="E63" s="4" t="n">
-        <v>8</v>
+      <c r="D63" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,16 +6763,16 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>364</v>
+        <v>526</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6770,16 +6780,16 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6787,16 +6797,16 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>224</v>
+        <v>385</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6804,16 +6814,16 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>529</v>
+        <v>224</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>530</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6821,16 +6831,16 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>398</v>
+        <v>531</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6838,16 +6848,16 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>532</v>
+        <v>399</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>533</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6861,10 +6871,10 @@
         <v>535</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6872,16 +6882,16 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>146</v>
+        <v>536</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6889,7 +6899,7 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>537</v>
+        <v>146</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>538</v>
@@ -6898,7 +6908,7 @@
         <v>329</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6906,16 +6916,16 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>362</v>
+        <v>539</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6923,16 +6933,16 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6940,16 +6950,16 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>276</v>
+        <v>373</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6957,16 +6967,16 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>542</v>
+        <v>276</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>355</v>
+      <c r="D76" s="4" t="n">
+        <v>326</v>
+      </c>
+      <c r="E76" s="4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6979,16 +6989,16 @@
       <c r="C77" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D77" s="4" t="n">
-        <v>343</v>
-      </c>
-      <c r="E77" s="4" t="n">
-        <v>4</v>
+      <c r="D77" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>546</v>
@@ -6997,10 +7007,10 @@
         <v>547</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7014,10 +7024,10 @@
         <v>549</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7031,10 +7041,10 @@
         <v>551</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7048,10 +7058,10 @@
         <v>553</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7059,16 +7069,16 @@
         <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>405</v>
+        <v>554</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7076,33 +7086,33 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>419</v>
+        <v>556</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>556</v>
+        <v>406</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7110,16 +7120,16 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>558</v>
+        <v>420</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>559</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7127,16 +7137,16 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>386</v>
+        <v>560</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7144,16 +7154,16 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7161,16 +7171,16 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>134</v>
+        <v>387</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7178,16 +7188,16 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>438</v>
+        <v>565</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>464</v>
+        <v>381</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7195,33 +7205,33 @@
         <v>270</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>249</v>
+        <v>439</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>379</v>
+        <v>464</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7229,16 +7239,16 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>442</v>
+        <v>240</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7246,16 +7256,16 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>568</v>
+        <v>249</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7263,16 +7273,16 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>570</v>
+        <v>443</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>571</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7285,11 +7295,11 @@
       <c r="C95" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="D95" s="9" t="n">
-        <v>617</v>
+      <c r="D95" s="4" t="n">
+        <v>447</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7300,13 +7310,13 @@
         <v>574</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>444</v>
+        <v>575</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7314,16 +7324,16 @@
         <v>289</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="D97" s="4" t="n">
-        <v>363</v>
+        <v>577</v>
+      </c>
+      <c r="D97" s="11" t="n">
+        <v>617</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7331,16 +7341,16 @@
         <v>292</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>578</v>
+        <v>445</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>498</v>
+        <v>382</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7348,16 +7358,16 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>24</v>
+        <v>579</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7365,16 +7375,16 @@
         <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7382,16 +7392,16 @@
         <v>301</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>582</v>
+        <v>24</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>355</v>
+      <c r="D101" s="4" t="n">
+        <v>371</v>
+      </c>
+      <c r="E101" s="4" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Babe" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="585">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -1539,6 +1539,12 @@
     <t xml:space="preserve">6:44.889</t>
   </si>
   <si>
+    <t xml:space="preserve">balamie7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:48.867</t>
+  </si>
+  <si>
     <t xml:space="preserve">6:49.683</t>
   </si>
   <si>
@@ -1771,9 +1777,6 @@
   </si>
   <si>
     <t xml:space="preserve">9:38.238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:40.533</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1905,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1936,10 +1939,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2034,7 +2033,7 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G77" activeCellId="0" sqref="G77"/>
     </sheetView>
   </sheetViews>
@@ -3378,7 +3377,7 @@
       <c r="C76" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D76" s="9" t="n">
+      <c r="D76" s="4" t="n">
         <v>245</v>
       </c>
       <c r="E76" s="4" t="n">
@@ -3593,7 +3592,7 @@
       <c r="A89" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="9" t="s">
         <v>269</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -3786,7 +3785,7 @@
       <c r="C100" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D100" s="11" t="n">
+      <c r="D100" s="10" t="n">
         <v>252</v>
       </c>
       <c r="E100" s="4" t="n">
@@ -4191,7 +4190,7 @@
       <c r="C18" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="11" t="n">
         <v>249</v>
       </c>
       <c r="E18" s="4" t="n">
@@ -5517,7 +5516,7 @@
       <c r="C96" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D96" s="11" t="n">
+      <c r="D96" s="10" t="n">
         <v>412</v>
       </c>
       <c r="E96" s="4" t="n">
@@ -5633,8 +5632,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E80" activeCellId="0" sqref="E80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5670,7 +5669,7 @@
       <c r="C2" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="11" t="n">
         <v>251</v>
       </c>
       <c r="E2" s="4" t="n">
@@ -5704,11 +5703,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>311.71</v>
+        <v>310.82</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>4.06</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6461,16 +6460,16 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>137</v>
+        <v>505</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6478,16 +6477,16 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6495,16 +6494,16 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>349</v>
+        <v>257</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6512,16 +6511,16 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>356</v>
+        <v>509</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>323</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6529,16 +6528,16 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>203</v>
+        <v>379</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E50" s="4" t="n">
-        <v>5</v>
+        <v>510</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6546,16 +6545,16 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,13 +6562,13 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>381</v>
+        <v>246</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>4</v>
@@ -6580,16 +6579,16 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6597,16 +6596,16 @@
         <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>512</v>
+        <v>285</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>513</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6614,16 +6613,16 @@
         <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>368</v>
+        <v>514</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6631,16 +6630,16 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,16 +6647,16 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6665,16 +6664,16 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6682,7 +6681,7 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>518</v>
+        <v>173</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>519</v>
@@ -6691,7 +6690,7 @@
         <v>304</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6705,10 +6704,10 @@
         <v>521</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6721,41 +6720,41 @@
       <c r="C61" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="D61" s="4" t="n">
+        <v>331</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>437</v>
+        <v>524</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D62" s="4" t="n">
-        <v>301</v>
-      </c>
-      <c r="E62" s="4" t="n">
-        <v>6</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>356</v>
+        <v>526</v>
+      </c>
+      <c r="D63" s="4" t="n">
+        <v>301</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6763,16 +6762,16 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>526</v>
+        <v>354</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="D64" s="4" t="n">
-        <v>311</v>
-      </c>
-      <c r="E64" s="4" t="n">
-        <v>8</v>
+      <c r="D64" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6780,16 +6779,16 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>365</v>
+        <v>528</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6797,16 +6796,16 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6814,16 +6813,16 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>224</v>
+        <v>385</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6831,16 +6830,16 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>531</v>
+        <v>224</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>532</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6848,16 +6847,16 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>399</v>
+        <v>533</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6865,16 +6864,16 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>534</v>
+        <v>399</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>535</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6888,10 +6887,10 @@
         <v>537</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6899,16 +6898,16 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>146</v>
+        <v>538</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6916,7 +6915,7 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>539</v>
+        <v>146</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>540</v>
@@ -6925,7 +6924,7 @@
         <v>329</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6933,16 +6932,16 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>363</v>
+        <v>541</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6950,16 +6949,16 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6967,16 +6966,16 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>276</v>
+        <v>373</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6984,16 +6983,16 @@
         <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>544</v>
+        <v>276</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>356</v>
+      <c r="D77" s="4" t="n">
+        <v>326</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7006,11 +7005,11 @@
       <c r="C78" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="D78" s="4" t="n">
-        <v>343</v>
-      </c>
-      <c r="E78" s="4" t="n">
-        <v>4</v>
+      <c r="D78" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7024,10 +7023,10 @@
         <v>549</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7041,7 +7040,7 @@
         <v>551</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>2</v>
@@ -7058,10 +7057,10 @@
         <v>553</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>394</v>
+        <v>298</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7075,10 +7074,10 @@
         <v>555</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7092,10 +7091,10 @@
         <v>557</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7103,13 +7102,13 @@
         <v>426</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>406</v>
+        <v>558</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>3</v>
@@ -7120,16 +7119,16 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7137,16 +7136,16 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>560</v>
+        <v>420</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>561</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7160,10 +7159,10 @@
         <v>563</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7171,16 +7170,16 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>387</v>
+        <v>564</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7188,16 +7187,16 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>565</v>
+        <v>387</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>566</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7205,16 +7204,16 @@
         <v>270</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>134</v>
+        <v>567</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7222,16 +7221,16 @@
         <v>441</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>439</v>
+        <v>134</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7239,16 +7238,16 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>240</v>
+        <v>439</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>339</v>
+        <v>464</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7256,16 +7255,16 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7273,16 +7272,16 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>443</v>
+        <v>249</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7290,16 +7289,16 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>572</v>
+        <v>443</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>573</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7313,10 +7312,10 @@
         <v>575</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7329,11 +7328,11 @@
       <c r="C97" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="D97" s="11" t="n">
-        <v>617</v>
+      <c r="D97" s="4" t="n">
+        <v>400</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,13 +7343,13 @@
         <v>578</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D98" s="4" t="n">
-        <v>382</v>
+        <v>579</v>
+      </c>
+      <c r="D98" s="10" t="n">
+        <v>617</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7358,16 +7357,16 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>580</v>
+        <v>445</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7381,10 +7380,10 @@
         <v>582</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7392,16 +7391,16 @@
         <v>301</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>24</v>
+        <v>583</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>371</v>
+        <v>498</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Babe" sheetId="1" state="visible" r:id="rId2"/>
@@ -1065,6 +1065,9 @@
     <t xml:space="preserve">7:04.252</t>
   </si>
   <si>
+    <t xml:space="preserve">7:05.493</t>
+  </si>
+  <si>
     <t xml:space="preserve">7:06.564</t>
   </si>
   <si>
@@ -1194,9 +1197,6 @@
     <t xml:space="preserve">7:55.405</t>
   </si>
   <si>
-    <t xml:space="preserve">7:59.944</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kelthaz</t>
   </si>
   <si>
@@ -1410,7 +1410,7 @@
     <t xml:space="preserve">5:18.886</t>
   </si>
   <si>
-    <t xml:space="preserve">5:21.623</t>
+    <t xml:space="preserve">5:18.920</t>
   </si>
   <si>
     <t xml:space="preserve">5:22.133</t>
@@ -2033,7 +2033,7 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G77" activeCellId="0" sqref="G77"/>
     </sheetView>
   </sheetViews>
@@ -3833,8 +3833,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>298.78</v>
+        <v>298.65</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -4542,16 +4542,16 @@
         <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>119</v>
+        <v>252</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>347</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,16 +4559,16 @@
         <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>266</v>
+        <v>119</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>348</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,13 +4576,13 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="D41" s="4" t="n">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>2</v>
@@ -4593,16 +4593,16 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>353</v>
+      <c r="D42" s="4" t="n">
+        <v>295</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,16 +4610,16 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,16 +4627,16 @@
         <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>215</v>
+        <v>355</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D44" s="4" t="n">
-        <v>289</v>
-      </c>
-      <c r="E44" s="4" t="n">
-        <v>1</v>
+      <c r="E44" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,13 +4644,13 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>358</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>1</v>
@@ -4661,16 +4661,16 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>360</v>
-      </c>
       <c r="D46" s="4" t="n">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,16 +4678,16 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>362</v>
-      </c>
       <c r="D47" s="4" t="n">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4695,16 +4695,16 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="D48" s="4" t="n">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,13 +4712,13 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="D49" s="4" t="n">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>2</v>
@@ -4729,16 +4729,16 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>296</v>
+        <v>366</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>367</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4746,16 +4746,16 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="D51" s="4" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,16 +4763,16 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>173</v>
+        <v>369</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>370</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4780,16 +4780,16 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="D53" s="4" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,16 +4797,16 @@
         <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="D54" s="4" t="n">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,16 +4814,16 @@
         <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>243</v>
+        <v>374</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>375</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,16 +4831,16 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>376</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,16 +4848,16 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="D57" s="4" t="n">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,16 +4865,16 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>356</v>
+      <c r="D58" s="4" t="n">
+        <v>288</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4882,16 +4882,16 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D59" s="4" t="n">
-        <v>298</v>
-      </c>
-      <c r="E59" s="4" t="n">
-        <v>3</v>
+      <c r="D59" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,16 +4899,16 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>384</v>
-      </c>
       <c r="D60" s="4" t="n">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4916,13 +4916,13 @@
         <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="D61" s="4" t="n">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>0</v>
@@ -4933,16 +4933,16 @@
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>388</v>
-      </c>
       <c r="D62" s="4" t="n">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4950,16 +4950,16 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>285</v>
+        <v>388</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>389</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4967,16 +4967,16 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>390</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,10 +5143,10 @@
         <v>407</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,10 +5160,10 @@
         <v>409</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5632,8 +5632,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>310.82</v>
+        <v>310.83</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -5721,7 +5721,7 @@
         <v>462</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>2</v>
@@ -6239,7 +6239,7 @@
         <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>491</v>
@@ -6256,7 +6256,7 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>326</v>
@@ -6273,7 +6273,7 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>492</v>
@@ -6307,7 +6307,7 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>494</v>
@@ -6443,7 +6443,7 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>504</v>
@@ -6511,7 +6511,7 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>509</v>
@@ -6528,16 +6528,16 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>510</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,7 +6579,7 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>513</v>
@@ -6630,7 +6630,7 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>516</v>
@@ -6762,16 +6762,16 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>527</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6796,7 +6796,7 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>530</v>
@@ -6813,7 +6813,7 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>531</v>
@@ -6949,7 +6949,7 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>543</v>
@@ -6966,7 +6966,7 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>544</v>
@@ -7006,10 +7006,10 @@
         <v>547</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7187,7 +7187,7 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>566</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="584">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -213,13 +213,22 @@
     <t xml:space="preserve">18.</t>
   </si>
   <si>
+    <t xml:space="preserve">Stego20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:15.850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.</t>
+  </si>
+  <si>
     <t xml:space="preserve">laayuman</t>
   </si>
   <si>
     <t xml:space="preserve">4:16.020</t>
   </si>
   <si>
-    <t xml:space="preserve">19.</t>
+    <t xml:space="preserve">20.</t>
   </si>
   <si>
     <t xml:space="preserve">Rustamaniacc_</t>
@@ -228,7 +237,7 @@
     <t xml:space="preserve">4:16.139</t>
   </si>
   <si>
-    <t xml:space="preserve">20.</t>
+    <t xml:space="preserve">21.</t>
   </si>
   <si>
     <t xml:space="preserve">Brungo</t>
@@ -237,7 +246,7 @@
     <t xml:space="preserve">4:16.173</t>
   </si>
   <si>
-    <t xml:space="preserve">21.</t>
+    <t xml:space="preserve">22.</t>
   </si>
   <si>
     <t xml:space="preserve">KurierDPD</t>
@@ -246,7 +255,7 @@
     <t xml:space="preserve">4:16.275</t>
   </si>
   <si>
-    <t xml:space="preserve">22.</t>
+    <t xml:space="preserve">23.</t>
   </si>
   <si>
     <t xml:space="preserve">Cartewns</t>
@@ -255,7 +264,7 @@
     <t xml:space="preserve">4:16.428</t>
   </si>
   <si>
-    <t xml:space="preserve">23.</t>
+    <t xml:space="preserve">24.</t>
   </si>
   <si>
     <t xml:space="preserve">Valmerix</t>
@@ -264,7 +273,7 @@
     <t xml:space="preserve">4:16.564</t>
   </si>
   <si>
-    <t xml:space="preserve">24.</t>
+    <t xml:space="preserve">25.</t>
   </si>
   <si>
     <t xml:space="preserve">Bonzai917</t>
@@ -273,15 +282,6 @@
     <t xml:space="preserve">4:16.615</t>
   </si>
   <si>
-    <t xml:space="preserve">25.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stego20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:16.632</t>
-  </si>
-  <si>
     <t xml:space="preserve">26.</t>
   </si>
   <si>
@@ -303,7 +303,7 @@
     <t xml:space="preserve">28.</t>
   </si>
   <si>
-    <t xml:space="preserve">Rips</t>
+    <t xml:space="preserve">latina</t>
   </si>
   <si>
     <t xml:space="preserve">4:17.023</t>
@@ -363,13 +363,22 @@
     <t xml:space="preserve">35.</t>
   </si>
   <si>
+    <t xml:space="preserve">20centt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:18.162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Onlyoyo</t>
   </si>
   <si>
     <t xml:space="preserve">4:18.502</t>
   </si>
   <si>
-    <t xml:space="preserve">36.</t>
+    <t xml:space="preserve">37.</t>
   </si>
   <si>
     <t xml:space="preserve">ike</t>
@@ -378,7 +387,7 @@
     <t xml:space="preserve">4:18.723</t>
   </si>
   <si>
-    <t xml:space="preserve">37.</t>
+    <t xml:space="preserve">38.</t>
   </si>
   <si>
     <t xml:space="preserve">CookieCrisp</t>
@@ -387,7 +396,7 @@
     <t xml:space="preserve">4:18.910</t>
   </si>
   <si>
-    <t xml:space="preserve">38.</t>
+    <t xml:space="preserve">39.</t>
   </si>
   <si>
     <t xml:space="preserve">Mpuddi</t>
@@ -396,7 +405,7 @@
     <t xml:space="preserve">4:18.978</t>
   </si>
   <si>
-    <t xml:space="preserve">39.</t>
+    <t xml:space="preserve">40.</t>
   </si>
   <si>
     <t xml:space="preserve">Lodinggggg</t>
@@ -405,7 +414,7 @@
     <t xml:space="preserve">4:19.318</t>
   </si>
   <si>
-    <t xml:space="preserve">40.</t>
+    <t xml:space="preserve">41.</t>
   </si>
   <si>
     <t xml:space="preserve">KosiechecK</t>
@@ -414,7 +423,7 @@
     <t xml:space="preserve">4:19.539</t>
   </si>
   <si>
-    <t xml:space="preserve">41.</t>
+    <t xml:space="preserve">42.</t>
   </si>
   <si>
     <t xml:space="preserve">Ny</t>
@@ -423,7 +432,7 @@
     <t xml:space="preserve">4:19.794</t>
   </si>
   <si>
-    <t xml:space="preserve">42.</t>
+    <t xml:space="preserve">43.</t>
   </si>
   <si>
     <t xml:space="preserve">joeknit</t>
@@ -432,7 +441,7 @@
     <t xml:space="preserve">4:20.406</t>
   </si>
   <si>
-    <t xml:space="preserve">43.</t>
+    <t xml:space="preserve">44.</t>
   </si>
   <si>
     <t xml:space="preserve">oHypix</t>
@@ -441,7 +450,7 @@
     <t xml:space="preserve">4:20.814</t>
   </si>
   <si>
-    <t xml:space="preserve">44.</t>
+    <t xml:space="preserve">45.</t>
   </si>
   <si>
     <t xml:space="preserve">Im_Okay</t>
@@ -450,7 +459,7 @@
     <t xml:space="preserve">4:20.831</t>
   </si>
   <si>
-    <t xml:space="preserve">45.</t>
+    <t xml:space="preserve">46.</t>
   </si>
   <si>
     <t xml:space="preserve">eskine</t>
@@ -459,7 +468,7 @@
     <t xml:space="preserve">4:21.103</t>
   </si>
   <si>
-    <t xml:space="preserve">46.</t>
+    <t xml:space="preserve">47.</t>
   </si>
   <si>
     <t xml:space="preserve">Poppo_</t>
@@ -468,15 +477,6 @@
     <t xml:space="preserve">4:21.409</t>
   </si>
   <si>
-    <t xml:space="preserve">47.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20centt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:21.562</t>
-  </si>
-  <si>
     <t xml:space="preserve">48.</t>
   </si>
   <si>
@@ -936,30 +936,30 @@
     <t xml:space="preserve">4:39.565</t>
   </si>
   <si>
+    <t xml:space="preserve">5:36.056</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:37.399</t>
   </si>
   <si>
     <t xml:space="preserve">5:38.538</t>
   </si>
   <si>
-    <t xml:space="preserve">5:38.657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:43.910</t>
+    <t xml:space="preserve">5:43.536</t>
   </si>
   <si>
     <t xml:space="preserve">5:44.335</t>
   </si>
   <si>
+    <t xml:space="preserve">5:45.525</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:47.140</t>
   </si>
   <si>
     <t xml:space="preserve">5:48.228</t>
   </si>
   <si>
-    <t xml:space="preserve">5:50.931</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:52.699</t>
   </si>
   <si>
@@ -1074,6 +1074,12 @@
     <t xml:space="preserve">7:11.341</t>
   </si>
   <si>
+    <t xml:space="preserve">Krack_1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:13.806</t>
+  </si>
+  <si>
     <t xml:space="preserve">sukezamon</t>
   </si>
   <si>
@@ -1260,15 +1266,15 @@
     <t xml:space="preserve">8:35.933</t>
   </si>
   <si>
+    <t xml:space="preserve">77.</t>
+  </si>
+  <si>
     <t xml:space="preserve">agreergaTW</t>
   </si>
   <si>
     <t xml:space="preserve">8:37.701</t>
   </si>
   <si>
-    <t xml:space="preserve">77.</t>
-  </si>
-  <si>
     <t xml:space="preserve">PrincessRosca</t>
   </si>
   <si>
@@ -1296,15 +1302,15 @@
     <t xml:space="preserve">8:51.114</t>
   </si>
   <si>
+    <t xml:space="preserve">83.</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_lizard</t>
   </si>
   <si>
     <t xml:space="preserve">8:58.220</t>
   </si>
   <si>
-    <t xml:space="preserve">83.</t>
-  </si>
-  <si>
     <t xml:space="preserve">TheMikuDrip</t>
   </si>
   <si>
@@ -1341,15 +1347,15 @@
     <t xml:space="preserve">9:19.487</t>
   </si>
   <si>
+    <t xml:space="preserve">90.</t>
+  </si>
+  <si>
     <t xml:space="preserve">BakedSpaghetti</t>
   </si>
   <si>
     <t xml:space="preserve">9:20.915</t>
   </si>
   <si>
-    <t xml:space="preserve">90.</t>
-  </si>
-  <si>
     <t xml:space="preserve">9:22.054</t>
   </si>
   <si>
@@ -1398,18 +1404,12 @@
     <t xml:space="preserve">9:55.289</t>
   </si>
   <si>
-    <t xml:space="preserve">YomenadiKumiko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:12.272</t>
+    <t xml:space="preserve">5:12.732</t>
   </si>
   <si>
     <t xml:space="preserve">5:16.370</t>
   </si>
   <si>
-    <t xml:space="preserve">5:18.886</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:18.920</t>
   </si>
   <si>
@@ -1425,6 +1425,9 @@
     <t xml:space="preserve">5:26.672</t>
   </si>
   <si>
+    <t xml:space="preserve">5:32.894</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:33.472</t>
   </si>
   <si>
@@ -1440,9 +1443,6 @@
     <t xml:space="preserve">5:40.663</t>
   </si>
   <si>
-    <t xml:space="preserve">5:40.969</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:42.533</t>
   </si>
   <si>
@@ -1594,9 +1594,6 @@
   </si>
   <si>
     <t xml:space="preserve">7:15.795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krack_1212</t>
   </si>
   <si>
     <t xml:space="preserve">7:16.934</t>
@@ -2033,8 +2030,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G77" activeCellId="0" sqref="G77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2105,11 +2102,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.66</v>
+        <v>229.74</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,10 +2406,10 @@
         <v>64</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2426,7 +2423,7 @@
         <v>67</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>0</v>
@@ -2443,7 +2440,7 @@
         <v>70</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
@@ -2460,7 +2457,7 @@
         <v>73</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
@@ -2477,7 +2474,7 @@
         <v>76</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
@@ -2494,7 +2491,7 @@
         <v>79</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
@@ -2511,7 +2508,7 @@
         <v>82</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
@@ -2528,7 +2525,7 @@
         <v>85</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
@@ -2698,7 +2695,7 @@
         <v>114</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>0</v>
@@ -2715,7 +2712,7 @@
         <v>117</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>0</v>
@@ -2732,7 +2729,7 @@
         <v>120</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>0</v>
@@ -2749,7 +2746,7 @@
         <v>123</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>0</v>
@@ -2766,7 +2763,7 @@
         <v>126</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>0</v>
@@ -2783,7 +2780,7 @@
         <v>129</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>0</v>
@@ -2799,8 +2796,8 @@
       <c r="C42" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="8" t="n">
-        <v>215</v>
+      <c r="D42" s="4" t="n">
+        <v>229</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>0</v>
@@ -2816,8 +2813,8 @@
       <c r="C43" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="4" t="n">
-        <v>226</v>
+      <c r="D43" s="8" t="n">
+        <v>215</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>0</v>
@@ -2834,7 +2831,7 @@
         <v>138</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>0</v>
@@ -2851,7 +2848,7 @@
         <v>141</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>0</v>
@@ -2868,7 +2865,7 @@
         <v>144</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>0</v>
@@ -2885,7 +2882,7 @@
         <v>147</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>0</v>
@@ -2902,7 +2899,7 @@
         <v>150</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>0</v>
@@ -3833,8 +3830,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3865,13 +3862,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>304</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>0</v>
@@ -3888,13 +3885,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>305</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0</v>
@@ -3904,11 +3901,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>298.65</v>
+        <v>298.16</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.74</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3916,13 +3913,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>306</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>0</v>
@@ -3939,7 +3936,7 @@
         <v>307</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>0</v>
@@ -3979,16 +3976,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -4003,13 +4000,13 @@
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>310</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>0</v>
@@ -4026,13 +4023,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>311</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>0</v>
@@ -4134,7 +4131,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>317</v>
@@ -4219,7 +4216,7 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>322</v>
@@ -4236,7 +4233,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>323</v>
@@ -4253,7 +4250,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>324</v>
@@ -4270,7 +4267,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>325</v>
@@ -4338,7 +4335,7 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>331</v>
@@ -4423,7 +4420,7 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>337</v>
@@ -4559,7 +4556,7 @@
         <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>348</v>
@@ -4599,7 +4596,7 @@
         <v>351</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>2</v>
@@ -4615,11 +4612,11 @@
       <c r="C43" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>354</v>
+      <c r="D43" s="4" t="n">
+        <v>295</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,16 +4624,16 @@
         <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,16 +4641,16 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>215</v>
+        <v>357</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D45" s="4" t="n">
-        <v>289</v>
-      </c>
-      <c r="E45" s="4" t="n">
-        <v>1</v>
+      <c r="D45" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4661,13 +4658,13 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>1</v>
@@ -4678,16 +4675,16 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>360</v>
+        <v>185</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4701,10 +4698,10 @@
         <v>363</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4718,10 +4715,10 @@
         <v>365</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4735,7 +4732,7 @@
         <v>367</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>2</v>
@@ -4746,16 +4743,16 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>296</v>
+        <v>368</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,16 +4760,16 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>370</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4780,16 +4777,16 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>173</v>
+        <v>371</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,16 +4794,16 @@
         <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>372</v>
+        <v>173</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>373</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,10 +4817,10 @@
         <v>375</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,16 +4828,16 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>243</v>
+        <v>376</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,16 +4845,16 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,16 +4862,16 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>378</v>
+        <v>273</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>379</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,11 +4884,11 @@
       <c r="C59" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>357</v>
+      <c r="D59" s="4" t="n">
+        <v>288</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,11 +4901,11 @@
       <c r="C60" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D60" s="4" t="n">
-        <v>298</v>
-      </c>
-      <c r="E60" s="4" t="n">
-        <v>3</v>
+      <c r="D60" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4922,10 +4919,10 @@
         <v>385</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4939,7 +4936,7 @@
         <v>387</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="E62" s="4" t="n">
         <v>0</v>
@@ -4956,10 +4953,10 @@
         <v>389</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4967,16 +4964,16 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,16 +4981,16 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>391</v>
+        <v>285</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>392</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,7 +5004,7 @@
         <v>394</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
@@ -5018,16 +5015,16 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>236</v>
+        <v>395</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,16 +5032,16 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,16 +5049,16 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>397</v>
+        <v>238</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>398</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,10 +5072,10 @@
         <v>400</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,7 +5089,7 @@
         <v>402</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E71" s="4" t="n">
         <v>0</v>
@@ -5109,10 +5106,10 @@
         <v>404</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,16 +5117,16 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>293</v>
+        <v>405</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5137,16 +5134,16 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>406</v>
+        <v>293</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>357</v>
+      <c r="D74" s="4" t="n">
+        <v>317</v>
+      </c>
+      <c r="E74" s="4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,10 +5157,10 @@
         <v>409</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,11 +5173,11 @@
       <c r="C76" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D76" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E76" s="4" t="n">
-        <v>6</v>
+      <c r="D76" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5194,7 +5191,7 @@
         <v>413</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E77" s="4" t="n">
         <v>6</v>
@@ -5211,10 +5208,10 @@
         <v>416</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5222,16 +5219,16 @@
         <v>239</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>276</v>
+        <v>417</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5239,16 +5236,16 @@
         <v>242</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>418</v>
+        <v>276</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>419</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,7 +5259,7 @@
         <v>421</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>4</v>
@@ -5279,10 +5276,10 @@
         <v>423</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5296,10 +5293,10 @@
         <v>425</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5313,10 +5310,10 @@
         <v>428</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5333,7 +5330,7 @@
         <v>334</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,10 +5344,10 @@
         <v>432</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5364,10 +5361,10 @@
         <v>434</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5381,10 +5378,10 @@
         <v>436</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5398,10 +5395,10 @@
         <v>438</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5415,10 +5412,10 @@
         <v>440</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5426,16 +5423,16 @@
         <v>441</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>110</v>
+        <v>442</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,16 +5440,16 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>443</v>
+        <v>110</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>444</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5460,16 +5457,16 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>134</v>
+        <v>445</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5477,16 +5474,16 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>446</v>
+        <v>137</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>447</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5494,16 +5491,16 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,16 +5508,16 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>449</v>
+        <v>224</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D96" s="10" t="n">
-        <v>412</v>
+      <c r="D96" s="4" t="n">
+        <v>398</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5528,16 +5525,16 @@
         <v>289</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>249</v>
+        <v>451</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D97" s="4" t="n">
-        <v>381</v>
+        <v>452</v>
+      </c>
+      <c r="D97" s="10" t="n">
+        <v>412</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5545,16 +5542,16 @@
         <v>292</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>452</v>
+        <v>249</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>453</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5568,10 +5565,10 @@
         <v>455</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5585,10 +5582,10 @@
         <v>457</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5602,10 +5599,10 @@
         <v>459</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5632,8 +5629,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5664,13 +5661,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D2" s="11" t="n">
-        <v>251</v>
+      <c r="D2" s="4" t="n">
+        <v>254</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>2</v>
@@ -5687,27 +5684,27 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>259</v>
+      <c r="D3" s="11" t="n">
+        <v>251</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>310.83</v>
+        <v>310.7</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5825,7 +5822,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>467</v>
@@ -5848,13 +5845,13 @@
         <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>468</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>2</v>
@@ -5865,16 +5862,16 @@
         <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>469</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5882,16 +5879,16 @@
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>470</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5899,13 +5896,13 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>471</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>2</v>
@@ -5916,13 +5913,13 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>472</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>2</v>
@@ -5950,7 +5947,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>474</v>
@@ -5967,7 +5964,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>475</v>
@@ -6018,7 +6015,7 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>478</v>
@@ -6069,7 +6066,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>481</v>
@@ -6103,7 +6100,7 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>483</v>
@@ -6188,7 +6185,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>488</v>
@@ -6239,7 +6236,7 @@
         <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>491</v>
@@ -6256,7 +6253,7 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>326</v>
@@ -6273,7 +6270,7 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>492</v>
@@ -6290,7 +6287,7 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>493</v>
@@ -6307,7 +6304,7 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>494</v>
@@ -6375,7 +6372,7 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>499</v>
@@ -6443,7 +6440,7 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>504</v>
@@ -6477,7 +6474,7 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>507</v>
@@ -6511,7 +6508,7 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>509</v>
@@ -6528,16 +6525,16 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>510</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,7 +6576,7 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>513</v>
@@ -6630,7 +6627,7 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>516</v>
@@ -6732,10 +6729,10 @@
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>525</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -6745,10 +6742,10 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>301</v>
@@ -6762,16 +6759,16 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6779,10 +6776,10 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>529</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>311</v>
@@ -6796,10 +6793,10 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>288</v>
@@ -6813,10 +6810,10 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>302</v>
@@ -6833,7 +6830,7 @@
         <v>224</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>328</v>
@@ -6847,10 +6844,10 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>534</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>316</v>
@@ -6864,10 +6861,10 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>308</v>
@@ -6881,10 +6878,10 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>389</v>
@@ -6898,10 +6895,10 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>539</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>343</v>
@@ -6915,10 +6912,10 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>329</v>
@@ -6932,10 +6929,10 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>329</v>
@@ -6949,10 +6946,10 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>347</v>
@@ -6966,10 +6963,10 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>310</v>
@@ -6986,7 +6983,7 @@
         <v>276</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>326</v>
@@ -7000,16 +6997,16 @@
         <v>414</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>547</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7017,10 +7014,10 @@
         <v>239</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>549</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>343</v>
@@ -7034,10 +7031,10 @@
         <v>242</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>550</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>551</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>330</v>
@@ -7051,10 +7048,10 @@
         <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>298</v>
@@ -7068,10 +7065,10 @@
         <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>555</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>394</v>
@@ -7085,10 +7082,10 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>557</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>325</v>
@@ -7102,10 +7099,10 @@
         <v>426</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>559</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>355</v>
@@ -7119,10 +7116,10 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>334</v>
@@ -7136,10 +7133,10 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>323</v>
@@ -7153,10 +7150,10 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>563</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>309</v>
@@ -7170,10 +7167,10 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>565</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>333</v>
@@ -7187,10 +7184,10 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>359</v>
@@ -7204,10 +7201,10 @@
         <v>270</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>381</v>
@@ -7221,10 +7218,10 @@
         <v>441</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>349</v>
@@ -7238,10 +7235,10 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>464</v>
@@ -7258,7 +7255,7 @@
         <v>240</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>339</v>
@@ -7275,7 +7272,7 @@
         <v>249</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>379</v>
@@ -7289,10 +7286,10 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>403</v>
@@ -7306,10 +7303,10 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>575</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>447</v>
@@ -7323,10 +7320,10 @@
         <v>289</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>400</v>
@@ -7340,10 +7337,10 @@
         <v>292</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>579</v>
       </c>
       <c r="D98" s="10" t="n">
         <v>617</v>
@@ -7357,10 +7354,10 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>382</v>
@@ -7374,10 +7371,10 @@
         <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>363</v>
@@ -7391,10 +7388,10 @@
         <v>301</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>584</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>498</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -936,7 +936,10 @@
     <t xml:space="preserve">4:39.565</t>
   </si>
   <si>
-    <t xml:space="preserve">5:36.056</t>
+    <t xml:space="preserve">5:34.696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:36.311</t>
   </si>
   <si>
     <t xml:space="preserve">5:37.399</t>
@@ -945,9 +948,6 @@
     <t xml:space="preserve">5:38.538</t>
   </si>
   <si>
-    <t xml:space="preserve">5:43.536</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:44.335</t>
   </si>
   <si>
@@ -1239,6 +1239,12 @@
     <t xml:space="preserve">8:15.805</t>
   </si>
   <si>
+    <t xml:space="preserve">MysticSooosu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:21.449</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shwift</t>
   </si>
   <si>
@@ -1260,15 +1266,15 @@
     <t xml:space="preserve">8:33.910</t>
   </si>
   <si>
+    <t xml:space="preserve">77.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Denryu</t>
   </si>
   <si>
     <t xml:space="preserve">8:35.933</t>
   </si>
   <si>
-    <t xml:space="preserve">77.</t>
-  </si>
-  <si>
     <t xml:space="preserve">agreergaTW</t>
   </si>
   <si>
@@ -1288,12 +1294,6 @@
   </si>
   <si>
     <t xml:space="preserve">8:49.839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MysticSooosu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:50.604</t>
   </si>
   <si>
     <t xml:space="preserve">Treize</t>
@@ -3830,8 +3830,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3868,7 +3868,7 @@
         <v>304</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>0</v>
@@ -3885,13 +3885,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>305</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0</v>
@@ -3901,11 +3901,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>298.16</v>
+        <v>297.96</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3913,13 +3913,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>306</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>0</v>
@@ -3930,13 +3930,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>307</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>0</v>
@@ -5123,10 +5123,10 @@
         <v>406</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,16 +5134,16 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>293</v>
+        <v>407</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,16 +5151,16 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>408</v>
+        <v>293</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>359</v>
+      <c r="D75" s="4" t="n">
+        <v>317</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,11 +5190,11 @@
       <c r="C77" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D77" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E77" s="4" t="n">
-        <v>6</v>
+      <c r="D77" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5208,7 +5208,7 @@
         <v>416</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E78" s="4" t="n">
         <v>6</v>
@@ -5225,10 +5225,10 @@
         <v>418</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5236,16 +5236,16 @@
         <v>242</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>276</v>
+        <v>419</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5253,16 +5253,16 @@
         <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>420</v>
+        <v>276</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>421</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5276,7 +5276,7 @@
         <v>423</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>559</v>
@@ -7133,7 +7133,7 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>560</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -1341,15 +1341,21 @@
     <t xml:space="preserve">9:05.547</t>
   </si>
   <si>
+    <t xml:space="preserve">Krystek13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:16.835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kazkade</t>
   </si>
   <si>
     <t xml:space="preserve">9:19.487</t>
   </si>
   <si>
-    <t xml:space="preserve">90.</t>
-  </si>
-  <si>
     <t xml:space="preserve">BakedSpaghetti</t>
   </si>
   <si>
@@ -1396,12 +1402,6 @@
   </si>
   <si>
     <t xml:space="preserve">9:51.889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DukeDukeDura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:55.289</t>
   </si>
   <si>
     <t xml:space="preserve">5:12.732</t>
@@ -3830,8 +3830,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E91" activeCellId="0" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3901,11 +3901,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>297.96</v>
+        <v>297.57</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5412,10 +5412,10 @@
         <v>440</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5429,10 +5429,10 @@
         <v>443</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,16 +5440,16 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>110</v>
+        <v>444</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5457,16 +5457,16 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>445</v>
+        <v>110</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>446</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5474,16 +5474,16 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>137</v>
+        <v>447</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,16 +5491,16 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>448</v>
+        <v>137</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>449</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5508,16 +5508,16 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>224</v>
+        <v>450</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5525,16 +5525,16 @@
         <v>289</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>451</v>
+        <v>224</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D97" s="10" t="n">
-        <v>412</v>
+      <c r="D97" s="4" t="n">
+        <v>398</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5542,16 +5542,16 @@
         <v>292</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>249</v>
+        <v>453</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D98" s="4" t="n">
-        <v>381</v>
+        <v>454</v>
+      </c>
+      <c r="D98" s="10" t="n">
+        <v>412</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5559,16 +5559,16 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>454</v>
+        <v>249</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>455</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5582,10 +5582,10 @@
         <v>457</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5599,10 +5599,10 @@
         <v>459</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6742,7 +6742,7 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>525</v>
@@ -7235,7 +7235,7 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>569</v>
@@ -7286,7 +7286,7 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>572</v>
@@ -7357,7 +7357,7 @@
         <v>579</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>382</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="583">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -543,13 +543,22 @@
     <t xml:space="preserve">55.</t>
   </si>
   <si>
+    <t xml:space="preserve">relisoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:23.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.</t>
+  </si>
+  <si>
     <t xml:space="preserve">eniplex</t>
   </si>
   <si>
     <t xml:space="preserve">4:23.126</t>
   </si>
   <si>
-    <t xml:space="preserve">56.</t>
+    <t xml:space="preserve">57.</t>
   </si>
   <si>
     <t xml:space="preserve">CrazyNeighbour714</t>
@@ -558,7 +567,7 @@
     <t xml:space="preserve">4:23.143</t>
   </si>
   <si>
-    <t xml:space="preserve">57.</t>
+    <t xml:space="preserve">58.</t>
   </si>
   <si>
     <t xml:space="preserve">texhnolyzem</t>
@@ -567,7 +576,7 @@
     <t xml:space="preserve">4:23.823</t>
   </si>
   <si>
-    <t xml:space="preserve">58.</t>
+    <t xml:space="preserve">59.</t>
   </si>
   <si>
     <t xml:space="preserve">Alanukan</t>
@@ -576,7 +585,7 @@
     <t xml:space="preserve">4:24.299</t>
   </si>
   <si>
-    <t xml:space="preserve">59.</t>
+    <t xml:space="preserve">60.</t>
   </si>
   <si>
     <t xml:space="preserve">Skromnique</t>
@@ -585,7 +594,7 @@
     <t xml:space="preserve">4:24.469</t>
   </si>
   <si>
-    <t xml:space="preserve">60.</t>
+    <t xml:space="preserve">61.</t>
   </si>
   <si>
     <t xml:space="preserve">henthans</t>
@@ -594,7 +603,7 @@
     <t xml:space="preserve">4:24.690</t>
   </si>
   <si>
-    <t xml:space="preserve">61.</t>
+    <t xml:space="preserve">62.</t>
   </si>
   <si>
     <t xml:space="preserve">sggu</t>
@@ -603,7 +612,7 @@
     <t xml:space="preserve">4:25.064</t>
   </si>
   <si>
-    <t xml:space="preserve">62.</t>
+    <t xml:space="preserve">63.</t>
   </si>
   <si>
     <t xml:space="preserve">samsamspada</t>
@@ -612,7 +621,7 @@
     <t xml:space="preserve">4:25.421</t>
   </si>
   <si>
-    <t xml:space="preserve">63.</t>
+    <t xml:space="preserve">64.</t>
   </si>
   <si>
     <t xml:space="preserve">Kenchan</t>
@@ -621,7 +630,7 @@
     <t xml:space="preserve">4:25.642</t>
   </si>
   <si>
-    <t xml:space="preserve">64.</t>
+    <t xml:space="preserve">65.</t>
   </si>
   <si>
     <t xml:space="preserve">mountains</t>
@@ -630,7 +639,7 @@
     <t xml:space="preserve">4:25.931</t>
   </si>
   <si>
-    <t xml:space="preserve">65.</t>
+    <t xml:space="preserve">66.</t>
   </si>
   <si>
     <t xml:space="preserve">zyx098</t>
@@ -639,7 +648,7 @@
     <t xml:space="preserve">4:27.257</t>
   </si>
   <si>
-    <t xml:space="preserve">66.</t>
+    <t xml:space="preserve">67.</t>
   </si>
   <si>
     <t xml:space="preserve">Em_ily</t>
@@ -648,7 +657,7 @@
     <t xml:space="preserve">4:28.073</t>
   </si>
   <si>
-    <t xml:space="preserve">67.</t>
+    <t xml:space="preserve">68.</t>
   </si>
   <si>
     <t xml:space="preserve">tetoloid</t>
@@ -657,7 +666,7 @@
     <t xml:space="preserve">4:28.345</t>
   </si>
   <si>
-    <t xml:space="preserve">68.</t>
+    <t xml:space="preserve">69.</t>
   </si>
   <si>
     <t xml:space="preserve">honzr</t>
@@ -666,7 +675,7 @@
     <t xml:space="preserve">4:32.918</t>
   </si>
   <si>
-    <t xml:space="preserve">69.</t>
+    <t xml:space="preserve">70.</t>
   </si>
   <si>
     <t xml:space="preserve">Crep</t>
@@ -675,7 +684,7 @@
     <t xml:space="preserve">4:33.513</t>
   </si>
   <si>
-    <t xml:space="preserve">70.</t>
+    <t xml:space="preserve">71.</t>
   </si>
   <si>
     <t xml:space="preserve">sisiza1771</t>
@@ -684,7 +693,16 @@
     <t xml:space="preserve">4:35.094</t>
   </si>
   <si>
-    <t xml:space="preserve">71.</t>
+    <t xml:space="preserve">72.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krack_1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:35.315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.</t>
   </si>
   <si>
     <t xml:space="preserve">HotLencia69</t>
@@ -693,7 +711,7 @@
     <t xml:space="preserve">4:35.332</t>
   </si>
   <si>
-    <t xml:space="preserve">72.</t>
+    <t xml:space="preserve">74.</t>
   </si>
   <si>
     <t xml:space="preserve">BsCloudy</t>
@@ -702,7 +720,7 @@
     <t xml:space="preserve">4:35.468</t>
   </si>
   <si>
-    <t xml:space="preserve">73.</t>
+    <t xml:space="preserve">75.</t>
   </si>
   <si>
     <t xml:space="preserve">SR_mochi</t>
@@ -711,7 +729,7 @@
     <t xml:space="preserve">4:35.723</t>
   </si>
   <si>
-    <t xml:space="preserve">74.</t>
+    <t xml:space="preserve">76.</t>
   </si>
   <si>
     <t xml:space="preserve">twitchpop</t>
@@ -720,16 +738,13 @@
     <t xml:space="preserve">4:35.791</t>
   </si>
   <si>
-    <t xml:space="preserve">75.</t>
-  </si>
-  <si>
     <t xml:space="preserve">BlackIron</t>
   </si>
   <si>
     <t xml:space="preserve">4:35.825</t>
   </si>
   <si>
-    <t xml:space="preserve">76.</t>
+    <t xml:space="preserve">78.</t>
   </si>
   <si>
     <t xml:space="preserve">Pirce59</t>
@@ -738,10 +753,13 @@
     <t xml:space="preserve">4:36.012</t>
   </si>
   <si>
+    <t xml:space="preserve">79.</t>
+  </si>
+  <si>
     <t xml:space="preserve">doctorRick</t>
   </si>
   <si>
-    <t xml:space="preserve">78.</t>
+    <t xml:space="preserve">80.</t>
   </si>
   <si>
     <t xml:space="preserve">Magiczny_00</t>
@@ -750,7 +768,7 @@
     <t xml:space="preserve">4:36.250</t>
   </si>
   <si>
-    <t xml:space="preserve">79.</t>
+    <t xml:space="preserve">81.</t>
   </si>
   <si>
     <t xml:space="preserve">M8N</t>
@@ -759,7 +777,7 @@
     <t xml:space="preserve">4:36.335</t>
   </si>
   <si>
-    <t xml:space="preserve">80.</t>
+    <t xml:space="preserve">82.</t>
   </si>
   <si>
     <t xml:space="preserve">oShorty</t>
@@ -768,16 +786,13 @@
     <t xml:space="preserve">4:36.590</t>
   </si>
   <si>
-    <t xml:space="preserve">81.</t>
-  </si>
-  <si>
     <t xml:space="preserve">GlowdFire</t>
   </si>
   <si>
     <t xml:space="preserve">4:36.828</t>
   </si>
   <si>
-    <t xml:space="preserve">82.</t>
+    <t xml:space="preserve">84.</t>
   </si>
   <si>
     <t xml:space="preserve">control_speed</t>
@@ -786,13 +801,16 @@
     <t xml:space="preserve">4:37.202</t>
   </si>
   <si>
+    <t xml:space="preserve">85.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wisteer_</t>
   </si>
   <si>
     <t xml:space="preserve">4:37.253</t>
   </si>
   <si>
-    <t xml:space="preserve">84.</t>
+    <t xml:space="preserve">86.</t>
   </si>
   <si>
     <t xml:space="preserve">yuyumon_nick</t>
@@ -801,7 +819,7 @@
     <t xml:space="preserve">4:37.559</t>
   </si>
   <si>
-    <t xml:space="preserve">85.</t>
+    <t xml:space="preserve">87.</t>
   </si>
   <si>
     <t xml:space="preserve">DJJake7</t>
@@ -810,7 +828,7 @@
     <t xml:space="preserve">4:37.610</t>
   </si>
   <si>
-    <t xml:space="preserve">86.</t>
+    <t xml:space="preserve">88.</t>
   </si>
   <si>
     <t xml:space="preserve">BotRaj</t>
@@ -819,7 +837,7 @@
     <t xml:space="preserve">4:37.729</t>
   </si>
   <si>
-    <t xml:space="preserve">87.</t>
+    <t xml:space="preserve">89.</t>
   </si>
   <si>
     <t xml:space="preserve">retsu_teno</t>
@@ -828,13 +846,10 @@
     <t xml:space="preserve">4:37.797</t>
   </si>
   <si>
-    <t xml:space="preserve">88.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chariot_Rider</t>
   </si>
   <si>
-    <t xml:space="preserve">89.</t>
+    <t xml:space="preserve">91.</t>
   </si>
   <si>
     <t xml:space="preserve">laza2115</t>
@@ -843,13 +858,16 @@
     <t xml:space="preserve">4:37.882</t>
   </si>
   <si>
+    <t xml:space="preserve">92.</t>
+  </si>
+  <si>
     <t xml:space="preserve">DolpIn_62</t>
   </si>
   <si>
     <t xml:space="preserve">4:38.392</t>
   </si>
   <si>
-    <t xml:space="preserve">91.</t>
+    <t xml:space="preserve">93.</t>
   </si>
   <si>
     <t xml:space="preserve">Okita_110</t>
@@ -858,7 +876,7 @@
     <t xml:space="preserve">4:38.596</t>
   </si>
   <si>
-    <t xml:space="preserve">92.</t>
+    <t xml:space="preserve">94.</t>
   </si>
   <si>
     <t xml:space="preserve">Siuuunic</t>
@@ -867,7 +885,7 @@
     <t xml:space="preserve">4:38.613</t>
   </si>
   <si>
-    <t xml:space="preserve">93.</t>
+    <t xml:space="preserve">95.</t>
   </si>
   <si>
     <t xml:space="preserve">BlueStormDragon</t>
@@ -876,7 +894,7 @@
     <t xml:space="preserve">4:38.698</t>
   </si>
   <si>
-    <t xml:space="preserve">94.</t>
+    <t xml:space="preserve">96.</t>
   </si>
   <si>
     <t xml:space="preserve">You_too</t>
@@ -885,13 +903,13 @@
     <t xml:space="preserve">4:38.868</t>
   </si>
   <si>
-    <t xml:space="preserve">95.</t>
+    <t xml:space="preserve">97.</t>
   </si>
   <si>
     <t xml:space="preserve">tsiiga</t>
   </si>
   <si>
-    <t xml:space="preserve">96.</t>
+    <t xml:space="preserve">98.</t>
   </si>
   <si>
     <t xml:space="preserve">Entorihi</t>
@@ -900,7 +918,7 @@
     <t xml:space="preserve">4:39.038</t>
   </si>
   <si>
-    <t xml:space="preserve">97.</t>
+    <t xml:space="preserve">99.</t>
   </si>
   <si>
     <t xml:space="preserve">caseyreese</t>
@@ -909,7 +927,7 @@
     <t xml:space="preserve">4:39.378</t>
   </si>
   <si>
-    <t xml:space="preserve">98.</t>
+    <t xml:space="preserve">100.</t>
   </si>
   <si>
     <t xml:space="preserve">2D_PPT</t>
@@ -918,30 +936,12 @@
     <t xml:space="preserve">4:39.446</t>
   </si>
   <si>
-    <t xml:space="preserve">99.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starshooter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:39.463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whisperysecret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:39.565</t>
+    <t xml:space="preserve">5:33.846</t>
   </si>
   <si>
     <t xml:space="preserve">5:34.696</t>
   </si>
   <si>
-    <t xml:space="preserve">5:36.311</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:37.399</t>
   </si>
   <si>
@@ -1074,9 +1074,6 @@
     <t xml:space="preserve">7:11.341</t>
   </si>
   <si>
-    <t xml:space="preserve">Krack_1212</t>
-  </si>
-  <si>
     <t xml:space="preserve">7:13.806</t>
   </si>
   <si>
@@ -1203,6 +1200,9 @@
     <t xml:space="preserve">7:55.405</t>
   </si>
   <si>
+    <t xml:space="preserve">7:59.893</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kelthaz</t>
   </si>
   <si>
@@ -1249,9 +1249,6 @@
   </si>
   <si>
     <t xml:space="preserve">8:26.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:27.501</t>
   </si>
   <si>
     <t xml:space="preserve">Lenrok</t>
@@ -1939,12 +1936,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2030,8 +2027,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2102,7 +2099,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.74</v>
+        <v>229.61</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -3035,7 +3032,7 @@
         <v>174</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>0</v>
@@ -3052,7 +3049,7 @@
         <v>177</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
@@ -3069,7 +3066,7 @@
         <v>180</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
@@ -3086,7 +3083,7 @@
         <v>183</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
@@ -3103,7 +3100,7 @@
         <v>186</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
@@ -3120,7 +3117,7 @@
         <v>189</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>0</v>
@@ -3137,7 +3134,7 @@
         <v>192</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E62" s="4" t="n">
         <v>0</v>
@@ -3154,7 +3151,7 @@
         <v>195</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>0</v>
@@ -3171,7 +3168,7 @@
         <v>198</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E64" s="4" t="n">
         <v>0</v>
@@ -3188,7 +3185,7 @@
         <v>201</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
@@ -3205,7 +3202,7 @@
         <v>204</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
@@ -3222,10 +3219,10 @@
         <v>207</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3239,10 +3236,10 @@
         <v>210</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,7 +3270,7 @@
         <v>216</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E70" s="4" t="n">
         <v>0</v>
@@ -3290,7 +3287,7 @@
         <v>219</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E71" s="4" t="n">
         <v>0</v>
@@ -3307,10 +3304,10 @@
         <v>222</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,10 +3321,10 @@
         <v>225</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,10 +3338,10 @@
         <v>228</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,7 +3355,7 @@
         <v>231</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>1</v>
@@ -3375,7 +3372,7 @@
         <v>234</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
@@ -3392,7 +3389,7 @@
         <v>237</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E77" s="4" t="n">
         <v>1</v>
@@ -3406,10 +3403,10 @@
         <v>238</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D78" s="4" t="n">
-        <v>228</v>
+        <v>239</v>
+      </c>
+      <c r="D78" s="9" t="n">
+        <v>245</v>
       </c>
       <c r="E78" s="4" t="n">
         <v>0</v>
@@ -3417,33 +3414,33 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="D80" s="4" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>0</v>
@@ -3460,7 +3457,7 @@
         <v>247</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>0</v>
@@ -3477,7 +3474,7 @@
         <v>250</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
@@ -3494,7 +3491,7 @@
         <v>253</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
@@ -3511,7 +3508,7 @@
         <v>255</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
@@ -3528,7 +3525,7 @@
         <v>258</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E85" s="4" t="n">
         <v>0</v>
@@ -3545,10 +3542,10 @@
         <v>261</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,7 +3559,7 @@
         <v>264</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E87" s="4" t="n">
         <v>0</v>
@@ -3579,24 +3576,24 @@
         <v>267</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="4" t="s">
         <v>269</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E89" s="4" t="n">
         <v>0</v>
@@ -3604,16 +3601,16 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E90" s="4" t="n">
         <v>0</v>
@@ -3621,16 +3618,16 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B91" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="D91" s="4" t="n">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E91" s="4" t="n">
         <v>0</v>
@@ -3647,7 +3644,7 @@
         <v>277</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E92" s="4" t="n">
         <v>0</v>
@@ -3664,7 +3661,7 @@
         <v>280</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E93" s="4" t="n">
         <v>0</v>
@@ -3681,7 +3678,7 @@
         <v>283</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E94" s="4" t="n">
         <v>0</v>
@@ -3698,7 +3695,7 @@
         <v>286</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="E95" s="4" t="n">
         <v>0</v>
@@ -3712,10 +3709,10 @@
         <v>288</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E96" s="4" t="n">
         <v>0</v>
@@ -3723,15 +3720,15 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D97" s="4" t="n">
+        <v>292</v>
+      </c>
+      <c r="D97" s="9" t="n">
         <v>245</v>
       </c>
       <c r="E97" s="4" t="n">
@@ -3740,16 +3737,16 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="D98" s="4" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E98" s="4" t="n">
         <v>0</v>
@@ -3765,8 +3762,8 @@
       <c r="C99" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D99" s="4" t="n">
-        <v>229</v>
+      <c r="D99" s="9" t="n">
+        <v>245</v>
       </c>
       <c r="E99" s="4" t="n">
         <v>0</v>
@@ -3782,8 +3779,8 @@
       <c r="C100" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D100" s="10" t="n">
-        <v>252</v>
+      <c r="D100" s="4" t="n">
+        <v>226</v>
       </c>
       <c r="E100" s="4" t="n">
         <v>0</v>
@@ -3800,7 +3797,7 @@
         <v>303</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E101" s="4" t="n">
         <v>0</v>
@@ -3830,8 +3827,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E91" activeCellId="0" sqref="E91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E67" activeCellId="0" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3862,13 +3859,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>304</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>0</v>
@@ -3885,13 +3882,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>305</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0</v>
@@ -3901,11 +3898,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>297.57</v>
+        <v>297.58</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,7 +4179,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>320</v>
@@ -4352,7 +4349,7 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>332</v>
@@ -4454,7 +4451,7 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>341</v>
@@ -4488,7 +4485,7 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>344</v>
@@ -4522,7 +4519,7 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>346</v>
@@ -4539,7 +4536,7 @@
         <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>347</v>
@@ -4573,7 +4570,7 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>349</v>
@@ -4590,10 +4587,10 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>294</v>
@@ -4607,10 +4604,10 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>295</v>
@@ -4624,16 +4621,16 @@
         <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4641,16 +4638,16 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="E45" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,10 +4655,10 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>289</v>
@@ -4675,10 +4672,10 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>313</v>
@@ -4692,10 +4689,10 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>295</v>
@@ -4709,10 +4706,10 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>282</v>
@@ -4726,10 +4723,10 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>299</v>
@@ -4743,10 +4740,10 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>273</v>
@@ -4760,10 +4757,10 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>291</v>
@@ -4777,10 +4774,10 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>284</v>
@@ -4794,10 +4791,10 @@
         <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>278</v>
@@ -4811,10 +4808,10 @@
         <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>277</v>
@@ -4828,10 +4825,10 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>377</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>338</v>
@@ -4845,10 +4842,10 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>294</v>
@@ -4862,10 +4859,10 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>317</v>
@@ -4879,10 +4876,10 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>288</v>
@@ -4896,16 +4893,16 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="D60" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,10 +4910,10 @@
         <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>385</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>298</v>
@@ -4930,10 +4927,10 @@
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>316</v>
@@ -4947,10 +4944,10 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>293</v>
@@ -4964,10 +4961,10 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>306</v>
@@ -4981,10 +4978,10 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>326</v>
@@ -4998,16 +4995,16 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>393</v>
+        <v>299</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5015,13 +5012,13 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>0</v>
@@ -5032,16 +5029,16 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>236</v>
+        <v>395</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,16 +5046,16 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5066,16 +5063,16 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>399</v>
+        <v>244</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5083,16 +5080,16 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5100,13 +5097,13 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E72" s="4" t="n">
         <v>0</v>
@@ -5117,16 +5114,16 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,16 +5131,16 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,16 +5148,16 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>293</v>
+        <v>407</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,16 +5165,16 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>411</v>
-      </c>
       <c r="D76" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5185,27 +5182,27 @@
         <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>416</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>294</v>
@@ -5216,13 +5213,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>307</v>
@@ -5233,13 +5230,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>334</v>
@@ -5253,10 +5250,10 @@
         <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>305</v>
@@ -5270,10 +5267,10 @@
         <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>295</v>
@@ -5287,10 +5284,10 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>303</v>
@@ -5301,13 +5298,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>355</v>
@@ -5321,10 +5318,10 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>334</v>
@@ -5338,10 +5335,10 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>432</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>334</v>
@@ -5355,10 +5352,10 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>356</v>
@@ -5372,10 +5369,10 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>309</v>
@@ -5389,10 +5386,10 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>319</v>
@@ -5403,13 +5400,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>310</v>
@@ -5420,13 +5417,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>366</v>
@@ -5440,10 +5437,10 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>303</v>
@@ -5460,7 +5457,7 @@
         <v>110</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>399</v>
@@ -5474,10 +5471,10 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>305</v>
@@ -5494,7 +5491,7 @@
         <v>137</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>368</v>
@@ -5508,10 +5505,10 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>451</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>316</v>
@@ -5522,13 +5519,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>398</v>
@@ -5539,15 +5536,15 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D98" s="10" t="n">
+      <c r="D98" s="9" t="n">
         <v>412</v>
       </c>
       <c r="E98" s="4" t="n">
@@ -5559,10 +5556,10 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>381</v>
@@ -5576,10 +5573,10 @@
         <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>457</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>297</v>
@@ -5593,10 +5590,10 @@
         <v>301</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>361</v>
@@ -5664,7 +5661,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>254</v>
@@ -5687,7 +5684,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D3" s="11" t="n">
         <v>251</v>
@@ -5715,7 +5712,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>256</v>
@@ -5732,7 +5729,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>261</v>
@@ -5755,7 +5752,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>255</v>
@@ -5778,7 +5775,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>255</v>
@@ -5802,7 +5799,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>272</v>
@@ -5825,7 +5822,7 @@
         <v>96</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>257</v>
@@ -5848,7 +5845,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>257</v>
@@ -5865,7 +5862,7 @@
         <v>72</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>267</v>
@@ -5882,7 +5879,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>270</v>
@@ -5899,7 +5896,7 @@
         <v>107</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>252</v>
@@ -5916,7 +5913,7 @@
         <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>268</v>
@@ -5930,10 +5927,10 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>260</v>
@@ -5950,7 +5947,7 @@
         <v>146</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>262</v>
@@ -5967,7 +5964,7 @@
         <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>283</v>
@@ -5984,7 +5981,7 @@
         <v>104</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>261</v>
@@ -6001,7 +5998,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>263</v>
@@ -6018,7 +6015,7 @@
         <v>81</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>262</v>
@@ -6035,7 +6032,7 @@
         <v>329</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>267</v>
@@ -6052,7 +6049,7 @@
         <v>51</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>268</v>
@@ -6069,7 +6066,7 @@
         <v>75</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>274</v>
@@ -6086,7 +6083,7 @@
         <v>161</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>268</v>
@@ -6103,7 +6100,7 @@
         <v>119</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>283</v>
@@ -6117,10 +6114,10 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>281</v>
@@ -6134,10 +6131,10 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>269</v>
@@ -6154,7 +6151,7 @@
         <v>155</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>279</v>
@@ -6171,7 +6168,7 @@
         <v>167</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>283</v>
@@ -6188,7 +6185,7 @@
         <v>395</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>284</v>
@@ -6202,10 +6199,10 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>287</v>
@@ -6219,10 +6216,10 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>274</v>
@@ -6236,10 +6233,10 @@
         <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>264</v>
@@ -6253,7 +6250,7 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>326</v>
@@ -6270,10 +6267,10 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>273</v>
@@ -6290,7 +6287,7 @@
         <v>122</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>281</v>
@@ -6304,10 +6301,10 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>281</v>
@@ -6321,10 +6318,10 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>288</v>
@@ -6338,10 +6335,10 @@
         <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>497</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>291</v>
@@ -6355,10 +6352,10 @@
         <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>293</v>
@@ -6375,7 +6372,7 @@
         <v>134</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>280</v>
@@ -6389,10 +6386,10 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>297</v>
@@ -6406,10 +6403,10 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>275</v>
@@ -6423,10 +6420,10 @@
         <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>276</v>
@@ -6440,10 +6437,10 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>300</v>
@@ -6457,10 +6454,10 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>506</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>286</v>
@@ -6477,7 +6474,7 @@
         <v>140</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>292</v>
@@ -6491,10 +6488,10 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>305</v>
@@ -6508,10 +6505,10 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>323</v>
@@ -6525,16 +6522,16 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6542,10 +6539,10 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>294</v>
@@ -6559,10 +6556,10 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>312</v>
@@ -6576,10 +6573,10 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>295</v>
@@ -6593,10 +6590,10 @@
         <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>305</v>
@@ -6610,10 +6607,10 @@
         <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>515</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>339</v>
@@ -6627,10 +6624,10 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>310</v>
@@ -6644,10 +6641,10 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>288</v>
@@ -6661,10 +6658,10 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>311</v>
@@ -6678,10 +6675,10 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>304</v>
@@ -6695,10 +6692,10 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>304</v>
@@ -6712,10 +6709,10 @@
         <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>523</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>331</v>
@@ -6729,10 +6726,10 @@
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -6742,10 +6739,10 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>301</v>
@@ -6759,16 +6756,16 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6776,10 +6773,10 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>311</v>
@@ -6793,10 +6790,10 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>288</v>
@@ -6810,10 +6807,10 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>302</v>
@@ -6827,10 +6824,10 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>328</v>
@@ -6844,10 +6841,10 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>532</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>533</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>316</v>
@@ -6864,7 +6861,7 @@
         <v>401</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>308</v>
@@ -6878,10 +6875,10 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>536</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>389</v>
@@ -6895,10 +6892,10 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>537</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>538</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>343</v>
@@ -6915,7 +6912,7 @@
         <v>149</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>329</v>
@@ -6929,10 +6926,10 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>329</v>
@@ -6946,10 +6943,10 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>347</v>
@@ -6963,10 +6960,10 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>310</v>
@@ -6980,10 +6977,10 @@
         <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>326</v>
@@ -6994,30 +6991,30 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>546</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>548</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>343</v>
@@ -7028,13 +7025,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>549</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>550</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>330</v>
@@ -7048,10 +7045,10 @@
         <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>298</v>
@@ -7065,10 +7062,10 @@
         <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>394</v>
@@ -7082,10 +7079,10 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>325</v>
@@ -7096,13 +7093,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>558</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>355</v>
@@ -7116,10 +7113,10 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>334</v>
@@ -7136,7 +7133,7 @@
         <v>405</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>323</v>
@@ -7150,10 +7147,10 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>562</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>309</v>
@@ -7167,10 +7164,10 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>564</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>333</v>
@@ -7184,10 +7181,10 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>359</v>
@@ -7198,13 +7195,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>567</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>381</v>
@@ -7215,13 +7212,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>349</v>
@@ -7235,10 +7232,10 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>464</v>
@@ -7252,10 +7249,10 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>339</v>
@@ -7269,10 +7266,10 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>379</v>
@@ -7286,10 +7283,10 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>403</v>
@@ -7303,10 +7300,10 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>447</v>
@@ -7317,13 +7314,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>576</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>400</v>
@@ -7334,15 +7331,15 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D98" s="10" t="n">
+      <c r="D98" s="9" t="n">
         <v>617</v>
       </c>
       <c r="E98" s="4" t="n">
@@ -7354,10 +7351,10 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>382</v>
@@ -7371,10 +7368,10 @@
         <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>581</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>363</v>
@@ -7388,10 +7385,10 @@
         <v>301</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>583</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>498</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -1200,6 +1200,12 @@
     <t xml:space="preserve">7:55.405</t>
   </si>
   <si>
+    <t xml:space="preserve">MysticSooosu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:56.595</t>
+  </si>
+  <si>
     <t xml:space="preserve">7:59.893</t>
   </si>
   <si>
@@ -1237,12 +1243,6 @@
   </si>
   <si>
     <t xml:space="preserve">8:15.805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MysticSooosu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:21.449</t>
   </si>
   <si>
     <t xml:space="preserve">Shwift</t>
@@ -3827,7 +3827,7 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E67" activeCellId="0" sqref="E67"/>
     </sheetView>
   </sheetViews>
@@ -3898,11 +3898,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>297.58</v>
+        <v>297.44</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,16 +4995,16 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>299</v>
+        <v>392</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5012,16 +5012,16 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>393</v>
+        <v>299</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>394</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,7 +5035,7 @@
         <v>396</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
@@ -5046,16 +5046,16 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>241</v>
+        <v>397</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,16 +5063,16 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,16 +5080,16 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>399</v>
+        <v>244</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>400</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,10 +5103,10 @@
         <v>402</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +5120,7 @@
         <v>404</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
@@ -5137,10 +5137,10 @@
         <v>406</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6182,7 +6182,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>487</v>
@@ -6858,7 +6858,7 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>533</v>
@@ -7130,7 +7130,7 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>559</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -948,12 +948,12 @@
     <t xml:space="preserve">5:38.538</t>
   </si>
   <si>
+    <t xml:space="preserve">5:43.213</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:44.335</t>
   </si>
   <si>
-    <t xml:space="preserve">5:45.525</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:47.140</t>
   </si>
   <si>
@@ -1245,6 +1245,12 @@
     <t xml:space="preserve">8:15.805</t>
   </si>
   <si>
+    <t xml:space="preserve">Speedee35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:20.922</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shwift</t>
   </si>
   <si>
@@ -1257,15 +1263,15 @@
     <t xml:space="preserve">8:31.496</t>
   </si>
   <si>
+    <t xml:space="preserve">77.</t>
+  </si>
+  <si>
     <t xml:space="preserve">sfhsfh100</t>
   </si>
   <si>
     <t xml:space="preserve">8:33.910</t>
   </si>
   <si>
-    <t xml:space="preserve">77.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Denryu</t>
   </si>
   <si>
@@ -1293,15 +1299,15 @@
     <t xml:space="preserve">8:49.839</t>
   </si>
   <si>
+    <t xml:space="preserve">83.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Treize</t>
   </si>
   <si>
     <t xml:space="preserve">8:51.114</t>
   </si>
   <si>
-    <t xml:space="preserve">83.</t>
-  </si>
-  <si>
     <t xml:space="preserve">n_lizard</t>
   </si>
   <si>
@@ -1338,15 +1344,15 @@
     <t xml:space="preserve">9:05.547</t>
   </si>
   <si>
+    <t xml:space="preserve">90.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Krystek13</t>
   </si>
   <si>
     <t xml:space="preserve">9:16.835</t>
   </si>
   <si>
-    <t xml:space="preserve">90.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kazkade</t>
   </si>
   <si>
@@ -1393,12 +1399,6 @@
   </si>
   <si>
     <t xml:space="preserve">9:43.015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaitorWUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:51.889</t>
   </si>
   <si>
     <t xml:space="preserve">5:12.732</t>
@@ -3827,8 +3827,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E67" activeCellId="0" sqref="E67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E76" activeCellId="0" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>297.44</v>
+        <v>296.71</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -3950,16 +3950,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>308</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>22</v>
@@ -3973,16 +3973,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -5154,10 +5154,10 @@
         <v>408</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5170,11 +5170,11 @@
       <c r="C76" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>358</v>
+      <c r="D76" s="4" t="n">
+        <v>291</v>
+      </c>
+      <c r="E76" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5204,11 +5204,11 @@
       <c r="C78" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D78" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E78" s="4" t="n">
-        <v>6</v>
+      <c r="D78" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5222,7 +5222,7 @@
         <v>417</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>6</v>
@@ -5239,10 +5239,10 @@
         <v>419</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5250,16 +5250,16 @@
         <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>282</v>
+        <v>420</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5267,16 +5267,16 @@
         <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>421</v>
+        <v>282</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>422</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,10 +5290,10 @@
         <v>424</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5307,10 +5307,10 @@
         <v>427</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5324,10 +5324,10 @@
         <v>429</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,7 +5344,7 @@
         <v>334</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5358,10 +5358,10 @@
         <v>433</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5375,10 +5375,10 @@
         <v>435</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,10 +5392,10 @@
         <v>437</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5409,7 +5409,7 @@
         <v>439</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E90" s="4" t="n">
         <v>5</v>
@@ -5426,10 +5426,10 @@
         <v>442</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,10 +5443,10 @@
         <v>444</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5454,16 +5454,16 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>110</v>
+        <v>445</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5471,16 +5471,16 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>446</v>
+        <v>110</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>447</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,16 +5488,16 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>137</v>
+        <v>448</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5505,16 +5505,16 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>449</v>
+        <v>137</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>450</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5522,16 +5522,16 @@
         <v>290</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>230</v>
+        <v>451</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5539,16 +5539,16 @@
         <v>293</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>452</v>
+        <v>230</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D98" s="9" t="n">
-        <v>412</v>
+      <c r="D98" s="4" t="n">
+        <v>398</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5556,16 +5556,16 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>254</v>
+        <v>454</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D99" s="4" t="n">
-        <v>381</v>
+        <v>455</v>
+      </c>
+      <c r="D99" s="9" t="n">
+        <v>412</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5573,16 +5573,16 @@
         <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>455</v>
+        <v>254</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>456</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5596,10 +5596,10 @@
         <v>458</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6739,7 +6739,7 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>524</v>
@@ -7113,7 +7113,7 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>558</v>
@@ -7232,7 +7232,7 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>568</v>
@@ -7283,7 +7283,7 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>571</v>
@@ -7354,7 +7354,7 @@
         <v>578</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>382</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -969,7 +969,7 @@
     <t xml:space="preserve">5:57.153</t>
   </si>
   <si>
-    <t xml:space="preserve">5:59.550</t>
+    <t xml:space="preserve">5:57.476</t>
   </si>
   <si>
     <t xml:space="preserve">6:04.803</t>
@@ -3827,8 +3827,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E76" activeCellId="0" sqref="E76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3898,11 +3898,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>296.71</v>
+        <v>296.51</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,10 +4100,10 @@
         <v>315</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Babe" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="582">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -738,6 +738,9 @@
     <t xml:space="preserve">4:35.791</t>
   </si>
   <si>
+    <t xml:space="preserve">77.</t>
+  </si>
+  <si>
     <t xml:space="preserve">BlackIron</t>
   </si>
   <si>
@@ -753,636 +756,633 @@
     <t xml:space="preserve">4:36.012</t>
   </si>
   <si>
+    <t xml:space="preserve">doctorRick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magiczny_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:36.250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M8N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:36.335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oShorty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:36.590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlowdFire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:36.828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control_speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisteer_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuyumon_nick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJJake7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BotRaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retsu_teno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chariot_Rider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laza2115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DolpIn_62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:38.392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okita_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:38.596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siuuunic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:38.613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlueStormDragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:38.698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You_too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:38.868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsiiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entorihi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:39.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caseyreese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:39.378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D_PPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:39.446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:33.846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:34.696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:37.399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:38.538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:43.213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:44.335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:47.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:48.228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:52.699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:56.745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:57.153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:57.476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:04.803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:05.483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:07.608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:10.073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:12.895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:12.946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:19.797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:20.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:20.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:22.806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:24.064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miyagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:25.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cjm8026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:26.699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:30.184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:32.649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:33.635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drgrrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:36.083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:39.993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:46.946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joebannks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toskania_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:51.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:58.166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:04.252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:05.493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:06.564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:11.341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:13.806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sukezamon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:23.836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yorimitijido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:24.737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gr3mXR3apa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:26.930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:28.266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:29.667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aotogarashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:32.506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:32.591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skatman117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:34.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackANTIvenom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:34.172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:35.311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resolver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:35.383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:35.872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dennydon2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:39.051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1ink01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:44.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:44.355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:48.333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitas2222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:49.523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personakun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:51.189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be5moti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:52.090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:52.974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JackJJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:53.739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solwf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:53.909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:55.405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MysticSooosu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:56.595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:59.893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelthaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:59.961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocofondue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:02.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:04.619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:06.914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3BLANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:12.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali.Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:13.391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario568151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:15.805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speedee35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:20.922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shwift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:26.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenrok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:31.496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfhsfh100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:33.910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denryu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:35.933</t>
+  </si>
+  <si>
     <t xml:space="preserve">79.</t>
   </si>
   <si>
-    <t xml:space="preserve">doctorRick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magiczny_00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:36.250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M8N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:36.335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oShorty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:36.590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlowdFire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:36.828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control_speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisteer_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yuyumon_nick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJJake7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BotRaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retsu_teno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chariot_Rider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laza2115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DolpIn_62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:38.392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okita_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:38.596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siuuunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:38.613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlueStormDragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:38.698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You_too</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:38.868</t>
+    <t xml:space="preserve">agreergaTW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:37.701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrincessRosca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:48.122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:48.275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sajrra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:49.839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:51.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_lizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:58.220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheMikuDrip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:59.648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aydelotte8950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:02.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k3ruba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:05.122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thinklater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:05.513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pahapatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:05.547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krystek13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:16.835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazkade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:19.487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BakedSpaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:20.915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:22.054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GingerGiant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:23.533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:26.542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDDoctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:27.800</t>
   </si>
   <si>
     <t xml:space="preserve">97.</t>
   </si>
   <si>
-    <t xml:space="preserve">tsiiga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entorihi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:39.038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caseyreese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:39.378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2D_PPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:39.446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:33.846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:34.696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:37.399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:38.538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:43.213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:44.335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:47.140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:48.228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:52.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:56.745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:57.153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:57.476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:04.803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:05.483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:07.608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:10.073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:12.895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:12.946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:19.797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:20.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:20.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:22.806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:24.064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miyagi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:25.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cjm8026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:26.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:30.184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:32.649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:33.635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drgrrr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:36.083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:39.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:46.946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joebannks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toskania_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:51.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:58.166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:04.252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:05.493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:06.564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:11.341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:13.806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sukezamon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:23.836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yorimitijido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:24.737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gr3mXR3apa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:26.930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:28.266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:29.667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aotogarashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:32.506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bogman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:32.591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skatman117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:34.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackANTIvenom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:34.172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:35.311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resolver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:35.383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:35.872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dennydon2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:39.051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1ink01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:44.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:44.355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:48.333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitas2222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:49.523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personakun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:51.189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be5moti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:52.090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:52.974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JackJJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:53.739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solwf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:53.909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:55.405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MysticSooosu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:56.595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:59.893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelthaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:59.961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chocofondue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:02.375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:04.619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:06.914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3BLANC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:12.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ali.Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:13.391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mario568151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:15.805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speedee35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:20.922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shwift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:26.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenrok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:31.496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfhsfh100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:33.910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denryu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:35.933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agreergaTW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:37.701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrincessRosca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:48.122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:48.275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sajrra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:49.839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:51.114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_lizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:58.220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TheMikuDrip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:59.648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aydelotte8950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:02.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k3ruba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:05.122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thinklater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:05.513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pahapatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:05.547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krystek13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:16.835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazkade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:19.487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BakedSpaghetti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:20.915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:22.054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GingerGiant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:23.533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:26.542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDDoctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:27.800</t>
-  </si>
-  <si>
     <t xml:space="preserve">9:28.990</t>
   </si>
   <si>
@@ -1491,6 +1491,12 @@
     <t xml:space="preserve">6:16.023</t>
   </si>
   <si>
+    <t xml:space="preserve">balamie7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:18.182</t>
+  </si>
+  <si>
     <t xml:space="preserve">6:20.851</t>
   </si>
   <si>
@@ -1536,12 +1542,6 @@
     <t xml:space="preserve">6:44.889</t>
   </si>
   <si>
-    <t xml:space="preserve">balamie7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:48.867</t>
-  </si>
-  <si>
     <t xml:space="preserve">6:49.683</t>
   </si>
   <si>
@@ -1686,7 +1686,13 @@
     <t xml:space="preserve">8:08.053</t>
   </si>
   <si>
-    <t xml:space="preserve">Stroll_39</t>
+    <t xml:space="preserve">FugalShooter69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:10.348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stroll_39</t>
   </si>
   <si>
     <t xml:space="preserve">8:12.218</t>
@@ -1752,6 +1758,9 @@
     <t xml:space="preserve">9:20.966</t>
   </si>
   <si>
+    <t xml:space="preserve">9:21.765</t>
+  </si>
+  <si>
     <t xml:space="preserve">k4napan</t>
   </si>
   <si>
@@ -1759,18 +1768,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zebresh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TanteMariane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:32.815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con_s1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:38.238</t>
   </si>
 </sst>
 </file>
@@ -2027,8 +2024,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3397,13 +3394,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D78" s="9" t="n">
         <v>245</v>
@@ -3414,13 +3411,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>227</v>
@@ -3431,13 +3428,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>228</v>
@@ -3737,10 +3734,10 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>292</v>
@@ -3754,13 +3751,13 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="D99" s="9" t="n">
         <v>245</v>
@@ -3771,13 +3768,13 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>226</v>
@@ -3788,13 +3785,13 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>229</v>
@@ -3827,8 +3824,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3862,7 +3859,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>264</v>
@@ -3885,7 +3882,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>269</v>
@@ -3913,7 +3910,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>304</v>
@@ -3930,7 +3927,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>263</v>
@@ -3953,7 +3950,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>265</v>
@@ -3976,7 +3973,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>255</v>
@@ -4000,7 +3997,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>278</v>
@@ -4023,7 +4020,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>268</v>
@@ -4046,7 +4043,7 @@
         <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>264</v>
@@ -4063,7 +4060,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>262</v>
@@ -4080,7 +4077,7 @@
         <v>96</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>269</v>
@@ -4097,7 +4094,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>275</v>
@@ -4114,7 +4111,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>269</v>
@@ -4131,7 +4128,7 @@
         <v>149</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>265</v>
@@ -4148,7 +4145,7 @@
         <v>107</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>265</v>
@@ -4165,7 +4162,7 @@
         <v>161</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>261</v>
@@ -4182,7 +4179,7 @@
         <v>179</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D18" s="11" t="n">
         <v>249</v>
@@ -4199,7 +4196,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>306</v>
@@ -4216,7 +4213,7 @@
         <v>134</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>252</v>
@@ -4233,7 +4230,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>264</v>
@@ -4250,7 +4247,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>291</v>
@@ -4267,7 +4264,7 @@
         <v>119</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>267</v>
@@ -4284,7 +4281,7 @@
         <v>167</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>286</v>
@@ -4298,10 +4295,10 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>260</v>
@@ -4315,10 +4312,10 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>268</v>
@@ -4335,7 +4332,7 @@
         <v>75</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>265</v>
@@ -4352,7 +4349,7 @@
         <v>263</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>275</v>
@@ -4369,7 +4366,7 @@
         <v>155</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>294</v>
@@ -4383,10 +4380,10 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>273</v>
@@ -4403,7 +4400,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>285</v>
@@ -4420,7 +4417,7 @@
         <v>140</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>291</v>
@@ -4431,13 +4428,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>280</v>
@@ -4454,7 +4451,7 @@
         <v>221</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>273</v>
@@ -4468,10 +4465,10 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>290</v>
@@ -4488,7 +4485,7 @@
         <v>212</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>281</v>
@@ -4505,7 +4502,7 @@
         <v>51</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>296</v>
@@ -4522,7 +4519,7 @@
         <v>206</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>280</v>
@@ -4539,7 +4536,7 @@
         <v>257</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>282</v>
@@ -4556,7 +4553,7 @@
         <v>122</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>270</v>
@@ -4573,7 +4570,7 @@
         <v>272</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>277</v>
@@ -4590,7 +4587,7 @@
         <v>224</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>294</v>
@@ -4604,10 +4601,10 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>295</v>
@@ -4621,16 +4618,16 @@
         <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,16 +4635,16 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>358</v>
-      </c>
       <c r="E45" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,7 +4655,7 @@
         <v>218</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>289</v>
@@ -4675,7 +4672,7 @@
         <v>188</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>313</v>
@@ -4689,10 +4686,10 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>295</v>
@@ -4706,10 +4703,10 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>282</v>
@@ -4723,10 +4720,10 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>299</v>
@@ -4740,10 +4737,10 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>273</v>
@@ -4757,10 +4754,10 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>291</v>
@@ -4774,10 +4771,10 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>284</v>
@@ -4794,7 +4791,7 @@
         <v>176</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>278</v>
@@ -4808,10 +4805,10 @@
         <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>277</v>
@@ -4825,10 +4822,10 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>338</v>
@@ -4845,7 +4842,7 @@
         <v>249</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>294</v>
@@ -4862,7 +4859,7 @@
         <v>279</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>317</v>
@@ -4876,10 +4873,10 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>288</v>
@@ -4893,16 +4890,16 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="D60" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,10 +4907,10 @@
         <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>298</v>
@@ -4927,10 +4924,10 @@
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>316</v>
@@ -4944,10 +4941,10 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>293</v>
@@ -4961,10 +4958,10 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>306</v>
@@ -4981,7 +4978,7 @@
         <v>291</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>326</v>
@@ -4995,10 +4992,10 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>279</v>
@@ -5012,10 +5009,10 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>321</v>
@@ -5029,10 +5026,10 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>303</v>
@@ -5046,10 +5043,10 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>323</v>
@@ -5063,10 +5060,10 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>295</v>
@@ -5083,7 +5080,7 @@
         <v>244</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>304</v>
@@ -5097,10 +5094,10 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>402</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>292</v>
@@ -5114,10 +5111,10 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>284</v>
@@ -5131,10 +5128,10 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>286</v>
@@ -5148,10 +5145,10 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>293</v>
@@ -5165,10 +5162,10 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>291</v>
@@ -5182,44 +5179,44 @@
         <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>412</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>415</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>294</v>
@@ -5230,13 +5227,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>243</v>
+        <v>416</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>307</v>
@@ -5250,10 +5247,10 @@
         <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>334</v>
@@ -5270,7 +5267,7 @@
         <v>282</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>305</v>
@@ -5284,10 +5281,10 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>295</v>
@@ -5298,13 +5295,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>303</v>
@@ -5318,10 +5315,10 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>355</v>
@@ -5335,10 +5332,10 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>334</v>
@@ -5352,10 +5349,10 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>334</v>
@@ -5369,10 +5366,10 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>356</v>
@@ -5386,10 +5383,10 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>309</v>
@@ -5403,10 +5400,10 @@
         <v>271</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>319</v>
@@ -5417,13 +5414,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>310</v>
@@ -5437,10 +5434,10 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>366</v>
@@ -5454,10 +5451,10 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>303</v>
@@ -5474,7 +5471,7 @@
         <v>110</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>399</v>
@@ -5488,10 +5485,10 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>305</v>
@@ -5508,7 +5505,7 @@
         <v>137</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>368</v>
@@ -5522,10 +5519,10 @@
         <v>290</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>316</v>
@@ -5536,7 +5533,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>293</v>
+        <v>452</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>230</v>
@@ -5553,7 +5550,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>454</v>
@@ -5570,7 +5567,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>254</v>
@@ -5587,7 +5584,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>457</v>
@@ -5626,8 +5623,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5697,11 +5694,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>310.7</v>
+        <v>310.07</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>3.96</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6029,7 +6026,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>478</v>
@@ -6182,7 +6179,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>487</v>
@@ -6216,13 +6213,13 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>257</v>
+        <v>489</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>2</v>
@@ -6230,19 +6227,19 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>373</v>
+        <v>257</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6250,13 +6247,13 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>326</v>
+        <v>492</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>3</v>
@@ -6267,16 +6264,16 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>491</v>
+        <v>325</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6284,16 +6281,16 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>122</v>
+        <v>352</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6301,16 +6298,16 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>385</v>
+        <v>122</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>281</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6318,16 +6315,16 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>221</v>
+        <v>384</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6335,13 +6332,13 @@
         <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>495</v>
+        <v>221</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>496</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>3</v>
@@ -6352,16 +6349,16 @@
         <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>249</v>
+        <v>497</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6369,16 +6366,16 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6386,16 +6383,16 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>279</v>
+        <v>134</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6403,13 +6400,13 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>3</v>
@@ -6420,16 +6417,16 @@
         <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>502</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6437,16 +6434,16 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6454,16 +6451,16 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>504</v>
+        <v>378</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>505</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6505,7 +6502,7 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>508</v>
@@ -6522,16 +6519,16 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>509</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6573,7 +6570,7 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>512</v>
@@ -6587,7 +6584,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>291</v>
@@ -6624,7 +6621,7 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>515</v>
@@ -6739,7 +6736,7 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>524</v>
@@ -6756,16 +6753,16 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>525</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6790,7 +6787,7 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>528</v>
@@ -6807,7 +6804,7 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>529</v>
@@ -6858,7 +6855,7 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>533</v>
@@ -6943,7 +6940,7 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>541</v>
@@ -6960,7 +6957,7 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>542</v>
@@ -6991,7 +6988,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>413</v>
+        <v>238</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>544</v>
@@ -7000,15 +6997,15 @@
         <v>545</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>546</v>
@@ -7025,7 +7022,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>243</v>
+        <v>416</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>548</v>
@@ -7085,15 +7082,15 @@
         <v>555</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>556</v>
@@ -7102,10 +7099,10 @@
         <v>557</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7113,13 +7110,13 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>411</v>
+        <v>558</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E85" s="4" t="n">
         <v>3</v>
@@ -7130,16 +7127,16 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7147,16 +7144,16 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>560</v>
+        <v>391</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>561</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7170,10 +7167,10 @@
         <v>563</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7181,16 +7178,16 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>389</v>
+        <v>564</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7198,33 +7195,33 @@
         <v>271</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>565</v>
+        <v>388</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>566</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>137</v>
+        <v>567</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7232,16 +7229,16 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>445</v>
+        <v>137</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7249,16 +7246,16 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>246</v>
+        <v>444</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>339</v>
+        <v>464</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7266,16 +7263,16 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7283,16 +7280,16 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>448</v>
+        <v>254</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7300,16 +7297,16 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>572</v>
+        <v>447</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>573</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7323,15 +7320,15 @@
         <v>575</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>293</v>
+        <v>452</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>576</v>
@@ -7339,33 +7336,33 @@
       <c r="C98" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="D98" s="9" t="n">
-        <v>617</v>
+      <c r="D98" s="4" t="n">
+        <v>400</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>450</v>
-      </c>
       <c r="D99" s="4" t="n">
-        <v>382</v>
+        <v>452</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>579</v>
@@ -7373,28 +7370,28 @@
       <c r="C100" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="D100" s="4" t="n">
-        <v>363</v>
+      <c r="D100" s="9" t="n">
+        <v>617</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>581</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>582</v>
+        <v>449</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>498</v>
+        <v>382</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -1461,10 +1461,10 @@
     <t xml:space="preserve">5:54.195</t>
   </si>
   <si>
+    <t xml:space="preserve">5:55.045</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:57.204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:58.683</t>
   </si>
   <si>
     <t xml:space="preserve">5:59.176</t>
@@ -5623,8 +5623,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5694,11 +5694,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>310.07</v>
+        <v>310.13</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>3.98</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6043,16 +6043,16 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>479</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6060,16 +6060,16 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>480</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -1446,6 +1446,9 @@
     <t xml:space="preserve">5:42.618</t>
   </si>
   <si>
+    <t xml:space="preserve">5:47.718</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:47.973</t>
   </si>
   <si>
@@ -1765,9 +1768,6 @@
   </si>
   <si>
     <t xml:space="preserve">9:22.989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zebresh</t>
   </si>
 </sst>
 </file>
@@ -3824,8 +3824,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="B101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5623,8 +5623,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5694,11 +5694,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>310.13</v>
+        <v>308.94</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>3.99</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5958,16 +5958,16 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>474</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5975,13 +5975,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>475</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>2</v>
@@ -5992,13 +5992,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>476</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>2</v>
@@ -6009,13 +6009,13 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>477</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>2</v>
@@ -6026,16 +6026,16 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>478</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6043,16 +6043,16 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>479</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6060,16 +6060,16 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>480</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6077,7 +6077,7 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>481</v>
@@ -6086,7 +6086,7 @@
         <v>268</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6094,16 +6094,16 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>482</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6111,13 +6111,13 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>483</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>4</v>
@@ -6128,16 +6128,16 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>484</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6145,16 +6145,16 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>485</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6162,16 +6162,16 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>486</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6179,13 +6179,13 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>396</v>
+        <v>167</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>487</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>2</v>
@@ -6196,16 +6196,16 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>200</v>
+        <v>396</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>488</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6213,16 +6213,16 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>490</v>
-      </c>
       <c r="D32" s="4" t="n">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6230,13 +6230,13 @@
         <v>337</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>257</v>
+        <v>490</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>491</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>2</v>
@@ -6247,16 +6247,16 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>492</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6264,13 +6264,13 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>325</v>
+        <v>493</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>3</v>
@@ -6281,16 +6281,16 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>493</v>
+        <v>325</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6298,16 +6298,16 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>122</v>
+        <v>352</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>494</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6315,7 +6315,7 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>384</v>
+        <v>122</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>495</v>
@@ -6324,7 +6324,7 @@
         <v>281</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6332,16 +6332,16 @@
         <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>221</v>
+        <v>384</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>496</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6349,13 +6349,13 @@
         <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>498</v>
-      </c>
       <c r="D40" s="4" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>3</v>
@@ -6366,16 +6366,16 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>249</v>
+        <v>498</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>499</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6383,16 +6383,16 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>500</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6400,16 +6400,16 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>279</v>
+        <v>134</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>501</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6417,13 +6417,13 @@
         <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>502</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>3</v>
@@ -6434,16 +6434,16 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>504</v>
-      </c>
       <c r="D45" s="4" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6451,16 +6451,16 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>378</v>
+        <v>504</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>505</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6468,16 +6468,16 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>140</v>
+        <v>378</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>506</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6485,16 +6485,16 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>507</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6502,16 +6502,16 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>350</v>
+        <v>263</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>508</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6519,16 +6519,16 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>357</v>
+      <c r="D50" s="4" t="n">
+        <v>323</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6536,16 +6536,16 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>206</v>
+        <v>380</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="D51" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E51" s="4" t="n">
-        <v>5</v>
+      <c r="D51" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6553,16 +6553,16 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>511</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6570,13 +6570,13 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>382</v>
+        <v>252</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>512</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>4</v>
@@ -6587,16 +6587,16 @@
         <v>163</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>291</v>
+        <v>382</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6604,16 +6604,16 @@
         <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>514</v>
-      </c>
       <c r="D55" s="4" t="n">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6621,16 +6621,16 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>369</v>
+        <v>514</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>515</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6638,16 +6638,16 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,16 +6655,16 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>517</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6672,16 +6672,16 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>518</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6689,16 +6689,16 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>304</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6706,16 +6706,16 @@
         <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>522</v>
-      </c>
       <c r="D61" s="4" t="n">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6723,46 +6723,46 @@
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>224</v>
+        <v>522</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="D62" s="4" t="n">
+        <v>331</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>442</v>
+        <v>224</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="D63" s="4" t="n">
-        <v>301</v>
-      </c>
-      <c r="E63" s="4" t="n">
-        <v>6</v>
-      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>355</v>
+        <v>442</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>357</v>
+      <c r="D64" s="4" t="n">
+        <v>301</v>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6770,16 +6770,16 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="D65" s="4" t="n">
-        <v>311</v>
-      </c>
-      <c r="E65" s="4" t="n">
-        <v>8</v>
+      <c r="D65" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6787,16 +6787,16 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>366</v>
+        <v>527</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>528</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6804,16 +6804,16 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>529</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6821,16 +6821,16 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>230</v>
+        <v>386</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>530</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6838,16 +6838,16 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>532</v>
-      </c>
       <c r="D69" s="4" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6855,16 +6855,16 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>402</v>
+        <v>532</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>533</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6872,16 +6872,16 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>535</v>
-      </c>
       <c r="D71" s="4" t="n">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6889,16 +6889,16 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>537</v>
-      </c>
       <c r="D72" s="4" t="n">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6906,16 +6906,16 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>149</v>
+        <v>537</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>538</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6923,16 +6923,16 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>540</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>329</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6940,16 +6940,16 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>364</v>
+        <v>540</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>541</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6957,16 +6957,16 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>542</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6974,16 +6974,16 @@
         <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>282</v>
+        <v>374</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>543</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6991,16 +6991,16 @@
         <v>238</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>357</v>
+      <c r="D78" s="4" t="n">
+        <v>326</v>
+      </c>
+      <c r="E78" s="4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7008,16 +7008,16 @@
         <v>241</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="D79" s="4" t="n">
-        <v>343</v>
-      </c>
-      <c r="E79" s="4" t="n">
-        <v>4</v>
+      <c r="D79" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7025,16 +7025,16 @@
         <v>416</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>549</v>
-      </c>
       <c r="D80" s="4" t="n">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7042,13 +7042,13 @@
         <v>245</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>551</v>
-      </c>
       <c r="D81" s="4" t="n">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>2</v>
@@ -7059,16 +7059,16 @@
         <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>553</v>
-      </c>
       <c r="D82" s="4" t="n">
-        <v>394</v>
+        <v>298</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7076,16 +7076,16 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>555</v>
-      </c>
       <c r="D83" s="4" t="n">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7093,16 +7093,16 @@
         <v>424</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>557</v>
-      </c>
       <c r="D84" s="4" t="n">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7110,16 +7110,16 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>559</v>
-      </c>
       <c r="D85" s="4" t="n">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7127,13 +7127,13 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>410</v>
+        <v>559</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>560</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E86" s="4" t="n">
         <v>3</v>
@@ -7144,16 +7144,16 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>561</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7161,16 +7161,16 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>563</v>
-      </c>
       <c r="D88" s="4" t="n">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7178,16 +7178,16 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>565</v>
-      </c>
       <c r="D89" s="4" t="n">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7195,16 +7195,16 @@
         <v>271</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>388</v>
+        <v>565</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>566</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7212,16 +7212,16 @@
         <v>439</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>568</v>
-      </c>
       <c r="D91" s="4" t="n">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7229,16 +7229,16 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>137</v>
+        <v>568</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>569</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7246,16 +7246,16 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>444</v>
+        <v>137</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>570</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7263,16 +7263,16 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>246</v>
+        <v>444</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>571</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>339</v>
+        <v>464</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7280,16 +7280,16 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>572</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7297,16 +7297,16 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>447</v>
+        <v>254</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>573</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7314,16 +7314,16 @@
         <v>290</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>575</v>
-      </c>
       <c r="D97" s="4" t="n">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7331,16 +7331,16 @@
         <v>452</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>577</v>
-      </c>
       <c r="D98" s="4" t="n">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7348,16 +7348,16 @@
         <v>294</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>244</v>
+        <v>577</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>578</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7365,16 +7365,16 @@
         <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="D100" s="9" t="n">
-        <v>617</v>
+      <c r="D100" s="4" t="n">
+        <v>452</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7382,16 +7382,16 @@
         <v>300</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D101" s="4" t="n">
-        <v>382</v>
+      <c r="D101" s="9" t="n">
+        <v>617</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -987,6 +987,9 @@
     <t xml:space="preserve">6:12.946</t>
   </si>
   <si>
+    <t xml:space="preserve">6:14.527</t>
+  </si>
+  <si>
     <t xml:space="preserve">6:19.797</t>
   </si>
   <si>
@@ -1032,12 +1035,12 @@
     <t xml:space="preserve">6:39.993</t>
   </si>
   <si>
+    <t xml:space="preserve">32.</t>
+  </si>
+  <si>
     <t xml:space="preserve">6:46.946</t>
   </si>
   <si>
-    <t xml:space="preserve">32.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Joebannks</t>
   </si>
   <si>
@@ -1062,9 +1065,6 @@
     <t xml:space="preserve">7:04.252</t>
   </si>
   <si>
-    <t xml:space="preserve">7:05.493</t>
-  </si>
-  <si>
     <t xml:space="preserve">7:06.564</t>
   </si>
   <si>
@@ -1707,6 +1707,9 @@
     <t xml:space="preserve">8:14.479</t>
   </si>
   <si>
+    <t xml:space="preserve">8:15.465</t>
+  </si>
+  <si>
     <t xml:space="preserve">8:18.406</t>
   </si>
   <si>
@@ -1734,6 +1737,12 @@
     <t xml:space="preserve">8:36.035</t>
   </si>
   <si>
+    <t xml:space="preserve">Leelon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:38.143</t>
+  </si>
+  <si>
     <t xml:space="preserve">8:48.683</t>
   </si>
   <si>
@@ -1759,15 +1768,6 @@
   </si>
   <si>
     <t xml:space="preserve">9:20.966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:21.765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k4napan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:22.989</t>
   </si>
 </sst>
 </file>
@@ -3824,8 +3824,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3895,11 +3895,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>296.51</v>
+        <v>296.34</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,13 +4210,13 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>321</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>0</v>
@@ -4227,13 +4227,13 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>322</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
@@ -4244,13 +4244,13 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>323</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
@@ -4261,16 +4261,16 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>324</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,16 +4278,16 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>325</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4295,16 +4295,16 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="D25" s="4" t="n">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4312,13 +4312,13 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>329</v>
-      </c>
       <c r="D26" s="4" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
@@ -4329,16 +4329,16 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,16 +4346,16 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>331</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4363,16 +4363,16 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>332</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4380,16 +4380,16 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="D30" s="4" t="n">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4397,16 +4397,16 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>334</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>335</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4414,16 +4414,16 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>336</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,13 +4431,13 @@
         <v>337</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="D33" s="4" t="n">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>1</v>
@@ -4448,13 +4448,13 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>221</v>
+        <v>339</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>340</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>1</v>
@@ -4465,13 +4465,13 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="D35" s="4" t="n">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>1</v>
@@ -4482,16 +4482,16 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>212</v>
+        <v>342</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>343</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4499,16 +4499,16 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>344</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4516,16 +4516,16 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>345</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4533,16 +4533,16 @@
         <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>346</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5623,8 +5623,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G91" activeCellId="0" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5694,11 +5694,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>308.94</v>
+        <v>306.15</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>3.9</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6043,7 +6043,7 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>479</v>
@@ -6284,7 +6284,7 @@
         <v>360</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>294</v>
@@ -7144,16 +7144,16 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>410</v>
+        <v>244</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>561</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>334</v>
+        <v>446</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7161,16 +7161,16 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>562</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7178,16 +7178,16 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>564</v>
-      </c>
       <c r="D89" s="4" t="n">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7195,16 +7195,16 @@
         <v>271</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>566</v>
-      </c>
       <c r="D90" s="4" t="n">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7212,16 +7212,16 @@
         <v>439</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>388</v>
+        <v>566</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>567</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7229,16 +7229,16 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>569</v>
-      </c>
       <c r="D92" s="4" t="n">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7246,16 +7246,16 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>137</v>
+        <v>569</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>570</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7263,16 +7263,16 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>444</v>
+        <v>571</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>464</v>
+        <v>355</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7280,16 +7280,16 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7297,16 +7297,16 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>254</v>
+        <v>444</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="D96" s="4" t="n">
-        <v>379</v>
+        <v>574</v>
+      </c>
+      <c r="D96" s="9" t="n">
+        <v>464</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7314,16 +7314,16 @@
         <v>290</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>447</v>
+        <v>246</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7331,16 +7331,16 @@
         <v>452</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>575</v>
+        <v>254</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>576</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7348,16 +7348,16 @@
         <v>294</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>578</v>
-      </c>
       <c r="D99" s="4" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7365,16 +7365,16 @@
         <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>244</v>
+        <v>578</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>579</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7387,11 +7387,11 @@
       <c r="C101" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="D101" s="9" t="n">
-        <v>617</v>
+      <c r="D101" s="4" t="n">
+        <v>400</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="581">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -153,7 +153,7 @@
     <t xml:space="preserve">Kamacz</t>
   </si>
   <si>
-    <t xml:space="preserve">4:04.919</t>
+    <t xml:space="preserve">4:04.171</t>
   </si>
   <si>
     <t xml:space="preserve">12.</t>
@@ -1716,6 +1716,9 @@
     <t xml:space="preserve">8:21.245</t>
   </si>
   <si>
+    <t xml:space="preserve">8:25.257</t>
+  </si>
+  <si>
     <t xml:space="preserve">hanatei</t>
   </si>
   <si>
@@ -1762,12 +1765,6 @@
   </si>
   <si>
     <t xml:space="preserve">9:17.039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plopikoosy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:20.966</t>
   </si>
 </sst>
 </file>
@@ -2024,8 +2021,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2096,7 +2093,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.61</v>
+        <v>229.59</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -2281,7 +2278,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>0</v>
@@ -5624,7 +5621,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G91" activeCellId="0" sqref="G91"/>
+      <selection pane="topLeft" activeCell="E91" activeCellId="0" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5694,7 +5691,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>306.15</v>
+        <v>305.23</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -7195,16 +7192,16 @@
         <v>271</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>565</v>
-      </c>
       <c r="D90" s="4" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7212,16 +7209,16 @@
         <v>439</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>567</v>
-      </c>
       <c r="D91" s="4" t="n">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7229,16 +7226,16 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>388</v>
+        <v>567</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>568</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7246,16 +7243,16 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>570</v>
-      </c>
       <c r="D93" s="4" t="n">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7263,13 +7260,13 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>572</v>
-      </c>
       <c r="D94" s="4" t="n">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="E94" s="4" t="n">
         <v>9</v>
@@ -7280,16 +7277,16 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>137</v>
+        <v>572</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>573</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7297,16 +7294,16 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>444</v>
+        <v>137</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="D96" s="9" t="n">
-        <v>464</v>
+      <c r="D96" s="4" t="n">
+        <v>349</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7314,16 +7311,16 @@
         <v>290</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>246</v>
+        <v>444</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="D97" s="4" t="n">
-        <v>339</v>
+      <c r="D97" s="9" t="n">
+        <v>464</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7331,16 +7328,16 @@
         <v>452</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>576</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7348,16 +7345,16 @@
         <v>294</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>447</v>
+        <v>254</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>577</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7365,16 +7362,16 @@
         <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>579</v>
-      </c>
       <c r="D100" s="4" t="n">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7382,16 +7379,16 @@
         <v>300</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>581</v>
-      </c>
       <c r="D101" s="4" t="n">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -1407,7 +1407,7 @@
     <t xml:space="preserve">5:16.370</t>
   </si>
   <si>
-    <t xml:space="preserve">5:18.920</t>
+    <t xml:space="preserve">5:16.985</t>
   </si>
   <si>
     <t xml:space="preserve">5:22.133</t>
@@ -1446,6 +1446,9 @@
     <t xml:space="preserve">5:42.618</t>
   </si>
   <si>
+    <t xml:space="preserve">5:46.375</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:47.718</t>
   </si>
   <si>
@@ -1498,9 +1501,6 @@
   </si>
   <si>
     <t xml:space="preserve">6:18.182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:20.851</t>
   </si>
   <si>
     <t xml:space="preserve">6:23.775</t>
@@ -2021,8 +2021,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5620,8 +5620,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E91" activeCellId="0" sqref="E91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>305.23</v>
+        <v>305.01</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -5955,16 +5955,16 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>474</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5972,16 +5972,16 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>475</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5989,13 +5989,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>476</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>2</v>
@@ -6006,13 +6006,13 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>477</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>2</v>
@@ -6023,13 +6023,13 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>478</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>2</v>
@@ -6040,16 +6040,16 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>479</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,16 +6057,16 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>480</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6074,16 +6074,16 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>481</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6091,7 +6091,7 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>482</v>
@@ -6100,7 +6100,7 @@
         <v>268</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6108,16 +6108,16 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>483</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6125,13 +6125,13 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>484</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>4</v>
@@ -6142,16 +6142,16 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>485</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6159,16 +6159,16 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>486</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6176,16 +6176,16 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>487</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6193,13 +6193,13 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>396</v>
+        <v>167</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>488</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>2</v>
@@ -6210,16 +6210,16 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>200</v>
+        <v>396</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>489</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6227,16 +6227,16 @@
         <v>337</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>491</v>
-      </c>
       <c r="D33" s="4" t="n">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6244,13 +6244,13 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>257</v>
+        <v>491</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>492</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>2</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -579,13 +579,22 @@
     <t xml:space="preserve">59.</t>
   </si>
   <si>
+    <t xml:space="preserve">control_speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:23.874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alanukan</t>
   </si>
   <si>
     <t xml:space="preserve">4:24.299</t>
   </si>
   <si>
-    <t xml:space="preserve">60.</t>
+    <t xml:space="preserve">61.</t>
   </si>
   <si>
     <t xml:space="preserve">Skromnique</t>
@@ -594,7 +603,7 @@
     <t xml:space="preserve">4:24.469</t>
   </si>
   <si>
-    <t xml:space="preserve">61.</t>
+    <t xml:space="preserve">62.</t>
   </si>
   <si>
     <t xml:space="preserve">henthans</t>
@@ -603,7 +612,7 @@
     <t xml:space="preserve">4:24.690</t>
   </si>
   <si>
-    <t xml:space="preserve">62.</t>
+    <t xml:space="preserve">63.</t>
   </si>
   <si>
     <t xml:space="preserve">sggu</t>
@@ -612,7 +621,7 @@
     <t xml:space="preserve">4:25.064</t>
   </si>
   <si>
-    <t xml:space="preserve">63.</t>
+    <t xml:space="preserve">64.</t>
   </si>
   <si>
     <t xml:space="preserve">samsamspada</t>
@@ -621,7 +630,7 @@
     <t xml:space="preserve">4:25.421</t>
   </si>
   <si>
-    <t xml:space="preserve">64.</t>
+    <t xml:space="preserve">65.</t>
   </si>
   <si>
     <t xml:space="preserve">Kenchan</t>
@@ -630,7 +639,7 @@
     <t xml:space="preserve">4:25.642</t>
   </si>
   <si>
-    <t xml:space="preserve">65.</t>
+    <t xml:space="preserve">66.</t>
   </si>
   <si>
     <t xml:space="preserve">mountains</t>
@@ -639,7 +648,7 @@
     <t xml:space="preserve">4:25.931</t>
   </si>
   <si>
-    <t xml:space="preserve">66.</t>
+    <t xml:space="preserve">67.</t>
   </si>
   <si>
     <t xml:space="preserve">zyx098</t>
@@ -648,7 +657,7 @@
     <t xml:space="preserve">4:27.257</t>
   </si>
   <si>
-    <t xml:space="preserve">67.</t>
+    <t xml:space="preserve">68.</t>
   </si>
   <si>
     <t xml:space="preserve">Em_ily</t>
@@ -657,7 +666,7 @@
     <t xml:space="preserve">4:28.073</t>
   </si>
   <si>
-    <t xml:space="preserve">68.</t>
+    <t xml:space="preserve">69.</t>
   </si>
   <si>
     <t xml:space="preserve">tetoloid</t>
@@ -666,7 +675,7 @@
     <t xml:space="preserve">4:28.345</t>
   </si>
   <si>
-    <t xml:space="preserve">69.</t>
+    <t xml:space="preserve">70.</t>
   </si>
   <si>
     <t xml:space="preserve">honzr</t>
@@ -675,7 +684,7 @@
     <t xml:space="preserve">4:32.918</t>
   </si>
   <si>
-    <t xml:space="preserve">70.</t>
+    <t xml:space="preserve">71.</t>
   </si>
   <si>
     <t xml:space="preserve">Crep</t>
@@ -684,7 +693,7 @@
     <t xml:space="preserve">4:33.513</t>
   </si>
   <si>
-    <t xml:space="preserve">71.</t>
+    <t xml:space="preserve">72.</t>
   </si>
   <si>
     <t xml:space="preserve">sisiza1771</t>
@@ -693,7 +702,7 @@
     <t xml:space="preserve">4:35.094</t>
   </si>
   <si>
-    <t xml:space="preserve">72.</t>
+    <t xml:space="preserve">73.</t>
   </si>
   <si>
     <t xml:space="preserve">Krack_1212</t>
@@ -702,7 +711,7 @@
     <t xml:space="preserve">4:35.315</t>
   </si>
   <si>
-    <t xml:space="preserve">73.</t>
+    <t xml:space="preserve">74.</t>
   </si>
   <si>
     <t xml:space="preserve">HotLencia69</t>
@@ -711,7 +720,7 @@
     <t xml:space="preserve">4:35.332</t>
   </si>
   <si>
-    <t xml:space="preserve">74.</t>
+    <t xml:space="preserve">75.</t>
   </si>
   <si>
     <t xml:space="preserve">BsCloudy</t>
@@ -720,7 +729,7 @@
     <t xml:space="preserve">4:35.468</t>
   </si>
   <si>
-    <t xml:space="preserve">75.</t>
+    <t xml:space="preserve">76.</t>
   </si>
   <si>
     <t xml:space="preserve">SR_mochi</t>
@@ -729,7 +738,7 @@
     <t xml:space="preserve">4:35.723</t>
   </si>
   <si>
-    <t xml:space="preserve">76.</t>
+    <t xml:space="preserve">77.</t>
   </si>
   <si>
     <t xml:space="preserve">twitchpop</t>
@@ -738,7 +747,7 @@
     <t xml:space="preserve">4:35.791</t>
   </si>
   <si>
-    <t xml:space="preserve">77.</t>
+    <t xml:space="preserve">78.</t>
   </si>
   <si>
     <t xml:space="preserve">BlackIron</t>
@@ -747,19 +756,19 @@
     <t xml:space="preserve">4:35.825</t>
   </si>
   <si>
-    <t xml:space="preserve">78.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pirce59</t>
   </si>
   <si>
     <t xml:space="preserve">4:36.012</t>
   </si>
   <si>
+    <t xml:space="preserve">80.</t>
+  </si>
+  <si>
     <t xml:space="preserve">doctorRick</t>
   </si>
   <si>
-    <t xml:space="preserve">80.</t>
+    <t xml:space="preserve">81.</t>
   </si>
   <si>
     <t xml:space="preserve">Magiczny_00</t>
@@ -768,7 +777,7 @@
     <t xml:space="preserve">4:36.250</t>
   </si>
   <si>
-    <t xml:space="preserve">81.</t>
+    <t xml:space="preserve">82.</t>
   </si>
   <si>
     <t xml:space="preserve">M8N</t>
@@ -777,30 +786,21 @@
     <t xml:space="preserve">4:36.335</t>
   </si>
   <si>
-    <t xml:space="preserve">82.</t>
-  </si>
-  <si>
     <t xml:space="preserve">oShorty</t>
   </si>
   <si>
     <t xml:space="preserve">4:36.590</t>
   </si>
   <si>
+    <t xml:space="preserve">84.</t>
+  </si>
+  <si>
     <t xml:space="preserve">GlowdFire</t>
   </si>
   <si>
     <t xml:space="preserve">4:36.828</t>
   </si>
   <si>
-    <t xml:space="preserve">84.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control_speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37.202</t>
-  </si>
-  <si>
     <t xml:space="preserve">85.</t>
   </si>
   <si>
@@ -1407,10 +1407,10 @@
     <t xml:space="preserve">5:16.370</t>
   </si>
   <si>
-    <t xml:space="preserve">5:16.985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:22.133</t>
+    <t xml:space="preserve">5:17.730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:18.971</t>
   </si>
   <si>
     <t xml:space="preserve">5:24.411</t>
@@ -1449,6 +1449,9 @@
     <t xml:space="preserve">5:46.375</t>
   </si>
   <si>
+    <t xml:space="preserve">5:46.596</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:47.718</t>
   </si>
   <si>
@@ -1465,9 +1468,6 @@
   </si>
   <si>
     <t xml:space="preserve">5:54.195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:55.045</t>
   </si>
   <si>
     <t xml:space="preserve">5:57.204</t>
@@ -2021,8 +2021,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.59</v>
+        <v>229.48</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -3094,7 +3094,7 @@
         <v>186</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>189</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>192</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E62" s="4" t="n">
         <v>0</v>
@@ -3145,7 +3145,7 @@
         <v>195</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>198</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E64" s="4" t="n">
         <v>0</v>
@@ -3179,7 +3179,7 @@
         <v>201</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>204</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>207</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>0</v>
@@ -3230,10 +3230,10 @@
         <v>210</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,10 +3247,10 @@
         <v>213</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,7 +3281,7 @@
         <v>219</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E71" s="4" t="n">
         <v>0</v>
@@ -3298,7 +3298,7 @@
         <v>222</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E72" s="4" t="n">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         <v>225</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
@@ -3332,10 +3332,10 @@
         <v>228</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,7 +3349,7 @@
         <v>231</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>1</v>
@@ -3366,10 +3366,10 @@
         <v>234</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3383,10 +3383,10 @@
         <v>237</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,11 +3399,11 @@
       <c r="C78" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D78" s="9" t="n">
-        <v>245</v>
+      <c r="D78" s="4" t="n">
+        <v>229</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,11 +3416,11 @@
       <c r="C79" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D79" s="4" t="n">
-        <v>227</v>
+      <c r="D79" s="9" t="n">
+        <v>245</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3431,27 +3431,27 @@
         <v>244</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="D81" s="4" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>250</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>253</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
@@ -3519,7 +3519,7 @@
         <v>258</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E85" s="4" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>321</v>
@@ -4462,7 +4462,7 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>341</v>
@@ -4496,7 +4496,7 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>344</v>
@@ -4530,7 +4530,7 @@
         <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>346</v>
@@ -4581,7 +4581,7 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>349</v>
@@ -4649,7 +4649,7 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>358</v>
@@ -4666,7 +4666,7 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>359</v>
@@ -4836,7 +4836,7 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>376</v>
@@ -5057,7 +5057,7 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>398</v>
@@ -5074,7 +5074,7 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>399</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>419</v>
@@ -5533,7 +5533,7 @@
         <v>452</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>453</v>
@@ -5567,7 +5567,7 @@
         <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>456</v>
@@ -5621,7 +5621,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5691,11 +5691,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>305.01</v>
+        <v>304.82</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>3.93</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,8 +5725,8 @@
       <c r="C5" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>261</v>
+      <c r="D5" s="11" t="n">
+        <v>251</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>2</v>
@@ -5955,7 +5955,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>474</v>
@@ -5972,13 +5972,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>475</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>3</v>
@@ -5989,16 +5989,16 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>476</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6006,13 +6006,13 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>477</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>2</v>
@@ -6023,13 +6023,13 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>478</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>2</v>
@@ -6040,13 +6040,13 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>479</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>2</v>
@@ -6057,16 +6057,16 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>480</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6074,16 +6074,16 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>481</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6142,7 +6142,7 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>485</v>
@@ -6159,7 +6159,7 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>486</v>
@@ -6227,7 +6227,7 @@
         <v>337</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>490</v>
@@ -6346,7 +6346,7 @@
         <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>497</v>
@@ -6380,7 +6380,7 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>500</v>
@@ -6550,7 +6550,7 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>511</v>
@@ -6567,7 +6567,7 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>512</v>
@@ -6737,7 +6737,7 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>524</v>
@@ -6835,7 +6835,7 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>531</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>549</v>
@@ -7141,7 +7141,7 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>561</v>
@@ -7328,7 +7328,7 @@
         <v>452</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>576</v>
@@ -7345,7 +7345,7 @@
         <v>294</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>577</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Babe" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="580">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -1344,6 +1344,12 @@
     <t xml:space="preserve">90.</t>
   </si>
   <si>
+    <t xml:space="preserve">Khart_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:10.307</t>
+  </si>
+  <si>
     <t xml:space="preserve">Krystek13</t>
   </si>
   <si>
@@ -1374,15 +1380,15 @@
     <t xml:space="preserve">9:26.542</t>
   </si>
   <si>
+    <t xml:space="preserve">97.</t>
+  </si>
+  <si>
     <t xml:space="preserve">DDDoctor</t>
   </si>
   <si>
     <t xml:space="preserve">9:27.800</t>
   </si>
   <si>
-    <t xml:space="preserve">97.</t>
-  </si>
-  <si>
     <t xml:space="preserve">9:28.990</t>
   </si>
   <si>
@@ -1395,19 +1401,13 @@
     <t xml:space="preserve">9:30.622</t>
   </si>
   <si>
-    <t xml:space="preserve">Teruko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:43.015</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:12.732</t>
   </si>
   <si>
     <t xml:space="preserve">5:16.370</t>
   </si>
   <si>
-    <t xml:space="preserve">5:17.730</t>
+    <t xml:space="preserve">5:17.475</t>
   </si>
   <si>
     <t xml:space="preserve">5:18.971</t>
@@ -1464,6 +1464,9 @@
     <t xml:space="preserve">5:50.404</t>
   </si>
   <si>
+    <t xml:space="preserve">5:51.764</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:53.243</t>
   </si>
   <si>
@@ -1759,12 +1762,6 @@
   </si>
   <si>
     <t xml:space="preserve">9:05.071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jooj211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:17.039</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2018,7 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -3821,8 +3818,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E92" activeCellId="0" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3892,11 +3889,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>296.34</v>
+        <v>296.32</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.53</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5420,10 +5417,10 @@
         <v>441</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5437,10 +5434,10 @@
         <v>443</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5454,10 +5451,10 @@
         <v>445</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5465,16 +5462,16 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>110</v>
+        <v>446</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5482,16 +5479,16 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>447</v>
+        <v>110</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>448</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5499,16 +5496,16 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>137</v>
+        <v>449</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5516,16 +5513,16 @@
         <v>290</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>450</v>
+        <v>137</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>451</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5533,16 +5530,16 @@
         <v>452</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>233</v>
+        <v>453</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5550,16 +5547,16 @@
         <v>294</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>454</v>
+        <v>233</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D99" s="9" t="n">
-        <v>412</v>
+      <c r="D99" s="4" t="n">
+        <v>398</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5567,16 +5564,16 @@
         <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>257</v>
+        <v>456</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="D100" s="4" t="n">
-        <v>381</v>
+        <v>457</v>
+      </c>
+      <c r="D100" s="9" t="n">
+        <v>412</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,16 +5581,16 @@
         <v>300</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>457</v>
+        <v>257</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>458</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5620,8 +5617,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5691,11 +5688,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>304.82</v>
+        <v>302.93</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>3.92</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5709,7 +5706,7 @@
         <v>461</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>2</v>
@@ -6057,13 +6054,13 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>480</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>2</v>
@@ -6074,16 +6071,16 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>481</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6091,16 +6088,16 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>51</v>
+        <v>329</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>482</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6108,7 +6105,7 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>483</v>
@@ -6117,7 +6114,7 @@
         <v>268</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6125,16 +6122,16 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>484</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6142,13 +6139,13 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>485</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>4</v>
@@ -6159,16 +6156,16 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>486</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6176,16 +6173,16 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>487</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6193,16 +6190,16 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>488</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6210,13 +6207,13 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>396</v>
+        <v>167</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>489</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>2</v>
@@ -6227,16 +6224,16 @@
         <v>337</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>203</v>
+        <v>396</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>490</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6244,16 +6241,16 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>492</v>
-      </c>
       <c r="D34" s="4" t="n">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6261,16 +6258,16 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>493</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6278,13 +6275,13 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>326</v>
+        <v>494</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>3</v>
@@ -6295,16 +6292,16 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>494</v>
+        <v>326</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6312,16 +6309,16 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>122</v>
+        <v>352</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>495</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6329,7 +6326,7 @@
         <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>384</v>
+        <v>122</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>496</v>
@@ -6338,7 +6335,7 @@
         <v>281</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6346,16 +6343,16 @@
         <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>224</v>
+        <v>384</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>497</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6363,13 +6360,13 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>499</v>
-      </c>
       <c r="D41" s="4" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>3</v>
@@ -6380,16 +6377,16 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>252</v>
+        <v>499</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>500</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6397,16 +6394,16 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>501</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6414,16 +6411,16 @@
         <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>279</v>
+        <v>134</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>502</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6431,13 +6428,13 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>503</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>3</v>
@@ -6448,16 +6445,16 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>505</v>
-      </c>
       <c r="D46" s="4" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6465,16 +6462,16 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>378</v>
+        <v>505</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>506</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6482,16 +6479,16 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>140</v>
+        <v>378</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>507</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6499,16 +6496,16 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>508</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6516,16 +6513,16 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>350</v>
+        <v>263</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>509</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6533,16 +6530,16 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>357</v>
+      <c r="D51" s="4" t="n">
+        <v>323</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6550,16 +6547,16 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>209</v>
+        <v>380</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="D52" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E52" s="4" t="n">
-        <v>5</v>
+      <c r="D52" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6567,16 +6564,16 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>512</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6584,13 +6581,13 @@
         <v>163</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>513</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>4</v>
@@ -6601,16 +6598,16 @@
         <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>291</v>
+        <v>382</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6618,16 +6615,16 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>515</v>
-      </c>
       <c r="D56" s="4" t="n">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6635,16 +6632,16 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>369</v>
+        <v>515</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>516</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6652,16 +6649,16 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>517</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6669,16 +6666,16 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>518</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6686,16 +6683,16 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>519</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6703,16 +6700,16 @@
         <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>304</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6720,16 +6717,16 @@
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>523</v>
-      </c>
       <c r="D62" s="4" t="n">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6737,46 +6734,46 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>227</v>
+        <v>523</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="D63" s="4" t="n">
+        <v>331</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>442</v>
+        <v>227</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D64" s="4" t="n">
-        <v>301</v>
-      </c>
-      <c r="E64" s="4" t="n">
-        <v>6</v>
-      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>355</v>
+        <v>444</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>357</v>
+      <c r="D65" s="4" t="n">
+        <v>301</v>
+      </c>
+      <c r="E65" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6784,16 +6781,16 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D66" s="4" t="n">
-        <v>311</v>
-      </c>
-      <c r="E66" s="4" t="n">
-        <v>8</v>
+      <c r="D66" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6801,16 +6798,16 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>366</v>
+        <v>528</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>529</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6818,16 +6815,16 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>530</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6835,16 +6832,16 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>233</v>
+        <v>386</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>531</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6852,16 +6849,16 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>533</v>
-      </c>
       <c r="D70" s="4" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6869,16 +6866,16 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>402</v>
+        <v>533</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>534</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6886,16 +6883,16 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>536</v>
-      </c>
       <c r="D72" s="4" t="n">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6903,16 +6900,16 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>538</v>
-      </c>
       <c r="D73" s="4" t="n">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6920,16 +6917,16 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>149</v>
+        <v>538</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>539</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6937,16 +6934,16 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>329</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6954,16 +6951,16 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>364</v>
+        <v>541</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>542</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6971,16 +6968,16 @@
         <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>543</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6988,16 +6985,16 @@
         <v>238</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>282</v>
+        <v>374</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>544</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7005,16 +7002,16 @@
         <v>241</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>357</v>
+      <c r="D79" s="4" t="n">
+        <v>326</v>
+      </c>
+      <c r="E79" s="4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7022,16 +7019,16 @@
         <v>416</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="D80" s="4" t="n">
-        <v>343</v>
-      </c>
-      <c r="E80" s="4" t="n">
-        <v>4</v>
+      <c r="D80" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7039,16 +7036,16 @@
         <v>246</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>550</v>
-      </c>
       <c r="D81" s="4" t="n">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7056,13 +7053,13 @@
         <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>552</v>
-      </c>
       <c r="D82" s="4" t="n">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>2</v>
@@ -7073,16 +7070,16 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>554</v>
-      </c>
       <c r="D83" s="4" t="n">
-        <v>394</v>
+        <v>298</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7090,16 +7087,16 @@
         <v>424</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>556</v>
-      </c>
       <c r="D84" s="4" t="n">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7107,16 +7104,16 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>558</v>
-      </c>
       <c r="D85" s="4" t="n">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7124,16 +7121,16 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>560</v>
-      </c>
       <c r="D86" s="4" t="n">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7141,16 +7138,16 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>247</v>
+        <v>560</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>561</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>446</v>
+        <v>355</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,16 +7155,16 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>410</v>
+        <v>247</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>562</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>334</v>
+        <v>446</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,16 +7172,16 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>563</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7192,16 +7189,16 @@
         <v>271</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>564</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7209,16 +7206,16 @@
         <v>439</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>566</v>
-      </c>
       <c r="D91" s="4" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7226,16 +7223,16 @@
         <v>275</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>568</v>
-      </c>
       <c r="D92" s="4" t="n">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7243,16 +7240,16 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>388</v>
+        <v>568</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>569</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7260,16 +7257,16 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>571</v>
-      </c>
       <c r="D94" s="4" t="n">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7277,13 +7274,13 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>573</v>
-      </c>
       <c r="D95" s="4" t="n">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="E95" s="4" t="n">
         <v>9</v>
@@ -7294,16 +7291,16 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>137</v>
+        <v>573</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>574</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,16 +7308,16 @@
         <v>290</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>444</v>
+        <v>137</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="D97" s="9" t="n">
-        <v>464</v>
+      <c r="D97" s="4" t="n">
+        <v>349</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,16 +7325,16 @@
         <v>452</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>249</v>
+        <v>446</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="D98" s="4" t="n">
-        <v>339</v>
+      <c r="D98" s="9" t="n">
+        <v>464</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7345,16 +7342,16 @@
         <v>294</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>577</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7362,16 +7359,16 @@
         <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>447</v>
+        <v>257</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>578</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,16 +7376,16 @@
         <v>300</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>580</v>
-      </c>
       <c r="D101" s="4" t="n">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Babe" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="581">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -795,13 +795,22 @@
     <t xml:space="preserve">84.</t>
   </si>
   <si>
+    <t xml:space="preserve">dennydon2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:36.760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.</t>
+  </si>
+  <si>
     <t xml:space="preserve">GlowdFire</t>
   </si>
   <si>
     <t xml:space="preserve">4:36.828</t>
   </si>
   <si>
-    <t xml:space="preserve">85.</t>
+    <t xml:space="preserve">86.</t>
   </si>
   <si>
     <t xml:space="preserve">Wisteer_</t>
@@ -810,7 +819,7 @@
     <t xml:space="preserve">4:37.253</t>
   </si>
   <si>
-    <t xml:space="preserve">86.</t>
+    <t xml:space="preserve">87.</t>
   </si>
   <si>
     <t xml:space="preserve">yuyumon_nick</t>
@@ -819,7 +828,7 @@
     <t xml:space="preserve">4:37.559</t>
   </si>
   <si>
-    <t xml:space="preserve">87.</t>
+    <t xml:space="preserve">88.</t>
   </si>
   <si>
     <t xml:space="preserve">DJJake7</t>
@@ -828,7 +837,7 @@
     <t xml:space="preserve">4:37.610</t>
   </si>
   <si>
-    <t xml:space="preserve">88.</t>
+    <t xml:space="preserve">89.</t>
   </si>
   <si>
     <t xml:space="preserve">BotRaj</t>
@@ -837,19 +846,19 @@
     <t xml:space="preserve">4:37.729</t>
   </si>
   <si>
-    <t xml:space="preserve">89.</t>
-  </si>
-  <si>
     <t xml:space="preserve">retsu_teno</t>
   </si>
   <si>
     <t xml:space="preserve">4:37.797</t>
   </si>
   <si>
+    <t xml:space="preserve">91.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chariot_Rider</t>
   </si>
   <si>
-    <t xml:space="preserve">91.</t>
+    <t xml:space="preserve">92.</t>
   </si>
   <si>
     <t xml:space="preserve">laza2115</t>
@@ -858,7 +867,7 @@
     <t xml:space="preserve">4:37.882</t>
   </si>
   <si>
-    <t xml:space="preserve">92.</t>
+    <t xml:space="preserve">93.</t>
   </si>
   <si>
     <t xml:space="preserve">DolpIn_62</t>
@@ -867,7 +876,7 @@
     <t xml:space="preserve">4:38.392</t>
   </si>
   <si>
-    <t xml:space="preserve">93.</t>
+    <t xml:space="preserve">94.</t>
   </si>
   <si>
     <t xml:space="preserve">okita_110</t>
@@ -876,7 +885,7 @@
     <t xml:space="preserve">4:38.596</t>
   </si>
   <si>
-    <t xml:space="preserve">94.</t>
+    <t xml:space="preserve">95.</t>
   </si>
   <si>
     <t xml:space="preserve">Siuuunic</t>
@@ -885,7 +894,7 @@
     <t xml:space="preserve">4:38.613</t>
   </si>
   <si>
-    <t xml:space="preserve">95.</t>
+    <t xml:space="preserve">96.</t>
   </si>
   <si>
     <t xml:space="preserve">BlueStormDragon</t>
@@ -894,19 +903,19 @@
     <t xml:space="preserve">4:38.698</t>
   </si>
   <si>
-    <t xml:space="preserve">96.</t>
-  </si>
-  <si>
     <t xml:space="preserve">You_too</t>
   </si>
   <si>
     <t xml:space="preserve">4:38.868</t>
   </si>
   <si>
+    <t xml:space="preserve">98.</t>
+  </si>
+  <si>
     <t xml:space="preserve">tsiiga</t>
   </si>
   <si>
-    <t xml:space="preserve">98.</t>
+    <t xml:space="preserve">99.</t>
   </si>
   <si>
     <t xml:space="preserve">Entorihi</t>
@@ -915,7 +924,7 @@
     <t xml:space="preserve">4:39.038</t>
   </si>
   <si>
-    <t xml:space="preserve">99.</t>
+    <t xml:space="preserve">100.</t>
   </si>
   <si>
     <t xml:space="preserve">caseyreese</t>
@@ -924,210 +933,204 @@
     <t xml:space="preserve">4:39.378</t>
   </si>
   <si>
-    <t xml:space="preserve">100.</t>
+    <t xml:space="preserve">5:33.846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:34.696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:37.399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:38.538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:43.213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:44.335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:47.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:48.228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:52.699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:56.745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:57.153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:57.476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:04.803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:05.483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:07.608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:10.073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:12.895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:12.946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:14.527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:19.797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:20.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:20.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:22.806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:24.064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miyagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:25.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cjm8026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:26.699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:30.184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:32.649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:33.635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drgrrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:36.083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:39.993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:46.946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joebannks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toskania_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:51.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:58.166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:04.252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:06.564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:11.341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:13.806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sukezamon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:23.836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yorimitijido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:24.737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gr3mXR3apa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:26.930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:28.266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:29.667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aotogarashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:32.506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:32.591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skatman117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:34.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackANTIvenom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:34.172</t>
   </si>
   <si>
     <t xml:space="preserve">2D_PPT</t>
   </si>
   <si>
-    <t xml:space="preserve">4:39.446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:33.846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:34.696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:37.399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:38.538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:43.213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:44.335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:47.140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:48.228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:52.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:56.745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:57.153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:57.476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:04.803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:05.483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:07.608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:10.073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:12.895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:12.946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:14.527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:19.797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:20.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:20.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:22.806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:24.064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miyagi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:25.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cjm8026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:26.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:30.184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:32.649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:33.635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drgrrr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:36.083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:39.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:46.946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joebannks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toskania_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:51.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:58.166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:04.252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:06.564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:11.341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:13.806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sukezamon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:23.836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yorimitijido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:24.737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gr3mXR3apa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:26.930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:28.266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:29.667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aotogarashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:32.506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bogman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:32.591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skatman117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:34.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackANTIvenom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:34.172</t>
-  </si>
-  <si>
     <t xml:space="preserve">7:35.311</t>
   </si>
   <si>
@@ -1140,12 +1143,15 @@
     <t xml:space="preserve">7:35.872</t>
   </si>
   <si>
-    <t xml:space="preserve">dennydon2</t>
-  </si>
-  <si>
     <t xml:space="preserve">7:39.051</t>
   </si>
   <si>
+    <t xml:space="preserve">Khart_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:39.561</t>
+  </si>
+  <si>
     <t xml:space="preserve">B1ink01</t>
   </si>
   <si>
@@ -1266,15 +1272,15 @@
     <t xml:space="preserve">8:33.910</t>
   </si>
   <si>
+    <t xml:space="preserve">79.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Denryu</t>
   </si>
   <si>
     <t xml:space="preserve">8:35.933</t>
   </si>
   <si>
-    <t xml:space="preserve">79.</t>
-  </si>
-  <si>
     <t xml:space="preserve">agreergaTW</t>
   </si>
   <si>
@@ -1290,15 +1296,21 @@
     <t xml:space="preserve">8:48.275</t>
   </si>
   <si>
+    <t xml:space="preserve">83.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tungii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:48.921</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sajrra</t>
   </si>
   <si>
     <t xml:space="preserve">8:49.839</t>
   </si>
   <si>
-    <t xml:space="preserve">83.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Treize</t>
   </si>
   <si>
@@ -1329,6 +1341,9 @@
     <t xml:space="preserve">9:05.122</t>
   </si>
   <si>
+    <t xml:space="preserve">90.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thinklater</t>
   </si>
   <si>
@@ -1341,15 +1356,6 @@
     <t xml:space="preserve">9:05.547</t>
   </si>
   <si>
-    <t xml:space="preserve">90.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khart_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:10.307</t>
-  </si>
-  <si>
     <t xml:space="preserve">Krystek13</t>
   </si>
   <si>
@@ -1377,12 +1383,12 @@
     <t xml:space="preserve">9:23.533</t>
   </si>
   <si>
+    <t xml:space="preserve">97.</t>
+  </si>
+  <si>
     <t xml:space="preserve">9:26.542</t>
   </si>
   <si>
-    <t xml:space="preserve">97.</t>
-  </si>
-  <si>
     <t xml:space="preserve">DDDoctor</t>
   </si>
   <si>
@@ -1398,16 +1404,13 @@
     <t xml:space="preserve">9:30.401</t>
   </si>
   <si>
-    <t xml:space="preserve">9:30.622</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:12.732</t>
   </si>
   <si>
+    <t xml:space="preserve">5:14.636</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:16.370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:17.475</t>
   </si>
   <si>
     <t xml:space="preserve">5:18.971</t>
@@ -1890,7 +1893,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1936,6 +1939,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2018,8 +2025,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A81" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E86" activeCellId="0" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2090,11 +2097,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.48</v>
+        <v>229.56</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,10 +3523,10 @@
         <v>258</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,7 +3540,7 @@
         <v>261</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E86" s="4" t="n">
         <v>0</v>
@@ -3550,7 +3557,7 @@
         <v>264</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E87" s="4" t="n">
         <v>0</v>
@@ -3570,7 +3577,7 @@
         <v>236</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,10 +3591,10 @@
         <v>270</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3601,7 +3608,7 @@
         <v>273</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E90" s="4" t="n">
         <v>0</v>
@@ -3611,14 +3618,14 @@
       <c r="A91" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E91" s="4" t="n">
         <v>0</v>
@@ -3626,16 +3633,16 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="D92" s="4" t="n">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E92" s="4" t="n">
         <v>0</v>
@@ -3652,7 +3659,7 @@
         <v>280</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E93" s="4" t="n">
         <v>0</v>
@@ -3669,7 +3676,7 @@
         <v>283</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E94" s="4" t="n">
         <v>0</v>
@@ -3686,7 +3693,7 @@
         <v>286</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E95" s="4" t="n">
         <v>0</v>
@@ -3703,7 +3710,7 @@
         <v>289</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E96" s="4" t="n">
         <v>0</v>
@@ -3719,8 +3726,8 @@
       <c r="C97" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D97" s="9" t="n">
-        <v>245</v>
+      <c r="D97" s="4" t="n">
+        <v>218</v>
       </c>
       <c r="E97" s="4" t="n">
         <v>0</v>
@@ -3734,10 +3741,10 @@
         <v>293</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D98" s="4" t="n">
-        <v>227</v>
+        <v>294</v>
+      </c>
+      <c r="D98" s="9" t="n">
+        <v>245</v>
       </c>
       <c r="E98" s="4" t="n">
         <v>0</v>
@@ -3745,16 +3752,16 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D99" s="9" t="n">
-        <v>245</v>
+      <c r="D99" s="4" t="n">
+        <v>227</v>
       </c>
       <c r="E99" s="4" t="n">
         <v>0</v>
@@ -3770,8 +3777,8 @@
       <c r="C100" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D100" s="4" t="n">
-        <v>226</v>
+      <c r="D100" s="9" t="n">
+        <v>245</v>
       </c>
       <c r="E100" s="4" t="n">
         <v>0</v>
@@ -3788,7 +3795,7 @@
         <v>302</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E101" s="4" t="n">
         <v>0</v>
@@ -3818,8 +3825,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E92" activeCellId="0" sqref="E92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E85" activeCellId="0" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3889,11 +3896,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>296.32</v>
+        <v>295.43</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4357,7 +4364,7 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>332</v>
@@ -4561,7 +4568,7 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>348</v>
@@ -4748,10 +4755,10 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>291</v>
@@ -4765,10 +4772,10 @@
         <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>284</v>
@@ -4785,7 +4792,7 @@
         <v>176</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>278</v>
@@ -4799,7 +4806,7 @@
         <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>373</v>
@@ -4822,7 +4829,7 @@
         <v>375</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>3</v>
@@ -4833,16 +4840,16 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>252</v>
+        <v>376</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4850,16 +4857,16 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,16 +4874,16 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>378</v>
+        <v>282</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>379</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,11 +4896,11 @@
       <c r="C60" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>357</v>
+      <c r="D60" s="4" t="n">
+        <v>288</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4906,11 +4913,11 @@
       <c r="C61" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D61" s="4" t="n">
-        <v>298</v>
-      </c>
-      <c r="E61" s="4" t="n">
-        <v>3</v>
+      <c r="D61" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4924,10 +4931,10 @@
         <v>385</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4941,7 +4948,7 @@
         <v>387</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>0</v>
@@ -4958,10 +4965,10 @@
         <v>389</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4969,16 +4976,16 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>291</v>
+        <v>390</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4986,16 +4993,16 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>391</v>
+        <v>293</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>392</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5003,16 +5010,16 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>298</v>
+        <v>393</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5020,16 +5027,16 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>394</v>
+        <v>301</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>395</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5043,7 +5050,7 @@
         <v>397</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="E69" s="4" t="n">
         <v>0</v>
@@ -5054,16 +5061,16 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>244</v>
+        <v>398</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5071,16 +5078,16 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5088,16 +5095,16 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>400</v>
+        <v>247</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>401</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5111,10 +5118,10 @@
         <v>403</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,7 +5135,7 @@
         <v>405</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
@@ -5145,10 +5152,10 @@
         <v>407</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,10 +5169,10 @@
         <v>409</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,11 +5185,11 @@
       <c r="C77" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>357</v>
+      <c r="D77" s="4" t="n">
+        <v>291</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5212,11 +5219,11 @@
       <c r="C79" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D79" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E79" s="4" t="n">
-        <v>6</v>
+      <c r="D79" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5230,7 +5237,7 @@
         <v>418</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>6</v>
@@ -5247,10 +5254,10 @@
         <v>420</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5258,16 +5265,16 @@
         <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>282</v>
+        <v>421</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5275,16 +5282,16 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>423</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5298,7 +5305,7 @@
         <v>426</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>5</v>
@@ -5315,10 +5322,10 @@
         <v>428</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5332,10 +5339,10 @@
         <v>430</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,7 +5356,7 @@
         <v>432</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E87" s="4" t="n">
         <v>7</v>
@@ -5366,10 +5373,10 @@
         <v>434</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5383,10 +5390,10 @@
         <v>436</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,10 +5407,10 @@
         <v>438</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5417,15 +5424,15 @@
         <v>441</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>442</v>
@@ -5434,7 +5441,7 @@
         <v>443</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E92" s="4" t="n">
         <v>5</v>
@@ -5451,10 +5458,10 @@
         <v>445</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5468,10 +5475,10 @@
         <v>447</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5479,16 +5486,16 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>110</v>
+        <v>448</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5496,16 +5503,16 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>449</v>
+        <v>110</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>450</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5513,50 +5520,50 @@
         <v>290</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>137</v>
+        <v>451</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>453</v>
+        <v>137</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>454</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>233</v>
+        <v>455</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5564,16 +5571,16 @@
         <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>456</v>
+        <v>233</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D100" s="9" t="n">
-        <v>412</v>
+      <c r="D100" s="4" t="n">
+        <v>398</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5581,16 +5588,16 @@
         <v>300</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>257</v>
+        <v>458</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D101" s="4" t="n">
-        <v>381</v>
+        <v>459</v>
+      </c>
+      <c r="D101" s="9" t="n">
+        <v>412</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5617,8 +5624,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5652,7 +5659,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>254</v>
@@ -5672,13 +5679,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>251</v>
+        <v>461</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>252</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>2</v>
@@ -5688,7 +5695,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>302.93</v>
+        <v>302.91</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -5700,13 +5707,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>254</v>
+        <v>462</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>251</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>2</v>
@@ -5720,7 +5727,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>251</v>
@@ -5743,7 +5750,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>255</v>
@@ -5766,7 +5773,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>255</v>
@@ -5790,7 +5797,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>272</v>
@@ -5813,7 +5820,7 @@
         <v>96</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>257</v>
@@ -5836,7 +5843,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>257</v>
@@ -5853,7 +5860,7 @@
         <v>72</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>267</v>
@@ -5870,7 +5877,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>270</v>
@@ -5887,7 +5894,7 @@
         <v>107</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>252</v>
@@ -5904,7 +5911,7 @@
         <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>268</v>
@@ -5921,7 +5928,7 @@
         <v>179</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>260</v>
@@ -5938,7 +5945,7 @@
         <v>146</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>262</v>
@@ -5955,7 +5962,7 @@
         <v>185</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>253</v>
@@ -5972,7 +5979,7 @@
         <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>271</v>
@@ -5989,7 +5996,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>268</v>
@@ -6006,7 +6013,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>283</v>
@@ -6023,7 +6030,7 @@
         <v>104</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>261</v>
@@ -6040,7 +6047,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>263</v>
@@ -6057,7 +6064,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>267</v>
@@ -6074,7 +6081,7 @@
         <v>81</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>262</v>
@@ -6091,7 +6098,7 @@
         <v>329</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>267</v>
@@ -6108,7 +6115,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>268</v>
@@ -6125,7 +6132,7 @@
         <v>161</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>268</v>
@@ -6142,7 +6149,7 @@
         <v>119</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>283</v>
@@ -6159,7 +6166,7 @@
         <v>215</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>281</v>
@@ -6176,7 +6183,7 @@
         <v>191</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>269</v>
@@ -6193,7 +6200,7 @@
         <v>155</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>279</v>
@@ -6210,7 +6217,7 @@
         <v>167</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>283</v>
@@ -6224,10 +6231,10 @@
         <v>337</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>284</v>
@@ -6244,7 +6251,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>287</v>
@@ -6258,10 +6265,10 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>273</v>
@@ -6275,10 +6282,10 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>264</v>
@@ -6312,7 +6319,7 @@
         <v>352</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>273</v>
@@ -6329,7 +6336,7 @@
         <v>122</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>281</v>
@@ -6343,10 +6350,10 @@
         <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>281</v>
@@ -6363,7 +6370,7 @@
         <v>224</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>288</v>
@@ -6377,10 +6384,10 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>291</v>
@@ -6397,7 +6404,7 @@
         <v>252</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>293</v>
@@ -6414,7 +6421,7 @@
         <v>134</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>280</v>
@@ -6428,10 +6435,10 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>297</v>
@@ -6445,10 +6452,10 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>275</v>
@@ -6462,10 +6469,10 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>276</v>
@@ -6479,10 +6486,10 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>300</v>
@@ -6499,7 +6506,7 @@
         <v>140</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>292</v>
@@ -6513,10 +6520,10 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>305</v>
@@ -6533,7 +6540,7 @@
         <v>350</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>323</v>
@@ -6547,10 +6554,10 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>357</v>
@@ -6567,7 +6574,7 @@
         <v>209</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>294</v>
@@ -6584,7 +6591,7 @@
         <v>254</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>312</v>
@@ -6598,10 +6605,10 @@
         <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>295</v>
@@ -6615,10 +6622,10 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>305</v>
@@ -6632,10 +6639,10 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>339</v>
@@ -6649,10 +6656,10 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>310</v>
@@ -6666,10 +6673,10 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>288</v>
@@ -6683,10 +6690,10 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>311</v>
@@ -6703,7 +6710,7 @@
         <v>176</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>304</v>
@@ -6717,10 +6724,10 @@
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>304</v>
@@ -6734,10 +6741,10 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>331</v>
@@ -6754,7 +6761,7 @@
         <v>227</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -6764,10 +6771,10 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>301</v>
@@ -6784,7 +6791,7 @@
         <v>355</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>357</v>
@@ -6798,10 +6805,10 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>311</v>
@@ -6818,7 +6825,7 @@
         <v>366</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>288</v>
@@ -6832,10 +6839,10 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>302</v>
@@ -6852,7 +6859,7 @@
         <v>233</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>328</v>
@@ -6866,10 +6873,10 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>316</v>
@@ -6883,10 +6890,10 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>308</v>
@@ -6900,10 +6907,10 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>389</v>
@@ -6917,10 +6924,10 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>343</v>
@@ -6937,7 +6944,7 @@
         <v>149</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>329</v>
@@ -6951,10 +6958,10 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>329</v>
@@ -6971,7 +6978,7 @@
         <v>364</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>347</v>
@@ -6985,10 +6992,10 @@
         <v>238</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>310</v>
@@ -7002,10 +7009,10 @@
         <v>241</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>326</v>
@@ -7019,10 +7026,10 @@
         <v>416</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>357</v>
@@ -7036,10 +7043,10 @@
         <v>246</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>343</v>
@@ -7053,10 +7060,10 @@
         <v>248</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>330</v>
@@ -7070,10 +7077,10 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>298</v>
@@ -7087,10 +7094,10 @@
         <v>424</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>394</v>
@@ -7104,10 +7111,10 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>362</v>
@@ -7121,10 +7128,10 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>325</v>
@@ -7138,10 +7145,10 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>355</v>
@@ -7158,7 +7165,7 @@
         <v>247</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>446</v>
@@ -7172,10 +7179,10 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>334</v>
@@ -7189,10 +7196,10 @@
         <v>271</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>323</v>
@@ -7206,10 +7213,10 @@
         <v>439</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>312</v>
@@ -7220,13 +7227,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>309</v>
@@ -7240,10 +7247,10 @@
         <v>278</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>333</v>
@@ -7257,10 +7264,10 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>359</v>
@@ -7274,10 +7281,10 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>381</v>
@@ -7291,10 +7298,10 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>355</v>
@@ -7311,7 +7318,7 @@
         <v>137</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>349</v>
@@ -7322,13 +7329,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D98" s="9" t="n">
         <v>464</v>
@@ -7339,13 +7346,13 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>339</v>
@@ -7359,10 +7366,10 @@
         <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>379</v>
@@ -7376,10 +7383,10 @@
         <v>300</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>403</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Babe" sheetId="1" state="visible" r:id="rId2"/>
@@ -678,13 +678,22 @@
     <t xml:space="preserve">70.</t>
   </si>
   <si>
+    <t xml:space="preserve">dennydon2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:30.997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.</t>
+  </si>
+  <si>
     <t xml:space="preserve">honzr</t>
   </si>
   <si>
     <t xml:space="preserve">4:32.918</t>
   </si>
   <si>
-    <t xml:space="preserve">71.</t>
+    <t xml:space="preserve">72.</t>
   </si>
   <si>
     <t xml:space="preserve">Crep</t>
@@ -693,7 +702,7 @@
     <t xml:space="preserve">4:33.513</t>
   </si>
   <si>
-    <t xml:space="preserve">72.</t>
+    <t xml:space="preserve">73.</t>
   </si>
   <si>
     <t xml:space="preserve">sisiza1771</t>
@@ -702,7 +711,7 @@
     <t xml:space="preserve">4:35.094</t>
   </si>
   <si>
-    <t xml:space="preserve">73.</t>
+    <t xml:space="preserve">74.</t>
   </si>
   <si>
     <t xml:space="preserve">Krack_1212</t>
@@ -711,7 +720,7 @@
     <t xml:space="preserve">4:35.315</t>
   </si>
   <si>
-    <t xml:space="preserve">74.</t>
+    <t xml:space="preserve">75.</t>
   </si>
   <si>
     <t xml:space="preserve">HotLencia69</t>
@@ -720,7 +729,7 @@
     <t xml:space="preserve">4:35.332</t>
   </si>
   <si>
-    <t xml:space="preserve">75.</t>
+    <t xml:space="preserve">76.</t>
   </si>
   <si>
     <t xml:space="preserve">BsCloudy</t>
@@ -729,7 +738,7 @@
     <t xml:space="preserve">4:35.468</t>
   </si>
   <si>
-    <t xml:space="preserve">76.</t>
+    <t xml:space="preserve">77.</t>
   </si>
   <si>
     <t xml:space="preserve">SR_mochi</t>
@@ -738,7 +747,7 @@
     <t xml:space="preserve">4:35.723</t>
   </si>
   <si>
-    <t xml:space="preserve">77.</t>
+    <t xml:space="preserve">78.</t>
   </si>
   <si>
     <t xml:space="preserve">twitchpop</t>
@@ -747,28 +756,28 @@
     <t xml:space="preserve">4:35.791</t>
   </si>
   <si>
-    <t xml:space="preserve">78.</t>
-  </si>
-  <si>
     <t xml:space="preserve">BlackIron</t>
   </si>
   <si>
     <t xml:space="preserve">4:35.825</t>
   </si>
   <si>
+    <t xml:space="preserve">80.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pirce59</t>
   </si>
   <si>
     <t xml:space="preserve">4:36.012</t>
   </si>
   <si>
-    <t xml:space="preserve">80.</t>
+    <t xml:space="preserve">81.</t>
   </si>
   <si>
     <t xml:space="preserve">doctorRick</t>
   </si>
   <si>
-    <t xml:space="preserve">81.</t>
+    <t xml:space="preserve">82.</t>
   </si>
   <si>
     <t xml:space="preserve">Magiczny_00</t>
@@ -777,30 +786,21 @@
     <t xml:space="preserve">4:36.250</t>
   </si>
   <si>
-    <t xml:space="preserve">82.</t>
-  </si>
-  <si>
     <t xml:space="preserve">M8N</t>
   </si>
   <si>
     <t xml:space="preserve">4:36.335</t>
   </si>
   <si>
+    <t xml:space="preserve">84.</t>
+  </si>
+  <si>
     <t xml:space="preserve">oShorty</t>
   </si>
   <si>
     <t xml:space="preserve">4:36.590</t>
   </si>
   <si>
-    <t xml:space="preserve">84.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dennydon2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:36.760</t>
-  </si>
-  <si>
     <t xml:space="preserve">85.</t>
   </si>
   <si>
@@ -1032,12 +1032,18 @@
     <t xml:space="preserve">6:36.083</t>
   </si>
   <si>
+    <t xml:space="preserve">Khart_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:36.967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.</t>
+  </si>
+  <si>
     <t xml:space="preserve">6:39.993</t>
   </si>
   <si>
-    <t xml:space="preserve">32.</t>
-  </si>
-  <si>
     <t xml:space="preserve">6:46.946</t>
   </si>
   <si>
@@ -1144,12 +1150,6 @@
   </si>
   <si>
     <t xml:space="preserve">7:39.051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khart_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:39.561</t>
   </si>
   <si>
     <t xml:space="preserve">B1ink01</t>
@@ -1893,7 +1893,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1939,10 +1939,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2025,8 +2021,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A81" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E86" activeCellId="0" sqref="E86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E72" activeCellId="0" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2097,11 +2093,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.56</v>
+        <v>229.54</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,7 +3281,7 @@
         <v>219</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E71" s="4" t="n">
         <v>0</v>
@@ -3302,7 +3298,7 @@
         <v>222</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E72" s="4" t="n">
         <v>0</v>
@@ -3319,7 +3315,7 @@
         <v>225</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
@@ -3336,7 +3332,7 @@
         <v>228</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
@@ -3353,10 +3349,10 @@
         <v>231</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,7 +3366,7 @@
         <v>234</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>1</v>
@@ -3387,10 +3383,10 @@
         <v>237</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3404,10 +3400,10 @@
         <v>240</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,11 +3416,11 @@
       <c r="C79" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D79" s="9" t="n">
-        <v>245</v>
+      <c r="D79" s="4" t="n">
+        <v>229</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3437,11 +3433,11 @@
       <c r="C80" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D80" s="4" t="n">
-        <v>227</v>
+      <c r="D80" s="9" t="n">
+        <v>245</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3452,27 +3448,27 @@
         <v>247</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="D82" s="4" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
@@ -3489,7 +3485,7 @@
         <v>253</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
@@ -3506,7 +3502,7 @@
         <v>255</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
@@ -3523,10 +3519,10 @@
         <v>258</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,8 +3821,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E85" activeCellId="0" sqref="E85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3896,11 +3892,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>295.43</v>
+        <v>295.33</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4415,33 +4411,33 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>28</v>
+        <v>336</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4449,13 +4445,13 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>339</v>
+        <v>140</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>340</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>1</v>
@@ -4466,13 +4462,13 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>1</v>
@@ -4483,13 +4479,13 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>342</v>
+        <v>227</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>343</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>1</v>
@@ -4500,16 +4496,16 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>215</v>
+        <v>344</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,16 +4513,16 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,16 +4530,16 @@
         <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,13 +4547,13 @@
         <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>1</v>
@@ -4568,16 +4564,16 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>274</v>
+        <v>122</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4585,13 +4581,13 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>2</v>
@@ -4602,13 +4598,13 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>351</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>2</v>
@@ -4624,11 +4620,11 @@
       <c r="C44" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>354</v>
+      <c r="D44" s="4" t="n">
+        <v>295</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4636,16 +4632,16 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="E45" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4653,16 +4649,16 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>221</v>
+        <v>357</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D46" s="4" t="n">
-        <v>289</v>
-      </c>
-      <c r="E46" s="4" t="n">
-        <v>1</v>
+      <c r="D46" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,13 +4666,13 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>1</v>
@@ -4687,16 +4683,16 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>360</v>
+        <v>191</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,10 +4706,10 @@
         <v>363</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,10 +4723,10 @@
         <v>365</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4744,7 +4740,7 @@
         <v>367</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>2</v>
@@ -4761,10 +4757,10 @@
         <v>369</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4778,10 +4774,10 @@
         <v>371</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4789,16 +4785,16 @@
         <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>176</v>
+        <v>372</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4806,16 +4802,16 @@
         <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4823,16 +4819,16 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>374</v>
+        <v>218</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>375</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4857,7 +4853,7 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>378</v>
@@ -4914,10 +4910,10 @@
         <v>383</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5078,7 +5074,7 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>400</v>
@@ -5095,7 +5091,7 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>401</v>
@@ -5203,10 +5199,10 @@
         <v>413</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5220,10 +5216,10 @@
         <v>415</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,7 +5258,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>421</v>
@@ -5571,7 +5567,7 @@
         <v>297</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>457</v>
@@ -5624,7 +5620,7 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -5684,7 +5680,7 @@
       <c r="C3" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="4" t="n">
         <v>252</v>
       </c>
       <c r="E3" s="4" t="n">
@@ -6228,7 +6224,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>398</v>
@@ -6282,7 +6278,7 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>495</v>
@@ -6299,7 +6295,7 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>326</v>
@@ -6316,7 +6312,7 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>496</v>
@@ -6367,7 +6363,7 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>499</v>
@@ -6401,7 +6397,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>502</v>
@@ -6452,7 +6448,7 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>505</v>
@@ -6537,7 +6533,7 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>511</v>
@@ -6560,10 +6556,10 @@
         <v>512</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6588,7 +6584,7 @@
         <v>163</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>514</v>
@@ -6656,7 +6652,7 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>518</v>
@@ -6758,7 +6754,7 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>526</v>
@@ -6788,16 +6784,16 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>528</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6822,7 +6818,7 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>531</v>
@@ -6856,7 +6852,7 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>533</v>
@@ -6975,7 +6971,7 @@
         <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>544</v>
@@ -7032,10 +7028,10 @@
         <v>548</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7057,7 +7053,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>551</v>
@@ -7162,7 +7158,7 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>563</v>
@@ -7349,7 +7345,7 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>578</v>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Babe" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="583">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -249,7 +249,7 @@
     <t xml:space="preserve">22.</t>
   </si>
   <si>
-    <t xml:space="preserve">KurierDPD</t>
+    <t xml:space="preserve">Kurwier</t>
   </si>
   <si>
     <t xml:space="preserve">4:16.275</t>
@@ -660,13 +660,22 @@
     <t xml:space="preserve">68.</t>
   </si>
   <si>
+    <t xml:space="preserve">dennydon2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:27.308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Em_ily</t>
   </si>
   <si>
     <t xml:space="preserve">4:28.073</t>
   </si>
   <si>
-    <t xml:space="preserve">69.</t>
+    <t xml:space="preserve">70.</t>
   </si>
   <si>
     <t xml:space="preserve">tetoloid</t>
@@ -675,15 +684,6 @@
     <t xml:space="preserve">4:28.345</t>
   </si>
   <si>
-    <t xml:space="preserve">70.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dennydon2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:30.997</t>
-  </si>
-  <si>
     <t xml:space="preserve">71.</t>
   </si>
   <si>
@@ -813,13 +813,22 @@
     <t xml:space="preserve">86.</t>
   </si>
   <si>
+    <t xml:space="preserve">Duckyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37.066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wisteer_</t>
   </si>
   <si>
     <t xml:space="preserve">4:37.253</t>
   </si>
   <si>
-    <t xml:space="preserve">87.</t>
+    <t xml:space="preserve">88.</t>
   </si>
   <si>
     <t xml:space="preserve">yuyumon_nick</t>
@@ -828,7 +837,7 @@
     <t xml:space="preserve">4:37.559</t>
   </si>
   <si>
-    <t xml:space="preserve">88.</t>
+    <t xml:space="preserve">89.</t>
   </si>
   <si>
     <t xml:space="preserve">DJJake7</t>
@@ -837,28 +846,28 @@
     <t xml:space="preserve">4:37.610</t>
   </si>
   <si>
-    <t xml:space="preserve">89.</t>
-  </si>
-  <si>
     <t xml:space="preserve">BotRaj</t>
   </si>
   <si>
     <t xml:space="preserve">4:37.729</t>
   </si>
   <si>
+    <t xml:space="preserve">91.</t>
+  </si>
+  <si>
     <t xml:space="preserve">retsu_teno</t>
   </si>
   <si>
     <t xml:space="preserve">4:37.797</t>
   </si>
   <si>
-    <t xml:space="preserve">91.</t>
+    <t xml:space="preserve">92.</t>
   </si>
   <si>
     <t xml:space="preserve">Chariot_Rider</t>
   </si>
   <si>
-    <t xml:space="preserve">92.</t>
+    <t xml:space="preserve">93.</t>
   </si>
   <si>
     <t xml:space="preserve">laza2115</t>
@@ -867,7 +876,7 @@
     <t xml:space="preserve">4:37.882</t>
   </si>
   <si>
-    <t xml:space="preserve">93.</t>
+    <t xml:space="preserve">94.</t>
   </si>
   <si>
     <t xml:space="preserve">DolpIn_62</t>
@@ -876,7 +885,7 @@
     <t xml:space="preserve">4:38.392</t>
   </si>
   <si>
-    <t xml:space="preserve">94.</t>
+    <t xml:space="preserve">95.</t>
   </si>
   <si>
     <t xml:space="preserve">okita_110</t>
@@ -885,7 +894,7 @@
     <t xml:space="preserve">4:38.596</t>
   </si>
   <si>
-    <t xml:space="preserve">95.</t>
+    <t xml:space="preserve">96.</t>
   </si>
   <si>
     <t xml:space="preserve">Siuuunic</t>
@@ -894,28 +903,28 @@
     <t xml:space="preserve">4:38.613</t>
   </si>
   <si>
-    <t xml:space="preserve">96.</t>
-  </si>
-  <si>
     <t xml:space="preserve">BlueStormDragon</t>
   </si>
   <si>
     <t xml:space="preserve">4:38.698</t>
   </si>
   <si>
+    <t xml:space="preserve">98.</t>
+  </si>
+  <si>
     <t xml:space="preserve">You_too</t>
   </si>
   <si>
     <t xml:space="preserve">4:38.868</t>
   </si>
   <si>
-    <t xml:space="preserve">98.</t>
+    <t xml:space="preserve">99.</t>
   </si>
   <si>
     <t xml:space="preserve">tsiiga</t>
   </si>
   <si>
-    <t xml:space="preserve">99.</t>
+    <t xml:space="preserve">100.</t>
   </si>
   <si>
     <t xml:space="preserve">Entorihi</t>
@@ -924,291 +933,285 @@
     <t xml:space="preserve">4:39.038</t>
   </si>
   <si>
-    <t xml:space="preserve">100.</t>
+    <t xml:space="preserve">5:33.846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:34.696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:37.399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:38.538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:43.213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:44.335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:47.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:48.228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:52.699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:56.745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:57.153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:57.476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:04.803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:05.483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:07.608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:10.073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:11.059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:12.895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:12.946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:14.527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:19.797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:20.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:20.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:22.806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:24.064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miyagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:25.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cjm8026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:26.699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:32.649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:33.635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drgrrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:36.083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khart_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:36.967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:39.993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:46.946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joebannks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toskania_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:49.853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:51.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:58.166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:04.252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:06.564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:11.341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:13.806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sukezamon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:23.836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yorimitijido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:24.737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gr3mXR3apa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:26.930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:28.266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:29.667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aotogarashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:32.506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:32.591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skatman117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:34.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackANTIvenom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:34.172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D_PPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:35.311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resolver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:35.383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:35.872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:39.051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1ink01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:44.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:44.355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:48.333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitas2222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:49.523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personakun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:51.189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be5moti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:52.090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:52.974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JackJJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:53.739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solwf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:53.909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:55.405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MysticSooosu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:56.595</t>
   </si>
   <si>
     <t xml:space="preserve">caseyreese</t>
   </si>
   <si>
-    <t xml:space="preserve">4:39.378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:33.846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:34.696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:37.399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:38.538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:43.213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:44.335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:47.140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:48.228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:52.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:56.745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:57.153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:57.476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:04.803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:05.483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:07.608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:10.073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:12.895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:12.946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:14.527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:19.797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:20.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:20.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:22.806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:24.064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miyagi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:25.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cjm8026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:26.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:30.184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:32.649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:33.635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drgrrr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:36.083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khart_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:36.967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:39.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:46.946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joebannks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toskania_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:49.853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:51.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:58.166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:04.252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:06.564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:11.341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:13.806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sukezamon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:23.836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yorimitijido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:24.737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gr3mXR3apa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:26.930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:28.266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:29.667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aotogarashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:32.506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bogman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:32.591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skatman117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:34.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackANTIvenom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:34.172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2D_PPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:35.311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resolver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:35.383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:35.872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:39.051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1ink01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:44.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:44.355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:48.333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitas2222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:49.523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personakun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:51.189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be5moti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:52.090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:52.974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JackJJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:53.739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solwf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:53.909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:55.405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MysticSooosu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:56.595</t>
-  </si>
-  <si>
     <t xml:space="preserve">7:59.893</t>
   </si>
   <si>
@@ -1755,6 +1758,12 @@
     <t xml:space="preserve">8:48.683</t>
   </si>
   <si>
+    <t xml:space="preserve">TheFakeKenzie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:50.587</t>
+  </si>
+  <si>
     <t xml:space="preserve">8:57.132</t>
   </si>
   <si>
@@ -1762,9 +1771,6 @@
   </si>
   <si>
     <t xml:space="preserve">8:59.376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:05.071</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1899,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1939,6 +1945,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2021,8 +2031,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E72" activeCellId="0" sqref="E72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U40" activeCellId="0" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2093,7 +2103,7 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.54</v>
+        <v>229.52</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
@@ -3247,10 +3257,10 @@
         <v>213</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,10 +3274,10 @@
         <v>216</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,7 +3291,7 @@
         <v>219</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E71" s="4" t="n">
         <v>0</v>
@@ -3553,7 +3563,7 @@
         <v>264</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E87" s="4" t="n">
         <v>0</v>
@@ -3570,7 +3580,7 @@
         <v>267</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E88" s="4" t="n">
         <v>0</v>
@@ -3590,7 +3600,7 @@
         <v>236</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,10 +3614,10 @@
         <v>273</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3621,7 +3631,7 @@
         <v>275</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E91" s="4" t="n">
         <v>0</v>
@@ -3631,14 +3641,14 @@
       <c r="A92" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E92" s="4" t="n">
         <v>0</v>
@@ -3646,16 +3656,16 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="D93" s="4" t="n">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E93" s="4" t="n">
         <v>0</v>
@@ -3672,7 +3682,7 @@
         <v>283</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E94" s="4" t="n">
         <v>0</v>
@@ -3689,7 +3699,7 @@
         <v>286</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E95" s="4" t="n">
         <v>0</v>
@@ -3706,7 +3716,7 @@
         <v>289</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E96" s="4" t="n">
         <v>0</v>
@@ -3723,7 +3733,7 @@
         <v>292</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E97" s="4" t="n">
         <v>0</v>
@@ -3739,8 +3749,8 @@
       <c r="C98" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D98" s="9" t="n">
-        <v>245</v>
+      <c r="D98" s="4" t="n">
+        <v>218</v>
       </c>
       <c r="E98" s="4" t="n">
         <v>0</v>
@@ -3754,10 +3764,10 @@
         <v>296</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D99" s="4" t="n">
-        <v>227</v>
+        <v>297</v>
+      </c>
+      <c r="D99" s="9" t="n">
+        <v>245</v>
       </c>
       <c r="E99" s="4" t="n">
         <v>0</v>
@@ -3765,16 +3775,16 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D100" s="9" t="n">
-        <v>245</v>
+      <c r="D100" s="4" t="n">
+        <v>227</v>
       </c>
       <c r="E100" s="4" t="n">
         <v>0</v>
@@ -3790,8 +3800,8 @@
       <c r="C101" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D101" s="4" t="n">
-        <v>226</v>
+      <c r="D101" s="9" t="n">
+        <v>245</v>
       </c>
       <c r="E101" s="4" t="n">
         <v>0</v>
@@ -3821,8 +3831,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3892,11 +3902,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>295.33</v>
+        <v>295.36</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,13 +4183,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="11" t="n">
-        <v>249</v>
+      <c r="D18" s="4" t="n">
+        <v>268</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>0</v>
@@ -4190,13 +4200,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D19" s="4" t="n">
-        <v>306</v>
+      <c r="D19" s="11" t="n">
+        <v>249</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>0</v>
@@ -4207,13 +4217,13 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>321</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>0</v>
@@ -4224,13 +4234,13 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>322</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
@@ -4241,13 +4251,13 @@
         <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>323</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
@@ -4258,13 +4268,13 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>324</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
@@ -4275,16 +4285,16 @@
         <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>325</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,16 +4302,16 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>326</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,16 +4319,16 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="D26" s="4" t="n">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4326,13 +4336,13 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="D27" s="4" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>0</v>
@@ -4343,16 +4353,16 @@
         <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>331</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,7 +4370,7 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>332</v>
@@ -4513,7 +4523,7 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>346</v>
@@ -4581,7 +4591,7 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>350</v>
@@ -4819,7 +4829,7 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>375</v>
@@ -4870,7 +4880,7 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>379</v>
@@ -4989,7 +4999,7 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>392</v>
@@ -5023,10 +5033,10 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>301</v>
+        <v>395</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>321</v>
@@ -5040,10 +5050,10 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>303</v>
@@ -5057,10 +5067,10 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>323</v>
@@ -5077,7 +5087,7 @@
         <v>247</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>295</v>
@@ -5094,7 +5104,7 @@
         <v>250</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>304</v>
@@ -5108,10 +5118,10 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>292</v>
@@ -5125,10 +5135,10 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>284</v>
@@ -5142,10 +5152,10 @@
         <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>286</v>
@@ -5159,10 +5169,10 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>293</v>
@@ -5176,10 +5186,10 @@
         <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>291</v>
@@ -5193,10 +5203,10 @@
         <v>238</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>359</v>
@@ -5210,10 +5220,10 @@
         <v>241</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>359</v>
@@ -5224,13 +5234,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>294</v>
@@ -5244,10 +5254,10 @@
         <v>246</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>307</v>
@@ -5261,10 +5271,10 @@
         <v>249</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>334</v>
@@ -5278,10 +5288,10 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>305</v>
@@ -5292,13 +5302,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>314</v>
@@ -5312,10 +5322,10 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>295</v>
@@ -5329,10 +5339,10 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>303</v>
@@ -5346,10 +5356,10 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>355</v>
@@ -5363,10 +5373,10 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>334</v>
@@ -5380,10 +5390,10 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>334</v>
@@ -5397,10 +5407,10 @@
         <v>271</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>356</v>
@@ -5411,13 +5421,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>309</v>
@@ -5431,10 +5441,10 @@
         <v>276</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>319</v>
@@ -5445,13 +5455,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>310</v>
@@ -5465,10 +5475,10 @@
         <v>281</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>366</v>
@@ -5482,10 +5492,10 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>303</v>
@@ -5502,7 +5512,7 @@
         <v>110</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>399</v>
@@ -5516,10 +5526,10 @@
         <v>290</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>305</v>
@@ -5530,13 +5540,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D98" s="4" t="n">
         <v>368</v>
@@ -5550,10 +5560,10 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>316</v>
@@ -5564,13 +5574,13 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>236</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>398</v>
@@ -5584,10 +5594,10 @@
         <v>300</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D101" s="9" t="n">
         <v>412</v>
@@ -5620,8 +5630,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5655,7 +5665,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>254</v>
@@ -5678,7 +5688,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>252</v>
@@ -5691,11 +5701,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>302.91</v>
+        <v>302.74</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>3.83</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5706,7 +5716,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>251</v>
@@ -5723,7 +5733,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>251</v>
@@ -5746,7 +5756,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>255</v>
@@ -5769,7 +5779,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>255</v>
@@ -5793,7 +5803,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>272</v>
@@ -5816,7 +5826,7 @@
         <v>96</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>257</v>
@@ -5839,7 +5849,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>257</v>
@@ -5856,7 +5866,7 @@
         <v>72</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>267</v>
@@ -5873,7 +5883,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>270</v>
@@ -5890,7 +5900,7 @@
         <v>107</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>252</v>
@@ -5907,7 +5917,7 @@
         <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>268</v>
@@ -5924,7 +5934,7 @@
         <v>179</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>260</v>
@@ -5941,7 +5951,7 @@
         <v>146</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>262</v>
@@ -5958,7 +5968,7 @@
         <v>185</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>253</v>
@@ -5975,7 +5985,7 @@
         <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>271</v>
@@ -5992,7 +6002,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>268</v>
@@ -6009,7 +6019,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>283</v>
@@ -6026,7 +6036,7 @@
         <v>104</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>261</v>
@@ -6043,7 +6053,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>263</v>
@@ -6060,7 +6070,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>267</v>
@@ -6077,7 +6087,7 @@
         <v>81</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>262</v>
@@ -6091,10 +6101,10 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>267</v>
@@ -6111,7 +6121,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>268</v>
@@ -6128,7 +6138,7 @@
         <v>161</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>268</v>
@@ -6145,7 +6155,7 @@
         <v>119</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>283</v>
@@ -6159,10 +6169,10 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>281</v>
@@ -6179,7 +6189,7 @@
         <v>191</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>269</v>
@@ -6196,7 +6206,7 @@
         <v>155</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>279</v>
@@ -6213,7 +6223,7 @@
         <v>167</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>283</v>
@@ -6227,10 +6237,10 @@
         <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>284</v>
@@ -6247,7 +6257,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>287</v>
@@ -6261,10 +6271,10 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>273</v>
@@ -6278,10 +6288,10 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>264</v>
@@ -6298,7 +6308,7 @@
         <v>362</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>294</v>
@@ -6315,7 +6325,7 @@
         <v>354</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>273</v>
@@ -6332,7 +6342,7 @@
         <v>122</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>281</v>
@@ -6349,7 +6359,7 @@
         <v>386</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>281</v>
@@ -6366,7 +6376,7 @@
         <v>227</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>288</v>
@@ -6380,10 +6390,10 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>291</v>
@@ -6400,7 +6410,7 @@
         <v>254</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>293</v>
@@ -6417,7 +6427,7 @@
         <v>134</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>280</v>
@@ -6431,10 +6441,10 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>297</v>
@@ -6451,7 +6461,7 @@
         <v>370</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>275</v>
@@ -6465,10 +6475,10 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>276</v>
@@ -6485,7 +6495,7 @@
         <v>380</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>300</v>
@@ -6502,7 +6512,7 @@
         <v>140</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>292</v>
@@ -6516,10 +6526,10 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>305</v>
@@ -6536,7 +6546,7 @@
         <v>352</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>323</v>
@@ -6553,7 +6563,7 @@
         <v>382</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>359</v>
@@ -6570,7 +6580,7 @@
         <v>209</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>294</v>
@@ -6587,7 +6597,7 @@
         <v>257</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>312</v>
@@ -6604,7 +6614,7 @@
         <v>384</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>295</v>
@@ -6618,10 +6628,10 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>305</v>
@@ -6635,10 +6645,10 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>339</v>
@@ -6655,7 +6665,7 @@
         <v>372</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>310</v>
@@ -6669,10 +6679,10 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D59" s="4" t="n">
         <v>288</v>
@@ -6686,10 +6696,10 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>311</v>
@@ -6706,7 +6716,7 @@
         <v>176</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>304</v>
@@ -6720,10 +6730,10 @@
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>304</v>
@@ -6737,10 +6747,10 @@
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>331</v>
@@ -6757,7 +6767,7 @@
         <v>230</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -6767,10 +6777,10 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>301</v>
@@ -6787,7 +6797,7 @@
         <v>357</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>359</v>
@@ -6801,10 +6811,10 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>311</v>
@@ -6821,7 +6831,7 @@
         <v>368</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>288</v>
@@ -6838,7 +6848,7 @@
         <v>388</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>302</v>
@@ -6855,7 +6865,7 @@
         <v>236</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>328</v>
@@ -6869,10 +6879,10 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>316</v>
@@ -6886,10 +6896,10 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D72" s="4" t="n">
         <v>308</v>
@@ -6903,10 +6913,10 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>389</v>
@@ -6920,10 +6930,10 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>343</v>
@@ -6940,7 +6950,7 @@
         <v>149</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>329</v>
@@ -6954,10 +6964,10 @@
         <v>232</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>329</v>
@@ -6974,7 +6984,7 @@
         <v>366</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>347</v>
@@ -6991,7 +7001,7 @@
         <v>376</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>310</v>
@@ -7005,10 +7015,10 @@
         <v>241</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>326</v>
@@ -7019,13 +7029,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>359</v>
@@ -7039,10 +7049,10 @@
         <v>246</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>343</v>
@@ -7056,10 +7066,10 @@
         <v>249</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>330</v>
@@ -7073,10 +7083,10 @@
         <v>251</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>298</v>
@@ -7087,13 +7097,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>394</v>
@@ -7107,10 +7117,10 @@
         <v>256</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>362</v>
@@ -7124,10 +7134,10 @@
         <v>259</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>325</v>
@@ -7141,10 +7151,10 @@
         <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>355</v>
@@ -7161,7 +7171,7 @@
         <v>250</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>446</v>
@@ -7175,10 +7185,10 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>334</v>
@@ -7195,7 +7205,7 @@
         <v>393</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>323</v>
@@ -7206,13 +7216,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>312</v>
@@ -7226,10 +7236,10 @@
         <v>276</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>309</v>
@@ -7240,13 +7250,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>333</v>
@@ -7263,7 +7273,7 @@
         <v>390</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>359</v>
@@ -7277,10 +7287,10 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>381</v>
@@ -7294,10 +7304,10 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>355</v>
@@ -7314,7 +7324,7 @@
         <v>137</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>349</v>
@@ -7325,19 +7335,19 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>448</v>
+        <v>578</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="D98" s="9" t="n">
-        <v>464</v>
+        <v>579</v>
+      </c>
+      <c r="D98" s="12" t="n">
+        <v>387</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7345,33 +7355,33 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>252</v>
+        <v>449</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D99" s="4" t="n">
-        <v>339</v>
+        <v>580</v>
+      </c>
+      <c r="D99" s="9" t="n">
+        <v>464</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,16 +7389,16 @@
         <v>300</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>451</v>
+        <v>260</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Top100 Jumps&Falls/Jumps&Falls.xlsx
+++ b/Top100 Jumps&Falls/Jumps&Falls.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="584">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">Casu</t>
   </si>
   <si>
-    <t xml:space="preserve">4:00.227</t>
+    <t xml:space="preserve">4:00.176</t>
   </si>
   <si>
     <t xml:space="preserve">Average</t>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Hanyeah</t>
   </si>
   <si>
-    <t xml:space="preserve">4:01.315</t>
+    <t xml:space="preserve">4:00.992</t>
   </si>
   <si>
     <t xml:space="preserve">4.</t>
@@ -84,16 +84,28 @@
     <t xml:space="preserve">5.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kuroguro2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:02.505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„-” - there is no video proof available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ambinub</t>
   </si>
   <si>
     <t xml:space="preserve">4:02.590</t>
   </si>
   <si>
-    <t xml:space="preserve">„-” - there is no video proof available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.</t>
+    <t xml:space="preserve">„?” - there is a vidego proof, but end screen is not shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.</t>
   </si>
   <si>
     <t xml:space="preserve">Crbknight</t>
@@ -102,10 +114,10 @@
     <t xml:space="preserve">4:02.891</t>
   </si>
   <si>
-    <t xml:space="preserve">„?” - there is a vidego proof, but end screen is not shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.</t>
+    <t xml:space="preserve">Green Color – smallest number of jumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.</t>
   </si>
   <si>
     <t xml:space="preserve">flippeh</t>
@@ -114,18 +126,6 @@
     <t xml:space="preserve">4:03.151</t>
   </si>
   <si>
-    <t xml:space="preserve">Green Color – smallest number of jumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuroguro2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:03.219</t>
-  </si>
-  <si>
     <t xml:space="preserve">Red Color – biggest number of jumps</t>
   </si>
   <si>
@@ -177,21 +177,21 @@
     <t xml:space="preserve">14.</t>
   </si>
   <si>
+    <t xml:space="preserve">Lehvel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:05.616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.</t>
+  </si>
+  <si>
     <t xml:space="preserve">H_ebi</t>
   </si>
   <si>
     <t xml:space="preserve">4:06.007</t>
   </si>
   <si>
-    <t xml:space="preserve">15.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lehvel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:09.713</t>
-  </si>
-  <si>
     <t xml:space="preserve">16.</t>
   </si>
   <si>
@@ -570,13 +570,22 @@
     <t xml:space="preserve">58.</t>
   </si>
   <si>
+    <t xml:space="preserve">henthans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:23.279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.</t>
+  </si>
+  <si>
     <t xml:space="preserve">texhnolyzem</t>
   </si>
   <si>
     <t xml:space="preserve">4:23.823</t>
   </si>
   <si>
-    <t xml:space="preserve">59.</t>
+    <t xml:space="preserve">60.</t>
   </si>
   <si>
     <t xml:space="preserve">control_speed</t>
@@ -585,7 +594,7 @@
     <t xml:space="preserve">4:23.874</t>
   </si>
   <si>
-    <t xml:space="preserve">60.</t>
+    <t xml:space="preserve">61.</t>
   </si>
   <si>
     <t xml:space="preserve">Alanukan</t>
@@ -594,7 +603,7 @@
     <t xml:space="preserve">4:24.299</t>
   </si>
   <si>
-    <t xml:space="preserve">61.</t>
+    <t xml:space="preserve">62.</t>
   </si>
   <si>
     <t xml:space="preserve">Skromnique</t>
@@ -603,15 +612,6 @@
     <t xml:space="preserve">4:24.469</t>
   </si>
   <si>
-    <t xml:space="preserve">62.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">henthans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:24.690</t>
-  </si>
-  <si>
     <t xml:space="preserve">63.</t>
   </si>
   <si>
@@ -669,13 +669,22 @@
     <t xml:space="preserve">69.</t>
   </si>
   <si>
+    <t xml:space="preserve">mellowtonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:27.971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Em_ily</t>
   </si>
   <si>
     <t xml:space="preserve">4:28.073</t>
   </si>
   <si>
-    <t xml:space="preserve">70.</t>
+    <t xml:space="preserve">71.</t>
   </si>
   <si>
     <t xml:space="preserve">tetoloid</t>
@@ -684,7 +693,7 @@
     <t xml:space="preserve">4:28.345</t>
   </si>
   <si>
-    <t xml:space="preserve">71.</t>
+    <t xml:space="preserve">72.</t>
   </si>
   <si>
     <t xml:space="preserve">honzr</t>
@@ -693,7 +702,7 @@
     <t xml:space="preserve">4:32.918</t>
   </si>
   <si>
-    <t xml:space="preserve">72.</t>
+    <t xml:space="preserve">73.</t>
   </si>
   <si>
     <t xml:space="preserve">Crep</t>
@@ -702,7 +711,7 @@
     <t xml:space="preserve">4:33.513</t>
   </si>
   <si>
-    <t xml:space="preserve">73.</t>
+    <t xml:space="preserve">74.</t>
   </si>
   <si>
     <t xml:space="preserve">sisiza1771</t>
@@ -711,7 +720,7 @@
     <t xml:space="preserve">4:35.094</t>
   </si>
   <si>
-    <t xml:space="preserve">74.</t>
+    <t xml:space="preserve">75.</t>
   </si>
   <si>
     <t xml:space="preserve">Krack_1212</t>
@@ -720,7 +729,7 @@
     <t xml:space="preserve">4:35.315</t>
   </si>
   <si>
-    <t xml:space="preserve">75.</t>
+    <t xml:space="preserve">76.</t>
   </si>
   <si>
     <t xml:space="preserve">HotLencia69</t>
@@ -729,7 +738,7 @@
     <t xml:space="preserve">4:35.332</t>
   </si>
   <si>
-    <t xml:space="preserve">76.</t>
+    <t xml:space="preserve">77.</t>
   </si>
   <si>
     <t xml:space="preserve">BsCloudy</t>
@@ -738,7 +747,7 @@
     <t xml:space="preserve">4:35.468</t>
   </si>
   <si>
-    <t xml:space="preserve">77.</t>
+    <t xml:space="preserve">78.</t>
   </si>
   <si>
     <t xml:space="preserve">SR_mochi</t>
@@ -747,22 +756,22 @@
     <t xml:space="preserve">4:35.723</t>
   </si>
   <si>
-    <t xml:space="preserve">78.</t>
-  </si>
-  <si>
     <t xml:space="preserve">twitchpop</t>
   </si>
   <si>
     <t xml:space="preserve">4:35.791</t>
   </si>
   <si>
+    <t xml:space="preserve">80.</t>
+  </si>
+  <si>
     <t xml:space="preserve">BlackIron</t>
   </si>
   <si>
     <t xml:space="preserve">4:35.825</t>
   </si>
   <si>
-    <t xml:space="preserve">80.</t>
+    <t xml:space="preserve">81.</t>
   </si>
   <si>
     <t xml:space="preserve">Pirce59</t>
@@ -771,28 +780,28 @@
     <t xml:space="preserve">4:36.012</t>
   </si>
   <si>
-    <t xml:space="preserve">81.</t>
+    <t xml:space="preserve">82.</t>
   </si>
   <si>
     <t xml:space="preserve">doctorRick</t>
   </si>
   <si>
-    <t xml:space="preserve">82.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Magiczny_00</t>
   </si>
   <si>
     <t xml:space="preserve">4:36.250</t>
   </si>
   <si>
+    <t xml:space="preserve">84.</t>
+  </si>
+  <si>
     <t xml:space="preserve">M8N</t>
   </si>
   <si>
     <t xml:space="preserve">4:36.335</t>
   </si>
   <si>
-    <t xml:space="preserve">84.</t>
+    <t xml:space="preserve">85.</t>
   </si>
   <si>
     <t xml:space="preserve">oShorty</t>
@@ -801,7 +810,7 @@
     <t xml:space="preserve">4:36.590</t>
   </si>
   <si>
-    <t xml:space="preserve">85.</t>
+    <t xml:space="preserve">86.</t>
   </si>
   <si>
     <t xml:space="preserve">GlowdFire</t>
@@ -810,7 +819,7 @@
     <t xml:space="preserve">4:36.828</t>
   </si>
   <si>
-    <t xml:space="preserve">86.</t>
+    <t xml:space="preserve">87.</t>
   </si>
   <si>
     <t xml:space="preserve">Duckyn</t>
@@ -819,7 +828,7 @@
     <t xml:space="preserve">4:37.066</t>
   </si>
   <si>
-    <t xml:space="preserve">87.</t>
+    <t xml:space="preserve">88.</t>
   </si>
   <si>
     <t xml:space="preserve">Wisteer_</t>
@@ -828,7 +837,7 @@
     <t xml:space="preserve">4:37.253</t>
   </si>
   <si>
-    <t xml:space="preserve">88.</t>
+    <t xml:space="preserve">89.</t>
   </si>
   <si>
     <t xml:space="preserve">yuyumon_nick</t>
@@ -837,22 +846,22 @@
     <t xml:space="preserve">4:37.559</t>
   </si>
   <si>
-    <t xml:space="preserve">89.</t>
-  </si>
-  <si>
     <t xml:space="preserve">DJJake7</t>
   </si>
   <si>
     <t xml:space="preserve">4:37.610</t>
   </si>
   <si>
+    <t xml:space="preserve">91.</t>
+  </si>
+  <si>
     <t xml:space="preserve">BotRaj</t>
   </si>
   <si>
     <t xml:space="preserve">4:37.729</t>
   </si>
   <si>
-    <t xml:space="preserve">91.</t>
+    <t xml:space="preserve">92.</t>
   </si>
   <si>
     <t xml:space="preserve">retsu_teno</t>
@@ -861,13 +870,13 @@
     <t xml:space="preserve">4:37.797</t>
   </si>
   <si>
-    <t xml:space="preserve">92.</t>
+    <t xml:space="preserve">93.</t>
   </si>
   <si>
     <t xml:space="preserve">Chariot_Rider</t>
   </si>
   <si>
-    <t xml:space="preserve">93.</t>
+    <t xml:space="preserve">94.</t>
   </si>
   <si>
     <t xml:space="preserve">laza2115</t>
@@ -876,7 +885,7 @@
     <t xml:space="preserve">4:37.882</t>
   </si>
   <si>
-    <t xml:space="preserve">94.</t>
+    <t xml:space="preserve">95.</t>
   </si>
   <si>
     <t xml:space="preserve">DolpIn_62</t>
@@ -885,7 +894,7 @@
     <t xml:space="preserve">4:38.392</t>
   </si>
   <si>
-    <t xml:space="preserve">95.</t>
+    <t xml:space="preserve">96.</t>
   </si>
   <si>
     <t xml:space="preserve">okita_110</t>
@@ -894,22 +903,22 @@
     <t xml:space="preserve">4:38.596</t>
   </si>
   <si>
-    <t xml:space="preserve">96.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Siuuunic</t>
   </si>
   <si>
     <t xml:space="preserve">4:38.613</t>
   </si>
   <si>
+    <t xml:space="preserve">98.</t>
+  </si>
+  <si>
     <t xml:space="preserve">BlueStormDragon</t>
   </si>
   <si>
     <t xml:space="preserve">4:38.698</t>
   </si>
   <si>
-    <t xml:space="preserve">98.</t>
+    <t xml:space="preserve">99.</t>
   </si>
   <si>
     <t xml:space="preserve">You_too</t>
@@ -918,21 +927,12 @@
     <t xml:space="preserve">4:38.868</t>
   </si>
   <si>
-    <t xml:space="preserve">99.</t>
+    <t xml:space="preserve">100.</t>
   </si>
   <si>
     <t xml:space="preserve">tsiiga</t>
   </si>
   <si>
-    <t xml:space="preserve">100.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entorihi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:39.038</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:33.846</t>
   </si>
   <si>
@@ -975,6 +975,9 @@
     <t xml:space="preserve">6:05.483</t>
   </si>
   <si>
+    <t xml:space="preserve">6:06.741</t>
+  </si>
+  <si>
     <t xml:space="preserve">6:07.608</t>
   </si>
   <si>
@@ -990,9 +993,6 @@
     <t xml:space="preserve">6:12.946</t>
   </si>
   <si>
-    <t xml:space="preserve">6:14.527</t>
-  </si>
-  <si>
     <t xml:space="preserve">6:19.797</t>
   </si>
   <si>
@@ -1002,6 +1002,12 @@
     <t xml:space="preserve">6:20.120</t>
   </si>
   <si>
+    <t xml:space="preserve">joeljam321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:20.256</t>
+  </si>
+  <si>
     <t xml:space="preserve">6:22.806</t>
   </si>
   <si>
@@ -1032,15 +1038,15 @@
     <t xml:space="preserve">6:36.083</t>
   </si>
   <si>
+    <t xml:space="preserve">32.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Khart_</t>
   </si>
   <si>
     <t xml:space="preserve">6:36.967</t>
   </si>
   <si>
-    <t xml:space="preserve">32.</t>
-  </si>
-  <si>
     <t xml:space="preserve">6:39.993</t>
   </si>
   <si>
@@ -1134,6 +1140,12 @@
     <t xml:space="preserve">7:34.172</t>
   </si>
   <si>
+    <t xml:space="preserve">PrincessRosca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:34.461</t>
+  </si>
+  <si>
     <t xml:space="preserve">2D_PPT</t>
   </si>
   <si>
@@ -1263,6 +1275,9 @@
     <t xml:space="preserve">8:26.133</t>
   </si>
   <si>
+    <t xml:space="preserve">79.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lenrok</t>
   </si>
   <si>
@@ -1275,9 +1290,6 @@
     <t xml:space="preserve">8:33.910</t>
   </si>
   <si>
-    <t xml:space="preserve">79.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Denryu</t>
   </si>
   <si>
@@ -1290,18 +1302,12 @@
     <t xml:space="preserve">8:37.701</t>
   </si>
   <si>
-    <t xml:space="preserve">PrincessRosca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:48.122</t>
+    <t xml:space="preserve">83.</t>
   </si>
   <si>
     <t xml:space="preserve">8:48.275</t>
   </si>
   <si>
-    <t xml:space="preserve">83.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tungii</t>
   </si>
   <si>
@@ -1338,15 +1344,15 @@
     <t xml:space="preserve">9:02.028</t>
   </si>
   <si>
+    <t xml:space="preserve">90.</t>
+  </si>
+  <si>
     <t xml:space="preserve">k3ruba</t>
   </si>
   <si>
     <t xml:space="preserve">9:05.122</t>
   </si>
   <si>
-    <t xml:space="preserve">90.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thinklater</t>
   </si>
   <si>
@@ -1380,15 +1386,15 @@
     <t xml:space="preserve">9:22.054</t>
   </si>
   <si>
+    <t xml:space="preserve">97.</t>
+  </si>
+  <si>
     <t xml:space="preserve">GingerGiant</t>
   </si>
   <si>
     <t xml:space="preserve">9:23.533</t>
   </si>
   <si>
-    <t xml:space="preserve">97.</t>
-  </si>
-  <si>
     <t xml:space="preserve">9:26.542</t>
   </si>
   <si>
@@ -1401,12 +1407,6 @@
     <t xml:space="preserve">9:28.990</t>
   </si>
   <si>
-    <t xml:space="preserve">Waitingcoronet5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:30.401</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:12.732</t>
   </si>
   <si>
@@ -1428,6 +1428,9 @@
     <t xml:space="preserve">5:26.672</t>
   </si>
   <si>
+    <t xml:space="preserve">5:28.151</t>
+  </si>
+  <si>
     <t xml:space="preserve">5:32.894</t>
   </si>
   <si>
@@ -1443,7 +1446,7 @@
     <t xml:space="preserve">5:37.671</t>
   </si>
   <si>
-    <t xml:space="preserve">5:40.663</t>
+    <t xml:space="preserve">5:40.561</t>
   </si>
   <si>
     <t xml:space="preserve">5:42.533</t>
@@ -1452,9 +1455,6 @@
     <t xml:space="preserve">5:42.618</t>
   </si>
   <si>
-    <t xml:space="preserve">5:46.375</t>
-  </si>
-  <si>
     <t xml:space="preserve">5:46.596</t>
   </si>
   <si>
@@ -1719,6 +1719,9 @@
     <t xml:space="preserve">8:15.465</t>
   </si>
   <si>
+    <t xml:space="preserve">8:16.740</t>
+  </si>
+  <si>
     <t xml:space="preserve">8:18.406</t>
   </si>
   <si>
@@ -1755,6 +1758,12 @@
     <t xml:space="preserve">8:38.143</t>
   </si>
   <si>
+    <t xml:space="preserve">CrimsonPlanet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:44.280</t>
+  </si>
+  <si>
     <t xml:space="preserve">8:48.683</t>
   </si>
   <si>
@@ -1765,12 +1774,6 @@
   </si>
   <si>
     <t xml:space="preserve">8:57.132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:59.359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:59.376</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1902,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1945,10 +1948,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2031,8 +2030,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U40" activeCellId="0" sqref="U40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2093,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0</v>
@@ -2103,11 +2102,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>229.52</v>
+        <v>229.34</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,7 +2120,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>0</v>
@@ -2161,7 +2160,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>0</v>
@@ -2184,7 +2183,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>0</v>
@@ -2208,7 +2207,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>0</v>
@@ -2231,7 +2230,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>0</v>
@@ -2339,7 +2338,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>0</v>
@@ -2356,7 +2355,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>0</v>
@@ -3087,7 +3086,7 @@
         <v>183</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
@@ -3104,7 +3103,7 @@
         <v>186</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
@@ -3121,7 +3120,7 @@
         <v>189</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>0</v>
@@ -3138,7 +3137,7 @@
         <v>192</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E62" s="4" t="n">
         <v>0</v>
@@ -3155,7 +3154,7 @@
         <v>195</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>0</v>
@@ -3274,7 +3273,7 @@
         <v>216</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E70" s="4" t="n">
         <v>1</v>
@@ -3291,10 +3290,10 @@
         <v>219</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,7 +3324,7 @@
         <v>225</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
@@ -3342,7 +3341,7 @@
         <v>228</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
@@ -3359,7 +3358,7 @@
         <v>231</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>0</v>
@@ -3376,10 +3375,10 @@
         <v>234</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,7 +3392,7 @@
         <v>237</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E77" s="4" t="n">
         <v>1</v>
@@ -3410,10 +3409,10 @@
         <v>240</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,10 +3426,10 @@
         <v>243</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3443,11 +3442,11 @@
       <c r="C80" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D80" s="9" t="n">
-        <v>245</v>
+      <c r="D80" s="4" t="n">
+        <v>229</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3460,11 +3459,11 @@
       <c r="C81" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D81" s="4" t="n">
-        <v>227</v>
+      <c r="D81" s="9" t="n">
+        <v>245</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,27 +3474,27 @@
         <v>250</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="D83" s="4" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
@@ -3503,7 +3502,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>254</v>
@@ -3512,7 +3511,7 @@
         <v>255</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
@@ -3529,7 +3528,7 @@
         <v>258</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E85" s="4" t="n">
         <v>0</v>
@@ -3563,7 +3562,7 @@
         <v>264</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E87" s="4" t="n">
         <v>0</v>
@@ -3580,7 +3579,7 @@
         <v>267</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E88" s="4" t="n">
         <v>0</v>
@@ -3597,7 +3596,7 @@
         <v>270</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E89" s="4" t="n">
         <v>0</v>
@@ -3617,7 +3616,7 @@
         <v>236</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,10 +3630,10 @@
         <v>275</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3648,7 +3647,7 @@
         <v>278</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E92" s="4" t="n">
         <v>0</v>
@@ -3658,14 +3657,14 @@
       <c r="A93" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E93" s="4" t="n">
         <v>0</v>
@@ -3673,16 +3672,16 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="D94" s="4" t="n">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E94" s="4" t="n">
         <v>0</v>
@@ -3699,7 +3698,7 @@
         <v>286</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E95" s="4" t="n">
         <v>0</v>
@@ -3716,7 +3715,7 @@
         <v>289</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E96" s="4" t="n">
         <v>0</v>
@@ -3733,7 +3732,7 @@
         <v>292</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E97" s="4" t="n">
         <v>0</v>
@@ -3750,7 +3749,7 @@
         <v>294</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E98" s="4" t="n">
         <v>0</v>
@@ -3766,8 +3765,8 @@
       <c r="C99" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D99" s="9" t="n">
-        <v>245</v>
+      <c r="D99" s="4" t="n">
+        <v>218</v>
       </c>
       <c r="E99" s="4" t="n">
         <v>0</v>
@@ -3781,10 +3780,10 @@
         <v>299</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D100" s="4" t="n">
-        <v>227</v>
+        <v>300</v>
+      </c>
+      <c r="D100" s="9" t="n">
+        <v>245</v>
       </c>
       <c r="E100" s="4" t="n">
         <v>0</v>
@@ -3792,16 +3791,16 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D101" s="9" t="n">
-        <v>245</v>
+      <c r="D101" s="4" t="n">
+        <v>227</v>
       </c>
       <c r="E101" s="4" t="n">
         <v>0</v>
@@ -3831,8 +3830,8 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3902,11 +3901,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>295.36</v>
+        <v>293.4</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,7 +3930,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>306</v>
@@ -4024,7 +4023,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>310</v>
@@ -4098,7 +4097,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>314</v>
@@ -4149,16 +4148,16 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>317</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,13 +4165,13 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>318</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>1</v>
@@ -4183,16 +4182,16 @@
         <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>319</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,13 +4199,13 @@
         <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D19" s="11" t="n">
-        <v>249</v>
+      <c r="D19" s="4" t="n">
+        <v>268</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>0</v>
@@ -4217,13 +4216,13 @@
         <v>65</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D20" s="4" t="n">
-        <v>306</v>
+      <c r="D20" s="11" t="n">
+        <v>249</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>0</v>
@@ -4234,13 +4233,13 @@
         <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>322</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
@@ -4302,16 +4301,16 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>119</v>
+        <v>326</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4319,16 +4318,16 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4336,16 +4335,16 @@
         <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>329</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4359,7 +4358,7 @@
         <v>331</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>0</v>
@@ -4370,13 +4369,13 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>0</v>
@@ -4387,16 +4386,16 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4404,16 +4403,16 @@
         <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>335</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4427,10 +4426,10 @@
         <v>337</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,16 +4437,16 @@
         <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>28</v>
+        <v>339</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4455,16 +4454,16 @@
         <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4472,13 +4471,13 @@
         <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>341</v>
+        <v>140</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>1</v>
@@ -4489,13 +4488,13 @@
         <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>227</v>
+        <v>343</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>1</v>
@@ -4506,13 +4505,13 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>344</v>
+        <v>230</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>345</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>1</v>
@@ -4523,16 +4522,16 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4540,16 +4539,16 @@
         <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4557,16 +4556,16 @@
         <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,13 +4573,13 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>1</v>
@@ -4591,16 +4590,16 @@
         <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>277</v>
+        <v>122</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4608,13 +4607,13 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>2</v>
@@ -4625,13 +4624,13 @@
         <v>136</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>352</v>
+        <v>233</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>353</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>2</v>
@@ -4647,11 +4646,11 @@
       <c r="C45" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>356</v>
+      <c r="D45" s="4" t="n">
+        <v>295</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4659,16 +4658,16 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="E46" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,16 +4675,16 @@
         <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>224</v>
+        <v>359</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D47" s="4" t="n">
-        <v>289</v>
-      </c>
-      <c r="E47" s="4" t="n">
-        <v>1</v>
+      <c r="D47" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4693,13 +4692,13 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
@@ -4710,16 +4709,16 @@
         <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>362</v>
+        <v>194</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>363</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4733,10 +4732,10 @@
         <v>365</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,10 +4749,10 @@
         <v>367</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4767,7 +4766,7 @@
         <v>369</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>2</v>
@@ -4784,10 +4783,10 @@
         <v>371</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4801,10 +4800,10 @@
         <v>373</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4812,16 +4811,16 @@
         <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4829,16 +4828,16 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>212</v>
+        <v>376</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4846,13 +4845,13 @@
         <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>376</v>
+        <v>176</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>3</v>
@@ -4863,16 +4862,16 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4880,16 +4879,16 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>285</v>
+        <v>380</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,16 +4896,16 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>380</v>
+        <v>257</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4914,16 +4913,16 @@
         <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>359</v>
+      <c r="D61" s="4" t="n">
+        <v>317</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4937,10 +4936,10 @@
         <v>385</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4953,11 +4952,11 @@
       <c r="C63" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D63" s="4" t="n">
-        <v>316</v>
-      </c>
-      <c r="E63" s="4" t="n">
-        <v>0</v>
+      <c r="D63" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,10 +4970,10 @@
         <v>389</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4988,10 +4987,10 @@
         <v>391</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4999,16 +4998,16 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,16 +5015,16 @@
         <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5033,16 +5032,16 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>395</v>
+        <v>299</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>396</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5056,10 +5055,10 @@
         <v>398</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5073,10 +5072,10 @@
         <v>400</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5084,16 +5083,16 @@
         <v>217</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>247</v>
+        <v>401</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5101,16 +5100,16 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>250</v>
+        <v>403</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5118,16 +5117,16 @@
         <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>403</v>
+        <v>250</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,16 +5134,16 @@
         <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>405</v>
+        <v>253</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>406</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5158,10 +5157,10 @@
         <v>408</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,10 +5174,10 @@
         <v>410</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,10 +5191,10 @@
         <v>412</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5208,11 +5207,11 @@
       <c r="C78" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>359</v>
+      <c r="D78" s="4" t="n">
+        <v>293</v>
+      </c>
+      <c r="E78" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5225,11 +5224,11 @@
       <c r="C79" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>359</v>
+      <c r="D79" s="4" t="n">
+        <v>291</v>
+      </c>
+      <c r="E79" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5242,11 +5241,11 @@
       <c r="C80" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D80" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E80" s="4" t="n">
-        <v>6</v>
+      <c r="D80" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5259,11 +5258,11 @@
       <c r="C81" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D81" s="4" t="n">
-        <v>307</v>
-      </c>
-      <c r="E81" s="4" t="n">
-        <v>6</v>
+      <c r="D81" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,44 +5276,44 @@
         <v>423</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>288</v>
+        <v>424</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>426</v>
+        <v>291</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>427</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,10 +5327,10 @@
         <v>429</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,10 +5344,10 @@
         <v>431</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5362,10 +5361,10 @@
         <v>433</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5379,10 +5378,10 @@
         <v>435</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5399,7 +5398,7 @@
         <v>334</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,10 +5412,10 @@
         <v>439</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5430,10 +5429,10 @@
         <v>442</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5447,10 +5446,10 @@
         <v>444</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5464,7 +5463,7 @@
         <v>446</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E93" s="4" t="n">
         <v>5</v>
@@ -5472,7 +5471,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>447</v>
@@ -5481,10 +5480,10 @@
         <v>448</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5498,10 +5497,10 @@
         <v>450</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5509,16 +5508,16 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>110</v>
+        <v>451</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5526,16 +5525,16 @@
         <v>290</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>452</v>
+        <v>110</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D97" s="4" t="n">
-        <v>305</v>
+      <c r="D97" s="9" t="n">
+        <v>399</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5543,16 +5542,16 @@
         <v>454</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>137</v>
+        <v>455</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5560,16 +5559,16 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>456</v>
+        <v>137</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>457</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5577,33 +5576,33 @@
         <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>236</v>
+        <v>458</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>459</v>
+        <v>239</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D101" s="9" t="n">
-        <v>412</v>
+      <c r="D101" s="4" t="n">
+        <v>398</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5630,7 +5629,7 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
     </sheetView>
   </sheetViews>
@@ -5701,11 +5700,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(D2:D101),2)</f>
-        <v>302.74</v>
+        <v>302.45</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(E2:E101),2)</f>
-        <v>3.88</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,7 +5712,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>463</v>
@@ -5800,7 +5799,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>467</v>
@@ -5823,13 +5822,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>468</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>2</v>
@@ -5846,7 +5845,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>469</v>
@@ -5863,13 +5862,13 @@
         <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>470</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>2</v>
@@ -5880,16 +5879,16 @@
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>471</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5897,16 +5896,16 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>472</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5914,13 +5913,13 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>473</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>2</v>
@@ -5931,13 +5930,13 @@
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>474</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>2</v>
@@ -5948,13 +5947,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>475</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>2</v>
@@ -5965,13 +5964,13 @@
         <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>476</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>2</v>
@@ -6101,7 +6100,7 @@
         <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>484</v>
@@ -6118,7 +6117,7 @@
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>485</v>
@@ -6169,7 +6168,7 @@
         <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>488</v>
@@ -6186,7 +6185,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>489</v>
@@ -6237,7 +6236,7 @@
         <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>492</v>
@@ -6305,10 +6304,10 @@
         <v>115</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>294</v>
@@ -6322,7 +6321,7 @@
         <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>497</v>
@@ -6356,7 +6355,7 @@
         <v>124</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>499</v>
@@ -6373,7 +6372,7 @@
         <v>127</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>500</v>
@@ -6407,7 +6406,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>503</v>
@@ -6441,7 +6440,7 @@
         <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>505</v>
@@ -6458,7 +6457,7 @@
         <v>142</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>506</v>
@@ -6492,7 +6491,7 @@
         <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>509</v>
@@ -6526,7 +6525,7 @@
         <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>511</v>
@@ -6543,7 +6542,7 @@
         <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>512</v>
@@ -6560,16 +6559,16 @@
         <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>513</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6594,7 +6593,7 @@
         <v>163</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>515</v>
@@ -6611,7 +6610,7 @@
         <v>169</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>516</v>
@@ -6628,7 +6627,7 @@
         <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>516</v>
@@ -6662,7 +6661,7 @@
         <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>519</v>
@@ -6679,7 +6678,7 @@
         <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>520</v>
@@ -6696,7 +6695,7 @@
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>521</v>
@@ -6764,7 +6763,7 @@
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>527</v>
@@ -6777,7 +6776,7 @@
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>528</v>
@@ -6794,16 +6793,16 @@
         <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>529</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6828,7 +6827,7 @@
         <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>532</v>
@@ -6845,7 +6844,7 @@
         <v>211</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>533</v>
@@ -6862,7 +6861,7 @@
         <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>534</v>
@@ -6896,7 +6895,7 @@
         <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>537</v>
@@ -6981,7 +6980,7 @@
         <v>235</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>545</v>
@@ -6998,7 +6997,7 @@
         <v>238</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>546</v>
@@ -7015,7 +7014,7 @@
         <v>241</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>547</v>
@@ -7038,10 +7037,10 @@
         <v>549</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7080,7 +7079,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>554</v>
@@ -7097,7 +7096,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>556</v>
@@ -7168,7 +7167,7 @@
         <v>265</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>564</v>
@@ -7185,16 +7184,16 @@
         <v>268</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>565</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7202,16 +7201,16 @@
         <v>271</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>566</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7219,16 +7218,16 @@
         <v>440</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>567</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7236,16 +7235,16 @@
         <v>276</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>569</v>
-      </c>
       <c r="D92" s="4" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7253,33 +7252,33 @@
         <v>279</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>571</v>
-      </c>
       <c r="D93" s="4" t="n">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>390</v>
+        <v>571</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>572</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7287,16 +7286,16 @@
         <v>284</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>574</v>
-      </c>
       <c r="D95" s="4" t="n">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7304,13 +7303,13 @@
         <v>287</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>576</v>
-      </c>
       <c r="D96" s="4" t="n">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="E96" s="4" t="n">
         <v>9</v>
@@ -7321,16 +7320,16 @@
         <v>290</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>137</v>
+        <v>576</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>577</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7343,11 +7342,11 @@
       <c r="C98" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="D98" s="12" t="n">
-        <v>387</v>
+      <c r="D98" s="4" t="n">
+        <v>355</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7355,16 +7354,16 @@
         <v>295</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>449</v>
+        <v>137</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="D99" s="9" t="n">
-        <v>464</v>
+      <c r="D99" s="4" t="n">
+        <v>349</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7372,33 +7371,33 @@
         <v>298</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>252</v>
+        <v>581</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>260</v>
+        <v>451</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D101" s="4" t="n">
-        <v>379</v>
+        <v>583</v>
+      </c>
+      <c r="D101" s="9" t="n">
+        <v>464</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
